--- a/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
+++ b/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
@@ -4,45 +4,46 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
-    <sheet name="畫面_APF0102MM1" sheetId="7" r:id="rId4"/>
-    <sheet name="欄位_APF0102MM1" sheetId="14" r:id="rId5"/>
-    <sheet name="畫面_APF0102MA1" sheetId="33" r:id="rId6"/>
-    <sheet name="欄位_APF0102MA1" sheetId="34" r:id="rId7"/>
+    <sheet name="IPO" sheetId="38" r:id="rId4"/>
+    <sheet name="畫面_APF0102MM1" sheetId="7" r:id="rId5"/>
+    <sheet name="欄位_APF0102MM1" sheetId="14" r:id="rId6"/>
+    <sheet name="畫面_APF0102MA1" sheetId="33" r:id="rId7"/>
+    <sheet name="欄位_APF0102MA1" sheetId="34" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">畫面_APF0102MA1!$A$1:$J$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">畫面_APF0102MM1!$A$1:$J$66</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">欄位_APF0102MA1!$A$1:$J$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">欄位_APF0102MM1!$A$1:$J$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">畫面_APF0102MA1!$A$1:$J$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0102MM1!$A$1:$J$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">欄位_APF0102MA1!$A$1:$J$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0102MM1!$A$1:$J$14</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">畫面_APF0102MA1!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">畫面_APF0102MM1!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">欄位_APF0102MA1!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">欄位_APF0102MM1!$1:$5</definedName>
-    <definedName name="solver_lin" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_lin" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">畫面_APF0102MA1!#REF!</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">畫面_APF0102MM1!#REF!</definedName>
-    <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">畫面_APF0102MA1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0102MM1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">欄位_APF0102MA1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0102MM1!$1:$5</definedName>
+    <definedName name="solver_lin" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_lin" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">畫面_APF0102MA1!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">畫面_APF0102MM1!#REF!</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="258">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -1255,6 +1256,22 @@
   <si>
     <t>APF0102MA1_Grid (非角色帳號及非角色帳號)</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO Model</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3466,6 +3483,1084 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="群組 2"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1428750"/>
+          <a:ext cx="9906000" cy="512989"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0101 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>角色維護</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>功能簡述</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳慕霖</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131003</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34817" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s34817"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="群組 10"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="47625"/>
+          <a:ext cx="9906000" cy="522514"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0102 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>角色帳號對應設定</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>IPO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>圖</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳懿信</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131018</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
@@ -4042,7 +5137,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4552,7 +5647,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5178,7 +6273,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6091,10 +7186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6143,94 +7238,103 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" customHeight="1">
+      <c r="A5" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B5" s="35" t="s">
         <v>214</v>
-      </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="103" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="106"/>
-      <c r="B5" s="35" t="s">
-        <v>215</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="106" t="s">
-        <v>135</v>
-      </c>
+      <c r="A6" s="106"/>
       <c r="B6" s="35" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="103" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21" customHeight="1" thickBot="1">
-      <c r="A7" s="107"/>
-      <c r="B7" s="38" t="s">
+    <row r="7" spans="1:4" ht="21" customHeight="1">
+      <c r="A7" s="106" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="103" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
+      <c r="A8" s="107"/>
+      <c r="B8" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="104" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="104" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A8" s="106" t="s">
+    <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
+      <c r="A9" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B9" s="38" t="s">
         <v>209</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A9" s="106"/>
-      <c r="B9" s="38" t="s">
-        <v>210</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="36" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A10" s="106"/>
       <c r="B10" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="21" hidden="1" customHeight="1" thickBot="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="35" t="s">
+    <row r="11" spans="1:4" ht="21" hidden="1" customHeight="1">
+      <c r="A11" s="106"/>
+      <c r="B11" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21" hidden="1" customHeight="1" thickBot="1">
+      <c r="A12" s="37"/>
+      <c r="B12" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-    </row>
-    <row r="12" spans="1:4" ht="17.25" thickTop="1">
-      <c r="B12" s="35"/>
-      <c r="D12" s="29"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" thickTop="1">
+      <c r="B13" s="35"/>
       <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:4">
@@ -6243,34 +7347,38 @@
       <c r="D16" s="29"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="30"/>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="29"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="29"/>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="29"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" location="功能簡述!A1" display="View"/>
-    <hyperlink ref="D4" location="畫面_APF0102MM1!A1" display="View"/>
-    <hyperlink ref="D6" location="畫面_APF0102MA1!A1" display="View"/>
-    <hyperlink ref="D9" location="APF0101MU1!A1" display="View"/>
-    <hyperlink ref="D8" location="欄位說明APF0101MU1!A1" display="View"/>
-    <hyperlink ref="D10" location="'method-bsLoadAPF0101MU1Qry'!A1" display="View"/>
-    <hyperlink ref="D7" location="欄位_APF0102MA1!A1" display="View"/>
-    <hyperlink ref="D5" location="欄位_APF0102MM1!A1" display="View"/>
+    <hyperlink ref="D5" location="畫面_APF0102MM1!A1" display="View"/>
+    <hyperlink ref="D7" location="畫面_APF0102MA1!A1" display="View"/>
+    <hyperlink ref="D10" location="APF0101MU1!A1" display="View"/>
+    <hyperlink ref="D9" location="欄位說明APF0101MU1!A1" display="View"/>
+    <hyperlink ref="D11" location="'method-bsLoadAPF0101MU1Qry'!A1" display="View"/>
+    <hyperlink ref="D8" location="欄位_APF0102MA1!A1" display="View"/>
+    <hyperlink ref="D6" location="欄位_APF0102MM1!A1" display="View"/>
+    <hyperlink ref="D4" location="IPO!A1" display="View"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -6907,11 +8015,75 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="P1:P3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="16:16" ht="14.25" thickTop="1">
+      <c r="P1" s="108" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="16:16">
+      <c r="P2" s="109"/>
+    </row>
+    <row r="3" spans="16:16">
+      <c r="P3" s="109"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P1:P3"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P1" location="總表!A1" display="回總表"/>
+    <hyperlink ref="P1:P3" location="總表!A1" display="回總表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="34817" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="34817" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
@@ -8064,7 +9236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W22"/>
   <sheetViews>
@@ -8586,11 +9758,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E53" sqref="E53:J53"/>
     </sheetView>
   </sheetViews>
@@ -9723,11 +10895,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:J18"/>
     </sheetView>
   </sheetViews>

--- a/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
+++ b/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="266">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -59,10 +59,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>No.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>參考資料說明</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -101,14 +97,6 @@
   <si>
     <t>後端檢核</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目代號</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>_CLICK</t>
@@ -177,25 +165,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>html型態及長度</t>
-    <rPh sb="2" eb="3">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オヨブ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>チョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>功能 Use Case</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -568,20 +537,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>預設值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>txtINPUT_GROUP_ID</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>儲存</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>預設值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>group_id</t>
@@ -829,17 +790,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>I</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>待共通性使用者主檔完成後，補上</t>
-  </si>
-  <si>
     <t>員工姓名</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -848,10 +802,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>I</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -888,24 +838,8 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>txtINPUT_DEPT_NAME</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 輸入型態:string，細部檢核項目，待共通性使用者主檔完成後，補上
-2. 如先輸入查詢員工編號 ，則該員工的員工姓名、部門代號、員工職稱 被自動帶出且該三欄位是disable，
-   不可再輸入</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 輸入型態:string，細部檢核項目，待共通性使用者主檔完成後，補上
-2. 如先輸入查詢員工姓名，則該員工的員工編號、部門代號、員工職稱 被自動帶出且該三欄位是disable，
-   不可再輸入</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>顯示用。</t>
@@ -928,10 +862,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1. 輸入型態:string，細部檢核項目，待共通性使用者主檔完成後，補上</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1044,36 +974,12 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>輸入之部門代號必須存在於 共通性 使用者 主檔資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 9</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入之員工職稱必須存在於 共通性 使用者 主檔資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 9</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入之員工編號必須存在於 共通性 使用者 主檔資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 9</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入之員工姓名必須存在於 共通性 使用者 主檔資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 9</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>其他</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>0:預設角色 1:職稱角色 2:自定角色</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>預設角色，職稱角色，自定角色，三者必需選其一。(控制項控制)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>此按鈕功是將角色內所有帳號清除，所以必須很僅慎，系統會有確認提示，若選擇是，則清除所有欄位，若選擇否，則不做任何動作，訊息內容請參考APF訊息表APF_NO 44</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>角色代號</t>
@@ -1131,30 +1037,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>No.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI控制項代號</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>對應Table Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>預設值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入/輸出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 14 或 15，若選擇是，則進行儲存，若選擇否，則不做任何動作。
 儲存成功:
 1.原畫面顯示修改資料成功訊息，訊息內容請參考APF訊息表APF_NO 12
@@ -1216,62 +1098,171 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>APF0102MA1_Grid (非角色帳號及非角色帳號)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項代號</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>對應Table Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>預設值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入/輸出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>共通性 CMD DB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp</t>
+  </si>
+  <si>
+    <t>emp_name</t>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+  </si>
+  <si>
+    <t>org_id</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+  </si>
+  <si>
+    <t>position_id</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(5)</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 輸入型態:string，輸入型態:string，最大長度限制:英文5(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 輸入型態:string，最大長度限制:英文10(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 輸入型態:string，細輸入型態:string，最大長度限制:英文10(控制項控制)
+2. 如先輸入查詢員工編號 ，則該員工的員工姓名、部門代號、員工職稱 被自動帶出且該三欄位是disable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 輸入型態:string，最大長度限制:英文20(控制項控制)
+2. 如先輸入查詢員工姓名，則該員工的員工編號、部門代號、員工職稱 被自動帶出且該三欄位是disable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>1.前畫面:APF0102MA1
 1.1 SESSION內容:
 1.2 成立條件:該使用者擁有此功能權限即角色加入帳號及自角色移除帳號
-1.3 如是角色來源是選擇以預定角色或職稱角色，此二角色所含的功能及權限，已事先於其他系統定義好，於APF 中，僅能查詢，
+1.3 如是角色來源是選擇職稱角色，此角色所含的功能及權限，已事先於其他系統定義好，於APF 中，僅能查詢，
     所以APF0102MA1_Grid的相關 button 均是反灰 disable。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>如已點選角色帳號設定但尚未儲存，此時則點選回上一頁按鈕，系統提示確認訊息，以免不慎放棄之前所做設定，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>訊息內容請參考APF訊息表 APF_NO 47</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，若選擇是，則取消在儲存之前的點選，含加入角色的帳號或自角色中移除的帳號，再以導頁方式開啟APF0102MM1，並帶回原先的查詢條件，若選擇否，則不做任何動作。
-如已點選角色帳號設定且已儲存，點選回上一頁按鈕，則以導頁方式開啟APF0102MM1，並帶回原先的查詢條件。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>APF0102MA1_Grid (非角色帳號及非角色帳號)</t>
+    <t>如已點選角色帳號設定但尚未儲存，此時則點選回上一頁按鈕，系統提示確認訊息，以免不慎放棄之前所做設定，訊息內容請參考APF訊息表 APF_NO 47，若選擇是，則取消在儲存之前的點選，含加入角色的帳號或自角色中移除的帳號，再以導頁方式開啟APF0102MM1，並帶回原先的查詢條件，若選擇否，則不做任何動作。
+如已點選角色帳號設定且已儲存，點選回上一頁按鈕，則以導頁方式開啟APF0102MM1，並帶回原先的查詢條件。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>此按鈕功是將角色內所有帳號清除，所以必須很僅慎，系統會有確認提示，若選擇是，則清除所有欄位，若選擇否，則不做任何動作，訊息內容請參考APF訊息表APF_NO 44</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 10</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPLOYEE_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPLOYEE_NAME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPT_NAME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPLOYEE_POSITION</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>非角色帳號，職角色帳號，二者必需選其一。(控制項控制)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>回總表</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">IPO </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>IPO Model</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1281,7 +1272,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1460,6 +1451,33 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1770,7 +1788,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
@@ -1780,8 +1798,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2054,9 +2075,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2068,6 +2086,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2369,12 +2396,25 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="2"/>
+    <cellStyle name="一般_12312" xfId="4"/>
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
     <cellStyle name="標準_Ⅱ011" xfId="1"/>
   </cellStyles>
@@ -3405,7 +3445,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>676275</xdr:colOff>
           <xdr:row>84</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7188,8 +7228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7202,133 +7242,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="105" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
+      <c r="A1" s="109" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="34" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="D3" s="102" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C4" s="35"/>
-      <c r="D4" s="36" t="s">
-        <v>257</v>
+      <c r="D4" s="102" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="106" t="s">
-        <v>134</v>
+      <c r="A5" s="110" t="s">
+        <v>128</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C5" s="35"/>
-      <c r="D5" s="103" t="s">
-        <v>122</v>
+      <c r="D5" s="102" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="106"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="35" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C6" s="35"/>
-      <c r="D6" s="103" t="s">
-        <v>123</v>
+      <c r="D6" s="102" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="106" t="s">
-        <v>135</v>
+      <c r="A7" s="110" t="s">
+        <v>129</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C7" s="35"/>
-      <c r="D7" s="103" t="s">
-        <v>123</v>
+      <c r="D7" s="102" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
-      <c r="A8" s="107"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="38" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C8" s="38"/>
-      <c r="D8" s="104" t="s">
-        <v>123</v>
+      <c r="D8" s="103" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A9" s="106" t="s">
-        <v>136</v>
+      <c r="A9" s="110" t="s">
+        <v>130</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="36" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A10" s="106"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="38" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A11" s="106"/>
+      <c r="A11" s="110"/>
       <c r="B11" s="38" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" hidden="1" customHeight="1" thickBot="1">
       <c r="A12" s="37"/>
       <c r="B12" s="35" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="39"/>
@@ -7378,7 +7418,8 @@
     <hyperlink ref="D11" location="'method-bsLoadAPF0101MU1Qry'!A1" display="View"/>
     <hyperlink ref="D8" location="欄位_APF0102MA1!A1" display="View"/>
     <hyperlink ref="D6" location="欄位_APF0102MM1!A1" display="View"/>
-    <hyperlink ref="D4" location="IPO!A1" display="View"/>
+    <hyperlink ref="D4" location="功能簡述!A1" display="View"/>
+    <hyperlink ref="D3:D4" location="IPO!A1" display="View"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -7470,13 +7511,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="6"/>
@@ -7492,10 +7533,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D6" s="22">
         <v>41563</v>
@@ -7628,8 +7669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M73" sqref="M73"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O77" sqref="O77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7642,17 +7683,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="108" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="109"/>
+      <c r="M2" s="113"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="109"/>
+      <c r="M3" s="113"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -7669,258 +7710,258 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="134"/>
+    </row>
+    <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="135" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="137"/>
+    </row>
+    <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="116" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="118"/>
+    </row>
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="132" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="120" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="121"/>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="130"/>
-    </row>
-    <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="131" t="s">
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="133"/>
-    </row>
-    <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="120" t="s">
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="118"/>
+    </row>
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="132" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="120" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="121"/>
+    </row>
+    <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="112" t="s">
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="114"/>
-    </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="128" t="s">
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="118"/>
+    </row>
+    <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
+      <c r="A12" s="132" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="121"/>
+    </row>
+    <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="131" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="118"/>
+    </row>
+    <row r="14" spans="1:13" s="24" customFormat="1" ht="33" customHeight="1">
+      <c r="A14" s="132" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="116" t="s">
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="121"/>
+    </row>
+    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="119" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="127"/>
+    </row>
+    <row r="16" spans="1:13" s="19" customFormat="1" ht="194.25" customHeight="1">
+      <c r="A16" s="128" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="117"/>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="110" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="114"/>
-    </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="128" t="s">
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="130"/>
+    </row>
+    <row r="17" spans="1:12" ht="16.5">
+      <c r="A17" s="119" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="121"/>
+    </row>
+    <row r="83" spans="1:12" ht="25.5" customHeight="1">
+      <c r="A83" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="B83" s="120"/>
+      <c r="C83" s="120"/>
+      <c r="D83" s="120"/>
+      <c r="E83" s="120"/>
+      <c r="F83" s="120"/>
+      <c r="G83" s="120"/>
+      <c r="H83" s="120"/>
+      <c r="I83" s="120"/>
+      <c r="J83" s="120"/>
+      <c r="K83" s="120"/>
+      <c r="L83" s="121"/>
+    </row>
+    <row r="86" spans="1:12" ht="21" customHeight="1">
+      <c r="A86" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="116" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="117"/>
-    </row>
-    <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="120" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="127" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="114"/>
-    </row>
-    <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A12" s="128" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
-    </row>
-    <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="120" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="127" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="114"/>
-    </row>
-    <row r="14" spans="1:13" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A14" s="128" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="116" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="117"/>
-    </row>
-    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="115" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="123"/>
-    </row>
-    <row r="16" spans="1:13" s="19" customFormat="1" ht="194.25" customHeight="1">
-      <c r="A16" s="124" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="126"/>
-    </row>
-    <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="115" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="117"/>
-    </row>
-    <row r="83" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A83" s="115" t="s">
-        <v>220</v>
-      </c>
-      <c r="B83" s="116"/>
-      <c r="C83" s="116"/>
-      <c r="D83" s="116"/>
-      <c r="E83" s="116"/>
-      <c r="F83" s="116"/>
-      <c r="G83" s="116"/>
-      <c r="H83" s="116"/>
-      <c r="I83" s="116"/>
-      <c r="J83" s="116"/>
-      <c r="K83" s="116"/>
-      <c r="L83" s="117"/>
-    </row>
-    <row r="86" spans="1:12" ht="21" customHeight="1">
-      <c r="A86" s="115" t="s">
-        <v>133</v>
-      </c>
-      <c r="B86" s="118"/>
-      <c r="C86" s="118"/>
-      <c r="D86" s="118"/>
-      <c r="E86" s="118"/>
-      <c r="F86" s="118"/>
-      <c r="G86" s="118"/>
-      <c r="H86" s="118"/>
-      <c r="I86" s="118"/>
-      <c r="J86" s="118"/>
-      <c r="K86" s="118"/>
-      <c r="L86" s="119"/>
+      <c r="B86" s="122"/>
+      <c r="C86" s="122"/>
+      <c r="D86" s="122"/>
+      <c r="E86" s="122"/>
+      <c r="F86" s="122"/>
+      <c r="G86" s="122"/>
+      <c r="H86" s="122"/>
+      <c r="I86" s="122"/>
+      <c r="J86" s="122"/>
+      <c r="K86" s="122"/>
+      <c r="L86" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -7975,7 +8016,7 @@
                 <xdr:col>11</xdr:col>
                 <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>84</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8018,22 +8059,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="108" t="s">
-        <v>254</v>
+      <c r="P1" s="112" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="109"/>
+      <c r="P2" s="113"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="109"/>
+      <c r="P3" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8045,14 +8086,13 @@
     <hyperlink ref="P1:P3" location="總表!A1" display="回總表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="34817" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
+        <oleObject progId="Visio.Drawing.11" shapeId="34817" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -8071,7 +8111,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="34817" r:id="rId4"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="34817" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -8083,8 +8123,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8114,8 +8154,8 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="161" t="s">
-        <v>55</v>
+      <c r="K1" s="165" t="s">
+        <v>51</v>
       </c>
       <c r="L1" s="55"/>
       <c r="M1" s="55"/>
@@ -8135,7 +8175,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="162"/>
+      <c r="K2" s="166"/>
     </row>
     <row r="3" spans="1:17" s="56" customFormat="1">
       <c r="A3" s="48"/>
@@ -8148,7 +8188,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="162"/>
+      <c r="K3" s="166"/>
     </row>
     <row r="4" spans="1:17" s="56" customFormat="1">
       <c r="A4" s="48"/>
@@ -8163,614 +8203,614 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="56" customFormat="1">
-      <c r="A5" s="172" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="A5" s="176" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="131"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="133"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="137"/>
     </row>
     <row r="7" spans="1:17" s="57" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="173"/>
-      <c r="B7" s="174"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="176"/>
+      <c r="A7" s="177"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="180"/>
       <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:17" s="57" customFormat="1">
-      <c r="A8" s="173"/>
-      <c r="B8" s="174"/>
-      <c r="C8" s="174"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="176"/>
+      <c r="A8" s="177"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="180"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:17" s="57" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="177"/>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="179"/>
+      <c r="A9" s="181"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="183"/>
     </row>
     <row r="10" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="114"/>
+      <c r="A10" s="176" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="180" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="117"/>
+      <c r="A11" s="184" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
     </row>
     <row r="12" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="172" t="s">
+      <c r="A12" s="176" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+    </row>
+    <row r="13" spans="1:17" s="59" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A13" s="184" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
+    </row>
+    <row r="14" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="114"/>
-    </row>
-    <row r="13" spans="1:17" s="59" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="180" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="117"/>
-    </row>
-    <row r="14" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="172" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="114"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="148" t="s">
-        <v>249</v>
-      </c>
-      <c r="B15" s="157"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="158"/>
+      <c r="A15" s="152" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="162"/>
     </row>
     <row r="16" spans="1:17" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="142" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="144"/>
+        <v>91</v>
+      </c>
+      <c r="C16" s="146" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="1:10" s="57" customFormat="1" ht="58.5" customHeight="1">
       <c r="A17" s="60">
         <v>1</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="C17" s="159" t="s">
-        <v>244</v>
-      </c>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="147"/>
+        <v>218</v>
+      </c>
+      <c r="C17" s="163" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="151"/>
     </row>
     <row r="18" spans="1:10" s="57" customFormat="1" ht="60.75" customHeight="1">
       <c r="A18" s="60">
         <v>2</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>245</v>
-      </c>
-      <c r="C18" s="159" t="s">
-        <v>246</v>
-      </c>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="147"/>
+        <v>220</v>
+      </c>
+      <c r="C18" s="163" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="151"/>
     </row>
     <row r="19" spans="1:10" s="57" customFormat="1" ht="41.25" customHeight="1">
       <c r="A19" s="60">
         <v>3</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="C19" s="159" t="s">
-        <v>248</v>
-      </c>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+        <v>222</v>
+      </c>
+      <c r="C19" s="163" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="151"/>
     </row>
     <row r="20" spans="1:10" s="57" customFormat="1">
-      <c r="A20" s="139"/>
-      <c r="B20" s="140"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="141"/>
+      <c r="A20" s="143"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="145"/>
     </row>
     <row r="21" spans="1:10" s="57" customFormat="1">
-      <c r="A21" s="148" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" s="157"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="158"/>
+      <c r="A21" s="152" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="161"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="162"/>
     </row>
     <row r="22" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="142" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="144"/>
+        <v>91</v>
+      </c>
+      <c r="C22" s="146" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="147"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="148"/>
     </row>
     <row r="23" spans="1:10" s="57" customFormat="1">
       <c r="A23" s="60">
         <v>1</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="145" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="147"/>
+        <v>90</v>
+      </c>
+      <c r="C23" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="151"/>
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1">
       <c r="A24" s="60">
         <v>2</v>
       </c>
       <c r="B24" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="145" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="147"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="151"/>
     </row>
     <row r="25" spans="1:10" s="57" customFormat="1">
       <c r="A25" s="60">
         <v>3</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="145" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="147"/>
+        <v>95</v>
+      </c>
+      <c r="C25" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="151"/>
     </row>
     <row r="26" spans="1:10" s="57" customFormat="1">
       <c r="A26" s="60">
         <v>4</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="145" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="147"/>
+        <v>93</v>
+      </c>
+      <c r="C26" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="151"/>
     </row>
     <row r="27" spans="1:10" s="57" customFormat="1">
-      <c r="A27" s="169"/>
-      <c r="B27" s="170"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="171"/>
+      <c r="A27" s="173"/>
+      <c r="B27" s="174"/>
+      <c r="C27" s="174"/>
+      <c r="D27" s="174"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="175"/>
     </row>
     <row r="28" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="134" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="181"/>
-      <c r="C28" s="181"/>
-      <c r="D28" s="181"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="181"/>
-      <c r="J28" s="182"/>
+      <c r="A28" s="138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="186"/>
     </row>
     <row r="29" spans="1:10" s="57" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="148" t="s">
-        <v>137</v>
-      </c>
-      <c r="B29" s="157"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="158"/>
+      <c r="A29" s="152" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="161"/>
+      <c r="C29" s="161"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="162"/>
     </row>
     <row r="30" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="142" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="144"/>
+        <v>91</v>
+      </c>
+      <c r="C30" s="146" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="148"/>
     </row>
     <row r="31" spans="1:10" s="57" customFormat="1">
       <c r="A31" s="60">
         <v>1</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="C31" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="D31" s="152"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="153"/>
+        <v>205</v>
+      </c>
+      <c r="C31" s="155" t="s">
+        <v>250</v>
+      </c>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="157"/>
     </row>
     <row r="32" spans="1:10" s="57" customFormat="1">
       <c r="A32" s="60">
         <v>2</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="C32" s="154"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="156"/>
+        <v>206</v>
+      </c>
+      <c r="C32" s="158"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="160"/>
     </row>
     <row r="33" spans="1:12" s="57" customFormat="1">
       <c r="A33" s="60">
         <v>3</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="145" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="147"/>
+        <v>93</v>
+      </c>
+      <c r="C33" s="149" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="151"/>
     </row>
     <row r="34" spans="1:12" s="57" customFormat="1">
-      <c r="A34" s="139"/>
-      <c r="B34" s="140"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="141"/>
+      <c r="A34" s="143"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="145"/>
     </row>
     <row r="35" spans="1:12" s="57" customFormat="1">
-      <c r="A35" s="148" t="s">
-        <v>138</v>
-      </c>
-      <c r="B35" s="149"/>
-      <c r="C35" s="149"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="150"/>
+      <c r="A35" s="152" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="153"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="154"/>
     </row>
     <row r="36" spans="1:12" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="142" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="143"/>
-      <c r="E36" s="143"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="144"/>
+        <v>91</v>
+      </c>
+      <c r="C36" s="146" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="147"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="148"/>
     </row>
     <row r="37" spans="1:12" s="57" customFormat="1">
       <c r="A37" s="60">
         <v>1</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="145" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="146"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="146"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="146"/>
-      <c r="J37" s="147"/>
+        <v>90</v>
+      </c>
+      <c r="C37" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="151"/>
     </row>
     <row r="38" spans="1:12" s="57" customFormat="1">
       <c r="A38" s="60">
         <v>2</v>
       </c>
       <c r="B38" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="145" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="146"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="147"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="151"/>
     </row>
     <row r="39" spans="1:12" s="57" customFormat="1">
       <c r="A39" s="60">
         <v>3</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="145" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="146"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="146"/>
-      <c r="J39" s="147"/>
+        <v>95</v>
+      </c>
+      <c r="C39" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="151"/>
     </row>
     <row r="40" spans="1:12" s="57" customFormat="1">
       <c r="A40" s="60">
         <v>4</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="145" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="146"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="146"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="146"/>
-      <c r="J40" s="147"/>
+        <v>93</v>
+      </c>
+      <c r="C40" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="151"/>
     </row>
     <row r="41" spans="1:12" s="57" customFormat="1">
-      <c r="A41" s="139"/>
-      <c r="B41" s="140"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="140"/>
-      <c r="F41" s="140"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="141"/>
+      <c r="A41" s="143"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="144"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="145"/>
     </row>
     <row r="42" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="134" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="135"/>
-      <c r="C42" s="135"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="135"/>
-      <c r="F42" s="135"/>
-      <c r="G42" s="135"/>
-      <c r="H42" s="135"/>
-      <c r="I42" s="135"/>
-      <c r="J42" s="136"/>
+      <c r="A42" s="138" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="139"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="139"/>
+      <c r="I42" s="139"/>
+      <c r="J42" s="140"/>
     </row>
     <row r="43" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" s="137" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="138"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="138"/>
-      <c r="J43" s="138"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="142"/>
+      <c r="I43" s="142"/>
+      <c r="J43" s="142"/>
       <c r="K43" s="57"/>
       <c r="L43" s="57"/>
     </row>
@@ -8779,338 +8819,338 @@
         <v>1</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C44" s="65"/>
       <c r="D44" s="66"/>
-      <c r="E44" s="191" t="s">
-        <v>140</v>
-      </c>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="125"/>
+      <c r="E44" s="195" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="129"/>
+      <c r="G44" s="129"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="129"/>
+      <c r="J44" s="129"/>
     </row>
     <row r="45" spans="1:12" s="57" customFormat="1">
       <c r="A45" s="67"/>
-      <c r="B45" s="140"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="140"/>
-      <c r="F45" s="140"/>
-      <c r="G45" s="140"/>
-      <c r="H45" s="140"/>
-      <c r="I45" s="140"/>
-      <c r="J45" s="141"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="145"/>
     </row>
     <row r="46" spans="1:12" s="57" customFormat="1">
-      <c r="A46" s="166" t="s">
-        <v>143</v>
-      </c>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="167"/>
-      <c r="H46" s="167"/>
-      <c r="I46" s="167"/>
-      <c r="J46" s="168"/>
+      <c r="A46" s="170" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="171"/>
+      <c r="C46" s="171"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="171"/>
+      <c r="F46" s="171"/>
+      <c r="G46" s="171"/>
+      <c r="H46" s="171"/>
+      <c r="I46" s="171"/>
+      <c r="J46" s="172"/>
     </row>
     <row r="47" spans="1:12" s="57" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="60">
         <v>1</v>
       </c>
       <c r="B47" s="68" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C47" s="69" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D47" s="70"/>
-      <c r="E47" s="191" t="s">
-        <v>141</v>
-      </c>
-      <c r="F47" s="125"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="125"/>
-      <c r="I47" s="125"/>
-      <c r="J47" s="125"/>
+      <c r="E47" s="195" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" s="129"/>
+      <c r="G47" s="129"/>
+      <c r="H47" s="129"/>
+      <c r="I47" s="129"/>
+      <c r="J47" s="129"/>
     </row>
     <row r="48" spans="1:12" s="59" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="71">
         <v>2</v>
       </c>
       <c r="B48" s="72" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C48" s="69" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D48" s="73"/>
-      <c r="E48" s="163" t="s">
-        <v>204</v>
-      </c>
-      <c r="F48" s="164"/>
-      <c r="G48" s="164"/>
-      <c r="H48" s="164"/>
-      <c r="I48" s="164"/>
-      <c r="J48" s="165"/>
+      <c r="E48" s="167" t="s">
+        <v>191</v>
+      </c>
+      <c r="F48" s="168"/>
+      <c r="G48" s="168"/>
+      <c r="H48" s="168"/>
+      <c r="I48" s="168"/>
+      <c r="J48" s="169"/>
     </row>
     <row r="49" spans="1:10" s="57" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="74">
         <v>3</v>
       </c>
       <c r="B49" s="68" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C49" s="69" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D49" s="75"/>
-      <c r="E49" s="163" t="s">
-        <v>142</v>
-      </c>
-      <c r="F49" s="164"/>
-      <c r="G49" s="164"/>
-      <c r="H49" s="164"/>
-      <c r="I49" s="164"/>
-      <c r="J49" s="165"/>
+      <c r="E49" s="167" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" s="168"/>
+      <c r="G49" s="168"/>
+      <c r="H49" s="168"/>
+      <c r="I49" s="168"/>
+      <c r="J49" s="169"/>
     </row>
     <row r="50" spans="1:10" s="57" customFormat="1">
       <c r="A50" s="76"/>
-      <c r="B50" s="140"/>
-      <c r="C50" s="140"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="140"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="140"/>
-      <c r="H50" s="140"/>
-      <c r="I50" s="140"/>
-      <c r="J50" s="141"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="144"/>
+      <c r="D50" s="144"/>
+      <c r="E50" s="144"/>
+      <c r="F50" s="144"/>
+      <c r="G50" s="144"/>
+      <c r="H50" s="144"/>
+      <c r="I50" s="144"/>
+      <c r="J50" s="145"/>
     </row>
     <row r="51" spans="1:10" s="57" customFormat="1">
-      <c r="A51" s="192" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" s="193"/>
-      <c r="C51" s="193"/>
-      <c r="D51" s="193"/>
-      <c r="E51" s="193"/>
-      <c r="F51" s="193"/>
-      <c r="G51" s="193"/>
-      <c r="H51" s="193"/>
-      <c r="I51" s="193"/>
-      <c r="J51" s="194"/>
+      <c r="A51" s="196" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="197"/>
+      <c r="C51" s="197"/>
+      <c r="D51" s="197"/>
+      <c r="E51" s="197"/>
+      <c r="F51" s="197"/>
+      <c r="G51" s="197"/>
+      <c r="H51" s="197"/>
+      <c r="I51" s="197"/>
+      <c r="J51" s="198"/>
     </row>
     <row r="52" spans="1:10" s="57" customFormat="1" hidden="1">
       <c r="A52" s="60">
         <v>1</v>
       </c>
       <c r="B52" s="68" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C52" s="69" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D52" s="70"/>
-      <c r="E52" s="191" t="s">
-        <v>107</v>
-      </c>
-      <c r="F52" s="125"/>
-      <c r="G52" s="125"/>
-      <c r="H52" s="125"/>
-      <c r="I52" s="125"/>
-      <c r="J52" s="125"/>
+      <c r="E52" s="195" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" s="129"/>
+      <c r="G52" s="129"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="129"/>
+      <c r="J52" s="129"/>
     </row>
     <row r="53" spans="1:10" s="57" customFormat="1" hidden="1">
       <c r="A53" s="60">
         <v>2</v>
       </c>
       <c r="B53" s="68" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C53" s="69" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D53" s="73"/>
-      <c r="E53" s="195" t="s">
-        <v>108</v>
-      </c>
-      <c r="F53" s="196"/>
-      <c r="G53" s="196"/>
-      <c r="H53" s="196"/>
-      <c r="I53" s="196"/>
-      <c r="J53" s="197"/>
+      <c r="E53" s="199" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" s="200"/>
+      <c r="G53" s="200"/>
+      <c r="H53" s="200"/>
+      <c r="I53" s="200"/>
+      <c r="J53" s="201"/>
     </row>
     <row r="54" spans="1:10" s="57" customFormat="1" hidden="1">
       <c r="A54" s="60">
         <v>3</v>
       </c>
       <c r="B54" s="68" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C54" s="69" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D54" s="73"/>
-      <c r="E54" s="195" t="s">
-        <v>109</v>
-      </c>
-      <c r="F54" s="196"/>
-      <c r="G54" s="196"/>
-      <c r="H54" s="196"/>
-      <c r="I54" s="196"/>
-      <c r="J54" s="197"/>
+      <c r="E54" s="199" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="200"/>
+      <c r="G54" s="200"/>
+      <c r="H54" s="200"/>
+      <c r="I54" s="200"/>
+      <c r="J54" s="201"/>
     </row>
     <row r="55" spans="1:10" s="57" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="60">
         <v>4</v>
       </c>
       <c r="B55" s="68" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C55" s="69" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D55" s="73"/>
-      <c r="E55" s="195" t="s">
-        <v>84</v>
-      </c>
-      <c r="F55" s="196"/>
-      <c r="G55" s="196"/>
-      <c r="H55" s="196"/>
-      <c r="I55" s="196"/>
-      <c r="J55" s="197"/>
+      <c r="E55" s="199" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="200"/>
+      <c r="G55" s="200"/>
+      <c r="H55" s="200"/>
+      <c r="I55" s="200"/>
+      <c r="J55" s="201"/>
     </row>
     <row r="56" spans="1:10" s="57" customFormat="1" ht="33.75" customHeight="1">
       <c r="A56" s="60">
         <v>1</v>
       </c>
       <c r="B56" s="85" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C56" s="87" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D56" s="86"/>
-      <c r="E56" s="163" t="s">
-        <v>205</v>
-      </c>
-      <c r="F56" s="116"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="116"/>
-      <c r="I56" s="116"/>
-      <c r="J56" s="117"/>
+      <c r="E56" s="167" t="s">
+        <v>192</v>
+      </c>
+      <c r="F56" s="120"/>
+      <c r="G56" s="120"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="121"/>
     </row>
     <row r="57" spans="1:10" s="57" customFormat="1">
       <c r="A57" s="77"/>
-      <c r="B57" s="140"/>
-      <c r="C57" s="140"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="140"/>
-      <c r="F57" s="140"/>
-      <c r="G57" s="140"/>
-      <c r="H57" s="140"/>
-      <c r="I57" s="140"/>
-      <c r="J57" s="141"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="144"/>
+      <c r="G57" s="144"/>
+      <c r="H57" s="144"/>
+      <c r="I57" s="144"/>
+      <c r="J57" s="145"/>
     </row>
     <row r="58" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="188" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="189"/>
-      <c r="C58" s="189"/>
-      <c r="D58" s="189"/>
-      <c r="E58" s="189"/>
-      <c r="F58" s="189"/>
-      <c r="G58" s="189"/>
-      <c r="H58" s="189"/>
-      <c r="I58" s="189"/>
-      <c r="J58" s="190"/>
+      <c r="A58" s="192" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="193"/>
+      <c r="C58" s="193"/>
+      <c r="D58" s="193"/>
+      <c r="E58" s="193"/>
+      <c r="F58" s="193"/>
+      <c r="G58" s="193"/>
+      <c r="H58" s="193"/>
+      <c r="I58" s="193"/>
+      <c r="J58" s="194"/>
     </row>
     <row r="59" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="190" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="191"/>
+      <c r="D59" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="187"/>
-      <c r="D59" s="163" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="116"/>
-      <c r="F59" s="116"/>
-      <c r="G59" s="116"/>
-      <c r="H59" s="116"/>
-      <c r="I59" s="116"/>
-      <c r="J59" s="117"/>
+      <c r="E59" s="120"/>
+      <c r="F59" s="120"/>
+      <c r="G59" s="120"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="120"/>
+      <c r="J59" s="121"/>
     </row>
     <row r="60" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="183"/>
-      <c r="B60" s="184"/>
-      <c r="C60" s="184"/>
-      <c r="D60" s="184"/>
-      <c r="E60" s="184"/>
-      <c r="F60" s="184"/>
-      <c r="G60" s="184"/>
-      <c r="H60" s="184"/>
-      <c r="I60" s="184"/>
-      <c r="J60" s="185"/>
+      <c r="A60" s="187"/>
+      <c r="B60" s="188"/>
+      <c r="C60" s="188"/>
+      <c r="D60" s="188"/>
+      <c r="E60" s="188"/>
+      <c r="F60" s="188"/>
+      <c r="G60" s="188"/>
+      <c r="H60" s="188"/>
+      <c r="I60" s="188"/>
+      <c r="J60" s="189"/>
     </row>
     <row r="61" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="74"/>
-      <c r="B61" s="139"/>
-      <c r="C61" s="141"/>
-      <c r="D61" s="163"/>
-      <c r="E61" s="164"/>
-      <c r="F61" s="164"/>
-      <c r="G61" s="164"/>
-      <c r="H61" s="164"/>
-      <c r="I61" s="164"/>
-      <c r="J61" s="165"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="167"/>
+      <c r="E61" s="168"/>
+      <c r="F61" s="168"/>
+      <c r="G61" s="168"/>
+      <c r="H61" s="168"/>
+      <c r="I61" s="168"/>
+      <c r="J61" s="169"/>
     </row>
     <row r="62" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="74"/>
-      <c r="B62" s="139"/>
-      <c r="C62" s="141"/>
-      <c r="D62" s="163"/>
-      <c r="E62" s="164"/>
-      <c r="F62" s="164"/>
-      <c r="G62" s="164"/>
-      <c r="H62" s="164"/>
-      <c r="I62" s="164"/>
-      <c r="J62" s="165"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="167"/>
+      <c r="E62" s="168"/>
+      <c r="F62" s="168"/>
+      <c r="G62" s="168"/>
+      <c r="H62" s="168"/>
+      <c r="I62" s="168"/>
+      <c r="J62" s="169"/>
     </row>
     <row r="63" spans="1:10" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="183"/>
-      <c r="B63" s="184"/>
-      <c r="C63" s="184"/>
-      <c r="D63" s="184"/>
-      <c r="E63" s="184"/>
-      <c r="F63" s="184"/>
-      <c r="G63" s="184"/>
-      <c r="H63" s="184"/>
-      <c r="I63" s="184"/>
-      <c r="J63" s="185"/>
+      <c r="A63" s="187"/>
+      <c r="B63" s="188"/>
+      <c r="C63" s="188"/>
+      <c r="D63" s="188"/>
+      <c r="E63" s="188"/>
+      <c r="F63" s="188"/>
+      <c r="G63" s="188"/>
+      <c r="H63" s="188"/>
+      <c r="I63" s="188"/>
+      <c r="J63" s="189"/>
     </row>
     <row r="64" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="74"/>
-      <c r="B64" s="139"/>
-      <c r="C64" s="141"/>
-      <c r="D64" s="163"/>
-      <c r="E64" s="164"/>
-      <c r="F64" s="164"/>
-      <c r="G64" s="164"/>
-      <c r="H64" s="164"/>
-      <c r="I64" s="164"/>
-      <c r="J64" s="165"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="167"/>
+      <c r="E64" s="168"/>
+      <c r="F64" s="168"/>
+      <c r="G64" s="168"/>
+      <c r="H64" s="168"/>
+      <c r="I64" s="168"/>
+      <c r="J64" s="169"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B65" s="79"/>
       <c r="C65" s="80"/>
@@ -9127,32 +9167,32 @@
         <v>1</v>
       </c>
       <c r="B66" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="139"/>
-      <c r="D66" s="116"/>
-      <c r="E66" s="116"/>
-      <c r="F66" s="116"/>
-      <c r="G66" s="116"/>
-      <c r="H66" s="116"/>
-      <c r="I66" s="116"/>
-      <c r="J66" s="117"/>
+        <v>3</v>
+      </c>
+      <c r="C66" s="143"/>
+      <c r="D66" s="120"/>
+      <c r="E66" s="120"/>
+      <c r="F66" s="120"/>
+      <c r="G66" s="120"/>
+      <c r="H66" s="120"/>
+      <c r="I66" s="120"/>
+      <c r="J66" s="121"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="74">
         <v>2</v>
       </c>
       <c r="B67" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="160"/>
-      <c r="D67" s="160"/>
-      <c r="E67" s="160"/>
-      <c r="F67" s="160"/>
-      <c r="G67" s="160"/>
-      <c r="H67" s="160"/>
-      <c r="I67" s="160"/>
-      <c r="J67" s="160"/>
+        <v>3</v>
+      </c>
+      <c r="C67" s="164"/>
+      <c r="D67" s="164"/>
+      <c r="E67" s="164"/>
+      <c r="F67" s="164"/>
+      <c r="G67" s="164"/>
+      <c r="H67" s="164"/>
+      <c r="I67" s="164"/>
+      <c r="J67" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="63">
@@ -9241,7 +9281,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="A7" sqref="A7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9271,8 +9311,8 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="161" t="s">
-        <v>55</v>
+      <c r="K1" s="165" t="s">
+        <v>51</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -9298,7 +9338,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="162"/>
+      <c r="K2" s="166"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -9316,7 +9356,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="162"/>
+      <c r="K3" s="166"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -9360,18 +9400,18 @@
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="198" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="200"/>
+      <c r="A6" s="202" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="203"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="203"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="204"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -9381,31 +9421,31 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="43" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="B7" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>16</v>
-      </c>
       <c r="H7" s="43" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -9438,46 +9478,46 @@
       <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="198" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="199"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="199"/>
-      <c r="E10" s="199"/>
-      <c r="F10" s="199"/>
-      <c r="G10" s="199"/>
-      <c r="H10" s="199"/>
-      <c r="I10" s="199"/>
-      <c r="J10" s="200"/>
+      <c r="A10" s="202" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="203"/>
+      <c r="C10" s="203"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="203"/>
+      <c r="G10" s="203"/>
+      <c r="H10" s="203"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="204"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -9488,26 +9528,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J12" s="49"/>
     </row>
@@ -9516,26 +9556,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J13" s="49"/>
     </row>
@@ -9544,72 +9584,72 @@
         <v>3</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H14" s="51">
         <v>2</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="198" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="199"/>
-      <c r="C16" s="199"/>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="200"/>
+      <c r="A16" s="202" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="203"/>
+      <c r="C16" s="203"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="203"/>
+      <c r="G16" s="203"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="204"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="43" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G17" s="43" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="J17" s="43" t="s">
         <v>0</v>
@@ -9620,24 +9660,24 @@
         <v>1</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="44" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J18" s="49"/>
     </row>
@@ -9646,24 +9686,24 @@
         <v>2</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="46" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="44" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J19" s="49"/>
     </row>
@@ -9672,27 +9712,27 @@
         <v>3</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -9700,27 +9740,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D21" s="50"/>
       <c r="E21" s="50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H21" s="50"/>
       <c r="I21" s="44" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J21" s="52" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -9762,8 +9802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53:J53"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9792,8 +9832,8 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="161" t="s">
-        <v>55</v>
+      <c r="K1" s="165" t="s">
+        <v>51</v>
       </c>
       <c r="L1" s="55"/>
       <c r="M1" s="55"/>
@@ -9813,7 +9853,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="162"/>
+      <c r="K2" s="166"/>
     </row>
     <row r="3" spans="1:17" s="56" customFormat="1">
       <c r="A3" s="48"/>
@@ -9826,7 +9866,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="162"/>
+      <c r="K3" s="166"/>
     </row>
     <row r="4" spans="1:17" s="56" customFormat="1">
       <c r="A4" s="48"/>
@@ -9841,670 +9881,664 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="56" customFormat="1">
-      <c r="A5" s="172" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="A5" s="176" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="131"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="133"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="137"/>
     </row>
     <row r="7" spans="1:17" s="57" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="173"/>
-      <c r="B7" s="174"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="176"/>
+      <c r="A7" s="177"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="180"/>
       <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:17" s="57" customFormat="1">
-      <c r="A8" s="173"/>
-      <c r="B8" s="174"/>
-      <c r="C8" s="174"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="176"/>
+      <c r="A8" s="177"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="180"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:17" s="57" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="177"/>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="179"/>
+      <c r="A9" s="181"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="183"/>
     </row>
     <row r="10" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="114"/>
+      <c r="A10" s="176" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="84.75" customHeight="1">
-      <c r="A11" s="180" t="s">
-        <v>250</v>
-      </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="117"/>
+      <c r="A11" s="184" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
     </row>
     <row r="12" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="172" t="s">
+      <c r="A12" s="176" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+    </row>
+    <row r="13" spans="1:17" s="59" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A13" s="184" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
+    </row>
+    <row r="14" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="114"/>
-    </row>
-    <row r="13" spans="1:17" s="59" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="180" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="117"/>
-    </row>
-    <row r="14" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="172" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="114"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="148" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" s="157"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="158"/>
+      <c r="A15" s="152" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="162"/>
     </row>
     <row r="16" spans="1:17" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="142" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="144"/>
+        <v>91</v>
+      </c>
+      <c r="C16" s="146" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="1:10" s="57" customFormat="1">
       <c r="A17" s="60">
         <v>1</v>
       </c>
       <c r="B17" s="85" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="159" t="s">
-        <v>242</v>
-      </c>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="147"/>
-    </row>
-    <row r="18" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
+        <v>138</v>
+      </c>
+      <c r="C17" s="163" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="151"/>
+    </row>
+    <row r="18" spans="1:10" s="57" customFormat="1" ht="24" customHeight="1">
       <c r="A18" s="44">
         <v>2</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="159" t="s">
-        <v>189</v>
-      </c>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="147"/>
-    </row>
-    <row r="19" spans="1:10" s="57" customFormat="1" ht="21" customHeight="1">
+        <v>141</v>
+      </c>
+      <c r="C18" s="163" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="151"/>
+    </row>
+    <row r="19" spans="1:10" s="57" customFormat="1" ht="27.75" customHeight="1">
       <c r="A19" s="44">
         <v>3</v>
       </c>
       <c r="B19" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" s="159" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
-    </row>
-    <row r="20" spans="1:10" s="57" customFormat="1" ht="50.25" customHeight="1">
+        <v>142</v>
+      </c>
+      <c r="C19" s="163" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="151"/>
+    </row>
+    <row r="20" spans="1:10" s="57" customFormat="1" ht="42" customHeight="1">
       <c r="A20" s="49">
         <v>4</v>
       </c>
       <c r="B20" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="159" t="s">
-        <v>185</v>
-      </c>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="147"/>
-    </row>
-    <row r="21" spans="1:10" s="57" customFormat="1" ht="50.25" customHeight="1">
+        <v>139</v>
+      </c>
+      <c r="C20" s="163" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="151"/>
+    </row>
+    <row r="21" spans="1:10" s="57" customFormat="1" ht="39.75" customHeight="1">
       <c r="A21" s="49">
         <v>5</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="159" t="s">
-        <v>186</v>
-      </c>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="147"/>
+        <v>140</v>
+      </c>
+      <c r="C21" s="163" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="151"/>
     </row>
     <row r="22" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A22" s="44">
         <v>6</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="C22" s="159" t="s">
-        <v>222</v>
-      </c>
-      <c r="D22" s="205"/>
-      <c r="E22" s="205"/>
-      <c r="F22" s="205"/>
-      <c r="G22" s="205"/>
-      <c r="H22" s="205"/>
-      <c r="I22" s="205"/>
-      <c r="J22" s="206"/>
+        <v>189</v>
+      </c>
+      <c r="C22" s="163" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="209"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="209"/>
+      <c r="H22" s="209"/>
+      <c r="I22" s="209"/>
+      <c r="J22" s="210"/>
     </row>
     <row r="23" spans="1:10" s="57" customFormat="1">
-      <c r="A23" s="169"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="171"/>
+      <c r="A23" s="173"/>
+      <c r="B23" s="174"/>
+      <c r="C23" s="174"/>
+      <c r="D23" s="174"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="174"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="175"/>
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A24" s="148" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="157"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="158"/>
+      <c r="A24" s="152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="161"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="162"/>
     </row>
     <row r="25" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A25" s="89">
         <v>1</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="159" t="s">
-        <v>187</v>
-      </c>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="147"/>
+        <v>139</v>
+      </c>
+      <c r="C25" s="163" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="151"/>
     </row>
     <row r="26" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A26" s="89">
         <v>2</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="159" t="s">
-        <v>187</v>
-      </c>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="147"/>
+        <v>140</v>
+      </c>
+      <c r="C26" s="163" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="151"/>
     </row>
     <row r="27" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A27" s="44">
         <v>3</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" s="159" t="s">
-        <v>187</v>
-      </c>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="147"/>
+        <v>152</v>
+      </c>
+      <c r="C27" s="163" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="151"/>
     </row>
     <row r="28" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A28" s="44">
         <v>4</v>
       </c>
       <c r="B28" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="159" t="s">
-        <v>187</v>
-      </c>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="147"/>
+        <v>142</v>
+      </c>
+      <c r="C28" s="163" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="151"/>
     </row>
     <row r="29" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="134" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="181"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="181"/>
-      <c r="E29" s="181"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="181"/>
-      <c r="H29" s="181"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="182"/>
+      <c r="A29" s="138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="185"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="186"/>
     </row>
     <row r="30" spans="1:10" s="57" customFormat="1" ht="36" customHeight="1">
-      <c r="A30" s="148" t="s">
-        <v>188</v>
-      </c>
-      <c r="B30" s="157"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="158"/>
+      <c r="A30" s="152" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="161"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="162"/>
     </row>
     <row r="31" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="60" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="C31" s="142" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="143"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="144"/>
+        <v>144</v>
+      </c>
+      <c r="C31" s="146" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="148"/>
     </row>
     <row r="32" spans="1:10" s="57" customFormat="1">
       <c r="A32" s="60">
         <v>1</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="145" t="s">
-        <v>216</v>
-      </c>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="147"/>
+        <v>141</v>
+      </c>
+      <c r="C32" s="211" t="s">
+        <v>248</v>
+      </c>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="157"/>
     </row>
     <row r="33" spans="1:12" s="57" customFormat="1">
       <c r="A33" s="60">
         <v>2</v>
       </c>
       <c r="B33" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="145" t="s">
-        <v>217</v>
-      </c>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="147"/>
+        <v>142</v>
+      </c>
+      <c r="C33" s="212"/>
+      <c r="D33" s="213"/>
+      <c r="E33" s="213"/>
+      <c r="F33" s="213"/>
+      <c r="G33" s="213"/>
+      <c r="H33" s="213"/>
+      <c r="I33" s="213"/>
+      <c r="J33" s="214"/>
     </row>
     <row r="34" spans="1:12" s="57" customFormat="1">
       <c r="A34" s="60">
         <v>3</v>
       </c>
       <c r="B34" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="145" t="s">
-        <v>218</v>
-      </c>
-      <c r="D34" s="146"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="147"/>
+        <v>139</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="213"/>
+      <c r="E34" s="213"/>
+      <c r="F34" s="213"/>
+      <c r="G34" s="213"/>
+      <c r="H34" s="213"/>
+      <c r="I34" s="213"/>
+      <c r="J34" s="214"/>
     </row>
     <row r="35" spans="1:12" s="57" customFormat="1">
       <c r="A35" s="60">
         <v>4</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="C35" s="145" t="s">
-        <v>219</v>
-      </c>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="147"/>
+        <v>140</v>
+      </c>
+      <c r="C35" s="158"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="159"/>
+      <c r="J35" s="160"/>
     </row>
     <row r="36" spans="1:12" s="57" customFormat="1">
-      <c r="A36" s="139"/>
-      <c r="B36" s="140"/>
-      <c r="C36" s="140"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="140"/>
-      <c r="G36" s="140"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="140"/>
-      <c r="J36" s="141"/>
+      <c r="A36" s="143"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="144"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="145"/>
     </row>
     <row r="37" spans="1:12" s="57" customFormat="1">
-      <c r="A37" s="148" t="s">
-        <v>156</v>
-      </c>
-      <c r="B37" s="149"/>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="150"/>
+      <c r="A37" s="152" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="153"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="154"/>
     </row>
     <row r="38" spans="1:12" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="60" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" s="142" t="s">
-        <v>151</v>
-      </c>
-      <c r="D38" s="143"/>
-      <c r="E38" s="143"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
-      <c r="J38" s="144"/>
+        <v>147</v>
+      </c>
+      <c r="C38" s="146" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="147"/>
+      <c r="E38" s="147"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="148"/>
     </row>
     <row r="39" spans="1:12" s="57" customFormat="1">
       <c r="A39" s="89">
         <v>1</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="C39" s="145" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" s="146"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="146"/>
-      <c r="J39" s="147"/>
+        <v>139</v>
+      </c>
+      <c r="C39" s="149" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="151"/>
     </row>
     <row r="40" spans="1:12" s="57" customFormat="1">
       <c r="A40" s="89">
         <v>2</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="C40" s="145" t="s">
-        <v>154</v>
-      </c>
-      <c r="D40" s="146"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="146"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="146"/>
-      <c r="J40" s="147"/>
+        <v>140</v>
+      </c>
+      <c r="C40" s="149" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="151"/>
     </row>
     <row r="41" spans="1:12" s="57" customFormat="1">
       <c r="A41" s="44">
         <v>3</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" s="145" t="s">
-        <v>154</v>
-      </c>
-      <c r="D41" s="146"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="147"/>
+        <v>152</v>
+      </c>
+      <c r="C41" s="149" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="151"/>
     </row>
     <row r="42" spans="1:12" s="57" customFormat="1">
       <c r="A42" s="44">
         <v>4</v>
       </c>
       <c r="B42" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="149" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="145" t="s">
-        <v>154</v>
-      </c>
-      <c r="D42" s="146"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="146"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="147"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="151"/>
     </row>
     <row r="43" spans="1:12" s="57" customFormat="1">
-      <c r="A43" s="139"/>
-      <c r="B43" s="140"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="140"/>
-      <c r="F43" s="140"/>
-      <c r="G43" s="140"/>
-      <c r="H43" s="140"/>
-      <c r="I43" s="140"/>
-      <c r="J43" s="141"/>
+      <c r="A43" s="143"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="144"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="144"/>
+      <c r="G43" s="144"/>
+      <c r="H43" s="144"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="145"/>
     </row>
     <row r="44" spans="1:12" s="57" customFormat="1">
-      <c r="A44" s="169"/>
-      <c r="B44" s="203"/>
-      <c r="C44" s="203"/>
-      <c r="D44" s="203"/>
-      <c r="E44" s="203"/>
-      <c r="F44" s="203"/>
-      <c r="G44" s="203"/>
-      <c r="H44" s="203"/>
-      <c r="I44" s="203"/>
-      <c r="J44" s="204"/>
+      <c r="A44" s="173"/>
+      <c r="B44" s="207"/>
+      <c r="C44" s="207"/>
+      <c r="D44" s="207"/>
+      <c r="E44" s="207"/>
+      <c r="F44" s="207"/>
+      <c r="G44" s="207"/>
+      <c r="H44" s="207"/>
+      <c r="I44" s="207"/>
+      <c r="J44" s="208"/>
     </row>
     <row r="45" spans="1:12" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="134" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="181"/>
-      <c r="C45" s="181"/>
-      <c r="D45" s="181"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="181"/>
-      <c r="G45" s="181"/>
-      <c r="H45" s="181"/>
-      <c r="I45" s="181"/>
-      <c r="J45" s="182"/>
+      <c r="A45" s="138" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="185"/>
+      <c r="C45" s="185"/>
+      <c r="D45" s="185"/>
+      <c r="E45" s="185"/>
+      <c r="F45" s="185"/>
+      <c r="G45" s="185"/>
+      <c r="H45" s="185"/>
+      <c r="I45" s="185"/>
+      <c r="J45" s="186"/>
     </row>
     <row r="46" spans="1:12" s="83" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" s="61" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C46" s="62" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D46" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46" s="137" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="138"/>
-      <c r="G46" s="138"/>
-      <c r="H46" s="138"/>
-      <c r="I46" s="138"/>
-      <c r="J46" s="138"/>
+        <v>37</v>
+      </c>
+      <c r="E46" s="141" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="142"/>
+      <c r="G46" s="142"/>
+      <c r="H46" s="142"/>
+      <c r="I46" s="142"/>
+      <c r="J46" s="142"/>
       <c r="K46" s="57"/>
       <c r="L46" s="57"/>
     </row>
@@ -10513,106 +10547,106 @@
         <v>1</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C47" s="65"/>
       <c r="D47" s="66"/>
-      <c r="E47" s="191" t="s">
-        <v>160</v>
-      </c>
-      <c r="F47" s="125"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="125"/>
-      <c r="I47" s="125"/>
-      <c r="J47" s="125"/>
+      <c r="E47" s="195" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47" s="129"/>
+      <c r="G47" s="129"/>
+      <c r="H47" s="129"/>
+      <c r="I47" s="129"/>
+      <c r="J47" s="129"/>
     </row>
     <row r="48" spans="1:12" s="57" customFormat="1">
-      <c r="A48" s="166" t="s">
-        <v>199</v>
-      </c>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
-      <c r="E48" s="167"/>
-      <c r="F48" s="167"/>
-      <c r="G48" s="167"/>
-      <c r="H48" s="167"/>
-      <c r="I48" s="167"/>
-      <c r="J48" s="168"/>
+      <c r="A48" s="170" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="171"/>
+      <c r="C48" s="171"/>
+      <c r="D48" s="171"/>
+      <c r="E48" s="171"/>
+      <c r="F48" s="171"/>
+      <c r="G48" s="171"/>
+      <c r="H48" s="171"/>
+      <c r="I48" s="171"/>
+      <c r="J48" s="172"/>
     </row>
     <row r="49" spans="1:12" s="59" customFormat="1" ht="77.25" customHeight="1">
       <c r="A49" s="74">
         <v>1</v>
       </c>
       <c r="B49" s="91" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="94" t="s">
+        <v>181</v>
+      </c>
+      <c r="D49" s="93"/>
+      <c r="E49" s="199" t="s">
         <v>193</v>
       </c>
-      <c r="C49" s="94" t="s">
-        <v>194</v>
-      </c>
-      <c r="D49" s="93"/>
-      <c r="E49" s="195" t="s">
-        <v>206</v>
-      </c>
-      <c r="F49" s="196"/>
-      <c r="G49" s="196"/>
-      <c r="H49" s="196"/>
-      <c r="I49" s="196"/>
-      <c r="J49" s="197"/>
+      <c r="F49" s="200"/>
+      <c r="G49" s="200"/>
+      <c r="H49" s="200"/>
+      <c r="I49" s="200"/>
+      <c r="J49" s="201"/>
     </row>
     <row r="50" spans="1:12" s="59" customFormat="1" ht="50.25" customHeight="1">
       <c r="A50" s="71">
         <v>2</v>
       </c>
       <c r="B50" s="72" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C50" s="94" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D50" s="93"/>
-      <c r="E50" s="195" t="s">
-        <v>203</v>
-      </c>
-      <c r="F50" s="196"/>
-      <c r="G50" s="196"/>
-      <c r="H50" s="196"/>
-      <c r="I50" s="196"/>
-      <c r="J50" s="197"/>
+      <c r="E50" s="199" t="s">
+        <v>190</v>
+      </c>
+      <c r="F50" s="200"/>
+      <c r="G50" s="200"/>
+      <c r="H50" s="200"/>
+      <c r="I50" s="200"/>
+      <c r="J50" s="201"/>
     </row>
     <row r="51" spans="1:12" s="57" customFormat="1">
       <c r="A51" s="74">
         <v>3</v>
       </c>
       <c r="B51" s="91" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C51" s="94" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D51" s="92"/>
-      <c r="E51" s="163" t="s">
-        <v>198</v>
-      </c>
-      <c r="F51" s="116"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="116"/>
-      <c r="I51" s="116"/>
-      <c r="J51" s="117"/>
+      <c r="E51" s="167" t="s">
+        <v>185</v>
+      </c>
+      <c r="F51" s="120"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="121"/>
     </row>
     <row r="52" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="166" t="s">
-        <v>197</v>
-      </c>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
-      <c r="E52" s="167"/>
-      <c r="F52" s="167"/>
-      <c r="G52" s="167"/>
-      <c r="H52" s="167"/>
-      <c r="I52" s="167"/>
-      <c r="J52" s="168"/>
+      <c r="A52" s="170" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" s="171"/>
+      <c r="C52" s="171"/>
+      <c r="D52" s="171"/>
+      <c r="E52" s="171"/>
+      <c r="F52" s="171"/>
+      <c r="G52" s="171"/>
+      <c r="H52" s="171"/>
+      <c r="I52" s="171"/>
+      <c r="J52" s="172"/>
       <c r="K52" s="57"/>
       <c r="L52" s="57"/>
     </row>
@@ -10621,156 +10655,156 @@
         <v>1</v>
       </c>
       <c r="B53" s="68" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C53" s="69" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D53" s="70"/>
-      <c r="E53" s="191" t="s">
-        <v>251</v>
-      </c>
-      <c r="F53" s="125"/>
-      <c r="G53" s="125"/>
-      <c r="H53" s="125"/>
-      <c r="I53" s="125"/>
-      <c r="J53" s="125"/>
+      <c r="E53" s="195" t="s">
+        <v>249</v>
+      </c>
+      <c r="F53" s="129"/>
+      <c r="G53" s="129"/>
+      <c r="H53" s="129"/>
+      <c r="I53" s="129"/>
+      <c r="J53" s="129"/>
     </row>
     <row r="54" spans="1:12" s="57" customFormat="1" ht="107.25" customHeight="1">
       <c r="A54" s="71">
         <v>2</v>
       </c>
       <c r="B54" s="72" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C54" s="69" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D54" s="73"/>
-      <c r="E54" s="195" t="s">
-        <v>240</v>
-      </c>
-      <c r="F54" s="196"/>
-      <c r="G54" s="196"/>
-      <c r="H54" s="196"/>
-      <c r="I54" s="196"/>
-      <c r="J54" s="197"/>
+      <c r="E54" s="199" t="s">
+        <v>215</v>
+      </c>
+      <c r="F54" s="200"/>
+      <c r="G54" s="200"/>
+      <c r="H54" s="200"/>
+      <c r="I54" s="200"/>
+      <c r="J54" s="201"/>
     </row>
     <row r="55" spans="1:12" s="57" customFormat="1" ht="54.75" customHeight="1">
       <c r="A55" s="74">
         <v>3</v>
       </c>
       <c r="B55" s="68" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C55" s="69" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D55" s="75"/>
-      <c r="E55" s="163" t="s">
-        <v>223</v>
-      </c>
-      <c r="F55" s="116"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="116"/>
-      <c r="J55" s="117"/>
+      <c r="E55" s="167" t="s">
+        <v>251</v>
+      </c>
+      <c r="F55" s="120"/>
+      <c r="G55" s="120"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="120"/>
+      <c r="J55" s="121"/>
     </row>
     <row r="56" spans="1:12" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A56" s="188" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="189"/>
-      <c r="C56" s="189"/>
-      <c r="D56" s="189"/>
-      <c r="E56" s="189"/>
-      <c r="F56" s="189"/>
-      <c r="G56" s="189"/>
-      <c r="H56" s="189"/>
-      <c r="I56" s="189"/>
-      <c r="J56" s="190"/>
+      <c r="A56" s="192" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="193"/>
+      <c r="C56" s="193"/>
+      <c r="D56" s="193"/>
+      <c r="E56" s="193"/>
+      <c r="F56" s="193"/>
+      <c r="G56" s="193"/>
+      <c r="H56" s="193"/>
+      <c r="I56" s="193"/>
+      <c r="J56" s="194"/>
     </row>
     <row r="57" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="190" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="191"/>
+      <c r="D57" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="187"/>
-      <c r="D57" s="163" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="116"/>
-      <c r="F57" s="116"/>
-      <c r="G57" s="116"/>
-      <c r="H57" s="116"/>
-      <c r="I57" s="116"/>
-      <c r="J57" s="117"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="120"/>
+      <c r="G57" s="120"/>
+      <c r="H57" s="120"/>
+      <c r="I57" s="120"/>
+      <c r="J57" s="121"/>
     </row>
     <row r="58" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="183"/>
-      <c r="B58" s="201"/>
-      <c r="C58" s="201"/>
-      <c r="D58" s="201"/>
-      <c r="E58" s="201"/>
-      <c r="F58" s="201"/>
-      <c r="G58" s="201"/>
-      <c r="H58" s="201"/>
-      <c r="I58" s="201"/>
-      <c r="J58" s="202"/>
+      <c r="A58" s="187"/>
+      <c r="B58" s="205"/>
+      <c r="C58" s="205"/>
+      <c r="D58" s="205"/>
+      <c r="E58" s="205"/>
+      <c r="F58" s="205"/>
+      <c r="G58" s="205"/>
+      <c r="H58" s="205"/>
+      <c r="I58" s="205"/>
+      <c r="J58" s="206"/>
     </row>
     <row r="59" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="74"/>
-      <c r="B59" s="139"/>
-      <c r="C59" s="141"/>
-      <c r="D59" s="163"/>
-      <c r="E59" s="116"/>
-      <c r="F59" s="116"/>
-      <c r="G59" s="116"/>
-      <c r="H59" s="116"/>
-      <c r="I59" s="116"/>
-      <c r="J59" s="117"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="167"/>
+      <c r="E59" s="120"/>
+      <c r="F59" s="120"/>
+      <c r="G59" s="120"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="120"/>
+      <c r="J59" s="121"/>
     </row>
     <row r="60" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="74"/>
-      <c r="B60" s="139"/>
-      <c r="C60" s="141"/>
-      <c r="D60" s="163"/>
-      <c r="E60" s="116"/>
-      <c r="F60" s="116"/>
-      <c r="G60" s="116"/>
-      <c r="H60" s="116"/>
-      <c r="I60" s="116"/>
-      <c r="J60" s="117"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="167"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="120"/>
+      <c r="G60" s="120"/>
+      <c r="H60" s="120"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="121"/>
     </row>
     <row r="61" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="183"/>
-      <c r="B61" s="201"/>
-      <c r="C61" s="201"/>
-      <c r="D61" s="201"/>
-      <c r="E61" s="201"/>
-      <c r="F61" s="201"/>
-      <c r="G61" s="201"/>
-      <c r="H61" s="201"/>
-      <c r="I61" s="201"/>
-      <c r="J61" s="202"/>
+      <c r="A61" s="187"/>
+      <c r="B61" s="205"/>
+      <c r="C61" s="205"/>
+      <c r="D61" s="205"/>
+      <c r="E61" s="205"/>
+      <c r="F61" s="205"/>
+      <c r="G61" s="205"/>
+      <c r="H61" s="205"/>
+      <c r="I61" s="205"/>
+      <c r="J61" s="206"/>
     </row>
     <row r="62" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="74"/>
-      <c r="B62" s="139"/>
-      <c r="C62" s="141"/>
-      <c r="D62" s="163"/>
-      <c r="E62" s="116"/>
-      <c r="F62" s="116"/>
-      <c r="G62" s="116"/>
-      <c r="H62" s="116"/>
-      <c r="I62" s="116"/>
-      <c r="J62" s="117"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="167"/>
+      <c r="E62" s="120"/>
+      <c r="F62" s="120"/>
+      <c r="G62" s="120"/>
+      <c r="H62" s="120"/>
+      <c r="I62" s="120"/>
+      <c r="J62" s="121"/>
     </row>
     <row r="63" spans="1:12" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A63" s="78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B63" s="79"/>
       <c r="C63" s="80"/>
@@ -10787,59 +10821,56 @@
         <v>1</v>
       </c>
       <c r="B64" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="139"/>
-      <c r="D64" s="116"/>
-      <c r="E64" s="116"/>
-      <c r="F64" s="116"/>
-      <c r="G64" s="116"/>
-      <c r="H64" s="116"/>
-      <c r="I64" s="116"/>
-      <c r="J64" s="117"/>
+        <v>3</v>
+      </c>
+      <c r="C64" s="143"/>
+      <c r="D64" s="120"/>
+      <c r="E64" s="120"/>
+      <c r="F64" s="120"/>
+      <c r="G64" s="120"/>
+      <c r="H64" s="120"/>
+      <c r="I64" s="120"/>
+      <c r="J64" s="121"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="74">
         <v>2</v>
       </c>
       <c r="B65" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="160"/>
-      <c r="D65" s="160"/>
-      <c r="E65" s="160"/>
-      <c r="F65" s="160"/>
-      <c r="G65" s="160"/>
-      <c r="H65" s="160"/>
-      <c r="I65" s="160"/>
-      <c r="J65" s="160"/>
+        <v>3</v>
+      </c>
+      <c r="C65" s="164"/>
+      <c r="D65" s="164"/>
+      <c r="E65" s="164"/>
+      <c r="F65" s="164"/>
+      <c r="G65" s="164"/>
+      <c r="H65" s="164"/>
+      <c r="I65" s="164"/>
+      <c r="J65" s="164"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="A36:J36"/>
+  <mergeCells count="59">
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
     <mergeCell ref="A48:J48"/>
     <mergeCell ref="E49:J49"/>
     <mergeCell ref="E50:J50"/>
     <mergeCell ref="E51:J51"/>
     <mergeCell ref="C42:J42"/>
     <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C27:J27"/>
     <mergeCell ref="C28:J28"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C32:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C27:J27"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J9"/>
@@ -10860,8 +10891,8 @@
     <mergeCell ref="C17:J17"/>
     <mergeCell ref="C31:J31"/>
     <mergeCell ref="A30:J30"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="D62:J62"/>
@@ -10899,8 +10930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:J18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10930,8 +10961,8 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="161" t="s">
-        <v>55</v>
+      <c r="K1" s="165" t="s">
+        <v>51</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -10957,7 +10988,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="162"/>
+      <c r="K2" s="166"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -10975,7 +11006,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="162"/>
+      <c r="K3" s="166"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -11019,18 +11050,18 @@
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="198" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="200"/>
+      <c r="A6" s="202" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="203"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="203"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="204"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -11040,31 +11071,31 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="43" t="s">
-        <v>2</v>
+        <v>226</v>
       </c>
       <c r="B7" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>16</v>
-      </c>
       <c r="H7" s="43" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -11097,46 +11128,46 @@
       <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="198" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" s="207"/>
-      <c r="C10" s="207"/>
-      <c r="D10" s="207"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="207"/>
-      <c r="G10" s="207"/>
-      <c r="H10" s="207"/>
-      <c r="I10" s="207"/>
-      <c r="J10" s="208"/>
+      <c r="A10" s="202" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="215"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="215"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="215"/>
+      <c r="H10" s="215"/>
+      <c r="I10" s="215"/>
+      <c r="J10" s="216"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
         <v>226</v>
       </c>
       <c r="B11" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="D11" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="D11" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="E11" s="43" t="s">
+      <c r="F11" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="F11" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="43" t="s">
+      <c r="I11" s="43" t="s">
         <v>231</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>233</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -11147,23 +11178,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+        <v>240</v>
+      </c>
+      <c r="E12" s="104" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="106" t="s">
+        <v>237</v>
+      </c>
       <c r="H12" s="50"/>
       <c r="I12" s="44" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="J12" s="96" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -11171,23 +11208,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
+        <v>241</v>
+      </c>
+      <c r="E13" s="104" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="108" t="s">
+        <v>238</v>
+      </c>
+      <c r="G13" s="108" t="s">
+        <v>239</v>
+      </c>
       <c r="H13" s="50"/>
       <c r="I13" s="44" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="J13" s="96" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -11195,23 +11238,29 @@
         <v>3</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="46"/>
+        <v>240</v>
+      </c>
+      <c r="E14" s="104" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="G14" s="108" t="s">
+        <v>252</v>
+      </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="J14" s="96" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -11219,23 +11268,29 @@
         <v>4</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="46"/>
+        <v>242</v>
+      </c>
+      <c r="E15" s="104" t="s">
+        <v>233</v>
+      </c>
+      <c r="F15" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="G15" s="106" t="s">
+        <v>235</v>
+      </c>
       <c r="H15" s="46"/>
       <c r="I15" s="44" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="J15" s="96" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -11243,31 +11298,31 @@
         <v>5</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="H16" s="44">
         <v>0</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="J16" s="102" t="s">
-        <v>192</v>
+        <v>177</v>
+      </c>
+      <c r="J16" s="101" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11275,54 +11330,54 @@
       <c r="B17" s="98"/>
       <c r="C17" s="98"/>
       <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="100"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="106"/>
       <c r="G17" s="99"/>
       <c r="H17" s="99"/>
       <c r="I17" s="95"/>
-      <c r="J17" s="101"/>
+      <c r="J17" s="100"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="198" t="s">
-        <v>253</v>
-      </c>
-      <c r="B18" s="199"/>
-      <c r="C18" s="199"/>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="200"/>
+      <c r="A18" s="202" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" s="203"/>
+      <c r="C18" s="203"/>
+      <c r="D18" s="203"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="203"/>
+      <c r="G18" s="203"/>
+      <c r="H18" s="203"/>
+      <c r="I18" s="203"/>
+      <c r="J18" s="204"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="43" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="I19" s="43" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J19" s="43" t="s">
         <v>0</v>
@@ -11333,23 +11388,29 @@
         <v>3</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>167</v>
+        <v>258</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="46"/>
+        <v>254</v>
+      </c>
+      <c r="E20" s="104" t="s">
+        <v>233</v>
+      </c>
+      <c r="F20" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="G20" s="106" t="s">
+        <v>237</v>
+      </c>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="J20" s="96" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -11357,23 +11418,29 @@
         <v>4</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="46"/>
+        <v>255</v>
+      </c>
+      <c r="E21" s="104" t="s">
+        <v>233</v>
+      </c>
+      <c r="F21" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="G21" s="106" t="s">
+        <v>235</v>
+      </c>
       <c r="H21" s="46"/>
       <c r="I21" s="44" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="J21" s="96" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -11381,23 +11448,29 @@
         <v>1</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>183</v>
+        <v>260</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
+        <v>256</v>
+      </c>
+      <c r="E22" s="104" t="s">
+        <v>233</v>
+      </c>
+      <c r="F22" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" s="108" t="s">
+        <v>253</v>
+      </c>
       <c r="H22" s="50"/>
       <c r="I22" s="44" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="J22" s="96" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -11405,23 +11478,29 @@
         <v>2</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
+        <v>257</v>
+      </c>
+      <c r="E23" s="104" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" s="108" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" s="108" t="s">
+        <v>239</v>
+      </c>
       <c r="H23" s="50"/>
       <c r="I23" s="44" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="J23" s="96" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
+++ b/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
-    <sheet name="IPO" sheetId="38" r:id="rId4"/>
+    <sheet name="IPO" sheetId="39" r:id="rId4"/>
     <sheet name="畫面_APF0102MM1" sheetId="7" r:id="rId5"/>
     <sheet name="欄位_APF0102MM1" sheetId="14" r:id="rId6"/>
     <sheet name="畫面_APF0102MA1" sheetId="33" r:id="rId7"/>
@@ -38,7 +43,7 @@
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1253,16 +1258,16 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t xml:space="preserve">IPO </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO Model</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>回總表</t>
     <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">IPO </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO Model</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2105,6 +2110,51 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2117,36 +2167,12 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2157,35 +2183,191 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2197,216 +2379,39 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3458,7 +3463,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3466,6 +3471,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3499,7 +3515,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3507,6 +3523,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4047,16 +4074,16 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="34817" name="Object 1" hidden="1">
+            <xdr:cNvPr id="39937" name="Object 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s34817"/>
+                  <a14:compatExt spid="_x0000_s39937"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4064,6 +4091,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7228,8 +7266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7279,10 +7317,10 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="102" t="s">
@@ -7685,15 +7723,15 @@
       <c r="A1" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="112" t="s">
+      <c r="M1" s="127" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="113"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="113"/>
+      <c r="M3" s="128"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -7710,269 +7748,261 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="134"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="116"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="137"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="126"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="116" t="s">
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="118"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="123"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="119" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="120" t="s">
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="121"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="114"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="116" t="s">
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="118"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="123"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="119" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="120" t="s">
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="113" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="121"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="114"/>
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="131" t="s">
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="118"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="123"/>
     </row>
     <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="119" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="121"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="114"/>
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="131" t="s">
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="118"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="123"/>
     </row>
     <row r="14" spans="1:13" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="120" t="s">
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="121"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="114"/>
     </row>
     <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="119" t="s">
+      <c r="A15" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="127"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="134"/>
     </row>
     <row r="16" spans="1:13" s="19" customFormat="1" ht="194.25" customHeight="1">
-      <c r="A16" s="128" t="s">
+      <c r="A16" s="135" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="130"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="136"/>
     </row>
     <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="119" t="s">
+      <c r="A17" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="121"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="114"/>
     </row>
     <row r="83" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A83" s="119" t="s">
+      <c r="A83" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="B83" s="120"/>
-      <c r="C83" s="120"/>
-      <c r="D83" s="120"/>
-      <c r="E83" s="120"/>
-      <c r="F83" s="120"/>
-      <c r="G83" s="120"/>
-      <c r="H83" s="120"/>
-      <c r="I83" s="120"/>
-      <c r="J83" s="120"/>
-      <c r="K83" s="120"/>
-      <c r="L83" s="121"/>
+      <c r="B83" s="113"/>
+      <c r="C83" s="113"/>
+      <c r="D83" s="113"/>
+      <c r="E83" s="113"/>
+      <c r="F83" s="113"/>
+      <c r="G83" s="113"/>
+      <c r="H83" s="113"/>
+      <c r="I83" s="113"/>
+      <c r="J83" s="113"/>
+      <c r="K83" s="113"/>
+      <c r="L83" s="114"/>
     </row>
     <row r="86" spans="1:12" ht="21" customHeight="1">
-      <c r="A86" s="119" t="s">
+      <c r="A86" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="B86" s="122"/>
-      <c r="C86" s="122"/>
-      <c r="D86" s="122"/>
-      <c r="E86" s="122"/>
-      <c r="F86" s="122"/>
-      <c r="G86" s="122"/>
-      <c r="H86" s="122"/>
-      <c r="I86" s="122"/>
-      <c r="J86" s="122"/>
-      <c r="K86" s="122"/>
-      <c r="L86" s="123"/>
+      <c r="B86" s="131"/>
+      <c r="C86" s="131"/>
+      <c r="D86" s="131"/>
+      <c r="E86" s="131"/>
+      <c r="F86" s="131"/>
+      <c r="G86" s="131"/>
+      <c r="H86" s="131"/>
+      <c r="I86" s="131"/>
+      <c r="J86" s="131"/>
+      <c r="K86" s="131"/>
+      <c r="L86" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A83:L83"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -7989,6 +8019,14 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A83:L83"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -8059,22 +8097,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="112" t="s">
-        <v>263</v>
+      <c r="P1" s="127" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="113"/>
+      <c r="P2" s="128"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="113"/>
+      <c r="P3" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8086,13 +8122,14 @@
     <hyperlink ref="P1:P3" location="總表!A1" display="回總表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="34817" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="Visio.Drawing.11" shapeId="39937" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -8111,7 +8148,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="34817" r:id="rId3"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="39937" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -8154,7 +8191,7 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="165" t="s">
+      <c r="K1" s="160" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="55"/>
@@ -8175,7 +8212,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="166"/>
+      <c r="K2" s="161"/>
     </row>
     <row r="3" spans="1:17" s="56" customFormat="1">
       <c r="A3" s="48"/>
@@ -8188,7 +8225,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="166"/>
+      <c r="K3" s="161"/>
     </row>
     <row r="4" spans="1:17" s="56" customFormat="1">
       <c r="A4" s="48"/>
@@ -8203,152 +8240,152 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="56" customFormat="1">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="123"/>
     </row>
     <row r="6" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="135"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="137"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="126"/>
     </row>
     <row r="7" spans="1:17" s="57" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="177"/>
-      <c r="B7" s="178"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="180"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="172"/>
       <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:17" s="57" customFormat="1">
-      <c r="A8" s="177"/>
-      <c r="B8" s="178"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="180"/>
+      <c r="A8" s="169"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="172"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:17" s="57" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="181"/>
-      <c r="B9" s="182"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="182"/>
-      <c r="J9" s="183"/>
+      <c r="A9" s="173"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="175"/>
     </row>
     <row r="10" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="184" t="s">
+      <c r="A11" s="176" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="114"/>
     </row>
     <row r="12" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="176" t="s">
+      <c r="A12" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="123"/>
     </row>
     <row r="13" spans="1:17" s="59" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="184" t="s">
+      <c r="A13" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="121"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="114"/>
     </row>
     <row r="14" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="176" t="s">
+      <c r="A14" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="152" t="s">
+      <c r="A15" s="180" t="s">
         <v>224</v>
       </c>
-      <c r="B15" s="161"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="162"/>
+      <c r="B15" s="181"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="182"/>
     </row>
     <row r="16" spans="1:17" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="60" t="s">
@@ -8357,16 +8394,16 @@
       <c r="B16" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="146" t="s">
+      <c r="C16" s="183" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="148"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="185"/>
     </row>
     <row r="17" spans="1:10" s="57" customFormat="1" ht="58.5" customHeight="1">
       <c r="A17" s="60">
@@ -8375,16 +8412,16 @@
       <c r="B17" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="C17" s="163" t="s">
+      <c r="C17" s="186" t="s">
         <v>219</v>
       </c>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="151"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="188"/>
     </row>
     <row r="18" spans="1:10" s="57" customFormat="1" ht="60.75" customHeight="1">
       <c r="A18" s="60">
@@ -8393,16 +8430,16 @@
       <c r="B18" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="C18" s="163" t="s">
+      <c r="C18" s="186" t="s">
         <v>221</v>
       </c>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="151"/>
+      <c r="D18" s="187"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="188"/>
     </row>
     <row r="19" spans="1:10" s="57" customFormat="1" ht="41.25" customHeight="1">
       <c r="A19" s="60">
@@ -8411,42 +8448,42 @@
       <c r="B19" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="C19" s="163" t="s">
+      <c r="C19" s="186" t="s">
         <v>223</v>
       </c>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="151"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="188"/>
     </row>
     <row r="20" spans="1:10" s="57" customFormat="1">
-      <c r="A20" s="143"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="145"/>
+      <c r="A20" s="141"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="142"/>
     </row>
     <row r="21" spans="1:10" s="57" customFormat="1">
-      <c r="A21" s="152" t="s">
+      <c r="A21" s="180" t="s">
         <v>132</v>
       </c>
-      <c r="B21" s="161"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="162"/>
+      <c r="B21" s="181"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="182"/>
     </row>
     <row r="22" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="60" t="s">
@@ -8455,16 +8492,16 @@
       <c r="B22" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="146" t="s">
+      <c r="C22" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="148"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="185"/>
     </row>
     <row r="23" spans="1:10" s="57" customFormat="1">
       <c r="A23" s="60">
@@ -8473,16 +8510,16 @@
       <c r="B23" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="149" t="s">
+      <c r="C23" s="191" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="150"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="151"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="187"/>
+      <c r="G23" s="187"/>
+      <c r="H23" s="187"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="188"/>
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1">
       <c r="A24" s="60">
@@ -8491,16 +8528,16 @@
       <c r="B24" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="149" t="s">
+      <c r="C24" s="191" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="150"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="151"/>
+      <c r="D24" s="187"/>
+      <c r="E24" s="187"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="187"/>
+      <c r="H24" s="187"/>
+      <c r="I24" s="187"/>
+      <c r="J24" s="188"/>
     </row>
     <row r="25" spans="1:10" s="57" customFormat="1">
       <c r="A25" s="60">
@@ -8509,16 +8546,16 @@
       <c r="B25" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="149" t="s">
+      <c r="C25" s="191" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="151"/>
+      <c r="D25" s="187"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="187"/>
+      <c r="G25" s="187"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="188"/>
     </row>
     <row r="26" spans="1:10" s="57" customFormat="1">
       <c r="A26" s="60">
@@ -8527,56 +8564,56 @@
       <c r="B26" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="149" t="s">
+      <c r="C26" s="191" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="150"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="151"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="188"/>
     </row>
     <row r="27" spans="1:10" s="57" customFormat="1">
-      <c r="A27" s="173"/>
-      <c r="B27" s="174"/>
-      <c r="C27" s="174"/>
-      <c r="D27" s="174"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="175"/>
+      <c r="A27" s="165"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="167"/>
     </row>
     <row r="28" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="138" t="s">
+      <c r="A28" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="185"/>
-      <c r="C28" s="185"/>
-      <c r="D28" s="185"/>
-      <c r="E28" s="185"/>
-      <c r="F28" s="185"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="186"/>
+      <c r="B28" s="178"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="179"/>
     </row>
     <row r="29" spans="1:10" s="57" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="152" t="s">
+      <c r="A29" s="180" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="161"/>
-      <c r="C29" s="161"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="162"/>
+      <c r="B29" s="181"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="182"/>
     </row>
     <row r="30" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="60" t="s">
@@ -8585,16 +8622,16 @@
       <c r="B30" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="146" t="s">
+      <c r="C30" s="183" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="148"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="184"/>
+      <c r="J30" s="185"/>
     </row>
     <row r="31" spans="1:10" s="57" customFormat="1">
       <c r="A31" s="60">
@@ -8603,16 +8640,16 @@
       <c r="B31" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="155" t="s">
+      <c r="C31" s="192" t="s">
         <v>250</v>
       </c>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="157"/>
+      <c r="D31" s="193"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="193"/>
+      <c r="G31" s="193"/>
+      <c r="H31" s="193"/>
+      <c r="I31" s="193"/>
+      <c r="J31" s="194"/>
     </row>
     <row r="32" spans="1:10" s="57" customFormat="1">
       <c r="A32" s="60">
@@ -8621,14 +8658,14 @@
       <c r="B32" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="158"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="160"/>
+      <c r="C32" s="195"/>
+      <c r="D32" s="196"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="196"/>
+      <c r="G32" s="196"/>
+      <c r="H32" s="196"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="197"/>
     </row>
     <row r="33" spans="1:12" s="57" customFormat="1">
       <c r="A33" s="60">
@@ -8637,42 +8674,42 @@
       <c r="B33" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="149" t="s">
+      <c r="C33" s="191" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="151"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="187"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="187"/>
+      <c r="J33" s="188"/>
     </row>
     <row r="34" spans="1:12" s="57" customFormat="1">
-      <c r="A34" s="143"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="145"/>
+      <c r="A34" s="141"/>
+      <c r="B34" s="158"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="142"/>
     </row>
     <row r="35" spans="1:12" s="57" customFormat="1">
-      <c r="A35" s="152" t="s">
+      <c r="A35" s="180" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="153"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="154"/>
+      <c r="B35" s="189"/>
+      <c r="C35" s="189"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="189"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="189"/>
+      <c r="J35" s="190"/>
     </row>
     <row r="36" spans="1:12" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="60" t="s">
@@ -8681,16 +8718,16 @@
       <c r="B36" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="146" t="s">
+      <c r="C36" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="148"/>
+      <c r="D36" s="184"/>
+      <c r="E36" s="184"/>
+      <c r="F36" s="184"/>
+      <c r="G36" s="184"/>
+      <c r="H36" s="184"/>
+      <c r="I36" s="184"/>
+      <c r="J36" s="185"/>
     </row>
     <row r="37" spans="1:12" s="57" customFormat="1">
       <c r="A37" s="60">
@@ -8699,16 +8736,16 @@
       <c r="B37" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="149" t="s">
+      <c r="C37" s="191" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="151"/>
+      <c r="D37" s="187"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="187"/>
+      <c r="J37" s="188"/>
     </row>
     <row r="38" spans="1:12" s="57" customFormat="1">
       <c r="A38" s="60">
@@ -8717,16 +8754,16 @@
       <c r="B38" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="149" t="s">
+      <c r="C38" s="191" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="151"/>
+      <c r="D38" s="187"/>
+      <c r="E38" s="187"/>
+      <c r="F38" s="187"/>
+      <c r="G38" s="187"/>
+      <c r="H38" s="187"/>
+      <c r="I38" s="187"/>
+      <c r="J38" s="188"/>
     </row>
     <row r="39" spans="1:12" s="57" customFormat="1">
       <c r="A39" s="60">
@@ -8735,16 +8772,16 @@
       <c r="B39" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="149" t="s">
+      <c r="C39" s="191" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="151"/>
+      <c r="D39" s="187"/>
+      <c r="E39" s="187"/>
+      <c r="F39" s="187"/>
+      <c r="G39" s="187"/>
+      <c r="H39" s="187"/>
+      <c r="I39" s="187"/>
+      <c r="J39" s="188"/>
     </row>
     <row r="40" spans="1:12" s="57" customFormat="1">
       <c r="A40" s="60">
@@ -8753,42 +8790,42 @@
       <c r="B40" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="149" t="s">
+      <c r="C40" s="191" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="151"/>
+      <c r="D40" s="187"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="187"/>
+      <c r="H40" s="187"/>
+      <c r="I40" s="187"/>
+      <c r="J40" s="188"/>
     </row>
     <row r="41" spans="1:12" s="57" customFormat="1">
-      <c r="A41" s="143"/>
-      <c r="B41" s="144"/>
-      <c r="C41" s="144"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="144"/>
-      <c r="J41" s="145"/>
+      <c r="A41" s="141"/>
+      <c r="B41" s="158"/>
+      <c r="C41" s="158"/>
+      <c r="D41" s="158"/>
+      <c r="E41" s="158"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="158"/>
+      <c r="H41" s="158"/>
+      <c r="I41" s="158"/>
+      <c r="J41" s="142"/>
     </row>
     <row r="42" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="138" t="s">
+      <c r="A42" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="139"/>
-      <c r="C42" s="139"/>
-      <c r="D42" s="139"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="139"/>
-      <c r="J42" s="140"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="198"/>
+      <c r="H42" s="198"/>
+      <c r="I42" s="198"/>
+      <c r="J42" s="199"/>
     </row>
     <row r="43" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="61" t="s">
@@ -8803,14 +8840,14 @@
       <c r="D43" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="141" t="s">
+      <c r="E43" s="200" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="142"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="142"/>
+      <c r="F43" s="201"/>
+      <c r="G43" s="201"/>
+      <c r="H43" s="201"/>
+      <c r="I43" s="201"/>
+      <c r="J43" s="201"/>
       <c r="K43" s="57"/>
       <c r="L43" s="57"/>
     </row>
@@ -8823,40 +8860,40 @@
       </c>
       <c r="C44" s="65"/>
       <c r="D44" s="66"/>
-      <c r="E44" s="195" t="s">
+      <c r="E44" s="151" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="129"/>
-      <c r="G44" s="129"/>
-      <c r="H44" s="129"/>
-      <c r="I44" s="129"/>
-      <c r="J44" s="129"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="120"/>
     </row>
     <row r="45" spans="1:12" s="57" customFormat="1">
       <c r="A45" s="67"/>
-      <c r="B45" s="144"/>
-      <c r="C45" s="144"/>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144"/>
-      <c r="J45" s="145"/>
+      <c r="B45" s="158"/>
+      <c r="C45" s="158"/>
+      <c r="D45" s="158"/>
+      <c r="E45" s="158"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="158"/>
+      <c r="H45" s="158"/>
+      <c r="I45" s="158"/>
+      <c r="J45" s="142"/>
     </row>
     <row r="46" spans="1:12" s="57" customFormat="1">
-      <c r="A46" s="170" t="s">
+      <c r="A46" s="162" t="s">
         <v>137</v>
       </c>
-      <c r="B46" s="171"/>
-      <c r="C46" s="171"/>
-      <c r="D46" s="171"/>
-      <c r="E46" s="171"/>
-      <c r="F46" s="171"/>
-      <c r="G46" s="171"/>
-      <c r="H46" s="171"/>
-      <c r="I46" s="171"/>
-      <c r="J46" s="172"/>
+      <c r="B46" s="163"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
+      <c r="E46" s="163"/>
+      <c r="F46" s="163"/>
+      <c r="G46" s="163"/>
+      <c r="H46" s="163"/>
+      <c r="I46" s="163"/>
+      <c r="J46" s="164"/>
     </row>
     <row r="47" spans="1:12" s="57" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="60">
@@ -8869,14 +8906,14 @@
         <v>15</v>
       </c>
       <c r="D47" s="70"/>
-      <c r="E47" s="195" t="s">
+      <c r="E47" s="151" t="s">
         <v>135</v>
       </c>
-      <c r="F47" s="129"/>
-      <c r="G47" s="129"/>
-      <c r="H47" s="129"/>
-      <c r="I47" s="129"/>
-      <c r="J47" s="129"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
     </row>
     <row r="48" spans="1:12" s="59" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="71">
@@ -8889,14 +8926,14 @@
         <v>15</v>
       </c>
       <c r="D48" s="73"/>
-      <c r="E48" s="167" t="s">
+      <c r="E48" s="138" t="s">
         <v>191</v>
       </c>
-      <c r="F48" s="168"/>
-      <c r="G48" s="168"/>
-      <c r="H48" s="168"/>
-      <c r="I48" s="168"/>
-      <c r="J48" s="169"/>
+      <c r="F48" s="139"/>
+      <c r="G48" s="139"/>
+      <c r="H48" s="139"/>
+      <c r="I48" s="139"/>
+      <c r="J48" s="140"/>
     </row>
     <row r="49" spans="1:10" s="57" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="74">
@@ -8909,40 +8946,40 @@
         <v>15</v>
       </c>
       <c r="D49" s="75"/>
-      <c r="E49" s="167" t="s">
+      <c r="E49" s="138" t="s">
         <v>136</v>
       </c>
-      <c r="F49" s="168"/>
-      <c r="G49" s="168"/>
-      <c r="H49" s="168"/>
-      <c r="I49" s="168"/>
-      <c r="J49" s="169"/>
+      <c r="F49" s="139"/>
+      <c r="G49" s="139"/>
+      <c r="H49" s="139"/>
+      <c r="I49" s="139"/>
+      <c r="J49" s="140"/>
     </row>
     <row r="50" spans="1:10" s="57" customFormat="1">
       <c r="A50" s="76"/>
-      <c r="B50" s="144"/>
-      <c r="C50" s="144"/>
-      <c r="D50" s="144"/>
-      <c r="E50" s="144"/>
-      <c r="F50" s="144"/>
-      <c r="G50" s="144"/>
-      <c r="H50" s="144"/>
-      <c r="I50" s="144"/>
-      <c r="J50" s="145"/>
+      <c r="B50" s="158"/>
+      <c r="C50" s="158"/>
+      <c r="D50" s="158"/>
+      <c r="E50" s="158"/>
+      <c r="F50" s="158"/>
+      <c r="G50" s="158"/>
+      <c r="H50" s="158"/>
+      <c r="I50" s="158"/>
+      <c r="J50" s="142"/>
     </row>
     <row r="51" spans="1:10" s="57" customFormat="1">
-      <c r="A51" s="196" t="s">
+      <c r="A51" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="B51" s="197"/>
-      <c r="C51" s="197"/>
-      <c r="D51" s="197"/>
-      <c r="E51" s="197"/>
-      <c r="F51" s="197"/>
-      <c r="G51" s="197"/>
-      <c r="H51" s="197"/>
-      <c r="I51" s="197"/>
-      <c r="J51" s="198"/>
+      <c r="B51" s="153"/>
+      <c r="C51" s="153"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="153"/>
+      <c r="F51" s="153"/>
+      <c r="G51" s="153"/>
+      <c r="H51" s="153"/>
+      <c r="I51" s="153"/>
+      <c r="J51" s="154"/>
     </row>
     <row r="52" spans="1:10" s="57" customFormat="1" hidden="1">
       <c r="A52" s="60">
@@ -8955,14 +8992,14 @@
         <v>15</v>
       </c>
       <c r="D52" s="70"/>
-      <c r="E52" s="195" t="s">
+      <c r="E52" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="F52" s="129"/>
-      <c r="G52" s="129"/>
-      <c r="H52" s="129"/>
-      <c r="I52" s="129"/>
-      <c r="J52" s="129"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="120"/>
     </row>
     <row r="53" spans="1:10" s="57" customFormat="1" hidden="1">
       <c r="A53" s="60">
@@ -8975,14 +9012,14 @@
         <v>15</v>
       </c>
       <c r="D53" s="73"/>
-      <c r="E53" s="199" t="s">
+      <c r="E53" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="F53" s="200"/>
-      <c r="G53" s="200"/>
-      <c r="H53" s="200"/>
-      <c r="I53" s="200"/>
-      <c r="J53" s="201"/>
+      <c r="F53" s="156"/>
+      <c r="G53" s="156"/>
+      <c r="H53" s="156"/>
+      <c r="I53" s="156"/>
+      <c r="J53" s="157"/>
     </row>
     <row r="54" spans="1:10" s="57" customFormat="1" hidden="1">
       <c r="A54" s="60">
@@ -8995,14 +9032,14 @@
         <v>15</v>
       </c>
       <c r="D54" s="73"/>
-      <c r="E54" s="199" t="s">
+      <c r="E54" s="155" t="s">
         <v>105</v>
       </c>
-      <c r="F54" s="200"/>
-      <c r="G54" s="200"/>
-      <c r="H54" s="200"/>
-      <c r="I54" s="200"/>
-      <c r="J54" s="201"/>
+      <c r="F54" s="156"/>
+      <c r="G54" s="156"/>
+      <c r="H54" s="156"/>
+      <c r="I54" s="156"/>
+      <c r="J54" s="157"/>
     </row>
     <row r="55" spans="1:10" s="57" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="60">
@@ -9015,14 +9052,14 @@
         <v>15</v>
       </c>
       <c r="D55" s="73"/>
-      <c r="E55" s="199" t="s">
+      <c r="E55" s="155" t="s">
         <v>80</v>
       </c>
-      <c r="F55" s="200"/>
-      <c r="G55" s="200"/>
-      <c r="H55" s="200"/>
-      <c r="I55" s="200"/>
-      <c r="J55" s="201"/>
+      <c r="F55" s="156"/>
+      <c r="G55" s="156"/>
+      <c r="H55" s="156"/>
+      <c r="I55" s="156"/>
+      <c r="J55" s="157"/>
     </row>
     <row r="56" spans="1:10" s="57" customFormat="1" ht="33.75" customHeight="1">
       <c r="A56" s="60">
@@ -9035,118 +9072,118 @@
         <v>15</v>
       </c>
       <c r="D56" s="86"/>
-      <c r="E56" s="167" t="s">
+      <c r="E56" s="138" t="s">
         <v>192</v>
       </c>
-      <c r="F56" s="120"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
-      <c r="J56" s="121"/>
+      <c r="F56" s="113"/>
+      <c r="G56" s="113"/>
+      <c r="H56" s="113"/>
+      <c r="I56" s="113"/>
+      <c r="J56" s="114"/>
     </row>
     <row r="57" spans="1:10" s="57" customFormat="1">
       <c r="A57" s="77"/>
-      <c r="B57" s="144"/>
-      <c r="C57" s="144"/>
-      <c r="D57" s="144"/>
-      <c r="E57" s="144"/>
-      <c r="F57" s="144"/>
-      <c r="G57" s="144"/>
-      <c r="H57" s="144"/>
-      <c r="I57" s="144"/>
-      <c r="J57" s="145"/>
+      <c r="B57" s="158"/>
+      <c r="C57" s="158"/>
+      <c r="D57" s="158"/>
+      <c r="E57" s="158"/>
+      <c r="F57" s="158"/>
+      <c r="G57" s="158"/>
+      <c r="H57" s="158"/>
+      <c r="I57" s="158"/>
+      <c r="J57" s="142"/>
     </row>
     <row r="58" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="192" t="s">
+      <c r="A58" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="193"/>
-      <c r="C58" s="193"/>
-      <c r="D58" s="193"/>
-      <c r="E58" s="193"/>
-      <c r="F58" s="193"/>
-      <c r="G58" s="193"/>
-      <c r="H58" s="193"/>
-      <c r="I58" s="193"/>
-      <c r="J58" s="194"/>
+      <c r="B58" s="149"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="149"/>
+      <c r="E58" s="149"/>
+      <c r="F58" s="149"/>
+      <c r="G58" s="149"/>
+      <c r="H58" s="149"/>
+      <c r="I58" s="149"/>
+      <c r="J58" s="150"/>
     </row>
     <row r="59" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="190" t="s">
+      <c r="B59" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="191"/>
-      <c r="D59" s="167" t="s">
+      <c r="C59" s="147"/>
+      <c r="D59" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="120"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="120"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="120"/>
-      <c r="J59" s="121"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="113"/>
+      <c r="G59" s="113"/>
+      <c r="H59" s="113"/>
+      <c r="I59" s="113"/>
+      <c r="J59" s="114"/>
     </row>
     <row r="60" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="187"/>
-      <c r="B60" s="188"/>
-      <c r="C60" s="188"/>
-      <c r="D60" s="188"/>
-      <c r="E60" s="188"/>
-      <c r="F60" s="188"/>
-      <c r="G60" s="188"/>
-      <c r="H60" s="188"/>
-      <c r="I60" s="188"/>
-      <c r="J60" s="189"/>
+      <c r="A60" s="143"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="144"/>
+      <c r="G60" s="144"/>
+      <c r="H60" s="144"/>
+      <c r="I60" s="144"/>
+      <c r="J60" s="145"/>
     </row>
     <row r="61" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="74"/>
-      <c r="B61" s="143"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="167"/>
-      <c r="E61" s="168"/>
-      <c r="F61" s="168"/>
-      <c r="G61" s="168"/>
-      <c r="H61" s="168"/>
-      <c r="I61" s="168"/>
-      <c r="J61" s="169"/>
+      <c r="B61" s="141"/>
+      <c r="C61" s="142"/>
+      <c r="D61" s="138"/>
+      <c r="E61" s="139"/>
+      <c r="F61" s="139"/>
+      <c r="G61" s="139"/>
+      <c r="H61" s="139"/>
+      <c r="I61" s="139"/>
+      <c r="J61" s="140"/>
     </row>
     <row r="62" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="74"/>
-      <c r="B62" s="143"/>
-      <c r="C62" s="145"/>
-      <c r="D62" s="167"/>
-      <c r="E62" s="168"/>
-      <c r="F62" s="168"/>
-      <c r="G62" s="168"/>
-      <c r="H62" s="168"/>
-      <c r="I62" s="168"/>
-      <c r="J62" s="169"/>
+      <c r="B62" s="141"/>
+      <c r="C62" s="142"/>
+      <c r="D62" s="138"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="139"/>
+      <c r="H62" s="139"/>
+      <c r="I62" s="139"/>
+      <c r="J62" s="140"/>
     </row>
     <row r="63" spans="1:10" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="187"/>
-      <c r="B63" s="188"/>
-      <c r="C63" s="188"/>
-      <c r="D63" s="188"/>
-      <c r="E63" s="188"/>
-      <c r="F63" s="188"/>
-      <c r="G63" s="188"/>
-      <c r="H63" s="188"/>
-      <c r="I63" s="188"/>
-      <c r="J63" s="189"/>
+      <c r="A63" s="143"/>
+      <c r="B63" s="144"/>
+      <c r="C63" s="144"/>
+      <c r="D63" s="144"/>
+      <c r="E63" s="144"/>
+      <c r="F63" s="144"/>
+      <c r="G63" s="144"/>
+      <c r="H63" s="144"/>
+      <c r="I63" s="144"/>
+      <c r="J63" s="145"/>
     </row>
     <row r="64" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="74"/>
-      <c r="B64" s="143"/>
-      <c r="C64" s="145"/>
-      <c r="D64" s="167"/>
-      <c r="E64" s="168"/>
-      <c r="F64" s="168"/>
-      <c r="G64" s="168"/>
-      <c r="H64" s="168"/>
-      <c r="I64" s="168"/>
-      <c r="J64" s="169"/>
+      <c r="B64" s="141"/>
+      <c r="C64" s="142"/>
+      <c r="D64" s="138"/>
+      <c r="E64" s="139"/>
+      <c r="F64" s="139"/>
+      <c r="G64" s="139"/>
+      <c r="H64" s="139"/>
+      <c r="I64" s="139"/>
+      <c r="J64" s="140"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="78" t="s">
@@ -9169,14 +9206,14 @@
       <c r="B66" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="143"/>
-      <c r="D66" s="120"/>
-      <c r="E66" s="120"/>
-      <c r="F66" s="120"/>
-      <c r="G66" s="120"/>
-      <c r="H66" s="120"/>
-      <c r="I66" s="120"/>
-      <c r="J66" s="121"/>
+      <c r="C66" s="141"/>
+      <c r="D66" s="113"/>
+      <c r="E66" s="113"/>
+      <c r="F66" s="113"/>
+      <c r="G66" s="113"/>
+      <c r="H66" s="113"/>
+      <c r="I66" s="113"/>
+      <c r="J66" s="114"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="74">
@@ -9185,22 +9222,59 @@
       <c r="B67" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="164"/>
-      <c r="D67" s="164"/>
-      <c r="E67" s="164"/>
-      <c r="F67" s="164"/>
-      <c r="G67" s="164"/>
-      <c r="H67" s="164"/>
-      <c r="I67" s="164"/>
-      <c r="J67" s="164"/>
+      <c r="C67" s="159"/>
+      <c r="D67" s="159"/>
+      <c r="E67" s="159"/>
+      <c r="F67" s="159"/>
+      <c r="G67" s="159"/>
+      <c r="H67" s="159"/>
+      <c r="I67" s="159"/>
+      <c r="J67" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="A60:J60"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="A58:J58"/>
@@ -9217,48 +9291,11 @@
     <mergeCell ref="B45:J45"/>
     <mergeCell ref="B50:J50"/>
     <mergeCell ref="B57:J57"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D61:J61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B62:C62"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9311,7 +9348,7 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="165" t="s">
+      <c r="K1" s="160" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="40"/>
@@ -9338,7 +9375,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="166"/>
+      <c r="K2" s="161"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -9356,7 +9393,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="166"/>
+      <c r="K3" s="161"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -9832,7 +9869,7 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="165" t="s">
+      <c r="K1" s="160" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="55"/>
@@ -9853,7 +9890,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="166"/>
+      <c r="K2" s="161"/>
     </row>
     <row r="3" spans="1:17" s="56" customFormat="1">
       <c r="A3" s="48"/>
@@ -9866,7 +9903,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="166"/>
+      <c r="K3" s="161"/>
     </row>
     <row r="4" spans="1:17" s="56" customFormat="1">
       <c r="A4" s="48"/>
@@ -9881,152 +9918,152 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="56" customFormat="1">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="123"/>
     </row>
     <row r="6" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="135"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="137"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="126"/>
     </row>
     <row r="7" spans="1:17" s="57" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="177"/>
-      <c r="B7" s="178"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="180"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="172"/>
       <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:17" s="57" customFormat="1">
-      <c r="A8" s="177"/>
-      <c r="B8" s="178"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="180"/>
+      <c r="A8" s="169"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="172"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:17" s="57" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="181"/>
-      <c r="B9" s="182"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="182"/>
-      <c r="J9" s="183"/>
+      <c r="A9" s="173"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="175"/>
     </row>
     <row r="10" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="84.75" customHeight="1">
-      <c r="A11" s="184" t="s">
+      <c r="A11" s="176" t="s">
         <v>247</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="114"/>
     </row>
     <row r="12" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="176" t="s">
+      <c r="A12" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="123"/>
     </row>
     <row r="13" spans="1:17" s="59" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="184" t="s">
+      <c r="A13" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="121"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="114"/>
     </row>
     <row r="14" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="176" t="s">
+      <c r="A14" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="152" t="s">
+      <c r="A15" s="180" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="161"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="162"/>
+      <c r="B15" s="181"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="182"/>
     </row>
     <row r="16" spans="1:17" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="60" t="s">
@@ -10035,16 +10072,16 @@
       <c r="B16" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="146" t="s">
+      <c r="C16" s="183" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="148"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="185"/>
     </row>
     <row r="17" spans="1:10" s="57" customFormat="1">
       <c r="A17" s="60">
@@ -10053,16 +10090,16 @@
       <c r="B17" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="163" t="s">
+      <c r="C17" s="186" t="s">
         <v>217</v>
       </c>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="151"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="188"/>
     </row>
     <row r="18" spans="1:10" s="57" customFormat="1" ht="24" customHeight="1">
       <c r="A18" s="44">
@@ -10071,16 +10108,16 @@
       <c r="B18" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="163" t="s">
+      <c r="C18" s="186" t="s">
         <v>244</v>
       </c>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="151"/>
+      <c r="D18" s="187"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="188"/>
     </row>
     <row r="19" spans="1:10" s="57" customFormat="1" ht="27.75" customHeight="1">
       <c r="A19" s="44">
@@ -10089,16 +10126,16 @@
       <c r="B19" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="163" t="s">
+      <c r="C19" s="186" t="s">
         <v>243</v>
       </c>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="151"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="188"/>
     </row>
     <row r="20" spans="1:10" s="57" customFormat="1" ht="42" customHeight="1">
       <c r="A20" s="49">
@@ -10107,16 +10144,16 @@
       <c r="B20" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="163" t="s">
+      <c r="C20" s="186" t="s">
         <v>245</v>
       </c>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="151"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="187"/>
+      <c r="G20" s="187"/>
+      <c r="H20" s="187"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="188"/>
     </row>
     <row r="21" spans="1:10" s="57" customFormat="1" ht="39.75" customHeight="1">
       <c r="A21" s="49">
@@ -10125,16 +10162,16 @@
       <c r="B21" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="163" t="s">
+      <c r="C21" s="186" t="s">
         <v>246</v>
       </c>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="150"/>
-      <c r="H21" s="150"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="151"/>
+      <c r="D21" s="187"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="187"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="188"/>
     </row>
     <row r="22" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A22" s="44">
@@ -10143,7 +10180,7 @@
       <c r="B22" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="163" t="s">
+      <c r="C22" s="186" t="s">
         <v>262</v>
       </c>
       <c r="D22" s="209"/>
@@ -10155,30 +10192,30 @@
       <c r="J22" s="210"/>
     </row>
     <row r="23" spans="1:10" s="57" customFormat="1">
-      <c r="A23" s="173"/>
-      <c r="B23" s="174"/>
-      <c r="C23" s="174"/>
-      <c r="D23" s="174"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="174"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="175"/>
+      <c r="A23" s="165"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="167"/>
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A24" s="152" t="s">
+      <c r="A24" s="180" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="161"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="162"/>
+      <c r="B24" s="181"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="182"/>
     </row>
     <row r="25" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A25" s="89">
@@ -10187,16 +10224,16 @@
       <c r="B25" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="163" t="s">
+      <c r="C25" s="186" t="s">
         <v>175</v>
       </c>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="151"/>
+      <c r="D25" s="187"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="187"/>
+      <c r="G25" s="187"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="188"/>
     </row>
     <row r="26" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A26" s="89">
@@ -10205,16 +10242,16 @@
       <c r="B26" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="163" t="s">
+      <c r="C26" s="186" t="s">
         <v>175</v>
       </c>
-      <c r="D26" s="150"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="151"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="188"/>
     </row>
     <row r="27" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A27" s="44">
@@ -10223,16 +10260,16 @@
       <c r="B27" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="163" t="s">
+      <c r="C27" s="186" t="s">
         <v>175</v>
       </c>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="151"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="187"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="188"/>
     </row>
     <row r="28" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A28" s="44">
@@ -10241,44 +10278,44 @@
       <c r="B28" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="163" t="s">
+      <c r="C28" s="186" t="s">
         <v>175</v>
       </c>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="151"/>
+      <c r="D28" s="187"/>
+      <c r="E28" s="187"/>
+      <c r="F28" s="187"/>
+      <c r="G28" s="187"/>
+      <c r="H28" s="187"/>
+      <c r="I28" s="187"/>
+      <c r="J28" s="188"/>
     </row>
     <row r="29" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="138" t="s">
+      <c r="A29" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="185"/>
-      <c r="C29" s="185"/>
-      <c r="D29" s="185"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="185"/>
-      <c r="J29" s="186"/>
+      <c r="B29" s="178"/>
+      <c r="C29" s="178"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="179"/>
     </row>
     <row r="30" spans="1:10" s="57" customFormat="1" ht="36" customHeight="1">
-      <c r="A30" s="152" t="s">
+      <c r="A30" s="180" t="s">
         <v>176</v>
       </c>
-      <c r="B30" s="161"/>
-      <c r="C30" s="161"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="162"/>
+      <c r="B30" s="181"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="182"/>
     </row>
     <row r="31" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="60" t="s">
@@ -10287,16 +10324,16 @@
       <c r="B31" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="146" t="s">
+      <c r="C31" s="183" t="s">
         <v>145</v>
       </c>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="148"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="185"/>
     </row>
     <row r="32" spans="1:10" s="57" customFormat="1">
       <c r="A32" s="60">
@@ -10305,16 +10342,16 @@
       <c r="B32" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="C32" s="211" t="s">
+      <c r="C32" s="205" t="s">
         <v>248</v>
       </c>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="157"/>
+      <c r="D32" s="193"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="193"/>
+      <c r="G32" s="193"/>
+      <c r="H32" s="193"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="194"/>
     </row>
     <row r="33" spans="1:12" s="57" customFormat="1">
       <c r="A33" s="60">
@@ -10323,14 +10360,14 @@
       <c r="B33" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="212"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="214"/>
+      <c r="C33" s="206"/>
+      <c r="D33" s="207"/>
+      <c r="E33" s="207"/>
+      <c r="F33" s="207"/>
+      <c r="G33" s="207"/>
+      <c r="H33" s="207"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="208"/>
     </row>
     <row r="34" spans="1:12" s="57" customFormat="1">
       <c r="A34" s="60">
@@ -10339,14 +10376,14 @@
       <c r="B34" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="212"/>
-      <c r="D34" s="213"/>
-      <c r="E34" s="213"/>
-      <c r="F34" s="213"/>
-      <c r="G34" s="213"/>
-      <c r="H34" s="213"/>
-      <c r="I34" s="213"/>
-      <c r="J34" s="214"/>
+      <c r="C34" s="206"/>
+      <c r="D34" s="207"/>
+      <c r="E34" s="207"/>
+      <c r="F34" s="207"/>
+      <c r="G34" s="207"/>
+      <c r="H34" s="207"/>
+      <c r="I34" s="207"/>
+      <c r="J34" s="208"/>
     </row>
     <row r="35" spans="1:12" s="57" customFormat="1">
       <c r="A35" s="60">
@@ -10355,40 +10392,40 @@
       <c r="B35" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="158"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="159"/>
-      <c r="I35" s="159"/>
-      <c r="J35" s="160"/>
+      <c r="C35" s="195"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="197"/>
     </row>
     <row r="36" spans="1:12" s="57" customFormat="1">
-      <c r="A36" s="143"/>
-      <c r="B36" s="144"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="144"/>
-      <c r="I36" s="144"/>
-      <c r="J36" s="145"/>
+      <c r="A36" s="141"/>
+      <c r="B36" s="158"/>
+      <c r="C36" s="158"/>
+      <c r="D36" s="158"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="158"/>
+      <c r="I36" s="158"/>
+      <c r="J36" s="142"/>
     </row>
     <row r="37" spans="1:12" s="57" customFormat="1">
-      <c r="A37" s="152" t="s">
+      <c r="A37" s="180" t="s">
         <v>150</v>
       </c>
-      <c r="B37" s="153"/>
-      <c r="C37" s="153"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="154"/>
+      <c r="B37" s="189"/>
+      <c r="C37" s="189"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="189"/>
+      <c r="F37" s="189"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="189"/>
+      <c r="J37" s="190"/>
     </row>
     <row r="38" spans="1:12" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="60" t="s">
@@ -10397,16 +10434,16 @@
       <c r="B38" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="C38" s="146" t="s">
+      <c r="C38" s="183" t="s">
         <v>145</v>
       </c>
-      <c r="D38" s="147"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="148"/>
+      <c r="D38" s="184"/>
+      <c r="E38" s="184"/>
+      <c r="F38" s="184"/>
+      <c r="G38" s="184"/>
+      <c r="H38" s="184"/>
+      <c r="I38" s="184"/>
+      <c r="J38" s="185"/>
     </row>
     <row r="39" spans="1:12" s="57" customFormat="1">
       <c r="A39" s="89">
@@ -10415,16 +10452,16 @@
       <c r="B39" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="149" t="s">
+      <c r="C39" s="191" t="s">
         <v>148</v>
       </c>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="151"/>
+      <c r="D39" s="187"/>
+      <c r="E39" s="187"/>
+      <c r="F39" s="187"/>
+      <c r="G39" s="187"/>
+      <c r="H39" s="187"/>
+      <c r="I39" s="187"/>
+      <c r="J39" s="188"/>
     </row>
     <row r="40" spans="1:12" s="57" customFormat="1">
       <c r="A40" s="89">
@@ -10433,16 +10470,16 @@
       <c r="B40" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="149" t="s">
+      <c r="C40" s="191" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="151"/>
+      <c r="D40" s="187"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="187"/>
+      <c r="H40" s="187"/>
+      <c r="I40" s="187"/>
+      <c r="J40" s="188"/>
     </row>
     <row r="41" spans="1:12" s="57" customFormat="1">
       <c r="A41" s="44">
@@ -10451,16 +10488,16 @@
       <c r="B41" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="149" t="s">
+      <c r="C41" s="191" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="151"/>
+      <c r="D41" s="187"/>
+      <c r="E41" s="187"/>
+      <c r="F41" s="187"/>
+      <c r="G41" s="187"/>
+      <c r="H41" s="187"/>
+      <c r="I41" s="187"/>
+      <c r="J41" s="188"/>
     </row>
     <row r="42" spans="1:12" s="57" customFormat="1">
       <c r="A42" s="44">
@@ -10469,54 +10506,54 @@
       <c r="B42" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="149" t="s">
+      <c r="C42" s="191" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="151"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="187"/>
+      <c r="F42" s="187"/>
+      <c r="G42" s="187"/>
+      <c r="H42" s="187"/>
+      <c r="I42" s="187"/>
+      <c r="J42" s="188"/>
     </row>
     <row r="43" spans="1:12" s="57" customFormat="1">
-      <c r="A43" s="143"/>
-      <c r="B43" s="144"/>
-      <c r="C43" s="144"/>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="144"/>
-      <c r="H43" s="144"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="145"/>
+      <c r="A43" s="141"/>
+      <c r="B43" s="158"/>
+      <c r="C43" s="158"/>
+      <c r="D43" s="158"/>
+      <c r="E43" s="158"/>
+      <c r="F43" s="158"/>
+      <c r="G43" s="158"/>
+      <c r="H43" s="158"/>
+      <c r="I43" s="158"/>
+      <c r="J43" s="142"/>
     </row>
     <row r="44" spans="1:12" s="57" customFormat="1">
-      <c r="A44" s="173"/>
-      <c r="B44" s="207"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="207"/>
-      <c r="E44" s="207"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="207"/>
-      <c r="H44" s="207"/>
-      <c r="I44" s="207"/>
-      <c r="J44" s="208"/>
+      <c r="A44" s="165"/>
+      <c r="B44" s="211"/>
+      <c r="C44" s="211"/>
+      <c r="D44" s="211"/>
+      <c r="E44" s="211"/>
+      <c r="F44" s="211"/>
+      <c r="G44" s="211"/>
+      <c r="H44" s="211"/>
+      <c r="I44" s="211"/>
+      <c r="J44" s="212"/>
     </row>
     <row r="45" spans="1:12" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="138" t="s">
+      <c r="A45" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="185"/>
-      <c r="C45" s="185"/>
-      <c r="D45" s="185"/>
-      <c r="E45" s="185"/>
-      <c r="F45" s="185"/>
-      <c r="G45" s="185"/>
-      <c r="H45" s="185"/>
-      <c r="I45" s="185"/>
-      <c r="J45" s="186"/>
+      <c r="B45" s="178"/>
+      <c r="C45" s="178"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="178"/>
+      <c r="G45" s="178"/>
+      <c r="H45" s="178"/>
+      <c r="I45" s="178"/>
+      <c r="J45" s="179"/>
     </row>
     <row r="46" spans="1:12" s="83" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="61" t="s">
@@ -10531,14 +10568,14 @@
       <c r="D46" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="141" t="s">
+      <c r="E46" s="200" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="142"/>
-      <c r="G46" s="142"/>
-      <c r="H46" s="142"/>
-      <c r="I46" s="142"/>
-      <c r="J46" s="142"/>
+      <c r="F46" s="201"/>
+      <c r="G46" s="201"/>
+      <c r="H46" s="201"/>
+      <c r="I46" s="201"/>
+      <c r="J46" s="201"/>
       <c r="K46" s="57"/>
       <c r="L46" s="57"/>
     </row>
@@ -10551,28 +10588,28 @@
       </c>
       <c r="C47" s="65"/>
       <c r="D47" s="66"/>
-      <c r="E47" s="195" t="s">
+      <c r="E47" s="151" t="s">
         <v>154</v>
       </c>
-      <c r="F47" s="129"/>
-      <c r="G47" s="129"/>
-      <c r="H47" s="129"/>
-      <c r="I47" s="129"/>
-      <c r="J47" s="129"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
     </row>
     <row r="48" spans="1:12" s="57" customFormat="1">
-      <c r="A48" s="170" t="s">
+      <c r="A48" s="162" t="s">
         <v>186</v>
       </c>
-      <c r="B48" s="171"/>
-      <c r="C48" s="171"/>
-      <c r="D48" s="171"/>
-      <c r="E48" s="171"/>
-      <c r="F48" s="171"/>
-      <c r="G48" s="171"/>
-      <c r="H48" s="171"/>
-      <c r="I48" s="171"/>
-      <c r="J48" s="172"/>
+      <c r="B48" s="163"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="163"/>
+      <c r="E48" s="163"/>
+      <c r="F48" s="163"/>
+      <c r="G48" s="163"/>
+      <c r="H48" s="163"/>
+      <c r="I48" s="163"/>
+      <c r="J48" s="164"/>
     </row>
     <row r="49" spans="1:12" s="59" customFormat="1" ht="77.25" customHeight="1">
       <c r="A49" s="74">
@@ -10585,14 +10622,14 @@
         <v>181</v>
       </c>
       <c r="D49" s="93"/>
-      <c r="E49" s="199" t="s">
+      <c r="E49" s="155" t="s">
         <v>193</v>
       </c>
-      <c r="F49" s="200"/>
-      <c r="G49" s="200"/>
-      <c r="H49" s="200"/>
-      <c r="I49" s="200"/>
-      <c r="J49" s="201"/>
+      <c r="F49" s="156"/>
+      <c r="G49" s="156"/>
+      <c r="H49" s="156"/>
+      <c r="I49" s="156"/>
+      <c r="J49" s="157"/>
     </row>
     <row r="50" spans="1:12" s="59" customFormat="1" ht="50.25" customHeight="1">
       <c r="A50" s="71">
@@ -10605,14 +10642,14 @@
         <v>181</v>
       </c>
       <c r="D50" s="93"/>
-      <c r="E50" s="199" t="s">
+      <c r="E50" s="155" t="s">
         <v>190</v>
       </c>
-      <c r="F50" s="200"/>
-      <c r="G50" s="200"/>
-      <c r="H50" s="200"/>
-      <c r="I50" s="200"/>
-      <c r="J50" s="201"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="156"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="157"/>
     </row>
     <row r="51" spans="1:12" s="57" customFormat="1">
       <c r="A51" s="74">
@@ -10625,28 +10662,28 @@
         <v>181</v>
       </c>
       <c r="D51" s="92"/>
-      <c r="E51" s="167" t="s">
+      <c r="E51" s="138" t="s">
         <v>185</v>
       </c>
-      <c r="F51" s="120"/>
-      <c r="G51" s="120"/>
-      <c r="H51" s="120"/>
-      <c r="I51" s="120"/>
-      <c r="J51" s="121"/>
+      <c r="F51" s="113"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="113"/>
+      <c r="I51" s="113"/>
+      <c r="J51" s="114"/>
     </row>
     <row r="52" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="170" t="s">
+      <c r="A52" s="162" t="s">
         <v>184</v>
       </c>
-      <c r="B52" s="171"/>
-      <c r="C52" s="171"/>
-      <c r="D52" s="171"/>
-      <c r="E52" s="171"/>
-      <c r="F52" s="171"/>
-      <c r="G52" s="171"/>
-      <c r="H52" s="171"/>
-      <c r="I52" s="171"/>
-      <c r="J52" s="172"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="163"/>
+      <c r="E52" s="163"/>
+      <c r="F52" s="163"/>
+      <c r="G52" s="163"/>
+      <c r="H52" s="163"/>
+      <c r="I52" s="163"/>
+      <c r="J52" s="164"/>
       <c r="K52" s="57"/>
       <c r="L52" s="57"/>
     </row>
@@ -10661,14 +10698,14 @@
         <v>12</v>
       </c>
       <c r="D53" s="70"/>
-      <c r="E53" s="195" t="s">
+      <c r="E53" s="151" t="s">
         <v>249</v>
       </c>
-      <c r="F53" s="129"/>
-      <c r="G53" s="129"/>
-      <c r="H53" s="129"/>
-      <c r="I53" s="129"/>
-      <c r="J53" s="129"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="120"/>
+      <c r="J53" s="120"/>
     </row>
     <row r="54" spans="1:12" s="57" customFormat="1" ht="107.25" customHeight="1">
       <c r="A54" s="71">
@@ -10681,14 +10718,14 @@
         <v>88</v>
       </c>
       <c r="D54" s="73"/>
-      <c r="E54" s="199" t="s">
+      <c r="E54" s="155" t="s">
         <v>215</v>
       </c>
-      <c r="F54" s="200"/>
-      <c r="G54" s="200"/>
-      <c r="H54" s="200"/>
-      <c r="I54" s="200"/>
-      <c r="J54" s="201"/>
+      <c r="F54" s="156"/>
+      <c r="G54" s="156"/>
+      <c r="H54" s="156"/>
+      <c r="I54" s="156"/>
+      <c r="J54" s="157"/>
     </row>
     <row r="55" spans="1:12" s="57" customFormat="1" ht="54.75" customHeight="1">
       <c r="A55" s="74">
@@ -10701,106 +10738,106 @@
         <v>89</v>
       </c>
       <c r="D55" s="75"/>
-      <c r="E55" s="167" t="s">
+      <c r="E55" s="138" t="s">
         <v>251</v>
       </c>
-      <c r="F55" s="120"/>
-      <c r="G55" s="120"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="120"/>
-      <c r="J55" s="121"/>
+      <c r="F55" s="113"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="113"/>
+      <c r="I55" s="113"/>
+      <c r="J55" s="114"/>
     </row>
     <row r="56" spans="1:12" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A56" s="192" t="s">
+      <c r="A56" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="193"/>
-      <c r="C56" s="193"/>
-      <c r="D56" s="193"/>
-      <c r="E56" s="193"/>
-      <c r="F56" s="193"/>
-      <c r="G56" s="193"/>
-      <c r="H56" s="193"/>
-      <c r="I56" s="193"/>
-      <c r="J56" s="194"/>
+      <c r="B56" s="149"/>
+      <c r="C56" s="149"/>
+      <c r="D56" s="149"/>
+      <c r="E56" s="149"/>
+      <c r="F56" s="149"/>
+      <c r="G56" s="149"/>
+      <c r="H56" s="149"/>
+      <c r="I56" s="149"/>
+      <c r="J56" s="150"/>
     </row>
     <row r="57" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="190" t="s">
+      <c r="B57" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="191"/>
-      <c r="D57" s="167" t="s">
+      <c r="C57" s="147"/>
+      <c r="D57" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="120"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="120"/>
-      <c r="H57" s="120"/>
-      <c r="I57" s="120"/>
-      <c r="J57" s="121"/>
+      <c r="E57" s="113"/>
+      <c r="F57" s="113"/>
+      <c r="G57" s="113"/>
+      <c r="H57" s="113"/>
+      <c r="I57" s="113"/>
+      <c r="J57" s="114"/>
     </row>
     <row r="58" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="187"/>
-      <c r="B58" s="205"/>
-      <c r="C58" s="205"/>
-      <c r="D58" s="205"/>
-      <c r="E58" s="205"/>
-      <c r="F58" s="205"/>
-      <c r="G58" s="205"/>
-      <c r="H58" s="205"/>
-      <c r="I58" s="205"/>
-      <c r="J58" s="206"/>
+      <c r="A58" s="143"/>
+      <c r="B58" s="213"/>
+      <c r="C58" s="213"/>
+      <c r="D58" s="213"/>
+      <c r="E58" s="213"/>
+      <c r="F58" s="213"/>
+      <c r="G58" s="213"/>
+      <c r="H58" s="213"/>
+      <c r="I58" s="213"/>
+      <c r="J58" s="214"/>
     </row>
     <row r="59" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="74"/>
-      <c r="B59" s="143"/>
-      <c r="C59" s="145"/>
-      <c r="D59" s="167"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="120"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="120"/>
-      <c r="J59" s="121"/>
+      <c r="B59" s="141"/>
+      <c r="C59" s="142"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="113"/>
+      <c r="G59" s="113"/>
+      <c r="H59" s="113"/>
+      <c r="I59" s="113"/>
+      <c r="J59" s="114"/>
     </row>
     <row r="60" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="74"/>
-      <c r="B60" s="143"/>
-      <c r="C60" s="145"/>
-      <c r="D60" s="167"/>
-      <c r="E60" s="120"/>
-      <c r="F60" s="120"/>
-      <c r="G60" s="120"/>
-      <c r="H60" s="120"/>
-      <c r="I60" s="120"/>
-      <c r="J60" s="121"/>
+      <c r="B60" s="141"/>
+      <c r="C60" s="142"/>
+      <c r="D60" s="138"/>
+      <c r="E60" s="113"/>
+      <c r="F60" s="113"/>
+      <c r="G60" s="113"/>
+      <c r="H60" s="113"/>
+      <c r="I60" s="113"/>
+      <c r="J60" s="114"/>
     </row>
     <row r="61" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="187"/>
-      <c r="B61" s="205"/>
-      <c r="C61" s="205"/>
-      <c r="D61" s="205"/>
-      <c r="E61" s="205"/>
-      <c r="F61" s="205"/>
-      <c r="G61" s="205"/>
-      <c r="H61" s="205"/>
-      <c r="I61" s="205"/>
-      <c r="J61" s="206"/>
+      <c r="A61" s="143"/>
+      <c r="B61" s="213"/>
+      <c r="C61" s="213"/>
+      <c r="D61" s="213"/>
+      <c r="E61" s="213"/>
+      <c r="F61" s="213"/>
+      <c r="G61" s="213"/>
+      <c r="H61" s="213"/>
+      <c r="I61" s="213"/>
+      <c r="J61" s="214"/>
     </row>
     <row r="62" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="74"/>
-      <c r="B62" s="143"/>
-      <c r="C62" s="145"/>
-      <c r="D62" s="167"/>
-      <c r="E62" s="120"/>
-      <c r="F62" s="120"/>
-      <c r="G62" s="120"/>
-      <c r="H62" s="120"/>
-      <c r="I62" s="120"/>
-      <c r="J62" s="121"/>
+      <c r="B62" s="141"/>
+      <c r="C62" s="142"/>
+      <c r="D62" s="138"/>
+      <c r="E62" s="113"/>
+      <c r="F62" s="113"/>
+      <c r="G62" s="113"/>
+      <c r="H62" s="113"/>
+      <c r="I62" s="113"/>
+      <c r="J62" s="114"/>
     </row>
     <row r="63" spans="1:12" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A63" s="78" t="s">
@@ -10823,14 +10860,14 @@
       <c r="B64" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="143"/>
-      <c r="D64" s="120"/>
-      <c r="E64" s="120"/>
-      <c r="F64" s="120"/>
-      <c r="G64" s="120"/>
-      <c r="H64" s="120"/>
-      <c r="I64" s="120"/>
-      <c r="J64" s="121"/>
+      <c r="C64" s="141"/>
+      <c r="D64" s="113"/>
+      <c r="E64" s="113"/>
+      <c r="F64" s="113"/>
+      <c r="G64" s="113"/>
+      <c r="H64" s="113"/>
+      <c r="I64" s="113"/>
+      <c r="J64" s="114"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="74">
@@ -10839,44 +10876,33 @@
       <c r="B65" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="164"/>
-      <c r="D65" s="164"/>
-      <c r="E65" s="164"/>
-      <c r="F65" s="164"/>
-      <c r="G65" s="164"/>
-      <c r="H65" s="164"/>
-      <c r="I65" s="164"/>
-      <c r="J65" s="164"/>
+      <c r="C65" s="159"/>
+      <c r="D65" s="159"/>
+      <c r="E65" s="159"/>
+      <c r="F65" s="159"/>
+      <c r="G65" s="159"/>
+      <c r="H65" s="159"/>
+      <c r="I65" s="159"/>
+      <c r="J65" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C32:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="A52:J52"/>
     <mergeCell ref="E53:J53"/>
     <mergeCell ref="E54:J54"/>
     <mergeCell ref="E55:J55"/>
@@ -10893,22 +10919,33 @@
     <mergeCell ref="A30:J30"/>
     <mergeCell ref="C20:J20"/>
     <mergeCell ref="C21:J21"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C32:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10961,7 +10998,7 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="165" t="s">
+      <c r="K1" s="160" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="40"/>
@@ -10988,7 +11025,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="166"/>
+      <c r="K2" s="161"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -11006,7 +11043,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="166"/>
+      <c r="K3" s="161"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>

--- a/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
+++ b/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -174,10 +174,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>功能清單設定作業</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>效能需求</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1268,6 +1264,10 @@
   <si>
     <t>回總表</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色帳號設定作業</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7281,7 +7281,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
@@ -7289,124 +7289,124 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>45</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>50</v>
-      </c>
       <c r="D3" s="102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="110" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="110"/>
       <c r="B6" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="102" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="110" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="102" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="111"/>
       <c r="B8" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="103" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A9" s="110" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A10" s="110"/>
       <c r="B10" s="38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A11" s="110"/>
       <c r="B11" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" hidden="1" customHeight="1" thickBot="1">
       <c r="A12" s="37"/>
       <c r="B12" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="39"/>
@@ -7571,10 +7571,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="D6" s="22">
         <v>41563</v>
@@ -7707,8 +7707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O77" sqref="O77"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N84" sqref="N84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7721,10 +7721,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M1" s="127" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -7765,7 +7765,7 @@
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="124" t="s">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="B6" s="125"/>
       <c r="C6" s="125"/>
@@ -7781,14 +7781,14 @@
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="117" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="118"/>
       <c r="C7" s="118"/>
       <c r="D7" s="118"/>
       <c r="E7" s="118"/>
       <c r="F7" s="121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="122"/>
       <c r="H7" s="122"/>
@@ -7799,14 +7799,14 @@
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A8" s="119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="120"/>
       <c r="C8" s="120"/>
       <c r="D8" s="120"/>
       <c r="E8" s="120"/>
       <c r="F8" s="113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G8" s="113"/>
       <c r="H8" s="113"/>
@@ -7817,14 +7817,14 @@
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="130"/>
       <c r="C9" s="130"/>
       <c r="D9" s="130"/>
       <c r="E9" s="130"/>
       <c r="F9" s="121" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="122"/>
       <c r="H9" s="122"/>
@@ -7835,14 +7835,14 @@
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A10" s="119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="120"/>
       <c r="C10" s="120"/>
       <c r="D10" s="120"/>
       <c r="E10" s="120"/>
       <c r="F10" s="113" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G10" s="113"/>
       <c r="H10" s="113"/>
@@ -7853,14 +7853,14 @@
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="117" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="118"/>
       <c r="C11" s="118"/>
       <c r="D11" s="118"/>
       <c r="E11" s="118"/>
       <c r="F11" s="137" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="122"/>
       <c r="H11" s="122"/>
@@ -7871,7 +7871,7 @@
     </row>
     <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
       <c r="A12" s="119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" s="120"/>
       <c r="C12" s="120"/>
@@ -7887,14 +7887,14 @@
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="117" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="118"/>
       <c r="C13" s="118"/>
       <c r="D13" s="118"/>
       <c r="E13" s="118"/>
       <c r="F13" s="137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="122"/>
       <c r="H13" s="122"/>
@@ -7905,14 +7905,14 @@
     </row>
     <row r="14" spans="1:13" s="24" customFormat="1" ht="33" customHeight="1">
       <c r="A14" s="119" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="120"/>
       <c r="C14" s="120"/>
       <c r="D14" s="120"/>
       <c r="E14" s="120"/>
       <c r="F14" s="113" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G14" s="113"/>
       <c r="H14" s="113"/>
@@ -7923,7 +7923,7 @@
     </row>
     <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133"/>
@@ -7939,7 +7939,7 @@
     </row>
     <row r="16" spans="1:13" s="19" customFormat="1" ht="194.25" customHeight="1">
       <c r="A16" s="135" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" s="120"/>
       <c r="C16" s="120"/>
@@ -7955,7 +7955,7 @@
     </row>
     <row r="17" spans="1:12" ht="16.5">
       <c r="A17" s="112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="113"/>
       <c r="C17" s="113"/>
@@ -7971,7 +7971,7 @@
     </row>
     <row r="83" spans="1:12" ht="25.5" customHeight="1">
       <c r="A83" s="112" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B83" s="113"/>
       <c r="C83" s="113"/>
@@ -7987,7 +7987,7 @@
     </row>
     <row r="86" spans="1:12" ht="21" customHeight="1">
       <c r="A86" s="112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B86" s="131"/>
       <c r="C86" s="131"/>
@@ -8052,7 +8052,7 @@
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:colOff>666750</xdr:colOff>
                 <xdr:row>84</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
@@ -8076,8 +8076,8 @@
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>104</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </to>
@@ -8097,13 +8097,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
       <c r="P1" s="127" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="16:16">
@@ -8192,7 +8192,7 @@
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
       <c r="K1" s="160" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L1" s="55"/>
       <c r="M1" s="55"/>
@@ -8241,7 +8241,7 @@
     </row>
     <row r="5" spans="1:17" s="56" customFormat="1">
       <c r="A5" s="168" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="122"/>
       <c r="C5" s="122"/>
@@ -8319,7 +8319,7 @@
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="51" customHeight="1">
       <c r="A11" s="176" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="113"/>
       <c r="C11" s="113"/>
@@ -8375,7 +8375,7 @@
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="33.75" customHeight="1">
       <c r="A15" s="180" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B15" s="181"/>
       <c r="C15" s="181"/>
@@ -8392,10 +8392,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="183" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="184"/>
       <c r="E16" s="184"/>
@@ -8410,10 +8410,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="186" t="s">
         <v>218</v>
-      </c>
-      <c r="C17" s="186" t="s">
-        <v>219</v>
       </c>
       <c r="D17" s="187"/>
       <c r="E17" s="187"/>
@@ -8428,10 +8428,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="186" t="s">
         <v>220</v>
-      </c>
-      <c r="C18" s="186" t="s">
-        <v>221</v>
       </c>
       <c r="D18" s="187"/>
       <c r="E18" s="187"/>
@@ -8446,10 +8446,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="186" t="s">
         <v>222</v>
-      </c>
-      <c r="C19" s="186" t="s">
-        <v>223</v>
       </c>
       <c r="D19" s="187"/>
       <c r="E19" s="187"/>
@@ -8473,7 +8473,7 @@
     </row>
     <row r="21" spans="1:10" s="57" customFormat="1">
       <c r="A21" s="180" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" s="181"/>
       <c r="C21" s="181"/>
@@ -8490,10 +8490,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="183" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="184"/>
       <c r="E22" s="184"/>
@@ -8508,10 +8508,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="191" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="187"/>
       <c r="E23" s="187"/>
@@ -8526,10 +8526,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="191" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="187"/>
       <c r="E24" s="187"/>
@@ -8544,10 +8544,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="191" t="s">
         <v>95</v>
-      </c>
-      <c r="C25" s="191" t="s">
-        <v>96</v>
       </c>
       <c r="D25" s="187"/>
       <c r="E25" s="187"/>
@@ -8562,10 +8562,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="191" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="187"/>
       <c r="E26" s="187"/>
@@ -8603,7 +8603,7 @@
     </row>
     <row r="29" spans="1:10" s="57" customFormat="1" ht="36.75" customHeight="1">
       <c r="A29" s="180" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" s="181"/>
       <c r="C29" s="181"/>
@@ -8620,10 +8620,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="183" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="184"/>
       <c r="E30" s="184"/>
@@ -8638,10 +8638,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C31" s="192" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D31" s="193"/>
       <c r="E31" s="193"/>
@@ -8656,7 +8656,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C32" s="195"/>
       <c r="D32" s="196"/>
@@ -8672,10 +8672,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="191" t="s">
         <v>93</v>
-      </c>
-      <c r="C33" s="191" t="s">
-        <v>94</v>
       </c>
       <c r="D33" s="187"/>
       <c r="E33" s="187"/>
@@ -8699,7 +8699,7 @@
     </row>
     <row r="35" spans="1:12" s="57" customFormat="1">
       <c r="A35" s="180" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B35" s="189"/>
       <c r="C35" s="189"/>
@@ -8716,10 +8716,10 @@
         <v>5</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="183" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D36" s="184"/>
       <c r="E36" s="184"/>
@@ -8734,10 +8734,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="191" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="187"/>
       <c r="E37" s="187"/>
@@ -8752,10 +8752,10 @@
         <v>2</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="191" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="187"/>
       <c r="E38" s="187"/>
@@ -8770,10 +8770,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="191" t="s">
         <v>95</v>
-      </c>
-      <c r="C39" s="191" t="s">
-        <v>96</v>
       </c>
       <c r="D39" s="187"/>
       <c r="E39" s="187"/>
@@ -8788,10 +8788,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="191" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D40" s="187"/>
       <c r="E40" s="187"/>
@@ -8815,7 +8815,7 @@
     </row>
     <row r="42" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" s="198"/>
       <c r="C42" s="198"/>
@@ -8829,19 +8829,19 @@
     </row>
     <row r="43" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="61" t="s">
+      <c r="C43" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="D43" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="63" t="s">
+      <c r="E43" s="200" t="s">
         <v>37</v>
-      </c>
-      <c r="E43" s="200" t="s">
-        <v>38</v>
       </c>
       <c r="F43" s="201"/>
       <c r="G43" s="201"/>
@@ -8856,12 +8856,12 @@
         <v>1</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C44" s="65"/>
       <c r="D44" s="66"/>
       <c r="E44" s="151" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F44" s="120"/>
       <c r="G44" s="120"/>
@@ -8883,7 +8883,7 @@
     </row>
     <row r="46" spans="1:12" s="57" customFormat="1">
       <c r="A46" s="162" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B46" s="163"/>
       <c r="C46" s="163"/>
@@ -8900,14 +8900,14 @@
         <v>1</v>
       </c>
       <c r="B47" s="68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C47" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="70"/>
       <c r="E47" s="151" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F47" s="120"/>
       <c r="G47" s="120"/>
@@ -8920,14 +8920,14 @@
         <v>2</v>
       </c>
       <c r="B48" s="72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C48" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="73"/>
       <c r="E48" s="138" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F48" s="139"/>
       <c r="G48" s="139"/>
@@ -8940,14 +8940,14 @@
         <v>3</v>
       </c>
       <c r="B49" s="68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C49" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="75"/>
       <c r="E49" s="138" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F49" s="139"/>
       <c r="G49" s="139"/>
@@ -8969,7 +8969,7 @@
     </row>
     <row r="51" spans="1:10" s="57" customFormat="1">
       <c r="A51" s="152" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B51" s="153"/>
       <c r="C51" s="153"/>
@@ -8986,14 +8986,14 @@
         <v>1</v>
       </c>
       <c r="B52" s="68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C52" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="70"/>
       <c r="E52" s="151" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F52" s="120"/>
       <c r="G52" s="120"/>
@@ -9006,14 +9006,14 @@
         <v>2</v>
       </c>
       <c r="B53" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C53" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="73"/>
       <c r="E53" s="155" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F53" s="156"/>
       <c r="G53" s="156"/>
@@ -9026,14 +9026,14 @@
         <v>3</v>
       </c>
       <c r="B54" s="68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C54" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="73"/>
       <c r="E54" s="155" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F54" s="156"/>
       <c r="G54" s="156"/>
@@ -9046,14 +9046,14 @@
         <v>4</v>
       </c>
       <c r="B55" s="68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C55" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="73"/>
       <c r="E55" s="155" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F55" s="156"/>
       <c r="G55" s="156"/>
@@ -9066,14 +9066,14 @@
         <v>1</v>
       </c>
       <c r="B56" s="85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C56" s="87" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="86"/>
       <c r="E56" s="138" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F56" s="113"/>
       <c r="G56" s="113"/>
@@ -9349,7 +9349,7 @@
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
       <c r="K1" s="160" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -9438,7 +9438,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="202" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="203"/>
       <c r="C6" s="203"/>
@@ -9458,16 +9458,16 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="43" t="s">
         <v>207</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>208</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>20</v>
@@ -9479,10 +9479,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -9516,7 +9516,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="202" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="203"/>
       <c r="C10" s="203"/>
@@ -9530,19 +9530,19 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="C11" s="43" t="s">
+      <c r="E11" s="43" t="s">
         <v>210</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>211</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>19</v>
@@ -9551,10 +9551,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="I11" s="43" t="s">
         <v>212</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>213</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -9565,26 +9565,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12" s="49"/>
     </row>
@@ -9593,26 +9593,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" s="49"/>
     </row>
@@ -9621,34 +9621,34 @@
         <v>3</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" s="51">
         <v>2</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="202" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="203"/>
       <c r="C16" s="203"/>
@@ -9662,19 +9662,19 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="B17" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="43" t="s">
+      <c r="E17" s="43" t="s">
         <v>210</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>211</v>
       </c>
       <c r="F17" s="43" t="s">
         <v>19</v>
@@ -9683,10 +9683,10 @@
         <v>13</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J17" s="43" t="s">
         <v>0</v>
@@ -9697,24 +9697,24 @@
         <v>1</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J18" s="49"/>
     </row>
@@ -9723,24 +9723,24 @@
         <v>2</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J19" s="49"/>
     </row>
@@ -9749,27 +9749,27 @@
         <v>3</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="47" t="s">
-        <v>60</v>
-      </c>
       <c r="G20" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -9777,27 +9777,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" s="50"/>
       <c r="E21" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H21" s="50"/>
       <c r="I21" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J21" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -9870,7 +9870,7 @@
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
       <c r="K1" s="160" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L1" s="55"/>
       <c r="M1" s="55"/>
@@ -9919,7 +9919,7 @@
     </row>
     <row r="5" spans="1:17" s="56" customFormat="1">
       <c r="A5" s="168" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="122"/>
       <c r="C5" s="122"/>
@@ -9997,7 +9997,7 @@
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="84.75" customHeight="1">
       <c r="A11" s="176" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B11" s="113"/>
       <c r="C11" s="113"/>
@@ -10053,7 +10053,7 @@
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="35.25" customHeight="1">
       <c r="A15" s="180" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="181"/>
       <c r="C15" s="181"/>
@@ -10070,10 +10070,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="183" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="184"/>
       <c r="E16" s="184"/>
@@ -10088,10 +10088,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="186" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D17" s="187"/>
       <c r="E17" s="187"/>
@@ -10106,10 +10106,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="186" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D18" s="187"/>
       <c r="E18" s="187"/>
@@ -10124,10 +10124,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="186" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D19" s="187"/>
       <c r="E19" s="187"/>
@@ -10142,10 +10142,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="88" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" s="186" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D20" s="187"/>
       <c r="E20" s="187"/>
@@ -10160,10 +10160,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21" s="186" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D21" s="187"/>
       <c r="E21" s="187"/>
@@ -10178,10 +10178,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C22" s="186" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D22" s="209"/>
       <c r="E22" s="209"/>
@@ -10205,7 +10205,7 @@
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1" ht="35.25" customHeight="1">
       <c r="A24" s="180" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" s="181"/>
       <c r="C24" s="181"/>
@@ -10222,10 +10222,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C25" s="186" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D25" s="187"/>
       <c r="E25" s="187"/>
@@ -10240,10 +10240,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C26" s="186" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D26" s="187"/>
       <c r="E26" s="187"/>
@@ -10258,10 +10258,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27" s="186" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D27" s="187"/>
       <c r="E27" s="187"/>
@@ -10276,10 +10276,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C28" s="186" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D28" s="187"/>
       <c r="E28" s="187"/>
@@ -10305,7 +10305,7 @@
     </row>
     <row r="30" spans="1:10" s="57" customFormat="1" ht="36" customHeight="1">
       <c r="A30" s="180" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" s="181"/>
       <c r="C30" s="181"/>
@@ -10319,13 +10319,13 @@
     </row>
     <row r="31" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="C31" s="183" t="s">
         <v>144</v>
-      </c>
-      <c r="C31" s="183" t="s">
-        <v>145</v>
       </c>
       <c r="D31" s="184"/>
       <c r="E31" s="184"/>
@@ -10340,10 +10340,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C32" s="205" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D32" s="193"/>
       <c r="E32" s="193"/>
@@ -10358,7 +10358,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="90" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C33" s="206"/>
       <c r="D33" s="207"/>
@@ -10374,7 +10374,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="88" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C34" s="206"/>
       <c r="D34" s="207"/>
@@ -10390,7 +10390,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C35" s="195"/>
       <c r="D35" s="196"/>
@@ -10415,7 +10415,7 @@
     </row>
     <row r="37" spans="1:12" s="57" customFormat="1">
       <c r="A37" s="180" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B37" s="189"/>
       <c r="C37" s="189"/>
@@ -10429,13 +10429,13 @@
     </row>
     <row r="38" spans="1:12" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="B38" s="60" t="s">
-        <v>147</v>
-      </c>
       <c r="C38" s="183" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D38" s="184"/>
       <c r="E38" s="184"/>
@@ -10450,10 +10450,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C39" s="191" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D39" s="187"/>
       <c r="E39" s="187"/>
@@ -10468,10 +10468,10 @@
         <v>2</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C40" s="191" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D40" s="187"/>
       <c r="E40" s="187"/>
@@ -10486,10 +10486,10 @@
         <v>3</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C41" s="191" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D41" s="187"/>
       <c r="E41" s="187"/>
@@ -10504,10 +10504,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C42" s="191" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D42" s="187"/>
       <c r="E42" s="187"/>
@@ -10543,7 +10543,7 @@
     </row>
     <row r="45" spans="1:12" s="57" customFormat="1" ht="15.75" customHeight="1">
       <c r="A45" s="177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" s="178"/>
       <c r="C45" s="178"/>
@@ -10560,16 +10560,16 @@
         <v>5</v>
       </c>
       <c r="B46" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="62" t="s">
+      <c r="D46" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="63" t="s">
+      <c r="E46" s="200" t="s">
         <v>37</v>
-      </c>
-      <c r="E46" s="200" t="s">
-        <v>38</v>
       </c>
       <c r="F46" s="201"/>
       <c r="G46" s="201"/>
@@ -10584,12 +10584,12 @@
         <v>1</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C47" s="65"/>
       <c r="D47" s="66"/>
       <c r="E47" s="151" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F47" s="120"/>
       <c r="G47" s="120"/>
@@ -10599,7 +10599,7 @@
     </row>
     <row r="48" spans="1:12" s="57" customFormat="1">
       <c r="A48" s="162" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B48" s="163"/>
       <c r="C48" s="163"/>
@@ -10616,14 +10616,14 @@
         <v>1</v>
       </c>
       <c r="B49" s="91" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" s="94" t="s">
         <v>180</v>
-      </c>
-      <c r="C49" s="94" t="s">
-        <v>181</v>
       </c>
       <c r="D49" s="93"/>
       <c r="E49" s="155" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F49" s="156"/>
       <c r="G49" s="156"/>
@@ -10636,14 +10636,14 @@
         <v>2</v>
       </c>
       <c r="B50" s="72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C50" s="94" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D50" s="93"/>
       <c r="E50" s="155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F50" s="156"/>
       <c r="G50" s="156"/>
@@ -10656,14 +10656,14 @@
         <v>3</v>
       </c>
       <c r="B51" s="91" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C51" s="94" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D51" s="92"/>
       <c r="E51" s="138" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F51" s="113"/>
       <c r="G51" s="113"/>
@@ -10673,7 +10673,7 @@
     </row>
     <row r="52" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="162" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B52" s="163"/>
       <c r="C52" s="163"/>
@@ -10692,14 +10692,14 @@
         <v>1</v>
       </c>
       <c r="B53" s="68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C53" s="69" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="70"/>
       <c r="E53" s="151" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F53" s="120"/>
       <c r="G53" s="120"/>
@@ -10712,14 +10712,14 @@
         <v>2</v>
       </c>
       <c r="B54" s="72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54" s="69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D54" s="73"/>
       <c r="E54" s="155" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F54" s="156"/>
       <c r="G54" s="156"/>
@@ -10732,14 +10732,14 @@
         <v>3</v>
       </c>
       <c r="B55" s="68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C55" s="69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D55" s="75"/>
       <c r="E55" s="138" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F55" s="113"/>
       <c r="G55" s="113"/>
@@ -10999,7 +10999,7 @@
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
       <c r="K1" s="160" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -11088,7 +11088,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="202" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="203"/>
       <c r="C6" s="203"/>
@@ -11108,19 +11108,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="C7" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="D7" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="43" t="s">
         <v>228</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>229</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>19</v>
@@ -11129,10 +11129,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="I7" s="43" t="s">
         <v>230</v>
-      </c>
-      <c r="I7" s="43" t="s">
-        <v>231</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -11166,7 +11166,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="202" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="215"/>
       <c r="C10" s="215"/>
@@ -11180,19 +11180,19 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="C11" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="D11" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="43" t="s">
         <v>228</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>229</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>19</v>
@@ -11201,10 +11201,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="I11" s="43" t="s">
         <v>230</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>231</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -11215,29 +11215,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="50" t="s">
-        <v>167</v>
-      </c>
       <c r="D12" s="46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F12" s="107" t="s">
+        <v>235</v>
+      </c>
+      <c r="G12" s="106" t="s">
         <v>236</v>
-      </c>
-      <c r="G12" s="106" t="s">
-        <v>237</v>
       </c>
       <c r="H12" s="50"/>
       <c r="I12" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J12" s="96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -11245,29 +11245,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="50" t="s">
-        <v>169</v>
-      </c>
       <c r="D13" s="46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E13" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F13" s="108" t="s">
+        <v>237</v>
+      </c>
+      <c r="G13" s="108" t="s">
         <v>238</v>
-      </c>
-      <c r="G13" s="108" t="s">
-        <v>239</v>
       </c>
       <c r="H13" s="50"/>
       <c r="I13" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J13" s="96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -11275,29 +11275,29 @@
         <v>3</v>
       </c>
       <c r="B14" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="50" t="s">
-        <v>161</v>
-      </c>
       <c r="D14" s="46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E14" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F14" s="107" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G14" s="108" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J14" s="96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -11305,29 +11305,29 @@
         <v>4</v>
       </c>
       <c r="B15" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="50" t="s">
-        <v>164</v>
-      </c>
       <c r="D15" s="46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E15" s="104" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="F15" s="107" t="s">
+      <c r="G15" s="106" t="s">
         <v>234</v>
-      </c>
-      <c r="G15" s="106" t="s">
-        <v>235</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J15" s="96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -11335,31 +11335,31 @@
         <v>5</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>171</v>
-      </c>
       <c r="F16" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H16" s="44">
         <v>0</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J16" s="101" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11376,7 +11376,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="202" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B18" s="203"/>
       <c r="C18" s="203"/>
@@ -11390,19 +11390,19 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="C19" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="D19" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="43" t="s">
         <v>228</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>229</v>
       </c>
       <c r="F19" s="43" t="s">
         <v>19</v>
@@ -11411,10 +11411,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="I19" s="43" t="s">
         <v>230</v>
-      </c>
-      <c r="I19" s="43" t="s">
-        <v>231</v>
       </c>
       <c r="J19" s="43" t="s">
         <v>0</v>
@@ -11425,29 +11425,29 @@
         <v>3</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E20" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F20" s="107" t="s">
+        <v>235</v>
+      </c>
+      <c r="G20" s="106" t="s">
         <v>236</v>
-      </c>
-      <c r="G20" s="106" t="s">
-        <v>237</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J20" s="96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -11455,29 +11455,29 @@
         <v>4</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E21" s="104" t="s">
+        <v>232</v>
+      </c>
+      <c r="F21" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="F21" s="107" t="s">
+      <c r="G21" s="106" t="s">
         <v>234</v>
-      </c>
-      <c r="G21" s="106" t="s">
-        <v>235</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J21" s="96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -11485,29 +11485,29 @@
         <v>1</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E22" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F22" s="107" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G22" s="108" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H22" s="50"/>
       <c r="I22" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J22" s="96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -11515,29 +11515,29 @@
         <v>2</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E23" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F23" s="108" t="s">
+        <v>237</v>
+      </c>
+      <c r="G23" s="108" t="s">
         <v>238</v>
-      </c>
-      <c r="G23" s="108" t="s">
-        <v>239</v>
       </c>
       <c r="H23" s="50"/>
       <c r="I23" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J23" s="96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
+++ b/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="263">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -242,10 +242,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>輸入/輸出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>1.0</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -947,10 +943,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>畫面_APF0101MA1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>畫面_APF0101MA2</t>
   </si>
   <si>
@@ -961,18 +953,6 @@
   </si>
   <si>
     <t>畫面_APF0101MA5</t>
-  </si>
-  <si>
-    <t>欄位_APF0101MA1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>畫面_APF0101MM1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位_APF0101MM1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
@@ -1030,14 +1010,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>輸入/輸出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入/輸出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 14 或 15，若選擇是，則進行儲存，若選擇否，則不做任何動作。
 儲存成功:
 1.原畫面顯示修改資料成功訊息，訊息內容請參考APF訊息表APF_NO 12
@@ -1123,10 +1095,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>輸入/輸出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>共通性 CMD DB</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1268,6 +1236,25 @@
   <si>
     <t>角色帳號設定作業</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面_APF0102MM1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0102MM1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面_APF0102MA1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0102MA1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入/輸出/必填</t>
   </si>
 </sst>
 </file>
@@ -3448,9 +3435,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>676275</xdr:colOff>
-          <xdr:row>84</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>85</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3499,8 +3486,8 @@
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
           <xdr:row>104</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
@@ -5240,7 +5227,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="11982450" cy="523875"/>
+          <a:ext cx="12439650" cy="523875"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -6376,7 +6363,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="11877675" cy="609600"/>
+          <a:ext cx="12249150" cy="609600"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -7267,7 +7254,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7281,7 +7268,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="109" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
@@ -7289,124 +7276,124 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>44</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>49</v>
-      </c>
       <c r="D3" s="102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="110" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="110"/>
       <c r="B6" s="35" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="110" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="111"/>
       <c r="B8" s="38" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A9" s="110" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A10" s="110"/>
       <c r="B10" s="38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A11" s="110"/>
       <c r="B11" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" hidden="1" customHeight="1" thickBot="1">
       <c r="A12" s="37"/>
       <c r="B12" s="35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="39"/>
@@ -7571,10 +7558,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>41</v>
       </c>
       <c r="D6" s="22">
         <v>41563</v>
@@ -7707,8 +7694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N84" sqref="N84"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7721,10 +7708,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M1" s="127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -7765,7 +7752,7 @@
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="124" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B6" s="125"/>
       <c r="C6" s="125"/>
@@ -7799,14 +7786,14 @@
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A8" s="119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="120"/>
       <c r="C8" s="120"/>
       <c r="D8" s="120"/>
       <c r="E8" s="120"/>
       <c r="F8" s="113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G8" s="113"/>
       <c r="H8" s="113"/>
@@ -7835,14 +7822,14 @@
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A10" s="119" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="120"/>
       <c r="C10" s="120"/>
       <c r="D10" s="120"/>
       <c r="E10" s="120"/>
       <c r="F10" s="113" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G10" s="113"/>
       <c r="H10" s="113"/>
@@ -7871,7 +7858,7 @@
     </row>
     <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
       <c r="A12" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="120"/>
       <c r="C12" s="120"/>
@@ -7905,14 +7892,14 @@
     </row>
     <row r="14" spans="1:13" s="24" customFormat="1" ht="33" customHeight="1">
       <c r="A14" s="119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="120"/>
       <c r="C14" s="120"/>
       <c r="D14" s="120"/>
       <c r="E14" s="120"/>
       <c r="F14" s="113" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G14" s="113"/>
       <c r="H14" s="113"/>
@@ -7939,7 +7926,7 @@
     </row>
     <row r="16" spans="1:13" s="19" customFormat="1" ht="194.25" customHeight="1">
       <c r="A16" s="135" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="120"/>
       <c r="C16" s="120"/>
@@ -7955,7 +7942,7 @@
     </row>
     <row r="17" spans="1:12" ht="16.5">
       <c r="A17" s="112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="113"/>
       <c r="C17" s="113"/>
@@ -7971,7 +7958,7 @@
     </row>
     <row r="83" spans="1:12" ht="25.5" customHeight="1">
       <c r="A83" s="112" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B83" s="113"/>
       <c r="C83" s="113"/>
@@ -7987,7 +7974,7 @@
     </row>
     <row r="86" spans="1:12" ht="21" customHeight="1">
       <c r="A86" s="112" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B86" s="131"/>
       <c r="C86" s="131"/>
@@ -8053,8 +8040,8 @@
               <to>
                 <xdr:col>11</xdr:col>
                 <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>84</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:row>85</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8103,7 +8090,7 @@
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
       <c r="P1" s="127" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="16:16">
@@ -8160,9 +8147,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:J32"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -8192,7 +8177,7 @@
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
       <c r="K1" s="160" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1" s="55"/>
       <c r="M1" s="55"/>
@@ -8319,7 +8304,7 @@
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="51" customHeight="1">
       <c r="A11" s="176" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="113"/>
       <c r="C11" s="113"/>
@@ -8375,7 +8360,7 @@
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="33.75" customHeight="1">
       <c r="A15" s="180" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B15" s="181"/>
       <c r="C15" s="181"/>
@@ -8392,10 +8377,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="183" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="184"/>
       <c r="E16" s="184"/>
@@ -8410,10 +8395,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C17" s="186" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D17" s="187"/>
       <c r="E17" s="187"/>
@@ -8428,10 +8413,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C18" s="186" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D18" s="187"/>
       <c r="E18" s="187"/>
@@ -8446,10 +8431,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C19" s="186" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D19" s="187"/>
       <c r="E19" s="187"/>
@@ -8473,7 +8458,7 @@
     </row>
     <row r="21" spans="1:10" s="57" customFormat="1">
       <c r="A21" s="180" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B21" s="181"/>
       <c r="C21" s="181"/>
@@ -8490,10 +8475,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="183" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="184"/>
       <c r="E22" s="184"/>
@@ -8508,10 +8493,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="191" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="187"/>
       <c r="E23" s="187"/>
@@ -8526,10 +8511,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="191" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="187"/>
       <c r="E24" s="187"/>
@@ -8544,10 +8529,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="191" t="s">
         <v>94</v>
-      </c>
-      <c r="C25" s="191" t="s">
-        <v>95</v>
       </c>
       <c r="D25" s="187"/>
       <c r="E25" s="187"/>
@@ -8562,10 +8547,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="191" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" s="187"/>
       <c r="E26" s="187"/>
@@ -8603,7 +8588,7 @@
     </row>
     <row r="29" spans="1:10" s="57" customFormat="1" ht="36.75" customHeight="1">
       <c r="A29" s="180" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" s="181"/>
       <c r="C29" s="181"/>
@@ -8620,10 +8605,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="183" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="184"/>
       <c r="E30" s="184"/>
@@ -8638,10 +8623,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C31" s="192" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D31" s="193"/>
       <c r="E31" s="193"/>
@@ -8656,7 +8641,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C32" s="195"/>
       <c r="D32" s="196"/>
@@ -8672,10 +8657,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="191" t="s">
         <v>92</v>
-      </c>
-      <c r="C33" s="191" t="s">
-        <v>93</v>
       </c>
       <c r="D33" s="187"/>
       <c r="E33" s="187"/>
@@ -8699,7 +8684,7 @@
     </row>
     <row r="35" spans="1:12" s="57" customFormat="1">
       <c r="A35" s="180" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B35" s="189"/>
       <c r="C35" s="189"/>
@@ -8716,10 +8701,10 @@
         <v>5</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="183" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D36" s="184"/>
       <c r="E36" s="184"/>
@@ -8734,10 +8719,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" s="191" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" s="187"/>
       <c r="E37" s="187"/>
@@ -8752,10 +8737,10 @@
         <v>2</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="191" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D38" s="187"/>
       <c r="E38" s="187"/>
@@ -8770,10 +8755,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="191" t="s">
         <v>94</v>
-      </c>
-      <c r="C39" s="191" t="s">
-        <v>95</v>
       </c>
       <c r="D39" s="187"/>
       <c r="E39" s="187"/>
@@ -8788,10 +8773,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="191" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D40" s="187"/>
       <c r="E40" s="187"/>
@@ -8856,12 +8841,12 @@
         <v>1</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44" s="65"/>
       <c r="D44" s="66"/>
       <c r="E44" s="151" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F44" s="120"/>
       <c r="G44" s="120"/>
@@ -8883,7 +8868,7 @@
     </row>
     <row r="46" spans="1:12" s="57" customFormat="1">
       <c r="A46" s="162" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B46" s="163"/>
       <c r="C46" s="163"/>
@@ -8900,14 +8885,14 @@
         <v>1</v>
       </c>
       <c r="B47" s="68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="70"/>
       <c r="E47" s="151" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F47" s="120"/>
       <c r="G47" s="120"/>
@@ -8920,14 +8905,14 @@
         <v>2</v>
       </c>
       <c r="B48" s="72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="73"/>
       <c r="E48" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F48" s="139"/>
       <c r="G48" s="139"/>
@@ -8940,14 +8925,14 @@
         <v>3</v>
       </c>
       <c r="B49" s="68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="75"/>
       <c r="E49" s="138" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F49" s="139"/>
       <c r="G49" s="139"/>
@@ -8969,7 +8954,7 @@
     </row>
     <row r="51" spans="1:10" s="57" customFormat="1">
       <c r="A51" s="152" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B51" s="153"/>
       <c r="C51" s="153"/>
@@ -8986,14 +8971,14 @@
         <v>1</v>
       </c>
       <c r="B52" s="68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C52" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="70"/>
       <c r="E52" s="151" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F52" s="120"/>
       <c r="G52" s="120"/>
@@ -9006,14 +8991,14 @@
         <v>2</v>
       </c>
       <c r="B53" s="68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C53" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="73"/>
       <c r="E53" s="155" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F53" s="156"/>
       <c r="G53" s="156"/>
@@ -9026,14 +9011,14 @@
         <v>3</v>
       </c>
       <c r="B54" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C54" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="73"/>
       <c r="E54" s="155" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F54" s="156"/>
       <c r="G54" s="156"/>
@@ -9046,14 +9031,14 @@
         <v>4</v>
       </c>
       <c r="B55" s="68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C55" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="73"/>
       <c r="E55" s="155" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F55" s="156"/>
       <c r="G55" s="156"/>
@@ -9066,14 +9051,14 @@
         <v>1</v>
       </c>
       <c r="B56" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C56" s="87" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="86"/>
       <c r="E56" s="138" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F56" s="113"/>
       <c r="G56" s="113"/>
@@ -9318,7 +9303,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9331,7 +9316,7 @@
     <col min="6" max="6" width="14.375" style="42" customWidth="1"/>
     <col min="7" max="7" width="13" style="42" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="42" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="42" customWidth="1"/>
     <col min="10" max="10" width="37" style="42" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="42" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="42"/>
@@ -9349,7 +9334,7 @@
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
       <c r="K1" s="160" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -9458,16 +9443,16 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="43" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>20</v>
@@ -9479,10 +9464,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>39</v>
+        <v>262</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -9516,7 +9501,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="202" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="203"/>
       <c r="C10" s="203"/>
@@ -9530,19 +9515,19 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>19</v>
@@ -9551,10 +9536,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -9565,26 +9550,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J12" s="49"/>
     </row>
@@ -9593,26 +9578,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" s="49"/>
     </row>
@@ -9621,34 +9606,34 @@
         <v>3</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="51">
         <v>2</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="202" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="203"/>
       <c r="C16" s="203"/>
@@ -9662,19 +9647,19 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="43" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F17" s="43" t="s">
         <v>19</v>
@@ -9683,10 +9668,10 @@
         <v>13</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="J17" s="43" t="s">
         <v>0</v>
@@ -9697,24 +9682,24 @@
         <v>1</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J18" s="49"/>
     </row>
@@ -9723,24 +9708,24 @@
         <v>2</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J19" s="49"/>
     </row>
@@ -9749,27 +9734,27 @@
         <v>3</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="47" t="s">
-        <v>59</v>
-      </c>
       <c r="G20" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -9777,27 +9762,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="50"/>
       <c r="E21" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="50"/>
       <c r="I21" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J21" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -9839,9 +9824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -9870,7 +9853,7 @@
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
       <c r="K1" s="160" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1" s="55"/>
       <c r="M1" s="55"/>
@@ -9997,7 +9980,7 @@
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="84.75" customHeight="1">
       <c r="A11" s="176" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B11" s="113"/>
       <c r="C11" s="113"/>
@@ -10053,7 +10036,7 @@
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="35.25" customHeight="1">
       <c r="A15" s="180" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" s="181"/>
       <c r="C15" s="181"/>
@@ -10070,10 +10053,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="183" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="184"/>
       <c r="E16" s="184"/>
@@ -10088,10 +10071,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="85" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="186" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D17" s="187"/>
       <c r="E17" s="187"/>
@@ -10106,10 +10089,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" s="186" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D18" s="187"/>
       <c r="E18" s="187"/>
@@ -10124,10 +10107,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="186" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D19" s="187"/>
       <c r="E19" s="187"/>
@@ -10142,10 +10125,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="88" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" s="186" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D20" s="187"/>
       <c r="E20" s="187"/>
@@ -10160,10 +10143,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" s="186" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D21" s="187"/>
       <c r="E21" s="187"/>
@@ -10178,10 +10161,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C22" s="186" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D22" s="209"/>
       <c r="E22" s="209"/>
@@ -10205,7 +10188,7 @@
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1" ht="35.25" customHeight="1">
       <c r="A24" s="180" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" s="181"/>
       <c r="C24" s="181"/>
@@ -10222,10 +10205,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C25" s="186" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D25" s="187"/>
       <c r="E25" s="187"/>
@@ -10240,10 +10223,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" s="186" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D26" s="187"/>
       <c r="E26" s="187"/>
@@ -10258,10 +10241,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C27" s="186" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D27" s="187"/>
       <c r="E27" s="187"/>
@@ -10276,10 +10259,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" s="186" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D28" s="187"/>
       <c r="E28" s="187"/>
@@ -10305,7 +10288,7 @@
     </row>
     <row r="30" spans="1:10" s="57" customFormat="1" ht="36" customHeight="1">
       <c r="A30" s="180" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B30" s="181"/>
       <c r="C30" s="181"/>
@@ -10319,13 +10302,13 @@
     </row>
     <row r="31" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="C31" s="183" t="s">
         <v>143</v>
-      </c>
-      <c r="C31" s="183" t="s">
-        <v>144</v>
       </c>
       <c r="D31" s="184"/>
       <c r="E31" s="184"/>
@@ -10340,10 +10323,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C32" s="205" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D32" s="193"/>
       <c r="E32" s="193"/>
@@ -10358,7 +10341,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="90" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" s="206"/>
       <c r="D33" s="207"/>
@@ -10374,7 +10357,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="88" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C34" s="206"/>
       <c r="D34" s="207"/>
@@ -10390,7 +10373,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C35" s="195"/>
       <c r="D35" s="196"/>
@@ -10415,7 +10398,7 @@
     </row>
     <row r="37" spans="1:12" s="57" customFormat="1">
       <c r="A37" s="180" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B37" s="189"/>
       <c r="C37" s="189"/>
@@ -10429,13 +10412,13 @@
     </row>
     <row r="38" spans="1:12" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="60" t="s">
-        <v>146</v>
-      </c>
       <c r="C38" s="183" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D38" s="184"/>
       <c r="E38" s="184"/>
@@ -10450,10 +10433,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C39" s="191" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D39" s="187"/>
       <c r="E39" s="187"/>
@@ -10468,10 +10451,10 @@
         <v>2</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C40" s="191" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D40" s="187"/>
       <c r="E40" s="187"/>
@@ -10486,10 +10469,10 @@
         <v>3</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C41" s="191" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D41" s="187"/>
       <c r="E41" s="187"/>
@@ -10504,10 +10487,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C42" s="191" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D42" s="187"/>
       <c r="E42" s="187"/>
@@ -10584,12 +10567,12 @@
         <v>1</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C47" s="65"/>
       <c r="D47" s="66"/>
       <c r="E47" s="151" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F47" s="120"/>
       <c r="G47" s="120"/>
@@ -10599,7 +10582,7 @@
     </row>
     <row r="48" spans="1:12" s="57" customFormat="1">
       <c r="A48" s="162" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B48" s="163"/>
       <c r="C48" s="163"/>
@@ -10616,14 +10599,14 @@
         <v>1</v>
       </c>
       <c r="B49" s="91" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="94" t="s">
         <v>179</v>
-      </c>
-      <c r="C49" s="94" t="s">
-        <v>180</v>
       </c>
       <c r="D49" s="93"/>
       <c r="E49" s="155" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F49" s="156"/>
       <c r="G49" s="156"/>
@@ -10636,14 +10619,14 @@
         <v>2</v>
       </c>
       <c r="B50" s="72" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C50" s="94" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D50" s="93"/>
       <c r="E50" s="155" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F50" s="156"/>
       <c r="G50" s="156"/>
@@ -10656,14 +10639,14 @@
         <v>3</v>
       </c>
       <c r="B51" s="91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C51" s="94" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D51" s="92"/>
       <c r="E51" s="138" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F51" s="113"/>
       <c r="G51" s="113"/>
@@ -10673,7 +10656,7 @@
     </row>
     <row r="52" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="162" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B52" s="163"/>
       <c r="C52" s="163"/>
@@ -10692,14 +10675,14 @@
         <v>1</v>
       </c>
       <c r="B53" s="68" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C53" s="69" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="70"/>
       <c r="E53" s="151" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F53" s="120"/>
       <c r="G53" s="120"/>
@@ -10712,14 +10695,14 @@
         <v>2</v>
       </c>
       <c r="B54" s="72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C54" s="69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D54" s="73"/>
       <c r="E54" s="155" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F54" s="156"/>
       <c r="G54" s="156"/>
@@ -10732,14 +10715,14 @@
         <v>3</v>
       </c>
       <c r="B55" s="68" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C55" s="69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D55" s="75"/>
       <c r="E55" s="138" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F55" s="113"/>
       <c r="G55" s="113"/>
@@ -10967,7 +10950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -10981,7 +10964,7 @@
     <col min="6" max="6" width="14.375" style="42" customWidth="1"/>
     <col min="7" max="7" width="13" style="42" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="42" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="42" customWidth="1"/>
     <col min="10" max="10" width="34.875" style="42" customWidth="1"/>
     <col min="11" max="11" width="8.75" style="42" customWidth="1"/>
     <col min="12" max="16384" width="9" style="42"/>
@@ -10999,7 +10982,7 @@
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
       <c r="K1" s="160" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -11108,19 +11091,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="43" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>19</v>
@@ -11129,10 +11112,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -11166,7 +11149,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="202" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B10" s="215"/>
       <c r="C10" s="215"/>
@@ -11180,19 +11163,19 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>19</v>
@@ -11201,10 +11184,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -11215,29 +11198,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="50" t="s">
-        <v>166</v>
-      </c>
       <c r="D12" s="46" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F12" s="107" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G12" s="106" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H12" s="50"/>
       <c r="I12" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J12" s="96" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -11245,29 +11228,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="50" t="s">
-        <v>168</v>
-      </c>
       <c r="D13" s="46" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E13" s="104" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F13" s="108" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G13" s="108" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H13" s="50"/>
       <c r="I13" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J13" s="96" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -11275,29 +11258,29 @@
         <v>3</v>
       </c>
       <c r="B14" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="50" t="s">
-        <v>160</v>
-      </c>
       <c r="D14" s="46" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E14" s="104" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F14" s="107" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G14" s="108" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J14" s="96" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -11305,29 +11288,29 @@
         <v>4</v>
       </c>
       <c r="B15" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="50" t="s">
-        <v>163</v>
-      </c>
       <c r="D15" s="46" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E15" s="104" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F15" s="107" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G15" s="106" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J15" s="96" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -11335,31 +11318,31 @@
         <v>5</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C16" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="D16" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>170</v>
-      </c>
       <c r="F16" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H16" s="44">
         <v>0</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J16" s="101" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11376,7 +11359,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="202" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B18" s="203"/>
       <c r="C18" s="203"/>
@@ -11390,19 +11373,19 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="43" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F19" s="43" t="s">
         <v>19</v>
@@ -11411,10 +11394,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I19" s="43" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="J19" s="43" t="s">
         <v>0</v>
@@ -11425,29 +11408,29 @@
         <v>3</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E20" s="104" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F20" s="107" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G20" s="106" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J20" s="96" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -11455,29 +11438,29 @@
         <v>4</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E21" s="104" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F21" s="107" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G21" s="106" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J21" s="96" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -11485,29 +11468,29 @@
         <v>1</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E22" s="104" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F22" s="107" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G22" s="108" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H22" s="50"/>
       <c r="I22" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J22" s="96" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -11515,29 +11498,29 @@
         <v>2</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E23" s="104" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F23" s="108" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G23" s="108" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H23" s="50"/>
       <c r="I23" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J23" s="96" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
+++ b/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="261">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -206,10 +206,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Button說明</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -596,20 +592,6 @@
     <t>1. 主檔已建立使用者帳號。
 2. 各模組依需求在APF已建立自訂角色。</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>查詢角色
-1. 使用者輸入查詢條件篩選欲選取的角色。
-2. 系統依查詢條件顯示資料於grid。
-3. 使用者選取特定角色進行資料設定。
-查詢帳號
-1. 使用者於特定角色下輸入查詢條件篩選欲選取的帳號。
-2. 系統依查詢條件顯示資料於grid。
-維護Mapping設定
-1. 使用者選取適當帳號。
-2. 加入角色或移除後點選儲存按鈕。
-3. 系統依設定資訊儲存並回應設定成功訊息。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>其他</t>
@@ -1109,18 +1091,18 @@
   </si>
   <si>
     <t>org_id</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(10)</t>
   </si>
   <si>
     <t>position_id</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(5)</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>string 10</t>
@@ -1179,11 +1161,11 @@
   </si>
   <si>
     <t>varchar2(10)</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(10)</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>string 10</t>
@@ -1264,7 +1246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1417,11 +1399,6 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1790,11 +1767,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1945,7 +1922,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2079,8 +2056,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2097,6 +2074,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2106,33 +2104,33 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2142,38 +2140,92 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2184,19 +2236,64 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2217,7 +2314,7 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2234,142 +2331,28 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2381,24 +2364,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3430,13 +3395,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>666750</xdr:colOff>
-          <xdr:row>85</xdr:row>
+          <xdr:row>83</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3482,13 +3447,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>86</xdr:row>
+          <xdr:row>84</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>676275</xdr:colOff>
-          <xdr:row>104</xdr:row>
+          <xdr:row>102</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7268,7 +7233,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="109" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
@@ -7276,124 +7241,124 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>43</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>48</v>
-      </c>
       <c r="D3" s="102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="110" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="102" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="110"/>
       <c r="B6" s="35" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="110" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="111"/>
       <c r="B8" s="38" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="103" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A9" s="110" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A10" s="110"/>
       <c r="B10" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A11" s="110"/>
       <c r="B11" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" hidden="1" customHeight="1" thickBot="1">
       <c r="A12" s="37"/>
       <c r="B12" s="35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="39"/>
@@ -7558,10 +7523,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>40</v>
       </c>
       <c r="D6" s="22">
         <v>41563</v>
@@ -7692,10 +7657,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7708,17 +7673,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="127" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="M1" s="112" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="128"/>
+      <c r="M2" s="113"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="128"/>
+      <c r="M3" s="113"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -7735,269 +7700,243 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="116"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="130"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="124" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="A6" s="131" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="133"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="121" t="s">
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="123"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="118"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="128" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="113" t="s">
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="121"/>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="118"/>
+    </row>
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="114"/>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="129" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="123"/>
-    </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="119" t="s">
+      <c r="B10" s="126"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="113" t="s">
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="121"/>
+    </row>
+    <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="127" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="118"/>
+    </row>
+    <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
+      <c r="A12" s="128" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="114"/>
-    </row>
-    <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="117" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="137" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="123"/>
-    </row>
-    <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A12" s="119" t="s">
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="121"/>
+    </row>
+    <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="124" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="127" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="118"/>
+    </row>
+    <row r="14" spans="1:13" s="24" customFormat="1" ht="33" customHeight="1">
+      <c r="A14" s="128" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="114"/>
-    </row>
-    <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="137" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="123"/>
-    </row>
-    <row r="14" spans="1:13" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A14" s="119" t="s">
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="113" t="s">
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="121"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5">
+      <c r="A15" s="119" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="121"/>
+    </row>
+    <row r="81" spans="1:12" ht="25.5" customHeight="1">
+      <c r="A81" s="119" t="s">
+        <v>195</v>
+      </c>
+      <c r="B81" s="120"/>
+      <c r="C81" s="120"/>
+      <c r="D81" s="120"/>
+      <c r="E81" s="120"/>
+      <c r="F81" s="120"/>
+      <c r="G81" s="120"/>
+      <c r="H81" s="120"/>
+      <c r="I81" s="120"/>
+      <c r="J81" s="120"/>
+      <c r="K81" s="120"/>
+      <c r="L81" s="121"/>
+    </row>
+    <row r="84" spans="1:12" ht="21" customHeight="1">
+      <c r="A84" s="119" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="114"/>
-    </row>
-    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="134"/>
-    </row>
-    <row r="16" spans="1:13" s="19" customFormat="1" ht="194.25" customHeight="1">
-      <c r="A16" s="135" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="136"/>
-    </row>
-    <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="112" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="114"/>
-    </row>
-    <row r="83" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A83" s="112" t="s">
-        <v>197</v>
-      </c>
-      <c r="B83" s="113"/>
-      <c r="C83" s="113"/>
-      <c r="D83" s="113"/>
-      <c r="E83" s="113"/>
-      <c r="F83" s="113"/>
-      <c r="G83" s="113"/>
-      <c r="H83" s="113"/>
-      <c r="I83" s="113"/>
-      <c r="J83" s="113"/>
-      <c r="K83" s="113"/>
-      <c r="L83" s="114"/>
-    </row>
-    <row r="86" spans="1:12" ht="21" customHeight="1">
-      <c r="A86" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="B86" s="131"/>
-      <c r="C86" s="131"/>
-      <c r="D86" s="131"/>
-      <c r="E86" s="131"/>
-      <c r="F86" s="131"/>
-      <c r="G86" s="131"/>
-      <c r="H86" s="131"/>
-      <c r="I86" s="131"/>
-      <c r="J86" s="131"/>
-      <c r="K86" s="131"/>
-      <c r="L86" s="132"/>
+      <c r="B84" s="122"/>
+      <c r="C84" s="122"/>
+      <c r="D84" s="122"/>
+      <c r="E84" s="122"/>
+      <c r="F84" s="122"/>
+      <c r="G84" s="122"/>
+      <c r="H84" s="122"/>
+      <c r="I84" s="122"/>
+      <c r="J84" s="122"/>
+      <c r="K84" s="122"/>
+      <c r="L84" s="123"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="22">
+    <mergeCell ref="A81:L81"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A86:L86"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A84:L84"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -8006,14 +7945,6 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A83:L83"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -8034,13 +7965,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
                 <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>83</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -8059,13 +7990,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>84</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
                 <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>104</xdr:row>
+                <xdr:row>102</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
@@ -8089,15 +8020,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="127" t="s">
-        <v>256</v>
+      <c r="P1" s="112" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="128"/>
+      <c r="P2" s="113"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="128"/>
+      <c r="P3" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8176,8 +8107,8 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="160" t="s">
-        <v>49</v>
+      <c r="K1" s="161" t="s">
+        <v>48</v>
       </c>
       <c r="L1" s="55"/>
       <c r="M1" s="55"/>
@@ -8197,7 +8128,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="161"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="1:17" s="56" customFormat="1">
       <c r="A3" s="48"/>
@@ -8210,7 +8141,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="161"/>
+      <c r="K3" s="162"/>
     </row>
     <row r="4" spans="1:17" s="56" customFormat="1">
       <c r="A4" s="48"/>
@@ -8225,614 +8156,614 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="56" customFormat="1">
-      <c r="A5" s="168" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="123"/>
+      <c r="A5" s="172" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="124"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="126"/>
+      <c r="A6" s="131"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="133"/>
     </row>
     <row r="7" spans="1:17" s="57" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="169"/>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="172"/>
+      <c r="A7" s="173"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="176"/>
       <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:17" s="57" customFormat="1">
-      <c r="A8" s="169"/>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="172"/>
+      <c r="A8" s="173"/>
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="176"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:17" s="57" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="173"/>
-      <c r="B9" s="174"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="175"/>
+      <c r="A9" s="177"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="179"/>
     </row>
     <row r="10" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="168" t="s">
+      <c r="A10" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="176" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="114"/>
+      <c r="A11" s="180" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
     </row>
     <row r="12" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="168" t="s">
+      <c r="A12" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="123"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
     </row>
     <row r="13" spans="1:17" s="59" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="176" t="s">
+      <c r="A13" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="114"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="168" t="s">
+      <c r="A14" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="123"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="180" t="s">
-        <v>216</v>
-      </c>
-      <c r="B15" s="181"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="181"/>
-      <c r="E15" s="181"/>
-      <c r="F15" s="181"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="182"/>
+      <c r="A15" s="148" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="157"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="158"/>
     </row>
     <row r="16" spans="1:17" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="183" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="184"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="184"/>
-      <c r="G16" s="184"/>
-      <c r="H16" s="184"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="185"/>
+        <v>88</v>
+      </c>
+      <c r="C16" s="142" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="144"/>
     </row>
     <row r="17" spans="1:10" s="57" customFormat="1" ht="58.5" customHeight="1">
       <c r="A17" s="60">
         <v>1</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="186" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="188"/>
+        <v>208</v>
+      </c>
+      <c r="C17" s="159" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="147"/>
     </row>
     <row r="18" spans="1:10" s="57" customFormat="1" ht="60.75" customHeight="1">
       <c r="A18" s="60">
         <v>2</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="C18" s="186" t="s">
-        <v>213</v>
-      </c>
-      <c r="D18" s="187"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="188"/>
+        <v>210</v>
+      </c>
+      <c r="C18" s="159" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="147"/>
     </row>
     <row r="19" spans="1:10" s="57" customFormat="1" ht="41.25" customHeight="1">
       <c r="A19" s="60">
         <v>3</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="C19" s="186" t="s">
-        <v>215</v>
-      </c>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="187"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="188"/>
+        <v>212</v>
+      </c>
+      <c r="C19" s="159" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="1:10" s="57" customFormat="1">
-      <c r="A20" s="141"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="142"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="141"/>
     </row>
     <row r="21" spans="1:10" s="57" customFormat="1">
-      <c r="A21" s="180" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="181"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="181"/>
-      <c r="J21" s="182"/>
+      <c r="A21" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="158"/>
     </row>
     <row r="22" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="183" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="184"/>
-      <c r="E22" s="184"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="184"/>
-      <c r="H22" s="184"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="185"/>
+        <v>88</v>
+      </c>
+      <c r="C22" s="142" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="144"/>
     </row>
     <row r="23" spans="1:10" s="57" customFormat="1">
       <c r="A23" s="60">
         <v>1</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="191" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="187"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="187"/>
-      <c r="G23" s="187"/>
-      <c r="H23" s="187"/>
-      <c r="I23" s="187"/>
-      <c r="J23" s="188"/>
+        <v>87</v>
+      </c>
+      <c r="C23" s="145" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="147"/>
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1">
       <c r="A24" s="60">
         <v>2</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="191" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="187"/>
-      <c r="E24" s="187"/>
-      <c r="F24" s="187"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="187"/>
-      <c r="J24" s="188"/>
+        <v>89</v>
+      </c>
+      <c r="C24" s="145" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="147"/>
     </row>
     <row r="25" spans="1:10" s="57" customFormat="1">
       <c r="A25" s="60">
         <v>3</v>
       </c>
       <c r="B25" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="145" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="191" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="187"/>
-      <c r="E25" s="187"/>
-      <c r="F25" s="187"/>
-      <c r="G25" s="187"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="188"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="147"/>
     </row>
     <row r="26" spans="1:10" s="57" customFormat="1">
       <c r="A26" s="60">
         <v>4</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="191" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="187"/>
-      <c r="E26" s="187"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="187"/>
-      <c r="J26" s="188"/>
+        <v>90</v>
+      </c>
+      <c r="C26" s="145" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="147"/>
     </row>
     <row r="27" spans="1:10" s="57" customFormat="1">
-      <c r="A27" s="165"/>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="166"/>
-      <c r="E27" s="166"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="166"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="167"/>
+      <c r="A27" s="169"/>
+      <c r="B27" s="170"/>
+      <c r="C27" s="170"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="171"/>
     </row>
     <row r="28" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="177" t="s">
+      <c r="A28" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="178"/>
-      <c r="C28" s="178"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="179"/>
+      <c r="B28" s="181"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="182"/>
     </row>
     <row r="29" spans="1:10" s="57" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="180" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="181"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="181"/>
-      <c r="E29" s="181"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="181"/>
-      <c r="H29" s="181"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="182"/>
+      <c r="A29" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="157"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="158"/>
     </row>
     <row r="30" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="183" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="184"/>
-      <c r="I30" s="184"/>
-      <c r="J30" s="185"/>
+        <v>88</v>
+      </c>
+      <c r="C30" s="142" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="143"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="144"/>
     </row>
     <row r="31" spans="1:10" s="57" customFormat="1">
       <c r="A31" s="60">
         <v>1</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="C31" s="192" t="s">
-        <v>241</v>
-      </c>
-      <c r="D31" s="193"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="194"/>
+        <v>197</v>
+      </c>
+      <c r="C31" s="151" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="153"/>
     </row>
     <row r="32" spans="1:10" s="57" customFormat="1">
       <c r="A32" s="60">
         <v>2</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>200</v>
-      </c>
-      <c r="C32" s="195"/>
-      <c r="D32" s="196"/>
-      <c r="E32" s="196"/>
-      <c r="F32" s="196"/>
-      <c r="G32" s="196"/>
-      <c r="H32" s="196"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="197"/>
+        <v>198</v>
+      </c>
+      <c r="C32" s="154"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="156"/>
     </row>
     <row r="33" spans="1:12" s="57" customFormat="1">
       <c r="A33" s="60">
         <v>3</v>
       </c>
       <c r="B33" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="191" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="187"/>
-      <c r="E33" s="187"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="188"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="147"/>
     </row>
     <row r="34" spans="1:12" s="57" customFormat="1">
-      <c r="A34" s="141"/>
-      <c r="B34" s="158"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="142"/>
+      <c r="A34" s="139"/>
+      <c r="B34" s="140"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="140"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="141"/>
     </row>
     <row r="35" spans="1:12" s="57" customFormat="1">
-      <c r="A35" s="180" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" s="189"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="189"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="189"/>
-      <c r="H35" s="189"/>
-      <c r="I35" s="189"/>
-      <c r="J35" s="190"/>
+      <c r="A35" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="150"/>
     </row>
     <row r="36" spans="1:12" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="183" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="184"/>
-      <c r="E36" s="184"/>
-      <c r="F36" s="184"/>
-      <c r="G36" s="184"/>
-      <c r="H36" s="184"/>
-      <c r="I36" s="184"/>
-      <c r="J36" s="185"/>
+        <v>88</v>
+      </c>
+      <c r="C36" s="142" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="143"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="144"/>
     </row>
     <row r="37" spans="1:12" s="57" customFormat="1">
       <c r="A37" s="60">
         <v>1</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="191" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="187"/>
-      <c r="E37" s="187"/>
-      <c r="F37" s="187"/>
-      <c r="G37" s="187"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="187"/>
-      <c r="J37" s="188"/>
+        <v>87</v>
+      </c>
+      <c r="C37" s="145" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="146"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="146"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="146"/>
+      <c r="J37" s="147"/>
     </row>
     <row r="38" spans="1:12" s="57" customFormat="1">
       <c r="A38" s="60">
         <v>2</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="191" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="187"/>
-      <c r="E38" s="187"/>
-      <c r="F38" s="187"/>
-      <c r="G38" s="187"/>
-      <c r="H38" s="187"/>
-      <c r="I38" s="187"/>
-      <c r="J38" s="188"/>
+        <v>89</v>
+      </c>
+      <c r="C38" s="145" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="146"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="146"/>
+      <c r="J38" s="147"/>
     </row>
     <row r="39" spans="1:12" s="57" customFormat="1">
       <c r="A39" s="60">
         <v>3</v>
       </c>
       <c r="B39" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="145" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="191" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="187"/>
-      <c r="E39" s="187"/>
-      <c r="F39" s="187"/>
-      <c r="G39" s="187"/>
-      <c r="H39" s="187"/>
-      <c r="I39" s="187"/>
-      <c r="J39" s="188"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="147"/>
     </row>
     <row r="40" spans="1:12" s="57" customFormat="1">
       <c r="A40" s="60">
         <v>4</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="191" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="187"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
-      <c r="J40" s="188"/>
+        <v>90</v>
+      </c>
+      <c r="C40" s="145" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="146"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="146"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="147"/>
     </row>
     <row r="41" spans="1:12" s="57" customFormat="1">
-      <c r="A41" s="141"/>
-      <c r="B41" s="158"/>
-      <c r="C41" s="158"/>
-      <c r="D41" s="158"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="158"/>
-      <c r="I41" s="158"/>
-      <c r="J41" s="142"/>
+      <c r="A41" s="139"/>
+      <c r="B41" s="140"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="140"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="141"/>
     </row>
     <row r="42" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="177" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="198"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="198"/>
-      <c r="H42" s="198"/>
-      <c r="I42" s="198"/>
-      <c r="J42" s="199"/>
+      <c r="A42" s="134" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="135"/>
+      <c r="C42" s="135"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="135"/>
+      <c r="F42" s="135"/>
+      <c r="G42" s="135"/>
+      <c r="H42" s="135"/>
+      <c r="I42" s="135"/>
+      <c r="J42" s="136"/>
     </row>
     <row r="43" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="61" t="s">
+      <c r="C43" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="D43" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="63" t="s">
+      <c r="E43" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="200" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" s="201"/>
-      <c r="G43" s="201"/>
-      <c r="H43" s="201"/>
-      <c r="I43" s="201"/>
-      <c r="J43" s="201"/>
+      <c r="F43" s="138"/>
+      <c r="G43" s="138"/>
+      <c r="H43" s="138"/>
+      <c r="I43" s="138"/>
+      <c r="J43" s="138"/>
       <c r="K43" s="57"/>
       <c r="L43" s="57"/>
     </row>
@@ -8841,334 +8772,334 @@
         <v>1</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C44" s="65"/>
       <c r="D44" s="66"/>
-      <c r="E44" s="151" t="s">
-        <v>132</v>
-      </c>
-      <c r="F44" s="120"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="120"/>
+      <c r="E44" s="191" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" s="126"/>
+      <c r="G44" s="126"/>
+      <c r="H44" s="126"/>
+      <c r="I44" s="126"/>
+      <c r="J44" s="126"/>
     </row>
     <row r="45" spans="1:12" s="57" customFormat="1">
       <c r="A45" s="67"/>
-      <c r="B45" s="158"/>
-      <c r="C45" s="158"/>
-      <c r="D45" s="158"/>
-      <c r="E45" s="158"/>
-      <c r="F45" s="158"/>
-      <c r="G45" s="158"/>
-      <c r="H45" s="158"/>
-      <c r="I45" s="158"/>
-      <c r="J45" s="142"/>
+      <c r="B45" s="140"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="140"/>
+      <c r="F45" s="140"/>
+      <c r="G45" s="140"/>
+      <c r="H45" s="140"/>
+      <c r="I45" s="140"/>
+      <c r="J45" s="141"/>
     </row>
     <row r="46" spans="1:12" s="57" customFormat="1">
-      <c r="A46" s="162" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="163"/>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
-      <c r="E46" s="163"/>
-      <c r="F46" s="163"/>
-      <c r="G46" s="163"/>
-      <c r="H46" s="163"/>
-      <c r="I46" s="163"/>
-      <c r="J46" s="164"/>
+      <c r="A46" s="166" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="167"/>
+      <c r="C46" s="167"/>
+      <c r="D46" s="167"/>
+      <c r="E46" s="167"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="167"/>
+      <c r="H46" s="167"/>
+      <c r="I46" s="167"/>
+      <c r="J46" s="168"/>
     </row>
     <row r="47" spans="1:12" s="57" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="60">
         <v>1</v>
       </c>
       <c r="B47" s="68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="70"/>
-      <c r="E47" s="151" t="s">
-        <v>133</v>
-      </c>
-      <c r="F47" s="120"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="120"/>
-      <c r="J47" s="120"/>
+      <c r="E47" s="191" t="s">
+        <v>131</v>
+      </c>
+      <c r="F47" s="126"/>
+      <c r="G47" s="126"/>
+      <c r="H47" s="126"/>
+      <c r="I47" s="126"/>
+      <c r="J47" s="126"/>
     </row>
     <row r="48" spans="1:12" s="59" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="71">
         <v>2</v>
       </c>
       <c r="B48" s="72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="73"/>
-      <c r="E48" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="F48" s="139"/>
-      <c r="G48" s="139"/>
-      <c r="H48" s="139"/>
-      <c r="I48" s="139"/>
-      <c r="J48" s="140"/>
+      <c r="E48" s="163" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" s="164"/>
+      <c r="G48" s="164"/>
+      <c r="H48" s="164"/>
+      <c r="I48" s="164"/>
+      <c r="J48" s="165"/>
     </row>
     <row r="49" spans="1:10" s="57" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="74">
         <v>3</v>
       </c>
       <c r="B49" s="68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="75"/>
-      <c r="E49" s="138" t="s">
-        <v>134</v>
-      </c>
-      <c r="F49" s="139"/>
-      <c r="G49" s="139"/>
-      <c r="H49" s="139"/>
-      <c r="I49" s="139"/>
-      <c r="J49" s="140"/>
+      <c r="E49" s="163" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" s="164"/>
+      <c r="G49" s="164"/>
+      <c r="H49" s="164"/>
+      <c r="I49" s="164"/>
+      <c r="J49" s="165"/>
     </row>
     <row r="50" spans="1:10" s="57" customFormat="1">
       <c r="A50" s="76"/>
-      <c r="B50" s="158"/>
-      <c r="C50" s="158"/>
-      <c r="D50" s="158"/>
-      <c r="E50" s="158"/>
-      <c r="F50" s="158"/>
-      <c r="G50" s="158"/>
-      <c r="H50" s="158"/>
-      <c r="I50" s="158"/>
-      <c r="J50" s="142"/>
+      <c r="B50" s="140"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="140"/>
+      <c r="F50" s="140"/>
+      <c r="G50" s="140"/>
+      <c r="H50" s="140"/>
+      <c r="I50" s="140"/>
+      <c r="J50" s="141"/>
     </row>
     <row r="51" spans="1:10" s="57" customFormat="1">
-      <c r="A51" s="152" t="s">
-        <v>130</v>
-      </c>
-      <c r="B51" s="153"/>
-      <c r="C51" s="153"/>
-      <c r="D51" s="153"/>
-      <c r="E51" s="153"/>
-      <c r="F51" s="153"/>
-      <c r="G51" s="153"/>
-      <c r="H51" s="153"/>
-      <c r="I51" s="153"/>
-      <c r="J51" s="154"/>
+      <c r="A51" s="192" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="193"/>
+      <c r="C51" s="193"/>
+      <c r="D51" s="193"/>
+      <c r="E51" s="193"/>
+      <c r="F51" s="193"/>
+      <c r="G51" s="193"/>
+      <c r="H51" s="193"/>
+      <c r="I51" s="193"/>
+      <c r="J51" s="194"/>
     </row>
     <row r="52" spans="1:10" s="57" customFormat="1" hidden="1">
       <c r="A52" s="60">
         <v>1</v>
       </c>
       <c r="B52" s="68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="70"/>
-      <c r="E52" s="151" t="s">
-        <v>101</v>
-      </c>
-      <c r="F52" s="120"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="120"/>
-      <c r="I52" s="120"/>
-      <c r="J52" s="120"/>
+      <c r="E52" s="191" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" s="126"/>
+      <c r="G52" s="126"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="126"/>
+      <c r="J52" s="126"/>
     </row>
     <row r="53" spans="1:10" s="57" customFormat="1" hidden="1">
       <c r="A53" s="60">
         <v>2</v>
       </c>
       <c r="B53" s="68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C53" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="73"/>
-      <c r="E53" s="155" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" s="156"/>
-      <c r="G53" s="156"/>
-      <c r="H53" s="156"/>
-      <c r="I53" s="156"/>
-      <c r="J53" s="157"/>
+      <c r="E53" s="195" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53" s="196"/>
+      <c r="G53" s="196"/>
+      <c r="H53" s="196"/>
+      <c r="I53" s="196"/>
+      <c r="J53" s="197"/>
     </row>
     <row r="54" spans="1:10" s="57" customFormat="1" hidden="1">
       <c r="A54" s="60">
         <v>3</v>
       </c>
       <c r="B54" s="68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C54" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="73"/>
-      <c r="E54" s="155" t="s">
-        <v>103</v>
-      </c>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
-      <c r="H54" s="156"/>
-      <c r="I54" s="156"/>
-      <c r="J54" s="157"/>
+      <c r="E54" s="195" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="196"/>
+      <c r="G54" s="196"/>
+      <c r="H54" s="196"/>
+      <c r="I54" s="196"/>
+      <c r="J54" s="197"/>
     </row>
     <row r="55" spans="1:10" s="57" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="60">
         <v>4</v>
       </c>
       <c r="B55" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C55" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="73"/>
-      <c r="E55" s="155" t="s">
-        <v>78</v>
-      </c>
-      <c r="F55" s="156"/>
-      <c r="G55" s="156"/>
-      <c r="H55" s="156"/>
-      <c r="I55" s="156"/>
-      <c r="J55" s="157"/>
+      <c r="E55" s="195" t="s">
+        <v>77</v>
+      </c>
+      <c r="F55" s="196"/>
+      <c r="G55" s="196"/>
+      <c r="H55" s="196"/>
+      <c r="I55" s="196"/>
+      <c r="J55" s="197"/>
     </row>
     <row r="56" spans="1:10" s="57" customFormat="1" ht="33.75" customHeight="1">
       <c r="A56" s="60">
         <v>1</v>
       </c>
       <c r="B56" s="85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C56" s="87" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="86"/>
-      <c r="E56" s="138" t="s">
-        <v>190</v>
-      </c>
-      <c r="F56" s="113"/>
-      <c r="G56" s="113"/>
-      <c r="H56" s="113"/>
-      <c r="I56" s="113"/>
-      <c r="J56" s="114"/>
+      <c r="E56" s="163" t="s">
+        <v>188</v>
+      </c>
+      <c r="F56" s="120"/>
+      <c r="G56" s="120"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="121"/>
     </row>
     <row r="57" spans="1:10" s="57" customFormat="1">
       <c r="A57" s="77"/>
-      <c r="B57" s="158"/>
-      <c r="C57" s="158"/>
-      <c r="D57" s="158"/>
-      <c r="E57" s="158"/>
-      <c r="F57" s="158"/>
-      <c r="G57" s="158"/>
-      <c r="H57" s="158"/>
-      <c r="I57" s="158"/>
-      <c r="J57" s="142"/>
+      <c r="B57" s="140"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="140"/>
+      <c r="F57" s="140"/>
+      <c r="G57" s="140"/>
+      <c r="H57" s="140"/>
+      <c r="I57" s="140"/>
+      <c r="J57" s="141"/>
     </row>
     <row r="58" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="148" t="s">
+      <c r="A58" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="149"/>
-      <c r="C58" s="149"/>
-      <c r="D58" s="149"/>
-      <c r="E58" s="149"/>
-      <c r="F58" s="149"/>
-      <c r="G58" s="149"/>
-      <c r="H58" s="149"/>
-      <c r="I58" s="149"/>
-      <c r="J58" s="150"/>
+      <c r="B58" s="189"/>
+      <c r="C58" s="189"/>
+      <c r="D58" s="189"/>
+      <c r="E58" s="189"/>
+      <c r="F58" s="189"/>
+      <c r="G58" s="189"/>
+      <c r="H58" s="189"/>
+      <c r="I58" s="189"/>
+      <c r="J58" s="190"/>
     </row>
     <row r="59" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="146" t="s">
+      <c r="B59" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="147"/>
-      <c r="D59" s="138" t="s">
+      <c r="C59" s="187"/>
+      <c r="D59" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="113"/>
-      <c r="F59" s="113"/>
-      <c r="G59" s="113"/>
-      <c r="H59" s="113"/>
-      <c r="I59" s="113"/>
-      <c r="J59" s="114"/>
+      <c r="E59" s="120"/>
+      <c r="F59" s="120"/>
+      <c r="G59" s="120"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="120"/>
+      <c r="J59" s="121"/>
     </row>
     <row r="60" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="143"/>
-      <c r="B60" s="144"/>
-      <c r="C60" s="144"/>
-      <c r="D60" s="144"/>
-      <c r="E60" s="144"/>
-      <c r="F60" s="144"/>
-      <c r="G60" s="144"/>
-      <c r="H60" s="144"/>
-      <c r="I60" s="144"/>
-      <c r="J60" s="145"/>
+      <c r="A60" s="183"/>
+      <c r="B60" s="184"/>
+      <c r="C60" s="184"/>
+      <c r="D60" s="184"/>
+      <c r="E60" s="184"/>
+      <c r="F60" s="184"/>
+      <c r="G60" s="184"/>
+      <c r="H60" s="184"/>
+      <c r="I60" s="184"/>
+      <c r="J60" s="185"/>
     </row>
     <row r="61" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="74"/>
-      <c r="B61" s="141"/>
-      <c r="C61" s="142"/>
-      <c r="D61" s="138"/>
-      <c r="E61" s="139"/>
-      <c r="F61" s="139"/>
-      <c r="G61" s="139"/>
-      <c r="H61" s="139"/>
-      <c r="I61" s="139"/>
-      <c r="J61" s="140"/>
+      <c r="B61" s="139"/>
+      <c r="C61" s="141"/>
+      <c r="D61" s="163"/>
+      <c r="E61" s="164"/>
+      <c r="F61" s="164"/>
+      <c r="G61" s="164"/>
+      <c r="H61" s="164"/>
+      <c r="I61" s="164"/>
+      <c r="J61" s="165"/>
     </row>
     <row r="62" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="74"/>
-      <c r="B62" s="141"/>
-      <c r="C62" s="142"/>
-      <c r="D62" s="138"/>
-      <c r="E62" s="139"/>
-      <c r="F62" s="139"/>
-      <c r="G62" s="139"/>
-      <c r="H62" s="139"/>
-      <c r="I62" s="139"/>
-      <c r="J62" s="140"/>
+      <c r="B62" s="139"/>
+      <c r="C62" s="141"/>
+      <c r="D62" s="163"/>
+      <c r="E62" s="164"/>
+      <c r="F62" s="164"/>
+      <c r="G62" s="164"/>
+      <c r="H62" s="164"/>
+      <c r="I62" s="164"/>
+      <c r="J62" s="165"/>
     </row>
     <row r="63" spans="1:10" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="143"/>
-      <c r="B63" s="144"/>
-      <c r="C63" s="144"/>
-      <c r="D63" s="144"/>
-      <c r="E63" s="144"/>
-      <c r="F63" s="144"/>
-      <c r="G63" s="144"/>
-      <c r="H63" s="144"/>
-      <c r="I63" s="144"/>
-      <c r="J63" s="145"/>
+      <c r="A63" s="183"/>
+      <c r="B63" s="184"/>
+      <c r="C63" s="184"/>
+      <c r="D63" s="184"/>
+      <c r="E63" s="184"/>
+      <c r="F63" s="184"/>
+      <c r="G63" s="184"/>
+      <c r="H63" s="184"/>
+      <c r="I63" s="184"/>
+      <c r="J63" s="185"/>
     </row>
     <row r="64" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="74"/>
-      <c r="B64" s="141"/>
-      <c r="C64" s="142"/>
-      <c r="D64" s="138"/>
-      <c r="E64" s="139"/>
-      <c r="F64" s="139"/>
-      <c r="G64" s="139"/>
-      <c r="H64" s="139"/>
-      <c r="I64" s="139"/>
-      <c r="J64" s="140"/>
+      <c r="B64" s="139"/>
+      <c r="C64" s="141"/>
+      <c r="D64" s="163"/>
+      <c r="E64" s="164"/>
+      <c r="F64" s="164"/>
+      <c r="G64" s="164"/>
+      <c r="H64" s="164"/>
+      <c r="I64" s="164"/>
+      <c r="J64" s="165"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="78" t="s">
@@ -9191,14 +9122,14 @@
       <c r="B66" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="141"/>
-      <c r="D66" s="113"/>
-      <c r="E66" s="113"/>
-      <c r="F66" s="113"/>
-      <c r="G66" s="113"/>
-      <c r="H66" s="113"/>
-      <c r="I66" s="113"/>
-      <c r="J66" s="114"/>
+      <c r="C66" s="139"/>
+      <c r="D66" s="120"/>
+      <c r="E66" s="120"/>
+      <c r="F66" s="120"/>
+      <c r="G66" s="120"/>
+      <c r="H66" s="120"/>
+      <c r="I66" s="120"/>
+      <c r="J66" s="121"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="74">
@@ -9207,43 +9138,38 @@
       <c r="B67" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="159"/>
-      <c r="D67" s="159"/>
-      <c r="E67" s="159"/>
-      <c r="F67" s="159"/>
-      <c r="G67" s="159"/>
-      <c r="H67" s="159"/>
-      <c r="I67" s="159"/>
-      <c r="J67" s="159"/>
+      <c r="C67" s="160"/>
+      <c r="D67" s="160"/>
+      <c r="E67" s="160"/>
+      <c r="F67" s="160"/>
+      <c r="G67" s="160"/>
+      <c r="H67" s="160"/>
+      <c r="I67" s="160"/>
+      <c r="J67" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B57:J57"/>
     <mergeCell ref="C67:J67"/>
     <mergeCell ref="C66:J66"/>
     <mergeCell ref="K1:K3"/>
@@ -9260,27 +9186,32 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="D61:J61"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9333,8 +9264,8 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="160" t="s">
-        <v>49</v>
+      <c r="K1" s="161" t="s">
+        <v>48</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -9360,7 +9291,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="161"/>
+      <c r="K2" s="162"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -9378,7 +9309,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="161"/>
+      <c r="K3" s="162"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -9422,18 +9353,18 @@
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="202" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="203"/>
-      <c r="C6" s="203"/>
-      <c r="D6" s="203"/>
-      <c r="E6" s="203"/>
-      <c r="F6" s="203"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="203"/>
-      <c r="I6" s="203"/>
-      <c r="J6" s="204"/>
+      <c r="A6" s="198" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="199"/>
+      <c r="H6" s="199"/>
+      <c r="I6" s="199"/>
+      <c r="J6" s="200"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -9443,16 +9374,16 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="43" t="s">
-        <v>203</v>
-      </c>
       <c r="C7" s="43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>20</v>
@@ -9464,10 +9395,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -9500,34 +9431,34 @@
       <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="202" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="203"/>
-      <c r="C10" s="203"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="203"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="204"/>
+      <c r="A10" s="198" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="199"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="199"/>
+      <c r="I10" s="199"/>
+      <c r="J10" s="200"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="C11" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="43" t="s">
         <v>203</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>205</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>19</v>
@@ -9536,10 +9467,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -9550,26 +9481,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" s="49"/>
     </row>
@@ -9578,26 +9509,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J13" s="49"/>
     </row>
@@ -9606,60 +9537,60 @@
         <v>3</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14" s="51">
         <v>2</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="202" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="203"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="203"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="203"/>
-      <c r="J16" s="204"/>
+      <c r="A16" s="198" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="199"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="199"/>
+      <c r="J16" s="200"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="C17" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="43" t="s">
         <v>203</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>205</v>
       </c>
       <c r="F17" s="43" t="s">
         <v>19</v>
@@ -9668,10 +9599,10 @@
         <v>13</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J17" s="43" t="s">
         <v>0</v>
@@ -9682,24 +9613,24 @@
         <v>1</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J18" s="49"/>
     </row>
@@ -9708,24 +9639,24 @@
         <v>2</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J19" s="49"/>
     </row>
@@ -9734,27 +9665,27 @@
         <v>3</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="47" t="s">
-        <v>58</v>
-      </c>
       <c r="G20" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -9762,27 +9693,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="50"/>
       <c r="E21" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H21" s="50"/>
       <c r="I21" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J21" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -9852,8 +9783,8 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="160" t="s">
-        <v>49</v>
+      <c r="K1" s="161" t="s">
+        <v>48</v>
       </c>
       <c r="L1" s="55"/>
       <c r="M1" s="55"/>
@@ -9873,7 +9804,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="161"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="1:17" s="56" customFormat="1">
       <c r="A3" s="48"/>
@@ -9886,7 +9817,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="161"/>
+      <c r="K3" s="162"/>
     </row>
     <row r="4" spans="1:17" s="56" customFormat="1">
       <c r="A4" s="48"/>
@@ -9901,664 +9832,664 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="56" customFormat="1">
-      <c r="A5" s="168" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="123"/>
+      <c r="A5" s="172" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="124"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="126"/>
+      <c r="A6" s="131"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="133"/>
     </row>
     <row r="7" spans="1:17" s="57" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="169"/>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="172"/>
+      <c r="A7" s="173"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="176"/>
       <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:17" s="57" customFormat="1">
-      <c r="A8" s="169"/>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="172"/>
+      <c r="A8" s="173"/>
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="176"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:17" s="57" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="173"/>
-      <c r="B9" s="174"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="175"/>
+      <c r="A9" s="177"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="179"/>
     </row>
     <row r="10" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="168" t="s">
+      <c r="A10" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="84.75" customHeight="1">
-      <c r="A11" s="176" t="s">
-        <v>238</v>
-      </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="114"/>
+      <c r="A11" s="180" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
     </row>
     <row r="12" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="168" t="s">
+      <c r="A12" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="123"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
     </row>
     <row r="13" spans="1:17" s="59" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="176" t="s">
+      <c r="A13" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="114"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="168" t="s">
+      <c r="A14" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="123"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="180" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="181"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="181"/>
-      <c r="E15" s="181"/>
-      <c r="F15" s="181"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="182"/>
+      <c r="A15" s="148" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="157"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="158"/>
     </row>
     <row r="16" spans="1:17" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="183" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="184"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="184"/>
-      <c r="G16" s="184"/>
-      <c r="H16" s="184"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="185"/>
+        <v>88</v>
+      </c>
+      <c r="C16" s="142" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="144"/>
     </row>
     <row r="17" spans="1:10" s="57" customFormat="1">
       <c r="A17" s="60">
         <v>1</v>
       </c>
       <c r="B17" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="186" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="188"/>
+        <v>134</v>
+      </c>
+      <c r="C17" s="159" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="147"/>
     </row>
     <row r="18" spans="1:10" s="57" customFormat="1" ht="24" customHeight="1">
       <c r="A18" s="44">
         <v>2</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="186" t="s">
-        <v>235</v>
-      </c>
-      <c r="D18" s="187"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="188"/>
+        <v>137</v>
+      </c>
+      <c r="C18" s="159" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="147"/>
     </row>
     <row r="19" spans="1:10" s="57" customFormat="1" ht="27.75" customHeight="1">
       <c r="A19" s="44">
         <v>3</v>
       </c>
       <c r="B19" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="186" t="s">
-        <v>234</v>
-      </c>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="187"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="188"/>
+        <v>138</v>
+      </c>
+      <c r="C19" s="159" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="1:10" s="57" customFormat="1" ht="42" customHeight="1">
       <c r="A20" s="49">
         <v>4</v>
       </c>
       <c r="B20" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="186" t="s">
-        <v>236</v>
-      </c>
-      <c r="D20" s="187"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="187"/>
-      <c r="H20" s="187"/>
-      <c r="I20" s="187"/>
-      <c r="J20" s="188"/>
+        <v>135</v>
+      </c>
+      <c r="C20" s="159" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
     </row>
     <row r="21" spans="1:10" s="57" customFormat="1" ht="39.75" customHeight="1">
       <c r="A21" s="49">
         <v>5</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="186" t="s">
-        <v>237</v>
-      </c>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="187"/>
-      <c r="J21" s="188"/>
+        <v>136</v>
+      </c>
+      <c r="C21" s="159" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="146"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
     </row>
     <row r="22" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A22" s="44">
         <v>6</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="186" t="s">
-        <v>253</v>
-      </c>
-      <c r="D22" s="209"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="209"/>
-      <c r="G22" s="209"/>
-      <c r="H22" s="209"/>
-      <c r="I22" s="209"/>
-      <c r="J22" s="210"/>
+        <v>185</v>
+      </c>
+      <c r="C22" s="159" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" s="205"/>
+      <c r="E22" s="205"/>
+      <c r="F22" s="205"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="205"/>
+      <c r="I22" s="205"/>
+      <c r="J22" s="206"/>
     </row>
     <row r="23" spans="1:10" s="57" customFormat="1">
-      <c r="A23" s="165"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="166"/>
-      <c r="J23" s="167"/>
+      <c r="A23" s="169"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="171"/>
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A24" s="180" t="s">
-        <v>149</v>
-      </c>
-      <c r="B24" s="181"/>
-      <c r="C24" s="181"/>
-      <c r="D24" s="181"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="181"/>
-      <c r="J24" s="182"/>
+      <c r="A24" s="148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="157"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="158"/>
     </row>
     <row r="25" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A25" s="89">
         <v>1</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="186" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" s="187"/>
-      <c r="E25" s="187"/>
-      <c r="F25" s="187"/>
-      <c r="G25" s="187"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="188"/>
+        <v>135</v>
+      </c>
+      <c r="C25" s="159" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="147"/>
     </row>
     <row r="26" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A26" s="89">
         <v>2</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="186" t="s">
-        <v>173</v>
-      </c>
-      <c r="D26" s="187"/>
-      <c r="E26" s="187"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="187"/>
-      <c r="J26" s="188"/>
+        <v>136</v>
+      </c>
+      <c r="C26" s="159" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="147"/>
     </row>
     <row r="27" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A27" s="44">
         <v>3</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="186" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" s="187"/>
-      <c r="E27" s="187"/>
-      <c r="F27" s="187"/>
-      <c r="G27" s="187"/>
-      <c r="H27" s="187"/>
-      <c r="I27" s="187"/>
-      <c r="J27" s="188"/>
+        <v>148</v>
+      </c>
+      <c r="C27" s="159" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="147"/>
     </row>
     <row r="28" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A28" s="44">
         <v>4</v>
       </c>
       <c r="B28" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" s="186" t="s">
-        <v>173</v>
-      </c>
-      <c r="D28" s="187"/>
-      <c r="E28" s="187"/>
-      <c r="F28" s="187"/>
-      <c r="G28" s="187"/>
-      <c r="H28" s="187"/>
-      <c r="I28" s="187"/>
-      <c r="J28" s="188"/>
+        <v>138</v>
+      </c>
+      <c r="C28" s="159" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="147"/>
     </row>
     <row r="29" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="178"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="179"/>
+      <c r="B29" s="181"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="182"/>
     </row>
     <row r="30" spans="1:10" s="57" customFormat="1" ht="36" customHeight="1">
-      <c r="A30" s="180" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30" s="181"/>
-      <c r="C30" s="181"/>
-      <c r="D30" s="181"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="182"/>
+      <c r="A30" s="148" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="158"/>
     </row>
     <row r="31" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="142" t="s">
         <v>141</v>
       </c>
-      <c r="B31" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="183" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="185"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="144"/>
     </row>
     <row r="32" spans="1:10" s="57" customFormat="1">
       <c r="A32" s="60">
         <v>1</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="205" t="s">
-        <v>239</v>
-      </c>
-      <c r="D32" s="193"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="194"/>
+        <v>137</v>
+      </c>
+      <c r="C32" s="207" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="153"/>
     </row>
     <row r="33" spans="1:12" s="57" customFormat="1">
       <c r="A33" s="60">
         <v>2</v>
       </c>
       <c r="B33" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="206"/>
-      <c r="D33" s="207"/>
-      <c r="E33" s="207"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="207"/>
-      <c r="H33" s="207"/>
-      <c r="I33" s="207"/>
-      <c r="J33" s="208"/>
+        <v>138</v>
+      </c>
+      <c r="C33" s="208"/>
+      <c r="D33" s="209"/>
+      <c r="E33" s="209"/>
+      <c r="F33" s="209"/>
+      <c r="G33" s="209"/>
+      <c r="H33" s="209"/>
+      <c r="I33" s="209"/>
+      <c r="J33" s="210"/>
     </row>
     <row r="34" spans="1:12" s="57" customFormat="1">
       <c r="A34" s="60">
         <v>3</v>
       </c>
       <c r="B34" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="206"/>
-      <c r="D34" s="207"/>
-      <c r="E34" s="207"/>
-      <c r="F34" s="207"/>
-      <c r="G34" s="207"/>
-      <c r="H34" s="207"/>
-      <c r="I34" s="207"/>
-      <c r="J34" s="208"/>
+        <v>135</v>
+      </c>
+      <c r="C34" s="208"/>
+      <c r="D34" s="209"/>
+      <c r="E34" s="209"/>
+      <c r="F34" s="209"/>
+      <c r="G34" s="209"/>
+      <c r="H34" s="209"/>
+      <c r="I34" s="209"/>
+      <c r="J34" s="210"/>
     </row>
     <row r="35" spans="1:12" s="57" customFormat="1">
       <c r="A35" s="60">
         <v>4</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="195"/>
-      <c r="D35" s="196"/>
-      <c r="E35" s="196"/>
-      <c r="F35" s="196"/>
-      <c r="G35" s="196"/>
-      <c r="H35" s="196"/>
-      <c r="I35" s="196"/>
-      <c r="J35" s="197"/>
+        <v>136</v>
+      </c>
+      <c r="C35" s="154"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="155"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="156"/>
     </row>
     <row r="36" spans="1:12" s="57" customFormat="1">
-      <c r="A36" s="141"/>
-      <c r="B36" s="158"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="158"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="142"/>
+      <c r="A36" s="139"/>
+      <c r="B36" s="140"/>
+      <c r="C36" s="140"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="140"/>
+      <c r="G36" s="140"/>
+      <c r="H36" s="140"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="141"/>
     </row>
     <row r="37" spans="1:12" s="57" customFormat="1">
-      <c r="A37" s="180" t="s">
-        <v>148</v>
-      </c>
-      <c r="B37" s="189"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="189"/>
-      <c r="E37" s="189"/>
-      <c r="F37" s="189"/>
-      <c r="G37" s="189"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="189"/>
-      <c r="J37" s="190"/>
+      <c r="A37" s="148" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="150"/>
     </row>
     <row r="38" spans="1:12" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="60" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" s="183" t="s">
         <v>143</v>
       </c>
-      <c r="D38" s="184"/>
-      <c r="E38" s="184"/>
-      <c r="F38" s="184"/>
-      <c r="G38" s="184"/>
-      <c r="H38" s="184"/>
-      <c r="I38" s="184"/>
-      <c r="J38" s="185"/>
+      <c r="C38" s="142" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="143"/>
+      <c r="E38" s="143"/>
+      <c r="F38" s="143"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="143"/>
+      <c r="I38" s="143"/>
+      <c r="J38" s="144"/>
     </row>
     <row r="39" spans="1:12" s="57" customFormat="1">
       <c r="A39" s="89">
         <v>1</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="191" t="s">
-        <v>146</v>
-      </c>
-      <c r="D39" s="187"/>
-      <c r="E39" s="187"/>
-      <c r="F39" s="187"/>
-      <c r="G39" s="187"/>
-      <c r="H39" s="187"/>
-      <c r="I39" s="187"/>
-      <c r="J39" s="188"/>
+        <v>135</v>
+      </c>
+      <c r="C39" s="145" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="146"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="147"/>
     </row>
     <row r="40" spans="1:12" s="57" customFormat="1">
       <c r="A40" s="89">
         <v>2</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="191" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40" s="187"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
-      <c r="J40" s="188"/>
+        <v>136</v>
+      </c>
+      <c r="C40" s="145" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="146"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="146"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="147"/>
     </row>
     <row r="41" spans="1:12" s="57" customFormat="1">
       <c r="A41" s="44">
         <v>3</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" s="191" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="187"/>
-      <c r="E41" s="187"/>
-      <c r="F41" s="187"/>
-      <c r="G41" s="187"/>
-      <c r="H41" s="187"/>
-      <c r="I41" s="187"/>
-      <c r="J41" s="188"/>
+        <v>148</v>
+      </c>
+      <c r="C41" s="145" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="146"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="147"/>
     </row>
     <row r="42" spans="1:12" s="57" customFormat="1">
       <c r="A42" s="44">
         <v>4</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="C42" s="191" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" s="187"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="187"/>
-      <c r="G42" s="187"/>
-      <c r="H42" s="187"/>
-      <c r="I42" s="187"/>
-      <c r="J42" s="188"/>
+        <v>138</v>
+      </c>
+      <c r="C42" s="145" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="146"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="147"/>
     </row>
     <row r="43" spans="1:12" s="57" customFormat="1">
-      <c r="A43" s="141"/>
-      <c r="B43" s="158"/>
-      <c r="C43" s="158"/>
-      <c r="D43" s="158"/>
-      <c r="E43" s="158"/>
-      <c r="F43" s="158"/>
-      <c r="G43" s="158"/>
-      <c r="H43" s="158"/>
-      <c r="I43" s="158"/>
-      <c r="J43" s="142"/>
+      <c r="A43" s="139"/>
+      <c r="B43" s="140"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="140"/>
+      <c r="F43" s="140"/>
+      <c r="G43" s="140"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="140"/>
+      <c r="J43" s="141"/>
     </row>
     <row r="44" spans="1:12" s="57" customFormat="1">
-      <c r="A44" s="165"/>
-      <c r="B44" s="211"/>
-      <c r="C44" s="211"/>
-      <c r="D44" s="211"/>
-      <c r="E44" s="211"/>
-      <c r="F44" s="211"/>
-      <c r="G44" s="211"/>
-      <c r="H44" s="211"/>
-      <c r="I44" s="211"/>
-      <c r="J44" s="212"/>
+      <c r="A44" s="169"/>
+      <c r="B44" s="203"/>
+      <c r="C44" s="203"/>
+      <c r="D44" s="203"/>
+      <c r="E44" s="203"/>
+      <c r="F44" s="203"/>
+      <c r="G44" s="203"/>
+      <c r="H44" s="203"/>
+      <c r="I44" s="203"/>
+      <c r="J44" s="204"/>
     </row>
     <row r="45" spans="1:12" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="177" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="178"/>
-      <c r="C45" s="178"/>
-      <c r="D45" s="178"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="178"/>
-      <c r="G45" s="178"/>
-      <c r="H45" s="178"/>
-      <c r="I45" s="178"/>
-      <c r="J45" s="179"/>
+      <c r="A45" s="134" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="181"/>
+      <c r="C45" s="181"/>
+      <c r="D45" s="181"/>
+      <c r="E45" s="181"/>
+      <c r="F45" s="181"/>
+      <c r="G45" s="181"/>
+      <c r="H45" s="181"/>
+      <c r="I45" s="181"/>
+      <c r="J45" s="182"/>
     </row>
     <row r="46" spans="1:12" s="83" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="61" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="62" t="s">
+      <c r="D46" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="63" t="s">
+      <c r="E46" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="200" t="s">
-        <v>37</v>
-      </c>
-      <c r="F46" s="201"/>
-      <c r="G46" s="201"/>
-      <c r="H46" s="201"/>
-      <c r="I46" s="201"/>
-      <c r="J46" s="201"/>
+      <c r="F46" s="138"/>
+      <c r="G46" s="138"/>
+      <c r="H46" s="138"/>
+      <c r="I46" s="138"/>
+      <c r="J46" s="138"/>
       <c r="K46" s="57"/>
       <c r="L46" s="57"/>
     </row>
@@ -10567,106 +10498,106 @@
         <v>1</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C47" s="65"/>
       <c r="D47" s="66"/>
-      <c r="E47" s="151" t="s">
-        <v>152</v>
-      </c>
-      <c r="F47" s="120"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="120"/>
-      <c r="J47" s="120"/>
+      <c r="E47" s="191" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" s="126"/>
+      <c r="G47" s="126"/>
+      <c r="H47" s="126"/>
+      <c r="I47" s="126"/>
+      <c r="J47" s="126"/>
     </row>
     <row r="48" spans="1:12" s="57" customFormat="1">
-      <c r="A48" s="162" t="s">
-        <v>184</v>
-      </c>
-      <c r="B48" s="163"/>
-      <c r="C48" s="163"/>
-      <c r="D48" s="163"/>
-      <c r="E48" s="163"/>
-      <c r="F48" s="163"/>
-      <c r="G48" s="163"/>
-      <c r="H48" s="163"/>
-      <c r="I48" s="163"/>
-      <c r="J48" s="164"/>
+      <c r="A48" s="166" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="167"/>
+      <c r="C48" s="167"/>
+      <c r="D48" s="167"/>
+      <c r="E48" s="167"/>
+      <c r="F48" s="167"/>
+      <c r="G48" s="167"/>
+      <c r="H48" s="167"/>
+      <c r="I48" s="167"/>
+      <c r="J48" s="168"/>
     </row>
     <row r="49" spans="1:12" s="59" customFormat="1" ht="77.25" customHeight="1">
       <c r="A49" s="74">
         <v>1</v>
       </c>
       <c r="B49" s="91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C49" s="94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D49" s="93"/>
-      <c r="E49" s="155" t="s">
-        <v>191</v>
-      </c>
-      <c r="F49" s="156"/>
-      <c r="G49" s="156"/>
-      <c r="H49" s="156"/>
-      <c r="I49" s="156"/>
-      <c r="J49" s="157"/>
+      <c r="E49" s="195" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" s="196"/>
+      <c r="G49" s="196"/>
+      <c r="H49" s="196"/>
+      <c r="I49" s="196"/>
+      <c r="J49" s="197"/>
     </row>
     <row r="50" spans="1:12" s="59" customFormat="1" ht="50.25" customHeight="1">
       <c r="A50" s="71">
         <v>2</v>
       </c>
       <c r="B50" s="72" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C50" s="94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D50" s="93"/>
-      <c r="E50" s="155" t="s">
-        <v>188</v>
-      </c>
-      <c r="F50" s="156"/>
-      <c r="G50" s="156"/>
-      <c r="H50" s="156"/>
-      <c r="I50" s="156"/>
-      <c r="J50" s="157"/>
+      <c r="E50" s="195" t="s">
+        <v>186</v>
+      </c>
+      <c r="F50" s="196"/>
+      <c r="G50" s="196"/>
+      <c r="H50" s="196"/>
+      <c r="I50" s="196"/>
+      <c r="J50" s="197"/>
     </row>
     <row r="51" spans="1:12" s="57" customFormat="1">
       <c r="A51" s="74">
         <v>3</v>
       </c>
       <c r="B51" s="91" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="94" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="92"/>
+      <c r="E51" s="163" t="s">
         <v>181</v>
       </c>
-      <c r="C51" s="94" t="s">
-        <v>179</v>
-      </c>
-      <c r="D51" s="92"/>
-      <c r="E51" s="138" t="s">
-        <v>183</v>
-      </c>
-      <c r="F51" s="113"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="113"/>
-      <c r="I51" s="113"/>
-      <c r="J51" s="114"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="121"/>
     </row>
     <row r="52" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="162" t="s">
-        <v>182</v>
-      </c>
-      <c r="B52" s="163"/>
-      <c r="C52" s="163"/>
-      <c r="D52" s="163"/>
-      <c r="E52" s="163"/>
-      <c r="F52" s="163"/>
-      <c r="G52" s="163"/>
-      <c r="H52" s="163"/>
-      <c r="I52" s="163"/>
-      <c r="J52" s="164"/>
+      <c r="A52" s="166" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" s="167"/>
+      <c r="C52" s="167"/>
+      <c r="D52" s="167"/>
+      <c r="E52" s="167"/>
+      <c r="F52" s="167"/>
+      <c r="G52" s="167"/>
+      <c r="H52" s="167"/>
+      <c r="I52" s="167"/>
+      <c r="J52" s="168"/>
       <c r="K52" s="57"/>
       <c r="L52" s="57"/>
     </row>
@@ -10675,152 +10606,152 @@
         <v>1</v>
       </c>
       <c r="B53" s="68" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C53" s="69" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="70"/>
-      <c r="E53" s="151" t="s">
-        <v>240</v>
-      </c>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="120"/>
-      <c r="J53" s="120"/>
+      <c r="E53" s="191" t="s">
+        <v>238</v>
+      </c>
+      <c r="F53" s="126"/>
+      <c r="G53" s="126"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="126"/>
+      <c r="J53" s="126"/>
     </row>
     <row r="54" spans="1:12" s="57" customFormat="1" ht="107.25" customHeight="1">
       <c r="A54" s="71">
         <v>2</v>
       </c>
       <c r="B54" s="72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D54" s="73"/>
-      <c r="E54" s="155" t="s">
-        <v>207</v>
-      </c>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
-      <c r="H54" s="156"/>
-      <c r="I54" s="156"/>
-      <c r="J54" s="157"/>
+      <c r="E54" s="195" t="s">
+        <v>205</v>
+      </c>
+      <c r="F54" s="196"/>
+      <c r="G54" s="196"/>
+      <c r="H54" s="196"/>
+      <c r="I54" s="196"/>
+      <c r="J54" s="197"/>
     </row>
     <row r="55" spans="1:12" s="57" customFormat="1" ht="54.75" customHeight="1">
       <c r="A55" s="74">
         <v>3</v>
       </c>
       <c r="B55" s="68" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C55" s="69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D55" s="75"/>
-      <c r="E55" s="138" t="s">
-        <v>242</v>
-      </c>
-      <c r="F55" s="113"/>
-      <c r="G55" s="113"/>
-      <c r="H55" s="113"/>
-      <c r="I55" s="113"/>
-      <c r="J55" s="114"/>
+      <c r="E55" s="163" t="s">
+        <v>240</v>
+      </c>
+      <c r="F55" s="120"/>
+      <c r="G55" s="120"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="120"/>
+      <c r="J55" s="121"/>
     </row>
     <row r="56" spans="1:12" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A56" s="148" t="s">
+      <c r="A56" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="149"/>
-      <c r="C56" s="149"/>
-      <c r="D56" s="149"/>
-      <c r="E56" s="149"/>
-      <c r="F56" s="149"/>
-      <c r="G56" s="149"/>
-      <c r="H56" s="149"/>
-      <c r="I56" s="149"/>
-      <c r="J56" s="150"/>
+      <c r="B56" s="189"/>
+      <c r="C56" s="189"/>
+      <c r="D56" s="189"/>
+      <c r="E56" s="189"/>
+      <c r="F56" s="189"/>
+      <c r="G56" s="189"/>
+      <c r="H56" s="189"/>
+      <c r="I56" s="189"/>
+      <c r="J56" s="190"/>
     </row>
     <row r="57" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="146" t="s">
+      <c r="B57" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="147"/>
-      <c r="D57" s="138" t="s">
+      <c r="C57" s="187"/>
+      <c r="D57" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="113"/>
-      <c r="F57" s="113"/>
-      <c r="G57" s="113"/>
-      <c r="H57" s="113"/>
-      <c r="I57" s="113"/>
-      <c r="J57" s="114"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="120"/>
+      <c r="G57" s="120"/>
+      <c r="H57" s="120"/>
+      <c r="I57" s="120"/>
+      <c r="J57" s="121"/>
     </row>
     <row r="58" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="143"/>
-      <c r="B58" s="213"/>
-      <c r="C58" s="213"/>
-      <c r="D58" s="213"/>
-      <c r="E58" s="213"/>
-      <c r="F58" s="213"/>
-      <c r="G58" s="213"/>
-      <c r="H58" s="213"/>
-      <c r="I58" s="213"/>
-      <c r="J58" s="214"/>
+      <c r="A58" s="183"/>
+      <c r="B58" s="201"/>
+      <c r="C58" s="201"/>
+      <c r="D58" s="201"/>
+      <c r="E58" s="201"/>
+      <c r="F58" s="201"/>
+      <c r="G58" s="201"/>
+      <c r="H58" s="201"/>
+      <c r="I58" s="201"/>
+      <c r="J58" s="202"/>
     </row>
     <row r="59" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="74"/>
-      <c r="B59" s="141"/>
-      <c r="C59" s="142"/>
-      <c r="D59" s="138"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="113"/>
-      <c r="G59" s="113"/>
-      <c r="H59" s="113"/>
-      <c r="I59" s="113"/>
-      <c r="J59" s="114"/>
+      <c r="B59" s="139"/>
+      <c r="C59" s="141"/>
+      <c r="D59" s="163"/>
+      <c r="E59" s="120"/>
+      <c r="F59" s="120"/>
+      <c r="G59" s="120"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="120"/>
+      <c r="J59" s="121"/>
     </row>
     <row r="60" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="74"/>
-      <c r="B60" s="141"/>
-      <c r="C60" s="142"/>
-      <c r="D60" s="138"/>
-      <c r="E60" s="113"/>
-      <c r="F60" s="113"/>
-      <c r="G60" s="113"/>
-      <c r="H60" s="113"/>
-      <c r="I60" s="113"/>
-      <c r="J60" s="114"/>
+      <c r="B60" s="139"/>
+      <c r="C60" s="141"/>
+      <c r="D60" s="163"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="120"/>
+      <c r="G60" s="120"/>
+      <c r="H60" s="120"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="121"/>
     </row>
     <row r="61" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="143"/>
-      <c r="B61" s="213"/>
-      <c r="C61" s="213"/>
-      <c r="D61" s="213"/>
-      <c r="E61" s="213"/>
-      <c r="F61" s="213"/>
-      <c r="G61" s="213"/>
-      <c r="H61" s="213"/>
-      <c r="I61" s="213"/>
-      <c r="J61" s="214"/>
+      <c r="A61" s="183"/>
+      <c r="B61" s="201"/>
+      <c r="C61" s="201"/>
+      <c r="D61" s="201"/>
+      <c r="E61" s="201"/>
+      <c r="F61" s="201"/>
+      <c r="G61" s="201"/>
+      <c r="H61" s="201"/>
+      <c r="I61" s="201"/>
+      <c r="J61" s="202"/>
     </row>
     <row r="62" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="74"/>
-      <c r="B62" s="141"/>
-      <c r="C62" s="142"/>
-      <c r="D62" s="138"/>
-      <c r="E62" s="113"/>
-      <c r="F62" s="113"/>
-      <c r="G62" s="113"/>
-      <c r="H62" s="113"/>
-      <c r="I62" s="113"/>
-      <c r="J62" s="114"/>
+      <c r="B62" s="139"/>
+      <c r="C62" s="141"/>
+      <c r="D62" s="163"/>
+      <c r="E62" s="120"/>
+      <c r="F62" s="120"/>
+      <c r="G62" s="120"/>
+      <c r="H62" s="120"/>
+      <c r="I62" s="120"/>
+      <c r="J62" s="121"/>
     </row>
     <row r="63" spans="1:12" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A63" s="78" t="s">
@@ -10843,14 +10774,14 @@
       <c r="B64" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="141"/>
-      <c r="D64" s="113"/>
-      <c r="E64" s="113"/>
-      <c r="F64" s="113"/>
-      <c r="G64" s="113"/>
-      <c r="H64" s="113"/>
-      <c r="I64" s="113"/>
-      <c r="J64" s="114"/>
+      <c r="C64" s="139"/>
+      <c r="D64" s="120"/>
+      <c r="E64" s="120"/>
+      <c r="F64" s="120"/>
+      <c r="G64" s="120"/>
+      <c r="H64" s="120"/>
+      <c r="I64" s="120"/>
+      <c r="J64" s="121"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="74">
@@ -10859,17 +10790,60 @@
       <c r="B65" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="159"/>
-      <c r="D65" s="159"/>
-      <c r="E65" s="159"/>
-      <c r="F65" s="159"/>
-      <c r="G65" s="159"/>
-      <c r="H65" s="159"/>
-      <c r="I65" s="159"/>
-      <c r="J65" s="159"/>
+      <c r="C65" s="160"/>
+      <c r="D65" s="160"/>
+      <c r="E65" s="160"/>
+      <c r="F65" s="160"/>
+      <c r="G65" s="160"/>
+      <c r="H65" s="160"/>
+      <c r="I65" s="160"/>
+      <c r="J65" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C32:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="D62:J62"/>
@@ -10886,49 +10860,6 @@
     <mergeCell ref="A56:J56"/>
     <mergeCell ref="E47:J47"/>
     <mergeCell ref="A52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C32:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10950,7 +10881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -10981,8 +10912,8 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="160" t="s">
-        <v>49</v>
+      <c r="K1" s="161" t="s">
+        <v>48</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -11008,7 +10939,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="161"/>
+      <c r="K2" s="162"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -11026,7 +10957,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="161"/>
+      <c r="K3" s="162"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -11070,18 +11001,18 @@
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="202" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="203"/>
-      <c r="C6" s="203"/>
-      <c r="D6" s="203"/>
-      <c r="E6" s="203"/>
-      <c r="F6" s="203"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="203"/>
-      <c r="I6" s="203"/>
-      <c r="J6" s="204"/>
+      <c r="A6" s="198" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="199"/>
+      <c r="H6" s="199"/>
+      <c r="I6" s="199"/>
+      <c r="J6" s="200"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -11091,19 +11022,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="D7" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="43" t="s">
         <v>219</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>221</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>19</v>
@@ -11112,10 +11043,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -11148,34 +11079,34 @@
       <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="202" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="215"/>
-      <c r="C10" s="215"/>
-      <c r="D10" s="215"/>
-      <c r="E10" s="215"/>
-      <c r="F10" s="215"/>
-      <c r="G10" s="215"/>
-      <c r="H10" s="215"/>
-      <c r="I10" s="215"/>
-      <c r="J10" s="216"/>
+      <c r="A10" s="198" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="211"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="212"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="D11" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="43" t="s">
         <v>219</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>221</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>19</v>
@@ -11184,10 +11115,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -11198,29 +11129,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F12" s="107" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G12" s="106" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H12" s="50"/>
       <c r="I12" s="44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J12" s="96" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -11228,29 +11159,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E13" s="104" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F13" s="108" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G13" s="108" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H13" s="50"/>
       <c r="I13" s="44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J13" s="96" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -11258,29 +11189,29 @@
         <v>3</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E14" s="104" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F14" s="107" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G14" s="108" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J14" s="96" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -11288,29 +11219,29 @@
         <v>4</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E15" s="104" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15" s="107" t="s">
+        <v>223</v>
+      </c>
+      <c r="G15" s="106" t="s">
         <v>224</v>
-      </c>
-      <c r="F15" s="107" t="s">
-        <v>225</v>
-      </c>
-      <c r="G15" s="106" t="s">
-        <v>226</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J15" s="96" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -11318,31 +11249,31 @@
         <v>5</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H16" s="44">
         <v>0</v>
       </c>
       <c r="I16" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" s="101" t="s">
         <v>175</v>
-      </c>
-      <c r="J16" s="101" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11358,34 +11289,34 @@
       <c r="J17" s="100"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="202" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18" s="203"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
-      <c r="H18" s="203"/>
-      <c r="I18" s="203"/>
-      <c r="J18" s="204"/>
+      <c r="A18" s="198" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="199"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="200"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="D19" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" s="43" t="s">
         <v>219</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>221</v>
       </c>
       <c r="F19" s="43" t="s">
         <v>19</v>
@@ -11394,10 +11325,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I19" s="43" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J19" s="43" t="s">
         <v>0</v>
@@ -11408,29 +11339,29 @@
         <v>3</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E20" s="104" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F20" s="107" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G20" s="106" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J20" s="96" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -11438,29 +11369,29 @@
         <v>4</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E21" s="104" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="107" t="s">
+        <v>223</v>
+      </c>
+      <c r="G21" s="106" t="s">
         <v>224</v>
-      </c>
-      <c r="F21" s="107" t="s">
-        <v>225</v>
-      </c>
-      <c r="G21" s="106" t="s">
-        <v>226</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J21" s="96" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -11468,29 +11399,29 @@
         <v>1</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E22" s="104" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F22" s="107" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G22" s="108" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H22" s="50"/>
       <c r="I22" s="44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J22" s="96" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -11498,29 +11429,29 @@
         <v>2</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E23" s="104" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F23" s="108" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G23" s="108" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H23" s="50"/>
       <c r="I23" s="44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J23" s="96" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
+++ b/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -43,12 +38,12 @@
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="265">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -206,6 +201,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>操作功能描述</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>Button說明</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -235,6 +234,10 @@
   </si>
   <si>
     <t>Global 參數</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入/輸出</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -594,6 +597,20 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>查詢角色
+1. 使用者輸入查詢條件篩選欲選取的角色。
+2. 系統依查詢條件顯示資料於grid。
+3. 使用者選取特定角色進行資料設定。
+查詢帳號
+1. 使用者於特定角色下輸入查詢條件篩選欲選取的帳號。
+2. 系統依查詢條件顯示資料於grid。
+維護Mapping設定
+1. 使用者選取適當帳號。
+2. 加入角色或移除後點選儲存按鈕。
+3. 系統依設定資訊儲存並回應設定成功訊息。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>其他</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -881,20 +898,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>清除重填</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>查詢類別</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>查詢類別</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>開啟APF0102MA1_Grid，依輸入的查詢條件，整合後端 DB資料，並將查詢結果置於APF0102MA1_Grid中，資料依查詢類別，顯示於非角色帳號或角色帳號區塊</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>開啟APF0102MM1_Grid，並將查詢角色結果置於APF0102MM1_Grid中</t>
@@ -935,10 +940,6 @@
   </si>
   <si>
     <t>畫面_APF0101MA5</t>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>0:預設角色 1:職稱角色 2:自定角色</t>
@@ -992,12 +993,12 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 14 或 15，若選擇是，則進行儲存，若選擇否，則不做任何動作。
-儲存成功:
-1.原畫面顯示修改資料成功訊息，訊息內容請參考APF訊息表APF_NO 12
-2.點回上一頁按鈕，則以導頁方式開啟APF0102MM1，並帶回原先的查詢條件
-儲存失敗:顯示修改資料失敗訊息，訊息內容請參考APF訊息表APF_NO 13</t>
-    <phoneticPr fontId="2"/>
+    <t>輸入/輸出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入/輸出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>回上一頁</t>
@@ -1012,28 +1013,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入型態:string
-最大長度限制:英文10(控制項控制)
-如先輸入角色名稱，則角色代號被自動帶出且該欄位是disable，不可再輸入</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>角色名稱</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入型態:string
-最大長度限制:中文20(控制項控制)
-如先輸入角色代號，則角色名稱自動帶出且該欄位是disable，不可再輸入</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>角色來源</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>預定角色，職稱角色，自訂角色，三者必需選其一。(控制項控制)
-如先輸入角色代號或角色名稱，則角色來源被自動帶出且該欄位是disable，不可點選</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1077,6 +1061,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>輸入/輸出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>共通性 CMD DB</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1091,18 +1079,18 @@
   </si>
   <si>
     <t>org_id</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(10)</t>
   </si>
   <si>
     <t>position_id</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(5)</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>string 10</t>
@@ -1122,16 +1110,6 @@
   </si>
   <si>
     <t>1. 輸入型態:string，最大長度限制:英文10(控制項控制)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 輸入型態:string，細輸入型態:string，最大長度限制:英文10(控制項控制)
-2. 如先輸入查詢員工編號 ，則該員工的員工姓名、部門代號、員工職稱 被自動帶出且該三欄位是disable</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 輸入型態:string，最大長度限制:英文20(控制項控制)
-2. 如先輸入查詢員工姓名，則該員工的員工編號、部門代號、員工職稱 被自動帶出且該三欄位是disable</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1147,25 +1125,16 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>如已點選角色帳號設定但尚未儲存，此時則點選回上一頁按鈕，系統提示確認訊息，以免不慎放棄之前所做設定，訊息內容請參考APF訊息表 APF_NO 47，若選擇是，則取消在儲存之前的點選，含加入角色的帳號或自角色中移除的帳號，再以導頁方式開啟APF0102MM1，並帶回原先的查詢條件，若選擇否，則不做任何動作。
-如已點選角色帳號設定且已儲存，點選回上一頁按鈕，則以導頁方式開啟APF0102MM1，並帶回原先的查詢條件。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>此按鈕功是將角色內所有帳號清除，所以必須很僅慎，系統會有確認提示，若選擇是，則清除所有欄位，若選擇否，則不做任何動作，訊息內容請參考APF訊息表APF_NO 44</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>varchar2(10)</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(10)</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>string 10</t>
@@ -1236,7 +1205,54 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>輸入/輸出/必填</t>
+    <t>輸入型態:string
+最大長度限制:英文10(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">輸入型態:string
+最大長度限制:中文20(控制項控制)
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">預定角色，職稱角色，自訂角色，三者必需選其一。(控制項控制)
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 輸入型態:string，細輸入型態:string，最大長度限制:英文10(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 輸入型態:string，最大長度限制:英文20(控制項控制) </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>顯示查詢結果於</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>點選回上一頁按鈕，則以導頁方式開啟APF0102MM1，並帶回原先的查詢條件。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開啟APF0102MA1_Grid，依輸入的查詢條件，整合後端 DB資料，並將查詢結果置於APF0102MA1_Grid中，資料依查詢類別，顯示於非角色帳號或角色帳號區塊</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重新載入</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>按此鈕功後，Grid中非角色帳號及角色帳號區塊同步回至帳號加入或移除前的初始狀態</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 14 或 15，若選擇是，則進行儲存，若選擇否，則不做任何動作。
+儲存成功:以導頁方式開啟APF0102MM1，並帶回原先的查詢條件，及顯示修改資料成功訊息，訊息內容請參考APF訊息表APF_NO 12
+儲存失敗:顯示修改資料失敗訊息，訊息內容請參考APF訊息表APF_NO 13</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1246,7 +1262,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1399,6 +1415,11 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1767,11 +1788,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1922,7 +1943,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2056,8 +2077,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2074,6 +2095,51 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2086,63 +2152,207 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2154,216 +2364,39 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2915,7 +2948,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9953625" cy="495300"/>
+          <a:ext cx="9940636" cy="493568"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -3395,14 +3428,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:colOff>409575</xdr:colOff>
           <xdr:row>83</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3415,7 +3448,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3423,17 +3456,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3447,13 +3469,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>84</xdr:row>
+          <xdr:row>85</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>676275</xdr:colOff>
-          <xdr:row>102</xdr:row>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>103</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3467,7 +3489,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3475,17 +3497,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4035,7 +4046,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4043,17 +4054,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5192,7 +5192,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12439650" cy="523875"/>
+          <a:ext cx="11982450" cy="523875"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -6215,19 +6215,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>123858</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1295400</xdr:rowOff>
+      <xdr:colOff>234941</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="圖片 11"/>
+        <xdr:cNvPr id="10" name="圖片 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6246,8 +6246,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1057275"/>
-          <a:ext cx="4695858" cy="3524250"/>
+          <a:off x="47625" y="1076325"/>
+          <a:ext cx="4759316" cy="3571875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6259,19 +6259,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>176718</xdr:colOff>
+      <xdr:colOff>276227</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>673535</xdr:colOff>
+      <xdr:colOff>838201</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>20674</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="圖片 14"/>
+        <xdr:cNvPr id="11" name="圖片 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6290,8 +6290,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4748718" y="1095375"/>
-          <a:ext cx="4687817" cy="3543300"/>
+          <a:off x="4848227" y="1066800"/>
+          <a:ext cx="4752974" cy="3592549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6328,7 +6328,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12249150" cy="609600"/>
+          <a:ext cx="11877675" cy="609600"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -7241,98 +7241,98 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="102" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="102" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="102" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="110" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="102" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="110"/>
       <c r="B6" s="35" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="102" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="110" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="102" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="111"/>
       <c r="B8" s="38" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="103" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A9" s="110" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B9" s="38" t="s">
         <v>191</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1">
@@ -7342,7 +7342,7 @@
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" hidden="1" customHeight="1">
@@ -7352,7 +7352,7 @@
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" hidden="1" customHeight="1" thickBot="1">
@@ -7523,10 +7523,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" s="22">
         <v>41563</v>
@@ -7657,10 +7657,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7673,17 +7673,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="112" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="M1" s="127" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="113"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="113"/>
+      <c r="M3" s="128"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -7700,243 +7700,253 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="130"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="116"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="131" t="s">
-        <v>255</v>
-      </c>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="133"/>
+      <c r="A6" s="124" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="126"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="116" t="s">
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="118"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="123"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="128" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="120" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="121"/>
+      <c r="A8" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="113"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="116" t="s">
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="118"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="123"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="128" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="121"/>
+      <c r="A10" s="119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="112" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="113"/>
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="127" t="s">
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="118"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="123"/>
     </row>
     <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A12" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="121"/>
+      <c r="A12" s="119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="113"/>
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="127" t="s">
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="118"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="123"/>
     </row>
     <row r="14" spans="1:13" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A14" s="128" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="120" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="121"/>
-    </row>
-    <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="119" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="121"/>
-    </row>
-    <row r="81" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A81" s="119" t="s">
-        <v>195</v>
-      </c>
-      <c r="B81" s="120"/>
-      <c r="C81" s="120"/>
-      <c r="D81" s="120"/>
-      <c r="E81" s="120"/>
-      <c r="F81" s="120"/>
-      <c r="G81" s="120"/>
-      <c r="H81" s="120"/>
-      <c r="I81" s="120"/>
-      <c r="J81" s="120"/>
-      <c r="K81" s="120"/>
-      <c r="L81" s="121"/>
-    </row>
-    <row r="84" spans="1:12" ht="21" customHeight="1">
-      <c r="A84" s="119" t="s">
+      <c r="A14" s="119" t="s">
         <v>123</v>
       </c>
-      <c r="B84" s="122"/>
-      <c r="C84" s="122"/>
-      <c r="D84" s="122"/>
-      <c r="E84" s="122"/>
-      <c r="F84" s="122"/>
-      <c r="G84" s="122"/>
-      <c r="H84" s="122"/>
-      <c r="I84" s="122"/>
-      <c r="J84" s="122"/>
-      <c r="K84" s="122"/>
-      <c r="L84" s="123"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="112" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="113"/>
+    </row>
+    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="134"/>
+    </row>
+    <row r="16" spans="1:13" s="19" customFormat="1" ht="194.25" customHeight="1">
+      <c r="A16" s="135" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="136"/>
+    </row>
+    <row r="17" spans="1:12" ht="16.5">
+      <c r="A17" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="113"/>
+    </row>
+    <row r="85" spans="1:12" ht="21" customHeight="1">
+      <c r="A85" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="B85" s="131"/>
+      <c r="C85" s="131"/>
+      <c r="D85" s="131"/>
+      <c r="E85" s="131"/>
+      <c r="F85" s="131"/>
+      <c r="G85" s="131"/>
+      <c r="H85" s="131"/>
+      <c r="I85" s="131"/>
+      <c r="J85" s="131"/>
+      <c r="K85" s="131"/>
+      <c r="L85" s="132"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A81:L81"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
+  <mergeCells count="23">
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A85:L85"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A84:L84"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A16:L16"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -7945,6 +7955,13 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -7960,19 +7977,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Word.Document.12" shapeId="29897" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:colOff>409575</xdr:colOff>
                 <xdr:row>83</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7985,18 +8002,18 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Word.Document.12" shapeId="29898" r:id="rId6">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+          <objectPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>84</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>102</xdr:row>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
@@ -8020,15 +8037,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="112" t="s">
-        <v>254</v>
+      <c r="P1" s="127" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="113"/>
+      <c r="P2" s="128"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="113"/>
+      <c r="P3" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8078,7 +8095,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -8107,8 +8126,8 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="161" t="s">
-        <v>48</v>
+      <c r="K1" s="160" t="s">
+        <v>50</v>
       </c>
       <c r="L1" s="55"/>
       <c r="M1" s="55"/>
@@ -8128,7 +8147,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="162"/>
+      <c r="K2" s="161"/>
     </row>
     <row r="3" spans="1:17" s="56" customFormat="1">
       <c r="A3" s="48"/>
@@ -8141,7 +8160,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="162"/>
+      <c r="K3" s="161"/>
     </row>
     <row r="4" spans="1:17" s="56" customFormat="1">
       <c r="A4" s="48"/>
@@ -8156,614 +8175,614 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="56" customFormat="1">
-      <c r="A5" s="172" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="A5" s="168" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="123"/>
     </row>
     <row r="6" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="131"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="133"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="126"/>
     </row>
     <row r="7" spans="1:17" s="57" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="173"/>
-      <c r="B7" s="174"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="176"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="172"/>
       <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:17" s="57" customFormat="1">
-      <c r="A8" s="173"/>
-      <c r="B8" s="174"/>
-      <c r="C8" s="174"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="176"/>
+      <c r="A8" s="169"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="172"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:17" s="57" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="177"/>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="179"/>
+      <c r="A9" s="173"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="175"/>
     </row>
     <row r="10" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="180" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
+      <c r="A11" s="176" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="113"/>
     </row>
     <row r="12" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="172" t="s">
+      <c r="A12" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="123"/>
     </row>
     <row r="13" spans="1:17" s="59" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="180" t="s">
+      <c r="A13" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="121"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="113"/>
     </row>
     <row r="14" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="172" t="s">
+      <c r="A14" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="148" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" s="157"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="158"/>
+      <c r="A15" s="180" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="181"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="182"/>
     </row>
     <row r="16" spans="1:17" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="142" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="144"/>
-    </row>
-    <row r="17" spans="1:10" s="57" customFormat="1" ht="58.5" customHeight="1">
+        <v>90</v>
+      </c>
+      <c r="C16" s="183" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="184"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="185"/>
+    </row>
+    <row r="17" spans="1:10" s="57" customFormat="1" ht="55.5" customHeight="1">
       <c r="A17" s="60">
         <v>1</v>
       </c>
       <c r="B17" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="C17" s="159" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="147"/>
-    </row>
-    <row r="18" spans="1:10" s="57" customFormat="1" ht="60.75" customHeight="1">
+      <c r="C17" s="186" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="187"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="188"/>
+    </row>
+    <row r="18" spans="1:10" s="57" customFormat="1" ht="48.75" customHeight="1">
       <c r="A18" s="60">
         <v>2</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" s="159" t="s">
-        <v>211</v>
-      </c>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="147"/>
-    </row>
-    <row r="19" spans="1:10" s="57" customFormat="1" ht="41.25" customHeight="1">
+        <v>209</v>
+      </c>
+      <c r="C18" s="186" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18" s="187"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="188"/>
+    </row>
+    <row r="19" spans="1:10" s="57" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="60">
         <v>3</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="159" t="s">
-        <v>213</v>
-      </c>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+        <v>210</v>
+      </c>
+      <c r="C19" s="186" t="s">
+        <v>256</v>
+      </c>
+      <c r="D19" s="187"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="188"/>
     </row>
     <row r="20" spans="1:10" s="57" customFormat="1">
-      <c r="A20" s="139"/>
-      <c r="B20" s="140"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="141"/>
+      <c r="A20" s="141"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="142"/>
     </row>
     <row r="21" spans="1:10" s="57" customFormat="1">
-      <c r="A21" s="148" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="157"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="158"/>
+      <c r="A21" s="180" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="181"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="182"/>
     </row>
     <row r="22" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="142" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="144"/>
+        <v>90</v>
+      </c>
+      <c r="C22" s="183" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="185"/>
     </row>
     <row r="23" spans="1:10" s="57" customFormat="1">
       <c r="A23" s="60">
         <v>1</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="145" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="147"/>
+        <v>89</v>
+      </c>
+      <c r="C23" s="191" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="187"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="187"/>
+      <c r="G23" s="187"/>
+      <c r="H23" s="187"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="188"/>
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1">
       <c r="A24" s="60">
         <v>2</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="145" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="147"/>
+        <v>91</v>
+      </c>
+      <c r="C24" s="191" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="187"/>
+      <c r="E24" s="187"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="187"/>
+      <c r="H24" s="187"/>
+      <c r="I24" s="187"/>
+      <c r="J24" s="188"/>
     </row>
     <row r="25" spans="1:10" s="57" customFormat="1">
       <c r="A25" s="60">
         <v>3</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="145" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="147"/>
+        <v>94</v>
+      </c>
+      <c r="C25" s="191" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="187"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="187"/>
+      <c r="G25" s="187"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="188"/>
     </row>
     <row r="26" spans="1:10" s="57" customFormat="1">
       <c r="A26" s="60">
         <v>4</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="145" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="147"/>
+        <v>92</v>
+      </c>
+      <c r="C26" s="191" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="187"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="188"/>
     </row>
     <row r="27" spans="1:10" s="57" customFormat="1">
-      <c r="A27" s="169"/>
-      <c r="B27" s="170"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="171"/>
+      <c r="A27" s="165"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="167"/>
     </row>
     <row r="28" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="134" t="s">
+      <c r="A28" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="181"/>
-      <c r="C28" s="181"/>
-      <c r="D28" s="181"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="181"/>
-      <c r="J28" s="182"/>
+      <c r="B28" s="178"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="179"/>
     </row>
     <row r="29" spans="1:10" s="57" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="148" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="157"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="158"/>
+      <c r="A29" s="180" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="181"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="182"/>
     </row>
     <row r="30" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="142" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="144"/>
+        <v>90</v>
+      </c>
+      <c r="C30" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="184"/>
+      <c r="J30" s="185"/>
     </row>
     <row r="31" spans="1:10" s="57" customFormat="1">
       <c r="A31" s="60">
         <v>1</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="C31" s="151" t="s">
-        <v>239</v>
-      </c>
-      <c r="D31" s="152"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="153"/>
+        <v>196</v>
+      </c>
+      <c r="C31" s="192" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31" s="193"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="193"/>
+      <c r="G31" s="193"/>
+      <c r="H31" s="193"/>
+      <c r="I31" s="193"/>
+      <c r="J31" s="194"/>
     </row>
     <row r="32" spans="1:10" s="57" customFormat="1">
       <c r="A32" s="60">
         <v>2</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="C32" s="154"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="156"/>
+        <v>197</v>
+      </c>
+      <c r="C32" s="195"/>
+      <c r="D32" s="196"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="196"/>
+      <c r="G32" s="196"/>
+      <c r="H32" s="196"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="197"/>
     </row>
     <row r="33" spans="1:12" s="57" customFormat="1">
       <c r="A33" s="60">
         <v>3</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="145" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="147"/>
+        <v>92</v>
+      </c>
+      <c r="C33" s="191" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="187"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="187"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="187"/>
+      <c r="J33" s="188"/>
     </row>
     <row r="34" spans="1:12" s="57" customFormat="1">
-      <c r="A34" s="139"/>
-      <c r="B34" s="140"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="141"/>
+      <c r="A34" s="141"/>
+      <c r="B34" s="158"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="142"/>
     </row>
     <row r="35" spans="1:12" s="57" customFormat="1">
-      <c r="A35" s="148" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" s="149"/>
-      <c r="C35" s="149"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="150"/>
+      <c r="A35" s="180" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="189"/>
+      <c r="C35" s="189"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="189"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="189"/>
+      <c r="J35" s="190"/>
     </row>
     <row r="36" spans="1:12" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="142" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="143"/>
-      <c r="E36" s="143"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="144"/>
+        <v>90</v>
+      </c>
+      <c r="C36" s="183" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="184"/>
+      <c r="E36" s="184"/>
+      <c r="F36" s="184"/>
+      <c r="G36" s="184"/>
+      <c r="H36" s="184"/>
+      <c r="I36" s="184"/>
+      <c r="J36" s="185"/>
     </row>
     <row r="37" spans="1:12" s="57" customFormat="1">
       <c r="A37" s="60">
         <v>1</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="145" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="146"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="146"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="146"/>
-      <c r="J37" s="147"/>
+        <v>89</v>
+      </c>
+      <c r="C37" s="191" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="187"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="187"/>
+      <c r="J37" s="188"/>
     </row>
     <row r="38" spans="1:12" s="57" customFormat="1">
       <c r="A38" s="60">
         <v>2</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="145" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="146"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="147"/>
+        <v>91</v>
+      </c>
+      <c r="C38" s="191" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="187"/>
+      <c r="E38" s="187"/>
+      <c r="F38" s="187"/>
+      <c r="G38" s="187"/>
+      <c r="H38" s="187"/>
+      <c r="I38" s="187"/>
+      <c r="J38" s="188"/>
     </row>
     <row r="39" spans="1:12" s="57" customFormat="1">
       <c r="A39" s="60">
         <v>3</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="145" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="146"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="146"/>
-      <c r="J39" s="147"/>
+        <v>94</v>
+      </c>
+      <c r="C39" s="191" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="187"/>
+      <c r="E39" s="187"/>
+      <c r="F39" s="187"/>
+      <c r="G39" s="187"/>
+      <c r="H39" s="187"/>
+      <c r="I39" s="187"/>
+      <c r="J39" s="188"/>
     </row>
     <row r="40" spans="1:12" s="57" customFormat="1">
       <c r="A40" s="60">
         <v>4</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="145" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="146"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="146"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="146"/>
-      <c r="J40" s="147"/>
+        <v>92</v>
+      </c>
+      <c r="C40" s="191" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="187"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="187"/>
+      <c r="H40" s="187"/>
+      <c r="I40" s="187"/>
+      <c r="J40" s="188"/>
     </row>
     <row r="41" spans="1:12" s="57" customFormat="1">
-      <c r="A41" s="139"/>
-      <c r="B41" s="140"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="140"/>
-      <c r="F41" s="140"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="141"/>
+      <c r="A41" s="141"/>
+      <c r="B41" s="158"/>
+      <c r="C41" s="158"/>
+      <c r="D41" s="158"/>
+      <c r="E41" s="158"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="158"/>
+      <c r="H41" s="158"/>
+      <c r="I41" s="158"/>
+      <c r="J41" s="142"/>
     </row>
     <row r="42" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="134" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="135"/>
-      <c r="C42" s="135"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="135"/>
-      <c r="F42" s="135"/>
-      <c r="G42" s="135"/>
-      <c r="H42" s="135"/>
-      <c r="I42" s="135"/>
-      <c r="J42" s="136"/>
+      <c r="A42" s="177" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="198"/>
+      <c r="H42" s="198"/>
+      <c r="I42" s="198"/>
+      <c r="J42" s="199"/>
     </row>
     <row r="43" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B43" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="F43" s="138"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="138"/>
-      <c r="J43" s="138"/>
+      <c r="E43" s="200" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="201"/>
+      <c r="G43" s="201"/>
+      <c r="H43" s="201"/>
+      <c r="I43" s="201"/>
+      <c r="J43" s="201"/>
       <c r="K43" s="57"/>
       <c r="L43" s="57"/>
     </row>
@@ -8772,334 +8791,334 @@
         <v>1</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C44" s="65"/>
       <c r="D44" s="66"/>
-      <c r="E44" s="191" t="s">
-        <v>130</v>
-      </c>
-      <c r="F44" s="126"/>
-      <c r="G44" s="126"/>
-      <c r="H44" s="126"/>
-      <c r="I44" s="126"/>
-      <c r="J44" s="126"/>
+      <c r="E44" s="151" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="120"/>
     </row>
     <row r="45" spans="1:12" s="57" customFormat="1">
       <c r="A45" s="67"/>
-      <c r="B45" s="140"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="140"/>
-      <c r="F45" s="140"/>
-      <c r="G45" s="140"/>
-      <c r="H45" s="140"/>
-      <c r="I45" s="140"/>
-      <c r="J45" s="141"/>
+      <c r="B45" s="158"/>
+      <c r="C45" s="158"/>
+      <c r="D45" s="158"/>
+      <c r="E45" s="158"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="158"/>
+      <c r="H45" s="158"/>
+      <c r="I45" s="158"/>
+      <c r="J45" s="142"/>
     </row>
     <row r="46" spans="1:12" s="57" customFormat="1">
-      <c r="A46" s="166" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="167"/>
-      <c r="H46" s="167"/>
-      <c r="I46" s="167"/>
-      <c r="J46" s="168"/>
+      <c r="A46" s="162" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="163"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
+      <c r="E46" s="163"/>
+      <c r="F46" s="163"/>
+      <c r="G46" s="163"/>
+      <c r="H46" s="163"/>
+      <c r="I46" s="163"/>
+      <c r="J46" s="164"/>
     </row>
     <row r="47" spans="1:12" s="57" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="60">
         <v>1</v>
       </c>
       <c r="B47" s="68" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C47" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="70"/>
-      <c r="E47" s="191" t="s">
-        <v>131</v>
-      </c>
-      <c r="F47" s="126"/>
-      <c r="G47" s="126"/>
-      <c r="H47" s="126"/>
-      <c r="I47" s="126"/>
-      <c r="J47" s="126"/>
+      <c r="E47" s="151" t="s">
+        <v>134</v>
+      </c>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
     </row>
     <row r="48" spans="1:12" s="59" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="71">
         <v>2</v>
       </c>
       <c r="B48" s="72" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C48" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="73"/>
-      <c r="E48" s="163" t="s">
+      <c r="E48" s="138" t="s">
         <v>187</v>
       </c>
-      <c r="F48" s="164"/>
-      <c r="G48" s="164"/>
-      <c r="H48" s="164"/>
-      <c r="I48" s="164"/>
-      <c r="J48" s="165"/>
+      <c r="F48" s="139"/>
+      <c r="G48" s="139"/>
+      <c r="H48" s="139"/>
+      <c r="I48" s="139"/>
+      <c r="J48" s="140"/>
     </row>
     <row r="49" spans="1:10" s="57" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="74">
         <v>3</v>
       </c>
       <c r="B49" s="68" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C49" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="75"/>
-      <c r="E49" s="163" t="s">
-        <v>132</v>
-      </c>
-      <c r="F49" s="164"/>
-      <c r="G49" s="164"/>
-      <c r="H49" s="164"/>
-      <c r="I49" s="164"/>
-      <c r="J49" s="165"/>
+      <c r="E49" s="138" t="s">
+        <v>135</v>
+      </c>
+      <c r="F49" s="139"/>
+      <c r="G49" s="139"/>
+      <c r="H49" s="139"/>
+      <c r="I49" s="139"/>
+      <c r="J49" s="140"/>
     </row>
     <row r="50" spans="1:10" s="57" customFormat="1">
       <c r="A50" s="76"/>
-      <c r="B50" s="140"/>
-      <c r="C50" s="140"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="140"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="140"/>
-      <c r="H50" s="140"/>
-      <c r="I50" s="140"/>
-      <c r="J50" s="141"/>
+      <c r="B50" s="158"/>
+      <c r="C50" s="158"/>
+      <c r="D50" s="158"/>
+      <c r="E50" s="158"/>
+      <c r="F50" s="158"/>
+      <c r="G50" s="158"/>
+      <c r="H50" s="158"/>
+      <c r="I50" s="158"/>
+      <c r="J50" s="142"/>
     </row>
     <row r="51" spans="1:10" s="57" customFormat="1">
-      <c r="A51" s="192" t="s">
-        <v>128</v>
-      </c>
-      <c r="B51" s="193"/>
-      <c r="C51" s="193"/>
-      <c r="D51" s="193"/>
-      <c r="E51" s="193"/>
-      <c r="F51" s="193"/>
-      <c r="G51" s="193"/>
-      <c r="H51" s="193"/>
-      <c r="I51" s="193"/>
-      <c r="J51" s="194"/>
+      <c r="A51" s="152" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="153"/>
+      <c r="C51" s="153"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="153"/>
+      <c r="F51" s="153"/>
+      <c r="G51" s="153"/>
+      <c r="H51" s="153"/>
+      <c r="I51" s="153"/>
+      <c r="J51" s="154"/>
     </row>
     <row r="52" spans="1:10" s="57" customFormat="1" hidden="1">
       <c r="A52" s="60">
         <v>1</v>
       </c>
       <c r="B52" s="68" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C52" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="70"/>
-      <c r="E52" s="191" t="s">
-        <v>100</v>
-      </c>
-      <c r="F52" s="126"/>
-      <c r="G52" s="126"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
-      <c r="J52" s="126"/>
+      <c r="E52" s="151" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="120"/>
     </row>
     <row r="53" spans="1:10" s="57" customFormat="1" hidden="1">
       <c r="A53" s="60">
         <v>2</v>
       </c>
       <c r="B53" s="68" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C53" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="73"/>
-      <c r="E53" s="195" t="s">
-        <v>101</v>
-      </c>
-      <c r="F53" s="196"/>
-      <c r="G53" s="196"/>
-      <c r="H53" s="196"/>
-      <c r="I53" s="196"/>
-      <c r="J53" s="197"/>
+      <c r="E53" s="155" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="156"/>
+      <c r="G53" s="156"/>
+      <c r="H53" s="156"/>
+      <c r="I53" s="156"/>
+      <c r="J53" s="157"/>
     </row>
     <row r="54" spans="1:10" s="57" customFormat="1" hidden="1">
       <c r="A54" s="60">
         <v>3</v>
       </c>
       <c r="B54" s="68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C54" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="73"/>
-      <c r="E54" s="195" t="s">
-        <v>102</v>
-      </c>
-      <c r="F54" s="196"/>
-      <c r="G54" s="196"/>
-      <c r="H54" s="196"/>
-      <c r="I54" s="196"/>
-      <c r="J54" s="197"/>
+      <c r="E54" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" s="156"/>
+      <c r="G54" s="156"/>
+      <c r="H54" s="156"/>
+      <c r="I54" s="156"/>
+      <c r="J54" s="157"/>
     </row>
     <row r="55" spans="1:10" s="57" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="60">
         <v>4</v>
       </c>
       <c r="B55" s="68" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C55" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="73"/>
-      <c r="E55" s="195" t="s">
-        <v>77</v>
-      </c>
-      <c r="F55" s="196"/>
-      <c r="G55" s="196"/>
-      <c r="H55" s="196"/>
-      <c r="I55" s="196"/>
-      <c r="J55" s="197"/>
+      <c r="E55" s="155" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="156"/>
+      <c r="G55" s="156"/>
+      <c r="H55" s="156"/>
+      <c r="I55" s="156"/>
+      <c r="J55" s="157"/>
     </row>
     <row r="56" spans="1:10" s="57" customFormat="1" ht="33.75" customHeight="1">
       <c r="A56" s="60">
         <v>1</v>
       </c>
       <c r="B56" s="85" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C56" s="87" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="86"/>
-      <c r="E56" s="163" t="s">
+      <c r="E56" s="138" t="s">
         <v>188</v>
       </c>
-      <c r="F56" s="120"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
-      <c r="J56" s="121"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="113"/>
     </row>
     <row r="57" spans="1:10" s="57" customFormat="1">
       <c r="A57" s="77"/>
-      <c r="B57" s="140"/>
-      <c r="C57" s="140"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="140"/>
-      <c r="F57" s="140"/>
-      <c r="G57" s="140"/>
-      <c r="H57" s="140"/>
-      <c r="I57" s="140"/>
-      <c r="J57" s="141"/>
+      <c r="B57" s="158"/>
+      <c r="C57" s="158"/>
+      <c r="D57" s="158"/>
+      <c r="E57" s="158"/>
+      <c r="F57" s="158"/>
+      <c r="G57" s="158"/>
+      <c r="H57" s="158"/>
+      <c r="I57" s="158"/>
+      <c r="J57" s="142"/>
     </row>
     <row r="58" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="188" t="s">
+      <c r="A58" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="189"/>
-      <c r="C58" s="189"/>
-      <c r="D58" s="189"/>
-      <c r="E58" s="189"/>
-      <c r="F58" s="189"/>
-      <c r="G58" s="189"/>
-      <c r="H58" s="189"/>
-      <c r="I58" s="189"/>
-      <c r="J58" s="190"/>
+      <c r="B58" s="149"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="149"/>
+      <c r="E58" s="149"/>
+      <c r="F58" s="149"/>
+      <c r="G58" s="149"/>
+      <c r="H58" s="149"/>
+      <c r="I58" s="149"/>
+      <c r="J58" s="150"/>
     </row>
     <row r="59" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="186" t="s">
+      <c r="B59" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="187"/>
-      <c r="D59" s="163" t="s">
+      <c r="C59" s="147"/>
+      <c r="D59" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="120"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="120"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="120"/>
-      <c r="J59" s="121"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="112"/>
+      <c r="G59" s="112"/>
+      <c r="H59" s="112"/>
+      <c r="I59" s="112"/>
+      <c r="J59" s="113"/>
     </row>
     <row r="60" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="183"/>
-      <c r="B60" s="184"/>
-      <c r="C60" s="184"/>
-      <c r="D60" s="184"/>
-      <c r="E60" s="184"/>
-      <c r="F60" s="184"/>
-      <c r="G60" s="184"/>
-      <c r="H60" s="184"/>
-      <c r="I60" s="184"/>
-      <c r="J60" s="185"/>
+      <c r="A60" s="143"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="144"/>
+      <c r="G60" s="144"/>
+      <c r="H60" s="144"/>
+      <c r="I60" s="144"/>
+      <c r="J60" s="145"/>
     </row>
     <row r="61" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="74"/>
-      <c r="B61" s="139"/>
-      <c r="C61" s="141"/>
-      <c r="D61" s="163"/>
-      <c r="E61" s="164"/>
-      <c r="F61" s="164"/>
-      <c r="G61" s="164"/>
-      <c r="H61" s="164"/>
-      <c r="I61" s="164"/>
-      <c r="J61" s="165"/>
+      <c r="B61" s="141"/>
+      <c r="C61" s="142"/>
+      <c r="D61" s="138"/>
+      <c r="E61" s="139"/>
+      <c r="F61" s="139"/>
+      <c r="G61" s="139"/>
+      <c r="H61" s="139"/>
+      <c r="I61" s="139"/>
+      <c r="J61" s="140"/>
     </row>
     <row r="62" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="74"/>
-      <c r="B62" s="139"/>
-      <c r="C62" s="141"/>
-      <c r="D62" s="163"/>
-      <c r="E62" s="164"/>
-      <c r="F62" s="164"/>
-      <c r="G62" s="164"/>
-      <c r="H62" s="164"/>
-      <c r="I62" s="164"/>
-      <c r="J62" s="165"/>
+      <c r="B62" s="141"/>
+      <c r="C62" s="142"/>
+      <c r="D62" s="138"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="139"/>
+      <c r="H62" s="139"/>
+      <c r="I62" s="139"/>
+      <c r="J62" s="140"/>
     </row>
     <row r="63" spans="1:10" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="183"/>
-      <c r="B63" s="184"/>
-      <c r="C63" s="184"/>
-      <c r="D63" s="184"/>
-      <c r="E63" s="184"/>
-      <c r="F63" s="184"/>
-      <c r="G63" s="184"/>
-      <c r="H63" s="184"/>
-      <c r="I63" s="184"/>
-      <c r="J63" s="185"/>
+      <c r="A63" s="143"/>
+      <c r="B63" s="144"/>
+      <c r="C63" s="144"/>
+      <c r="D63" s="144"/>
+      <c r="E63" s="144"/>
+      <c r="F63" s="144"/>
+      <c r="G63" s="144"/>
+      <c r="H63" s="144"/>
+      <c r="I63" s="144"/>
+      <c r="J63" s="145"/>
     </row>
     <row r="64" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="74"/>
-      <c r="B64" s="139"/>
-      <c r="C64" s="141"/>
-      <c r="D64" s="163"/>
-      <c r="E64" s="164"/>
-      <c r="F64" s="164"/>
-      <c r="G64" s="164"/>
-      <c r="H64" s="164"/>
-      <c r="I64" s="164"/>
-      <c r="J64" s="165"/>
+      <c r="B64" s="141"/>
+      <c r="C64" s="142"/>
+      <c r="D64" s="138"/>
+      <c r="E64" s="139"/>
+      <c r="F64" s="139"/>
+      <c r="G64" s="139"/>
+      <c r="H64" s="139"/>
+      <c r="I64" s="139"/>
+      <c r="J64" s="140"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="78" t="s">
@@ -9122,14 +9141,14 @@
       <c r="B66" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="139"/>
-      <c r="D66" s="120"/>
-      <c r="E66" s="120"/>
-      <c r="F66" s="120"/>
-      <c r="G66" s="120"/>
-      <c r="H66" s="120"/>
-      <c r="I66" s="120"/>
-      <c r="J66" s="121"/>
+      <c r="C66" s="141"/>
+      <c r="D66" s="112"/>
+      <c r="E66" s="112"/>
+      <c r="F66" s="112"/>
+      <c r="G66" s="112"/>
+      <c r="H66" s="112"/>
+      <c r="I66" s="112"/>
+      <c r="J66" s="113"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="74">
@@ -9138,22 +9157,59 @@
       <c r="B67" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="160"/>
-      <c r="D67" s="160"/>
-      <c r="E67" s="160"/>
-      <c r="F67" s="160"/>
-      <c r="G67" s="160"/>
-      <c r="H67" s="160"/>
-      <c r="I67" s="160"/>
-      <c r="J67" s="160"/>
+      <c r="C67" s="159"/>
+      <c r="D67" s="159"/>
+      <c r="E67" s="159"/>
+      <c r="F67" s="159"/>
+      <c r="G67" s="159"/>
+      <c r="H67" s="159"/>
+      <c r="I67" s="159"/>
+      <c r="J67" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="A60:J60"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="A58:J58"/>
@@ -9170,48 +9226,11 @@
     <mergeCell ref="B45:J45"/>
     <mergeCell ref="B50:J50"/>
     <mergeCell ref="B57:J57"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D61:J61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B62:C62"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9234,7 +9253,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A7" sqref="A7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9247,7 +9266,7 @@
     <col min="6" max="6" width="14.375" style="42" customWidth="1"/>
     <col min="7" max="7" width="13" style="42" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="42" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="42" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="42" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37" style="42" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="42" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="42"/>
@@ -9264,8 +9283,8 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="161" t="s">
-        <v>48</v>
+      <c r="K1" s="160" t="s">
+        <v>50</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -9291,7 +9310,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="162"/>
+      <c r="K2" s="161"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -9309,7 +9328,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="162"/>
+      <c r="K3" s="161"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -9353,18 +9372,18 @@
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="198" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="200"/>
+      <c r="A6" s="202" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="203"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="203"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="204"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -9374,16 +9393,16 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="43" t="s">
         <v>199</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>200</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>20</v>
@@ -9395,10 +9414,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -9431,34 +9450,34 @@
       <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="198" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="199"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="199"/>
-      <c r="E10" s="199"/>
-      <c r="F10" s="199"/>
-      <c r="G10" s="199"/>
-      <c r="H10" s="199"/>
-      <c r="I10" s="199"/>
-      <c r="J10" s="200"/>
+      <c r="A10" s="202" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="203"/>
+      <c r="C10" s="203"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="203"/>
+      <c r="G10" s="203"/>
+      <c r="H10" s="203"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="204"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="43" t="s">
+      <c r="E11" s="43" t="s">
         <v>202</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>203</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>19</v>
@@ -9467,10 +9486,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="I11" s="43" t="s">
         <v>204</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>260</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -9481,26 +9500,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J12" s="49"/>
     </row>
@@ -9509,26 +9528,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J13" s="49"/>
     </row>
@@ -9537,60 +9556,60 @@
         <v>3</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H14" s="51">
         <v>2</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="198" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="199"/>
-      <c r="C16" s="199"/>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="200"/>
+      <c r="A16" s="202" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="203"/>
+      <c r="C16" s="203"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="203"/>
+      <c r="G16" s="203"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="204"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="43" t="s">
+      <c r="E17" s="43" t="s">
         <v>202</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>203</v>
       </c>
       <c r="F17" s="43" t="s">
         <v>19</v>
@@ -9599,10 +9618,10 @@
         <v>13</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="J17" s="43" t="s">
         <v>0</v>
@@ -9613,24 +9632,24 @@
         <v>1</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J18" s="49"/>
     </row>
@@ -9639,24 +9658,24 @@
         <v>2</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="44" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J19" s="49"/>
     </row>
@@ -9665,27 +9684,27 @@
         <v>3</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -9693,27 +9712,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D21" s="50"/>
       <c r="E21" s="50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H21" s="50"/>
       <c r="I21" s="44" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J21" s="52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -9755,7 +9774,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54:J54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -9783,8 +9804,8 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="161" t="s">
-        <v>48</v>
+      <c r="K1" s="160" t="s">
+        <v>50</v>
       </c>
       <c r="L1" s="55"/>
       <c r="M1" s="55"/>
@@ -9804,7 +9825,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="162"/>
+      <c r="K2" s="161"/>
     </row>
     <row r="3" spans="1:17" s="56" customFormat="1">
       <c r="A3" s="48"/>
@@ -9817,7 +9838,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="162"/>
+      <c r="K3" s="161"/>
     </row>
     <row r="4" spans="1:17" s="56" customFormat="1">
       <c r="A4" s="48"/>
@@ -9832,664 +9853,664 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="56" customFormat="1">
-      <c r="A5" s="172" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="A5" s="168" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="123"/>
     </row>
     <row r="6" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="131"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="133"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="126"/>
     </row>
     <row r="7" spans="1:17" s="57" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="173"/>
-      <c r="B7" s="174"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="176"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="172"/>
       <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:17" s="57" customFormat="1">
-      <c r="A8" s="173"/>
-      <c r="B8" s="174"/>
-      <c r="C8" s="174"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="176"/>
+      <c r="A8" s="169"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="172"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:17" s="57" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="177"/>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="179"/>
+      <c r="A9" s="173"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="175"/>
     </row>
     <row r="10" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="84.75" customHeight="1">
-      <c r="A11" s="180" t="s">
-        <v>236</v>
-      </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
+      <c r="A11" s="176" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="113"/>
     </row>
     <row r="12" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="172" t="s">
+      <c r="A12" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="123"/>
     </row>
     <row r="13" spans="1:17" s="59" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="180" t="s">
+      <c r="A13" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="121"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="113"/>
     </row>
     <row r="14" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="172" t="s">
+      <c r="A14" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="148" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="157"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="158"/>
+      <c r="A15" s="180" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="181"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="182"/>
     </row>
     <row r="16" spans="1:17" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="142" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="144"/>
+        <v>90</v>
+      </c>
+      <c r="C16" s="183" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="184"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="185"/>
     </row>
     <row r="17" spans="1:10" s="57" customFormat="1">
       <c r="A17" s="60">
         <v>1</v>
       </c>
       <c r="B17" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="159" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="186" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="147"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="188"/>
     </row>
     <row r="18" spans="1:10" s="57" customFormat="1" ht="24" customHeight="1">
       <c r="A18" s="44">
         <v>2</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="159" t="s">
-        <v>233</v>
-      </c>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="147"/>
+        <v>140</v>
+      </c>
+      <c r="C18" s="186" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="187"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="188"/>
     </row>
     <row r="19" spans="1:10" s="57" customFormat="1" ht="27.75" customHeight="1">
       <c r="A19" s="44">
         <v>3</v>
       </c>
       <c r="B19" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="159" t="s">
-        <v>232</v>
-      </c>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+        <v>141</v>
+      </c>
+      <c r="C19" s="186" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="187"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="188"/>
     </row>
     <row r="20" spans="1:10" s="57" customFormat="1" ht="42" customHeight="1">
       <c r="A20" s="49">
         <v>4</v>
       </c>
       <c r="B20" s="88" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="159" t="s">
-        <v>234</v>
-      </c>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="147"/>
+        <v>138</v>
+      </c>
+      <c r="C20" s="186" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="187"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="187"/>
+      <c r="G20" s="187"/>
+      <c r="H20" s="187"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="188"/>
     </row>
     <row r="21" spans="1:10" s="57" customFormat="1" ht="39.75" customHeight="1">
       <c r="A21" s="49">
         <v>5</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="159" t="s">
-        <v>235</v>
-      </c>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="147"/>
+        <v>139</v>
+      </c>
+      <c r="C21" s="186" t="s">
+        <v>258</v>
+      </c>
+      <c r="D21" s="187"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="187"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="188"/>
     </row>
     <row r="22" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A22" s="44">
         <v>6</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" s="159" t="s">
-        <v>251</v>
-      </c>
-      <c r="D22" s="205"/>
-      <c r="E22" s="205"/>
-      <c r="F22" s="205"/>
-      <c r="G22" s="205"/>
-      <c r="H22" s="205"/>
-      <c r="I22" s="205"/>
-      <c r="J22" s="206"/>
+        <v>259</v>
+      </c>
+      <c r="C22" s="186" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" s="209"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="209"/>
+      <c r="H22" s="209"/>
+      <c r="I22" s="209"/>
+      <c r="J22" s="210"/>
     </row>
     <row r="23" spans="1:10" s="57" customFormat="1">
-      <c r="A23" s="169"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="171"/>
+      <c r="A23" s="165"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="167"/>
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A24" s="148" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="157"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="158"/>
+      <c r="A24" s="180" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="181"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="182"/>
     </row>
     <row r="25" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A25" s="89">
         <v>1</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="159" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="147"/>
+        <v>138</v>
+      </c>
+      <c r="C25" s="186" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="187"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="187"/>
+      <c r="G25" s="187"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="188"/>
     </row>
     <row r="26" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A26" s="89">
         <v>2</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="159" t="s">
-        <v>171</v>
-      </c>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="147"/>
+        <v>139</v>
+      </c>
+      <c r="C26" s="186" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="187"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="188"/>
     </row>
     <row r="27" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A27" s="44">
         <v>3</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" s="159" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="147"/>
+        <v>151</v>
+      </c>
+      <c r="C27" s="186" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" s="187"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="187"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="188"/>
     </row>
     <row r="28" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A28" s="44">
         <v>4</v>
       </c>
       <c r="B28" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="159" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="147"/>
+        <v>141</v>
+      </c>
+      <c r="C28" s="186" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="187"/>
+      <c r="E28" s="187"/>
+      <c r="F28" s="187"/>
+      <c r="G28" s="187"/>
+      <c r="H28" s="187"/>
+      <c r="I28" s="187"/>
+      <c r="J28" s="188"/>
     </row>
     <row r="29" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="181"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="181"/>
-      <c r="E29" s="181"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="181"/>
-      <c r="H29" s="181"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="182"/>
+      <c r="B29" s="178"/>
+      <c r="C29" s="178"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="179"/>
     </row>
     <row r="30" spans="1:10" s="57" customFormat="1" ht="36" customHeight="1">
-      <c r="A30" s="148" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" s="157"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="158"/>
+      <c r="A30" s="180" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="181"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="182"/>
     </row>
     <row r="31" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="60" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="142" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="143"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="144"/>
+        <v>143</v>
+      </c>
+      <c r="C31" s="183" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="185"/>
     </row>
     <row r="32" spans="1:10" s="57" customFormat="1">
       <c r="A32" s="60">
         <v>1</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="207" t="s">
-        <v>237</v>
-      </c>
-      <c r="D32" s="152"/>
-      <c r="E32" s="152"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="152"/>
-      <c r="J32" s="153"/>
+        <v>140</v>
+      </c>
+      <c r="C32" s="205" t="s">
+        <v>233</v>
+      </c>
+      <c r="D32" s="193"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="193"/>
+      <c r="G32" s="193"/>
+      <c r="H32" s="193"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="194"/>
     </row>
     <row r="33" spans="1:12" s="57" customFormat="1">
       <c r="A33" s="60">
         <v>2</v>
       </c>
       <c r="B33" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" s="208"/>
-      <c r="D33" s="209"/>
-      <c r="E33" s="209"/>
-      <c r="F33" s="209"/>
-      <c r="G33" s="209"/>
-      <c r="H33" s="209"/>
-      <c r="I33" s="209"/>
-      <c r="J33" s="210"/>
+        <v>141</v>
+      </c>
+      <c r="C33" s="206"/>
+      <c r="D33" s="207"/>
+      <c r="E33" s="207"/>
+      <c r="F33" s="207"/>
+      <c r="G33" s="207"/>
+      <c r="H33" s="207"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="208"/>
     </row>
     <row r="34" spans="1:12" s="57" customFormat="1">
       <c r="A34" s="60">
         <v>3</v>
       </c>
       <c r="B34" s="88" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" s="208"/>
-      <c r="D34" s="209"/>
-      <c r="E34" s="209"/>
-      <c r="F34" s="209"/>
-      <c r="G34" s="209"/>
-      <c r="H34" s="209"/>
-      <c r="I34" s="209"/>
-      <c r="J34" s="210"/>
+        <v>138</v>
+      </c>
+      <c r="C34" s="206"/>
+      <c r="D34" s="207"/>
+      <c r="E34" s="207"/>
+      <c r="F34" s="207"/>
+      <c r="G34" s="207"/>
+      <c r="H34" s="207"/>
+      <c r="I34" s="207"/>
+      <c r="J34" s="208"/>
     </row>
     <row r="35" spans="1:12" s="57" customFormat="1">
       <c r="A35" s="60">
         <v>4</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" s="154"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="155"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="155"/>
-      <c r="J35" s="156"/>
+        <v>139</v>
+      </c>
+      <c r="C35" s="195"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="197"/>
     </row>
     <row r="36" spans="1:12" s="57" customFormat="1">
-      <c r="A36" s="139"/>
-      <c r="B36" s="140"/>
-      <c r="C36" s="140"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="140"/>
-      <c r="G36" s="140"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="140"/>
-      <c r="J36" s="141"/>
+      <c r="A36" s="141"/>
+      <c r="B36" s="158"/>
+      <c r="C36" s="158"/>
+      <c r="D36" s="158"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="158"/>
+      <c r="I36" s="158"/>
+      <c r="J36" s="142"/>
     </row>
     <row r="37" spans="1:12" s="57" customFormat="1">
-      <c r="A37" s="148" t="s">
-        <v>146</v>
-      </c>
-      <c r="B37" s="149"/>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="150"/>
+      <c r="A37" s="180" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="189"/>
+      <c r="C37" s="189"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="189"/>
+      <c r="F37" s="189"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="189"/>
+      <c r="J37" s="190"/>
     </row>
     <row r="38" spans="1:12" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="60" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="142" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="143"/>
-      <c r="E38" s="143"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
-      <c r="J38" s="144"/>
+        <v>146</v>
+      </c>
+      <c r="C38" s="183" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="184"/>
+      <c r="E38" s="184"/>
+      <c r="F38" s="184"/>
+      <c r="G38" s="184"/>
+      <c r="H38" s="184"/>
+      <c r="I38" s="184"/>
+      <c r="J38" s="185"/>
     </row>
     <row r="39" spans="1:12" s="57" customFormat="1">
       <c r="A39" s="89">
         <v>1</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="145" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" s="146"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="146"/>
-      <c r="J39" s="147"/>
+        <v>138</v>
+      </c>
+      <c r="C39" s="191" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="187"/>
+      <c r="E39" s="187"/>
+      <c r="F39" s="187"/>
+      <c r="G39" s="187"/>
+      <c r="H39" s="187"/>
+      <c r="I39" s="187"/>
+      <c r="J39" s="188"/>
     </row>
     <row r="40" spans="1:12" s="57" customFormat="1">
       <c r="A40" s="89">
         <v>2</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="145" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" s="146"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="146"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="146"/>
-      <c r="J40" s="147"/>
+        <v>139</v>
+      </c>
+      <c r="C40" s="191" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="187"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="187"/>
+      <c r="H40" s="187"/>
+      <c r="I40" s="187"/>
+      <c r="J40" s="188"/>
     </row>
     <row r="41" spans="1:12" s="57" customFormat="1">
       <c r="A41" s="44">
         <v>3</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="145" t="s">
-        <v>144</v>
-      </c>
-      <c r="D41" s="146"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="147"/>
+        <v>151</v>
+      </c>
+      <c r="C41" s="191" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="187"/>
+      <c r="E41" s="187"/>
+      <c r="F41" s="187"/>
+      <c r="G41" s="187"/>
+      <c r="H41" s="187"/>
+      <c r="I41" s="187"/>
+      <c r="J41" s="188"/>
     </row>
     <row r="42" spans="1:12" s="57" customFormat="1">
       <c r="A42" s="44">
         <v>4</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="145" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="146"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="146"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="147"/>
+        <v>141</v>
+      </c>
+      <c r="C42" s="191" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="187"/>
+      <c r="E42" s="187"/>
+      <c r="F42" s="187"/>
+      <c r="G42" s="187"/>
+      <c r="H42" s="187"/>
+      <c r="I42" s="187"/>
+      <c r="J42" s="188"/>
     </row>
     <row r="43" spans="1:12" s="57" customFormat="1">
-      <c r="A43" s="139"/>
-      <c r="B43" s="140"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="140"/>
-      <c r="F43" s="140"/>
-      <c r="G43" s="140"/>
-      <c r="H43" s="140"/>
-      <c r="I43" s="140"/>
-      <c r="J43" s="141"/>
+      <c r="A43" s="141"/>
+      <c r="B43" s="158"/>
+      <c r="C43" s="158"/>
+      <c r="D43" s="158"/>
+      <c r="E43" s="158"/>
+      <c r="F43" s="158"/>
+      <c r="G43" s="158"/>
+      <c r="H43" s="158"/>
+      <c r="I43" s="158"/>
+      <c r="J43" s="142"/>
     </row>
     <row r="44" spans="1:12" s="57" customFormat="1">
-      <c r="A44" s="169"/>
-      <c r="B44" s="203"/>
-      <c r="C44" s="203"/>
-      <c r="D44" s="203"/>
-      <c r="E44" s="203"/>
-      <c r="F44" s="203"/>
-      <c r="G44" s="203"/>
-      <c r="H44" s="203"/>
-      <c r="I44" s="203"/>
-      <c r="J44" s="204"/>
+      <c r="A44" s="165"/>
+      <c r="B44" s="211"/>
+      <c r="C44" s="211"/>
+      <c r="D44" s="211"/>
+      <c r="E44" s="211"/>
+      <c r="F44" s="211"/>
+      <c r="G44" s="211"/>
+      <c r="H44" s="211"/>
+      <c r="I44" s="211"/>
+      <c r="J44" s="212"/>
     </row>
     <row r="45" spans="1:12" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="134" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="181"/>
-      <c r="C45" s="181"/>
-      <c r="D45" s="181"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="181"/>
-      <c r="G45" s="181"/>
-      <c r="H45" s="181"/>
-      <c r="I45" s="181"/>
-      <c r="J45" s="182"/>
+      <c r="A45" s="177" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="178"/>
+      <c r="C45" s="178"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="178"/>
+      <c r="G45" s="178"/>
+      <c r="H45" s="178"/>
+      <c r="I45" s="178"/>
+      <c r="J45" s="179"/>
     </row>
     <row r="46" spans="1:12" s="83" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="61" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C46" s="62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D46" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="F46" s="138"/>
-      <c r="G46" s="138"/>
-      <c r="H46" s="138"/>
-      <c r="I46" s="138"/>
-      <c r="J46" s="138"/>
+      <c r="E46" s="200" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="201"/>
+      <c r="G46" s="201"/>
+      <c r="H46" s="201"/>
+      <c r="I46" s="201"/>
+      <c r="J46" s="201"/>
       <c r="K46" s="57"/>
       <c r="L46" s="57"/>
     </row>
@@ -10498,110 +10519,110 @@
         <v>1</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C47" s="65"/>
       <c r="D47" s="66"/>
-      <c r="E47" s="191" t="s">
-        <v>150</v>
-      </c>
-      <c r="F47" s="126"/>
-      <c r="G47" s="126"/>
-      <c r="H47" s="126"/>
-      <c r="I47" s="126"/>
-      <c r="J47" s="126"/>
+      <c r="E47" s="151" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
     </row>
     <row r="48" spans="1:12" s="57" customFormat="1">
-      <c r="A48" s="166" t="s">
-        <v>182</v>
-      </c>
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
-      <c r="E48" s="167"/>
-      <c r="F48" s="167"/>
-      <c r="G48" s="167"/>
-      <c r="H48" s="167"/>
-      <c r="I48" s="167"/>
-      <c r="J48" s="168"/>
+      <c r="A48" s="162" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" s="163"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="163"/>
+      <c r="E48" s="163"/>
+      <c r="F48" s="163"/>
+      <c r="G48" s="163"/>
+      <c r="H48" s="163"/>
+      <c r="I48" s="163"/>
+      <c r="J48" s="164"/>
     </row>
     <row r="49" spans="1:12" s="59" customFormat="1" ht="77.25" customHeight="1">
       <c r="A49" s="74">
         <v>1</v>
       </c>
       <c r="B49" s="91" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C49" s="94" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D49" s="93"/>
-      <c r="E49" s="195" t="s">
+      <c r="E49" s="155" t="s">
         <v>189</v>
       </c>
-      <c r="F49" s="196"/>
-      <c r="G49" s="196"/>
-      <c r="H49" s="196"/>
-      <c r="I49" s="196"/>
-      <c r="J49" s="197"/>
+      <c r="F49" s="156"/>
+      <c r="G49" s="156"/>
+      <c r="H49" s="156"/>
+      <c r="I49" s="156"/>
+      <c r="J49" s="157"/>
     </row>
     <row r="50" spans="1:12" s="59" customFormat="1" ht="50.25" customHeight="1">
       <c r="A50" s="71">
         <v>2</v>
       </c>
       <c r="B50" s="72" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C50" s="94" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D50" s="93"/>
-      <c r="E50" s="195" t="s">
-        <v>186</v>
-      </c>
-      <c r="F50" s="196"/>
-      <c r="G50" s="196"/>
-      <c r="H50" s="196"/>
-      <c r="I50" s="196"/>
-      <c r="J50" s="197"/>
+      <c r="E50" s="155" t="s">
+        <v>261</v>
+      </c>
+      <c r="F50" s="156"/>
+      <c r="G50" s="156"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="157"/>
     </row>
     <row r="51" spans="1:12" s="57" customFormat="1">
       <c r="A51" s="74">
         <v>3</v>
       </c>
       <c r="B51" s="91" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C51" s="94" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D51" s="92"/>
-      <c r="E51" s="163" t="s">
-        <v>181</v>
-      </c>
-      <c r="F51" s="120"/>
-      <c r="G51" s="120"/>
-      <c r="H51" s="120"/>
-      <c r="I51" s="120"/>
-      <c r="J51" s="121"/>
+      <c r="E51" s="138" t="s">
+        <v>184</v>
+      </c>
+      <c r="F51" s="112"/>
+      <c r="G51" s="112"/>
+      <c r="H51" s="112"/>
+      <c r="I51" s="112"/>
+      <c r="J51" s="113"/>
     </row>
     <row r="52" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="166" t="s">
-        <v>180</v>
-      </c>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
-      <c r="E52" s="167"/>
-      <c r="F52" s="167"/>
-      <c r="G52" s="167"/>
-      <c r="H52" s="167"/>
-      <c r="I52" s="167"/>
-      <c r="J52" s="168"/>
+      <c r="A52" s="162" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="163"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="163"/>
+      <c r="E52" s="163"/>
+      <c r="F52" s="163"/>
+      <c r="G52" s="163"/>
+      <c r="H52" s="163"/>
+      <c r="I52" s="163"/>
+      <c r="J52" s="164"/>
       <c r="K52" s="57"/>
       <c r="L52" s="57"/>
     </row>
-    <row r="53" spans="1:12" s="57" customFormat="1" ht="119.25" customHeight="1">
+    <row r="53" spans="1:12" s="57" customFormat="1" ht="47.25" customHeight="1">
       <c r="A53" s="60">
         <v>1</v>
       </c>
@@ -10612,146 +10633,146 @@
         <v>12</v>
       </c>
       <c r="D53" s="70"/>
-      <c r="E53" s="191" t="s">
-        <v>238</v>
-      </c>
-      <c r="F53" s="126"/>
-      <c r="G53" s="126"/>
-      <c r="H53" s="126"/>
-      <c r="I53" s="126"/>
-      <c r="J53" s="126"/>
+      <c r="E53" s="151" t="s">
+        <v>260</v>
+      </c>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="120"/>
+      <c r="J53" s="120"/>
     </row>
     <row r="54" spans="1:12" s="57" customFormat="1" ht="107.25" customHeight="1">
       <c r="A54" s="71">
         <v>2</v>
       </c>
       <c r="B54" s="72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C54" s="69" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D54" s="73"/>
-      <c r="E54" s="195" t="s">
-        <v>205</v>
-      </c>
-      <c r="F54" s="196"/>
-      <c r="G54" s="196"/>
-      <c r="H54" s="196"/>
-      <c r="I54" s="196"/>
-      <c r="J54" s="197"/>
+      <c r="E54" s="155" t="s">
+        <v>264</v>
+      </c>
+      <c r="F54" s="156"/>
+      <c r="G54" s="156"/>
+      <c r="H54" s="156"/>
+      <c r="I54" s="156"/>
+      <c r="J54" s="157"/>
     </row>
     <row r="55" spans="1:12" s="57" customFormat="1" ht="54.75" customHeight="1">
       <c r="A55" s="74">
         <v>3</v>
       </c>
       <c r="B55" s="68" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="C55" s="69" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D55" s="75"/>
-      <c r="E55" s="163" t="s">
-        <v>240</v>
-      </c>
-      <c r="F55" s="120"/>
-      <c r="G55" s="120"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="120"/>
-      <c r="J55" s="121"/>
+      <c r="E55" s="138" t="s">
+        <v>263</v>
+      </c>
+      <c r="F55" s="112"/>
+      <c r="G55" s="112"/>
+      <c r="H55" s="112"/>
+      <c r="I55" s="112"/>
+      <c r="J55" s="113"/>
     </row>
     <row r="56" spans="1:12" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A56" s="188" t="s">
+      <c r="A56" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="189"/>
-      <c r="C56" s="189"/>
-      <c r="D56" s="189"/>
-      <c r="E56" s="189"/>
-      <c r="F56" s="189"/>
-      <c r="G56" s="189"/>
-      <c r="H56" s="189"/>
-      <c r="I56" s="189"/>
-      <c r="J56" s="190"/>
+      <c r="B56" s="149"/>
+      <c r="C56" s="149"/>
+      <c r="D56" s="149"/>
+      <c r="E56" s="149"/>
+      <c r="F56" s="149"/>
+      <c r="G56" s="149"/>
+      <c r="H56" s="149"/>
+      <c r="I56" s="149"/>
+      <c r="J56" s="150"/>
     </row>
     <row r="57" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="186" t="s">
+      <c r="B57" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="187"/>
-      <c r="D57" s="163" t="s">
+      <c r="C57" s="147"/>
+      <c r="D57" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="120"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="120"/>
-      <c r="H57" s="120"/>
-      <c r="I57" s="120"/>
-      <c r="J57" s="121"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="112"/>
+      <c r="G57" s="112"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="112"/>
+      <c r="J57" s="113"/>
     </row>
     <row r="58" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="183"/>
-      <c r="B58" s="201"/>
-      <c r="C58" s="201"/>
-      <c r="D58" s="201"/>
-      <c r="E58" s="201"/>
-      <c r="F58" s="201"/>
-      <c r="G58" s="201"/>
-      <c r="H58" s="201"/>
-      <c r="I58" s="201"/>
-      <c r="J58" s="202"/>
+      <c r="A58" s="143"/>
+      <c r="B58" s="213"/>
+      <c r="C58" s="213"/>
+      <c r="D58" s="213"/>
+      <c r="E58" s="213"/>
+      <c r="F58" s="213"/>
+      <c r="G58" s="213"/>
+      <c r="H58" s="213"/>
+      <c r="I58" s="213"/>
+      <c r="J58" s="214"/>
     </row>
     <row r="59" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="74"/>
-      <c r="B59" s="139"/>
-      <c r="C59" s="141"/>
-      <c r="D59" s="163"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="120"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="120"/>
-      <c r="J59" s="121"/>
+      <c r="B59" s="141"/>
+      <c r="C59" s="142"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="112"/>
+      <c r="G59" s="112"/>
+      <c r="H59" s="112"/>
+      <c r="I59" s="112"/>
+      <c r="J59" s="113"/>
     </row>
     <row r="60" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="74"/>
-      <c r="B60" s="139"/>
-      <c r="C60" s="141"/>
-      <c r="D60" s="163"/>
-      <c r="E60" s="120"/>
-      <c r="F60" s="120"/>
-      <c r="G60" s="120"/>
-      <c r="H60" s="120"/>
-      <c r="I60" s="120"/>
-      <c r="J60" s="121"/>
+      <c r="B60" s="141"/>
+      <c r="C60" s="142"/>
+      <c r="D60" s="138"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="112"/>
+      <c r="G60" s="112"/>
+      <c r="H60" s="112"/>
+      <c r="I60" s="112"/>
+      <c r="J60" s="113"/>
     </row>
     <row r="61" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="183"/>
-      <c r="B61" s="201"/>
-      <c r="C61" s="201"/>
-      <c r="D61" s="201"/>
-      <c r="E61" s="201"/>
-      <c r="F61" s="201"/>
-      <c r="G61" s="201"/>
-      <c r="H61" s="201"/>
-      <c r="I61" s="201"/>
-      <c r="J61" s="202"/>
+      <c r="A61" s="143"/>
+      <c r="B61" s="213"/>
+      <c r="C61" s="213"/>
+      <c r="D61" s="213"/>
+      <c r="E61" s="213"/>
+      <c r="F61" s="213"/>
+      <c r="G61" s="213"/>
+      <c r="H61" s="213"/>
+      <c r="I61" s="213"/>
+      <c r="J61" s="214"/>
     </row>
     <row r="62" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="74"/>
-      <c r="B62" s="139"/>
-      <c r="C62" s="141"/>
-      <c r="D62" s="163"/>
-      <c r="E62" s="120"/>
-      <c r="F62" s="120"/>
-      <c r="G62" s="120"/>
-      <c r="H62" s="120"/>
-      <c r="I62" s="120"/>
-      <c r="J62" s="121"/>
+      <c r="B62" s="141"/>
+      <c r="C62" s="142"/>
+      <c r="D62" s="138"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="112"/>
+      <c r="G62" s="112"/>
+      <c r="H62" s="112"/>
+      <c r="I62" s="112"/>
+      <c r="J62" s="113"/>
     </row>
     <row r="63" spans="1:12" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A63" s="78" t="s">
@@ -10774,14 +10795,14 @@
       <c r="B64" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="139"/>
-      <c r="D64" s="120"/>
-      <c r="E64" s="120"/>
-      <c r="F64" s="120"/>
-      <c r="G64" s="120"/>
-      <c r="H64" s="120"/>
-      <c r="I64" s="120"/>
-      <c r="J64" s="121"/>
+      <c r="C64" s="141"/>
+      <c r="D64" s="112"/>
+      <c r="E64" s="112"/>
+      <c r="F64" s="112"/>
+      <c r="G64" s="112"/>
+      <c r="H64" s="112"/>
+      <c r="I64" s="112"/>
+      <c r="J64" s="113"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="74">
@@ -10790,44 +10811,33 @@
       <c r="B65" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="160"/>
-      <c r="D65" s="160"/>
-      <c r="E65" s="160"/>
-      <c r="F65" s="160"/>
-      <c r="G65" s="160"/>
-      <c r="H65" s="160"/>
-      <c r="I65" s="160"/>
-      <c r="J65" s="160"/>
+      <c r="C65" s="159"/>
+      <c r="D65" s="159"/>
+      <c r="E65" s="159"/>
+      <c r="F65" s="159"/>
+      <c r="G65" s="159"/>
+      <c r="H65" s="159"/>
+      <c r="I65" s="159"/>
+      <c r="J65" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C32:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="A52:J52"/>
     <mergeCell ref="E53:J53"/>
     <mergeCell ref="E54:J54"/>
     <mergeCell ref="E55:J55"/>
@@ -10844,22 +10854,33 @@
     <mergeCell ref="A30:J30"/>
     <mergeCell ref="C20:J20"/>
     <mergeCell ref="C21:J21"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C32:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10895,7 +10916,7 @@
     <col min="6" max="6" width="14.375" style="42" customWidth="1"/>
     <col min="7" max="7" width="13" style="42" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="42" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="42" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="42" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34.875" style="42" customWidth="1"/>
     <col min="11" max="11" width="8.75" style="42" customWidth="1"/>
     <col min="12" max="16384" width="9" style="42"/>
@@ -10912,8 +10933,8 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="161" t="s">
-        <v>48</v>
+      <c r="K1" s="160" t="s">
+        <v>50</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -10939,7 +10960,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="162"/>
+      <c r="K2" s="161"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -10957,7 +10978,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="162"/>
+      <c r="K3" s="161"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -11001,18 +11022,18 @@
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="198" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="200"/>
+      <c r="A6" s="202" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="203"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="203"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="204"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -11022,19 +11043,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="43" t="s">
         <v>216</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>219</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>19</v>
@@ -11043,10 +11064,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -11079,34 +11100,34 @@
       <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="198" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="211"/>
-      <c r="C10" s="211"/>
-      <c r="D10" s="211"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="212"/>
+      <c r="A10" s="202" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="215"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="215"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="215"/>
+      <c r="H10" s="215"/>
+      <c r="I10" s="215"/>
+      <c r="J10" s="216"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="43" t="s">
         <v>216</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>219</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>19</v>
@@ -11115,10 +11136,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -11129,29 +11150,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F12" s="107" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G12" s="106" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H12" s="50"/>
       <c r="I12" s="44" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J12" s="96" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -11159,29 +11180,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E13" s="104" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F13" s="108" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G13" s="108" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H13" s="50"/>
       <c r="I13" s="44" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J13" s="96" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -11189,29 +11210,29 @@
         <v>3</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E14" s="104" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F14" s="107" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G14" s="108" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J14" s="96" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -11219,29 +11240,29 @@
         <v>4</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E15" s="104" t="s">
+        <v>220</v>
+      </c>
+      <c r="F15" s="107" t="s">
+        <v>221</v>
+      </c>
+      <c r="G15" s="106" t="s">
         <v>222</v>
-      </c>
-      <c r="F15" s="107" t="s">
-        <v>223</v>
-      </c>
-      <c r="G15" s="106" t="s">
-        <v>224</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="44" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J15" s="96" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -11249,31 +11270,31 @@
         <v>5</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H16" s="44">
         <v>0</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J16" s="101" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11289,34 +11310,34 @@
       <c r="J17" s="100"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="198" t="s">
-        <v>215</v>
-      </c>
-      <c r="B18" s="199"/>
-      <c r="C18" s="199"/>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="200"/>
+      <c r="A18" s="202" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="203"/>
+      <c r="C18" s="203"/>
+      <c r="D18" s="203"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="203"/>
+      <c r="G18" s="203"/>
+      <c r="H18" s="203"/>
+      <c r="I18" s="203"/>
+      <c r="J18" s="204"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" s="43" t="s">
         <v>216</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>219</v>
       </c>
       <c r="F19" s="43" t="s">
         <v>19</v>
@@ -11325,10 +11346,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I19" s="43" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="J19" s="43" t="s">
         <v>0</v>
@@ -11339,29 +11360,29 @@
         <v>3</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E20" s="104" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F20" s="107" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G20" s="106" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J20" s="96" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -11369,29 +11390,29 @@
         <v>4</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E21" s="104" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" s="107" t="s">
+        <v>221</v>
+      </c>
+      <c r="G21" s="106" t="s">
         <v>222</v>
-      </c>
-      <c r="F21" s="107" t="s">
-        <v>223</v>
-      </c>
-      <c r="G21" s="106" t="s">
-        <v>224</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="44" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J21" s="96" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -11399,29 +11420,29 @@
         <v>1</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E22" s="104" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F22" s="107" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G22" s="108" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H22" s="50"/>
       <c r="I22" s="44" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J22" s="96" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -11429,29 +11450,29 @@
         <v>2</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E23" s="104" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F23" s="108" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G23" s="108" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H23" s="50"/>
       <c r="I23" s="44" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J23" s="96" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
+++ b/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="2"/>
   </bookViews>
@@ -38,12 +43,12 @@
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="264">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -389,10 +394,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>0:預設角色 1:職稱角色 2:自定角色</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>nvarchar(20)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -940,10 +941,6 @@
   </si>
   <si>
     <t>畫面_APF0101MA5</t>
-  </si>
-  <si>
-    <t>0:預設角色 1:職稱角色 2:自定角色</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>角色代號</t>
@@ -1253,6 +1250,9 @@
 儲存成功:以導頁方式開啟APF0102MM1，並帶回原先的查詢條件，及顯示修改資料成功訊息，訊息內容請參考APF訊息表APF_NO 12
 儲存失敗:顯示修改資料失敗訊息，訊息內容請參考APF訊息表APF_NO 13</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:預設角色 1:職稱角色 2:自訂角色</t>
   </si>
 </sst>
 </file>
@@ -2095,13 +2095,67 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2110,27 +2164,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2140,38 +2173,92 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2182,10 +2269,55 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2232,142 +2364,28 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2379,24 +2397,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3433,7 +3433,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>409575</xdr:colOff>
+          <xdr:colOff>666750</xdr:colOff>
           <xdr:row>83</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
@@ -3448,7 +3448,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3456,6 +3456,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3469,14 +3480,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>85</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:row>84</xdr:row>
+          <xdr:rowOff>266702</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>103</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>665018</xdr:colOff>
+          <xdr:row>108</xdr:row>
+          <xdr:rowOff>38101</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3489,7 +3500,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3497,6 +3508,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4046,7 +4068,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4054,6 +4076,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7233,7 +7266,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
@@ -7269,10 +7302,10 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="102" t="s">
@@ -7281,64 +7314,64 @@
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="110" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="110"/>
       <c r="B6" s="35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="110" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="111"/>
       <c r="B8" s="38" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A9" s="110" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A10" s="110"/>
       <c r="B10" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="36" t="s">
@@ -7348,7 +7381,7 @@
     <row r="11" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A11" s="110"/>
       <c r="B11" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="36" t="s">
@@ -7358,7 +7391,7 @@
     <row r="12" spans="1:4" ht="21" hidden="1" customHeight="1" thickBot="1">
       <c r="A12" s="37"/>
       <c r="B12" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="39"/>
@@ -7659,8 +7692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M91" sqref="M91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7675,15 +7708,15 @@
       <c r="A1" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="127" t="s">
+      <c r="M1" s="112" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="128"/>
+      <c r="M2" s="113"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="128"/>
+      <c r="M3" s="113"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -7700,245 +7733,252 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="116"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="134"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="124" t="s">
-        <v>249</v>
-      </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="A6" s="135" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="137"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="121" t="s">
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="123"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="118"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="132" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="120" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="112" t="s">
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="121"/>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="118"/>
+    </row>
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="113"/>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="129" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="123"/>
-    </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="119" t="s">
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="112" t="s">
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="121"/>
+    </row>
+    <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="131" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="118"/>
+    </row>
+    <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
+      <c r="A12" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="113"/>
-    </row>
-    <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="117" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="137" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="123"/>
-    </row>
-    <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A12" s="119" t="s">
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="121"/>
+    </row>
+    <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="124" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="131" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="118"/>
+    </row>
+    <row r="14" spans="1:13" s="24" customFormat="1" ht="33" customHeight="1">
+      <c r="A14" s="132" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="113"/>
-    </row>
-    <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="137" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="123"/>
-    </row>
-    <row r="14" spans="1:13" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A14" s="119" t="s">
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="112" t="s">
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="121"/>
+    </row>
+    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="127"/>
+    </row>
+    <row r="16" spans="1:13" s="19" customFormat="1" ht="194.25" customHeight="1">
+      <c r="A16" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="113"/>
-    </row>
-    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="134"/>
-    </row>
-    <row r="16" spans="1:13" s="19" customFormat="1" ht="194.25" customHeight="1">
-      <c r="A16" s="135" t="s">
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="130"/>
+    </row>
+    <row r="17" spans="1:12" ht="16.5">
+      <c r="A17" s="119" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="121"/>
+    </row>
+    <row r="85" spans="1:12" ht="21" customHeight="1">
+      <c r="A85" s="119" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="136"/>
-    </row>
-    <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="113"/>
-    </row>
-    <row r="85" spans="1:12" ht="21" customHeight="1">
-      <c r="A85" s="114" t="s">
-        <v>126</v>
-      </c>
-      <c r="B85" s="131"/>
-      <c r="C85" s="131"/>
-      <c r="D85" s="131"/>
-      <c r="E85" s="131"/>
-      <c r="F85" s="131"/>
-      <c r="G85" s="131"/>
-      <c r="H85" s="131"/>
-      <c r="I85" s="131"/>
-      <c r="J85" s="131"/>
-      <c r="K85" s="131"/>
-      <c r="L85" s="132"/>
+      <c r="B85" s="122"/>
+      <c r="C85" s="122"/>
+      <c r="D85" s="122"/>
+      <c r="E85" s="122"/>
+      <c r="F85" s="122"/>
+      <c r="G85" s="122"/>
+      <c r="H85" s="122"/>
+      <c r="I85" s="122"/>
+      <c r="J85" s="122"/>
+      <c r="K85" s="122"/>
+      <c r="L85" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -7955,13 +7995,6 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -7987,7 +8020,7 @@
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
+                <xdr:colOff>666750</xdr:colOff>
                 <xdr:row>83</xdr:row>
                 <xdr:rowOff>104775</xdr:rowOff>
               </to>
@@ -8008,13 +8041,13 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>85</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>103</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
+                <xdr:row>108</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8037,15 +8070,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="127" t="s">
-        <v>248</v>
+      <c r="P1" s="112" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="128"/>
+      <c r="P2" s="113"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="128"/>
+      <c r="P3" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8126,7 +8159,7 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="160" t="s">
+      <c r="K1" s="165" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="55"/>
@@ -8147,7 +8180,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="161"/>
+      <c r="K2" s="166"/>
     </row>
     <row r="3" spans="1:17" s="56" customFormat="1">
       <c r="A3" s="48"/>
@@ -8160,7 +8193,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="161"/>
+      <c r="K3" s="166"/>
     </row>
     <row r="4" spans="1:17" s="56" customFormat="1">
       <c r="A4" s="48"/>
@@ -8175,592 +8208,592 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="56" customFormat="1">
-      <c r="A5" s="168" t="s">
+      <c r="A5" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="123"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="124"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="126"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="137"/>
     </row>
     <row r="7" spans="1:17" s="57" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="169"/>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="172"/>
+      <c r="A7" s="177"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="180"/>
       <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:17" s="57" customFormat="1">
-      <c r="A8" s="169"/>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="172"/>
+      <c r="A8" s="177"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="180"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:17" s="57" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="173"/>
-      <c r="B9" s="174"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="175"/>
+      <c r="A9" s="181"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="183"/>
     </row>
     <row r="10" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="168" t="s">
+      <c r="A10" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="176" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113"/>
+      <c r="A11" s="184" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
     </row>
     <row r="12" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="168" t="s">
+      <c r="A12" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="123"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
     </row>
     <row r="13" spans="1:17" s="59" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="176" t="s">
+      <c r="A13" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="113"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="168" t="s">
+      <c r="A14" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="123"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="180" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15" s="181"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="181"/>
-      <c r="E15" s="181"/>
-      <c r="F15" s="181"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="182"/>
+      <c r="A15" s="152" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="162"/>
     </row>
     <row r="16" spans="1:17" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="183" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="184"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="184"/>
-      <c r="G16" s="184"/>
-      <c r="H16" s="184"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="185"/>
+        <v>89</v>
+      </c>
+      <c r="C16" s="146" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="1:10" s="57" customFormat="1" ht="55.5" customHeight="1">
       <c r="A17" s="60">
         <v>1</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>208</v>
-      </c>
-      <c r="C17" s="186" t="s">
-        <v>254</v>
-      </c>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="188"/>
+        <v>206</v>
+      </c>
+      <c r="C17" s="163" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="151"/>
     </row>
     <row r="18" spans="1:10" s="57" customFormat="1" ht="48.75" customHeight="1">
       <c r="A18" s="60">
         <v>2</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="C18" s="186" t="s">
-        <v>255</v>
-      </c>
-      <c r="D18" s="187"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="188"/>
+        <v>207</v>
+      </c>
+      <c r="C18" s="163" t="s">
+        <v>253</v>
+      </c>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="151"/>
     </row>
     <row r="19" spans="1:10" s="57" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="60">
         <v>3</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="C19" s="186" t="s">
-        <v>256</v>
-      </c>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="187"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="188"/>
+        <v>208</v>
+      </c>
+      <c r="C19" s="163" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="151"/>
     </row>
     <row r="20" spans="1:10" s="57" customFormat="1">
-      <c r="A20" s="141"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="142"/>
+      <c r="A20" s="143"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="145"/>
     </row>
     <row r="21" spans="1:10" s="57" customFormat="1">
-      <c r="A21" s="180" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="181"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="181"/>
-      <c r="J21" s="182"/>
+      <c r="A21" s="152" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="161"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="162"/>
     </row>
     <row r="22" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="183" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="184"/>
-      <c r="E22" s="184"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="184"/>
-      <c r="H22" s="184"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="185"/>
+        <v>89</v>
+      </c>
+      <c r="C22" s="146" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="147"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="148"/>
     </row>
     <row r="23" spans="1:10" s="57" customFormat="1">
       <c r="A23" s="60">
         <v>1</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="191" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="187"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="187"/>
-      <c r="G23" s="187"/>
-      <c r="H23" s="187"/>
-      <c r="I23" s="187"/>
-      <c r="J23" s="188"/>
+        <v>88</v>
+      </c>
+      <c r="C23" s="149" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="151"/>
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1">
       <c r="A24" s="60">
         <v>2</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="191" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="187"/>
-      <c r="E24" s="187"/>
-      <c r="F24" s="187"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="187"/>
-      <c r="J24" s="188"/>
+        <v>90</v>
+      </c>
+      <c r="C24" s="149" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="151"/>
     </row>
     <row r="25" spans="1:10" s="57" customFormat="1">
       <c r="A25" s="60">
         <v>3</v>
       </c>
       <c r="B25" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="149" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="191" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="187"/>
-      <c r="E25" s="187"/>
-      <c r="F25" s="187"/>
-      <c r="G25" s="187"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="188"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="151"/>
     </row>
     <row r="26" spans="1:10" s="57" customFormat="1">
       <c r="A26" s="60">
         <v>4</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="191" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="187"/>
-      <c r="E26" s="187"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="187"/>
-      <c r="J26" s="188"/>
+        <v>91</v>
+      </c>
+      <c r="C26" s="149" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="151"/>
     </row>
     <row r="27" spans="1:10" s="57" customFormat="1">
-      <c r="A27" s="165"/>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="166"/>
-      <c r="E27" s="166"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="166"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="167"/>
+      <c r="A27" s="173"/>
+      <c r="B27" s="174"/>
+      <c r="C27" s="174"/>
+      <c r="D27" s="174"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="175"/>
     </row>
     <row r="28" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="177" t="s">
+      <c r="A28" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="178"/>
-      <c r="C28" s="178"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="179"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="186"/>
     </row>
     <row r="29" spans="1:10" s="57" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="180" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="181"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="181"/>
-      <c r="E29" s="181"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="181"/>
-      <c r="H29" s="181"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="182"/>
+      <c r="A29" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="161"/>
+      <c r="C29" s="161"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="162"/>
     </row>
     <row r="30" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="183" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="184"/>
-      <c r="I30" s="184"/>
-      <c r="J30" s="185"/>
+        <v>89</v>
+      </c>
+      <c r="C30" s="146" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="148"/>
     </row>
     <row r="31" spans="1:10" s="57" customFormat="1">
       <c r="A31" s="60">
         <v>1</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="C31" s="192" t="s">
-        <v>234</v>
-      </c>
-      <c r="D31" s="193"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="194"/>
+        <v>194</v>
+      </c>
+      <c r="C31" s="155" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="157"/>
     </row>
     <row r="32" spans="1:10" s="57" customFormat="1">
       <c r="A32" s="60">
         <v>2</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="C32" s="195"/>
-      <c r="D32" s="196"/>
-      <c r="E32" s="196"/>
-      <c r="F32" s="196"/>
-      <c r="G32" s="196"/>
-      <c r="H32" s="196"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="197"/>
+        <v>195</v>
+      </c>
+      <c r="C32" s="158"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="160"/>
     </row>
     <row r="33" spans="1:12" s="57" customFormat="1">
       <c r="A33" s="60">
         <v>3</v>
       </c>
       <c r="B33" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="149" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="191" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="187"/>
-      <c r="E33" s="187"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="188"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="151"/>
     </row>
     <row r="34" spans="1:12" s="57" customFormat="1">
-      <c r="A34" s="141"/>
-      <c r="B34" s="158"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="142"/>
+      <c r="A34" s="143"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="145"/>
     </row>
     <row r="35" spans="1:12" s="57" customFormat="1">
-      <c r="A35" s="180" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" s="189"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="189"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="189"/>
-      <c r="H35" s="189"/>
-      <c r="I35" s="189"/>
-      <c r="J35" s="190"/>
+      <c r="A35" s="152" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="153"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="154"/>
     </row>
     <row r="36" spans="1:12" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="183" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="184"/>
-      <c r="E36" s="184"/>
-      <c r="F36" s="184"/>
-      <c r="G36" s="184"/>
-      <c r="H36" s="184"/>
-      <c r="I36" s="184"/>
-      <c r="J36" s="185"/>
+        <v>89</v>
+      </c>
+      <c r="C36" s="146" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="147"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="148"/>
     </row>
     <row r="37" spans="1:12" s="57" customFormat="1">
       <c r="A37" s="60">
         <v>1</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="191" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="187"/>
-      <c r="E37" s="187"/>
-      <c r="F37" s="187"/>
-      <c r="G37" s="187"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="187"/>
-      <c r="J37" s="188"/>
+        <v>88</v>
+      </c>
+      <c r="C37" s="149" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="151"/>
     </row>
     <row r="38" spans="1:12" s="57" customFormat="1">
       <c r="A38" s="60">
         <v>2</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="191" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="187"/>
-      <c r="E38" s="187"/>
-      <c r="F38" s="187"/>
-      <c r="G38" s="187"/>
-      <c r="H38" s="187"/>
-      <c r="I38" s="187"/>
-      <c r="J38" s="188"/>
+        <v>90</v>
+      </c>
+      <c r="C38" s="149" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="151"/>
     </row>
     <row r="39" spans="1:12" s="57" customFormat="1">
       <c r="A39" s="60">
         <v>3</v>
       </c>
       <c r="B39" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="149" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="191" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="187"/>
-      <c r="E39" s="187"/>
-      <c r="F39" s="187"/>
-      <c r="G39" s="187"/>
-      <c r="H39" s="187"/>
-      <c r="I39" s="187"/>
-      <c r="J39" s="188"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="151"/>
     </row>
     <row r="40" spans="1:12" s="57" customFormat="1">
       <c r="A40" s="60">
         <v>4</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="191" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="187"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
-      <c r="J40" s="188"/>
+        <v>91</v>
+      </c>
+      <c r="C40" s="149" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="151"/>
     </row>
     <row r="41" spans="1:12" s="57" customFormat="1">
-      <c r="A41" s="141"/>
-      <c r="B41" s="158"/>
-      <c r="C41" s="158"/>
-      <c r="D41" s="158"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="158"/>
-      <c r="I41" s="158"/>
-      <c r="J41" s="142"/>
+      <c r="A41" s="143"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="144"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="145"/>
     </row>
     <row r="42" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="177" t="s">
+      <c r="A42" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="198"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="198"/>
-      <c r="H42" s="198"/>
-      <c r="I42" s="198"/>
-      <c r="J42" s="199"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="139"/>
+      <c r="I42" s="139"/>
+      <c r="J42" s="140"/>
     </row>
     <row r="43" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="61" t="s">
@@ -8775,14 +8808,14 @@
       <c r="D43" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="200" t="s">
+      <c r="E43" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="201"/>
-      <c r="G43" s="201"/>
-      <c r="H43" s="201"/>
-      <c r="I43" s="201"/>
-      <c r="J43" s="201"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="142"/>
+      <c r="I43" s="142"/>
+      <c r="J43" s="142"/>
       <c r="K43" s="57"/>
       <c r="L43" s="57"/>
     </row>
@@ -8791,334 +8824,334 @@
         <v>1</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44" s="65"/>
       <c r="D44" s="66"/>
-      <c r="E44" s="151" t="s">
-        <v>133</v>
-      </c>
-      <c r="F44" s="120"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="120"/>
+      <c r="E44" s="195" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="129"/>
+      <c r="G44" s="129"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="129"/>
+      <c r="J44" s="129"/>
     </row>
     <row r="45" spans="1:12" s="57" customFormat="1">
       <c r="A45" s="67"/>
-      <c r="B45" s="158"/>
-      <c r="C45" s="158"/>
-      <c r="D45" s="158"/>
-      <c r="E45" s="158"/>
-      <c r="F45" s="158"/>
-      <c r="G45" s="158"/>
-      <c r="H45" s="158"/>
-      <c r="I45" s="158"/>
-      <c r="J45" s="142"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="145"/>
     </row>
     <row r="46" spans="1:12" s="57" customFormat="1">
-      <c r="A46" s="162" t="s">
-        <v>136</v>
-      </c>
-      <c r="B46" s="163"/>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
-      <c r="E46" s="163"/>
-      <c r="F46" s="163"/>
-      <c r="G46" s="163"/>
-      <c r="H46" s="163"/>
-      <c r="I46" s="163"/>
-      <c r="J46" s="164"/>
+      <c r="A46" s="170" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="171"/>
+      <c r="C46" s="171"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="171"/>
+      <c r="F46" s="171"/>
+      <c r="G46" s="171"/>
+      <c r="H46" s="171"/>
+      <c r="I46" s="171"/>
+      <c r="J46" s="172"/>
     </row>
     <row r="47" spans="1:12" s="57" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="60">
         <v>1</v>
       </c>
       <c r="B47" s="68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="70"/>
-      <c r="E47" s="151" t="s">
-        <v>134</v>
-      </c>
-      <c r="F47" s="120"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="120"/>
-      <c r="J47" s="120"/>
+      <c r="E47" s="195" t="s">
+        <v>133</v>
+      </c>
+      <c r="F47" s="129"/>
+      <c r="G47" s="129"/>
+      <c r="H47" s="129"/>
+      <c r="I47" s="129"/>
+      <c r="J47" s="129"/>
     </row>
     <row r="48" spans="1:12" s="59" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="71">
         <v>2</v>
       </c>
       <c r="B48" s="72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="73"/>
-      <c r="E48" s="138" t="s">
-        <v>187</v>
-      </c>
-      <c r="F48" s="139"/>
-      <c r="G48" s="139"/>
-      <c r="H48" s="139"/>
-      <c r="I48" s="139"/>
-      <c r="J48" s="140"/>
+      <c r="E48" s="167" t="s">
+        <v>186</v>
+      </c>
+      <c r="F48" s="168"/>
+      <c r="G48" s="168"/>
+      <c r="H48" s="168"/>
+      <c r="I48" s="168"/>
+      <c r="J48" s="169"/>
     </row>
     <row r="49" spans="1:10" s="57" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="74">
         <v>3</v>
       </c>
       <c r="B49" s="68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="75"/>
-      <c r="E49" s="138" t="s">
-        <v>135</v>
-      </c>
-      <c r="F49" s="139"/>
-      <c r="G49" s="139"/>
-      <c r="H49" s="139"/>
-      <c r="I49" s="139"/>
-      <c r="J49" s="140"/>
+      <c r="E49" s="167" t="s">
+        <v>134</v>
+      </c>
+      <c r="F49" s="168"/>
+      <c r="G49" s="168"/>
+      <c r="H49" s="168"/>
+      <c r="I49" s="168"/>
+      <c r="J49" s="169"/>
     </row>
     <row r="50" spans="1:10" s="57" customFormat="1">
       <c r="A50" s="76"/>
-      <c r="B50" s="158"/>
-      <c r="C50" s="158"/>
-      <c r="D50" s="158"/>
-      <c r="E50" s="158"/>
-      <c r="F50" s="158"/>
-      <c r="G50" s="158"/>
-      <c r="H50" s="158"/>
-      <c r="I50" s="158"/>
-      <c r="J50" s="142"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="144"/>
+      <c r="D50" s="144"/>
+      <c r="E50" s="144"/>
+      <c r="F50" s="144"/>
+      <c r="G50" s="144"/>
+      <c r="H50" s="144"/>
+      <c r="I50" s="144"/>
+      <c r="J50" s="145"/>
     </row>
     <row r="51" spans="1:10" s="57" customFormat="1">
-      <c r="A51" s="152" t="s">
-        <v>131</v>
-      </c>
-      <c r="B51" s="153"/>
-      <c r="C51" s="153"/>
-      <c r="D51" s="153"/>
-      <c r="E51" s="153"/>
-      <c r="F51" s="153"/>
-      <c r="G51" s="153"/>
-      <c r="H51" s="153"/>
-      <c r="I51" s="153"/>
-      <c r="J51" s="154"/>
+      <c r="A51" s="196" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="197"/>
+      <c r="C51" s="197"/>
+      <c r="D51" s="197"/>
+      <c r="E51" s="197"/>
+      <c r="F51" s="197"/>
+      <c r="G51" s="197"/>
+      <c r="H51" s="197"/>
+      <c r="I51" s="197"/>
+      <c r="J51" s="198"/>
     </row>
     <row r="52" spans="1:10" s="57" customFormat="1" hidden="1">
       <c r="A52" s="60">
         <v>1</v>
       </c>
       <c r="B52" s="68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C52" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="70"/>
-      <c r="E52" s="151" t="s">
-        <v>102</v>
-      </c>
-      <c r="F52" s="120"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="120"/>
-      <c r="I52" s="120"/>
-      <c r="J52" s="120"/>
+      <c r="E52" s="195" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="129"/>
+      <c r="G52" s="129"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="129"/>
+      <c r="J52" s="129"/>
     </row>
     <row r="53" spans="1:10" s="57" customFormat="1" hidden="1">
       <c r="A53" s="60">
         <v>2</v>
       </c>
       <c r="B53" s="68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C53" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="73"/>
-      <c r="E53" s="155" t="s">
-        <v>103</v>
-      </c>
-      <c r="F53" s="156"/>
-      <c r="G53" s="156"/>
-      <c r="H53" s="156"/>
-      <c r="I53" s="156"/>
-      <c r="J53" s="157"/>
+      <c r="E53" s="199" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" s="200"/>
+      <c r="G53" s="200"/>
+      <c r="H53" s="200"/>
+      <c r="I53" s="200"/>
+      <c r="J53" s="201"/>
     </row>
     <row r="54" spans="1:10" s="57" customFormat="1" hidden="1">
       <c r="A54" s="60">
         <v>3</v>
       </c>
       <c r="B54" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C54" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="73"/>
-      <c r="E54" s="155" t="s">
-        <v>104</v>
-      </c>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
-      <c r="H54" s="156"/>
-      <c r="I54" s="156"/>
-      <c r="J54" s="157"/>
+      <c r="E54" s="199" t="s">
+        <v>103</v>
+      </c>
+      <c r="F54" s="200"/>
+      <c r="G54" s="200"/>
+      <c r="H54" s="200"/>
+      <c r="I54" s="200"/>
+      <c r="J54" s="201"/>
     </row>
     <row r="55" spans="1:10" s="57" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="60">
         <v>4</v>
       </c>
       <c r="B55" s="68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C55" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="73"/>
-      <c r="E55" s="155" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" s="156"/>
-      <c r="G55" s="156"/>
-      <c r="H55" s="156"/>
-      <c r="I55" s="156"/>
-      <c r="J55" s="157"/>
+      <c r="E55" s="199" t="s">
+        <v>78</v>
+      </c>
+      <c r="F55" s="200"/>
+      <c r="G55" s="200"/>
+      <c r="H55" s="200"/>
+      <c r="I55" s="200"/>
+      <c r="J55" s="201"/>
     </row>
     <row r="56" spans="1:10" s="57" customFormat="1" ht="33.75" customHeight="1">
       <c r="A56" s="60">
         <v>1</v>
       </c>
       <c r="B56" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C56" s="87" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="86"/>
-      <c r="E56" s="138" t="s">
-        <v>188</v>
-      </c>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="113"/>
+      <c r="E56" s="167" t="s">
+        <v>187</v>
+      </c>
+      <c r="F56" s="120"/>
+      <c r="G56" s="120"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="121"/>
     </row>
     <row r="57" spans="1:10" s="57" customFormat="1">
       <c r="A57" s="77"/>
-      <c r="B57" s="158"/>
-      <c r="C57" s="158"/>
-      <c r="D57" s="158"/>
-      <c r="E57" s="158"/>
-      <c r="F57" s="158"/>
-      <c r="G57" s="158"/>
-      <c r="H57" s="158"/>
-      <c r="I57" s="158"/>
-      <c r="J57" s="142"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="144"/>
+      <c r="G57" s="144"/>
+      <c r="H57" s="144"/>
+      <c r="I57" s="144"/>
+      <c r="J57" s="145"/>
     </row>
     <row r="58" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="148" t="s">
+      <c r="A58" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="149"/>
-      <c r="C58" s="149"/>
-      <c r="D58" s="149"/>
-      <c r="E58" s="149"/>
-      <c r="F58" s="149"/>
-      <c r="G58" s="149"/>
-      <c r="H58" s="149"/>
-      <c r="I58" s="149"/>
-      <c r="J58" s="150"/>
+      <c r="B58" s="193"/>
+      <c r="C58" s="193"/>
+      <c r="D58" s="193"/>
+      <c r="E58" s="193"/>
+      <c r="F58" s="193"/>
+      <c r="G58" s="193"/>
+      <c r="H58" s="193"/>
+      <c r="I58" s="193"/>
+      <c r="J58" s="194"/>
     </row>
     <row r="59" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="146" t="s">
+      <c r="B59" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="147"/>
-      <c r="D59" s="138" t="s">
+      <c r="C59" s="191"/>
+      <c r="D59" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="112"/>
-      <c r="H59" s="112"/>
-      <c r="I59" s="112"/>
-      <c r="J59" s="113"/>
+      <c r="E59" s="120"/>
+      <c r="F59" s="120"/>
+      <c r="G59" s="120"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="120"/>
+      <c r="J59" s="121"/>
     </row>
     <row r="60" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="143"/>
-      <c r="B60" s="144"/>
-      <c r="C60" s="144"/>
-      <c r="D60" s="144"/>
-      <c r="E60" s="144"/>
-      <c r="F60" s="144"/>
-      <c r="G60" s="144"/>
-      <c r="H60" s="144"/>
-      <c r="I60" s="144"/>
-      <c r="J60" s="145"/>
+      <c r="A60" s="187"/>
+      <c r="B60" s="188"/>
+      <c r="C60" s="188"/>
+      <c r="D60" s="188"/>
+      <c r="E60" s="188"/>
+      <c r="F60" s="188"/>
+      <c r="G60" s="188"/>
+      <c r="H60" s="188"/>
+      <c r="I60" s="188"/>
+      <c r="J60" s="189"/>
     </row>
     <row r="61" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="74"/>
-      <c r="B61" s="141"/>
-      <c r="C61" s="142"/>
-      <c r="D61" s="138"/>
-      <c r="E61" s="139"/>
-      <c r="F61" s="139"/>
-      <c r="G61" s="139"/>
-      <c r="H61" s="139"/>
-      <c r="I61" s="139"/>
-      <c r="J61" s="140"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="167"/>
+      <c r="E61" s="168"/>
+      <c r="F61" s="168"/>
+      <c r="G61" s="168"/>
+      <c r="H61" s="168"/>
+      <c r="I61" s="168"/>
+      <c r="J61" s="169"/>
     </row>
     <row r="62" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="74"/>
-      <c r="B62" s="141"/>
-      <c r="C62" s="142"/>
-      <c r="D62" s="138"/>
-      <c r="E62" s="139"/>
-      <c r="F62" s="139"/>
-      <c r="G62" s="139"/>
-      <c r="H62" s="139"/>
-      <c r="I62" s="139"/>
-      <c r="J62" s="140"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="167"/>
+      <c r="E62" s="168"/>
+      <c r="F62" s="168"/>
+      <c r="G62" s="168"/>
+      <c r="H62" s="168"/>
+      <c r="I62" s="168"/>
+      <c r="J62" s="169"/>
     </row>
     <row r="63" spans="1:10" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="143"/>
-      <c r="B63" s="144"/>
-      <c r="C63" s="144"/>
-      <c r="D63" s="144"/>
-      <c r="E63" s="144"/>
-      <c r="F63" s="144"/>
-      <c r="G63" s="144"/>
-      <c r="H63" s="144"/>
-      <c r="I63" s="144"/>
-      <c r="J63" s="145"/>
+      <c r="A63" s="187"/>
+      <c r="B63" s="188"/>
+      <c r="C63" s="188"/>
+      <c r="D63" s="188"/>
+      <c r="E63" s="188"/>
+      <c r="F63" s="188"/>
+      <c r="G63" s="188"/>
+      <c r="H63" s="188"/>
+      <c r="I63" s="188"/>
+      <c r="J63" s="189"/>
     </row>
     <row r="64" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="74"/>
-      <c r="B64" s="141"/>
-      <c r="C64" s="142"/>
-      <c r="D64" s="138"/>
-      <c r="E64" s="139"/>
-      <c r="F64" s="139"/>
-      <c r="G64" s="139"/>
-      <c r="H64" s="139"/>
-      <c r="I64" s="139"/>
-      <c r="J64" s="140"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="167"/>
+      <c r="E64" s="168"/>
+      <c r="F64" s="168"/>
+      <c r="G64" s="168"/>
+      <c r="H64" s="168"/>
+      <c r="I64" s="168"/>
+      <c r="J64" s="169"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="78" t="s">
@@ -9141,14 +9174,14 @@
       <c r="B66" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="141"/>
-      <c r="D66" s="112"/>
-      <c r="E66" s="112"/>
-      <c r="F66" s="112"/>
-      <c r="G66" s="112"/>
-      <c r="H66" s="112"/>
-      <c r="I66" s="112"/>
-      <c r="J66" s="113"/>
+      <c r="C66" s="143"/>
+      <c r="D66" s="120"/>
+      <c r="E66" s="120"/>
+      <c r="F66" s="120"/>
+      <c r="G66" s="120"/>
+      <c r="H66" s="120"/>
+      <c r="I66" s="120"/>
+      <c r="J66" s="121"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="74">
@@ -9157,43 +9190,38 @@
       <c r="B67" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="159"/>
-      <c r="D67" s="159"/>
-      <c r="E67" s="159"/>
-      <c r="F67" s="159"/>
-      <c r="G67" s="159"/>
-      <c r="H67" s="159"/>
-      <c r="I67" s="159"/>
-      <c r="J67" s="159"/>
+      <c r="C67" s="164"/>
+      <c r="D67" s="164"/>
+      <c r="E67" s="164"/>
+      <c r="F67" s="164"/>
+      <c r="G67" s="164"/>
+      <c r="H67" s="164"/>
+      <c r="I67" s="164"/>
+      <c r="J67" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B57:J57"/>
     <mergeCell ref="C67:J67"/>
     <mergeCell ref="C66:J66"/>
     <mergeCell ref="K1:K3"/>
@@ -9210,27 +9238,32 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="D61:J61"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9253,7 +9286,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9283,7 +9316,7 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="160" t="s">
+      <c r="K1" s="165" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="40"/>
@@ -9310,7 +9343,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="161"/>
+      <c r="K2" s="166"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -9328,7 +9361,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="161"/>
+      <c r="K3" s="166"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -9393,16 +9426,16 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="43" t="s">
-        <v>200</v>
-      </c>
       <c r="C7" s="43" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>20</v>
@@ -9414,7 +9447,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I7" s="43" t="s">
         <v>39</v>
@@ -9451,7 +9484,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="202" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="203"/>
       <c r="C10" s="203"/>
@@ -9465,19 +9498,19 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="C11" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="43" t="s">
         <v>200</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>202</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>19</v>
@@ -9486,10 +9519,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -9503,23 +9536,23 @@
         <v>52</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" s="46" t="s">
         <v>60</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" s="46" t="s">
         <v>69</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J12" s="49"/>
     </row>
@@ -9531,10 +9564,10 @@
         <v>53</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="46" t="s">
         <v>63</v>
@@ -9543,11 +9576,11 @@
         <v>65</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" s="49"/>
     </row>
@@ -9559,7 +9592,7 @@
         <v>54</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50" t="s">
@@ -9575,15 +9608,15 @@
         <v>2</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>195</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="202" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="203"/>
       <c r="C16" s="203"/>
@@ -9597,19 +9630,19 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="C17" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" s="43" t="s">
         <v>200</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>202</v>
       </c>
       <c r="F17" s="43" t="s">
         <v>19</v>
@@ -9618,10 +9651,10 @@
         <v>13</v>
       </c>
       <c r="H17" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="I17" s="43" t="s">
         <v>203</v>
-      </c>
-      <c r="I17" s="43" t="s">
-        <v>205</v>
       </c>
       <c r="J17" s="43" t="s">
         <v>0</v>
@@ -9635,21 +9668,21 @@
         <v>52</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G18" s="46" t="s">
         <v>70</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J18" s="49"/>
     </row>
@@ -9661,7 +9694,7 @@
         <v>55</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="46" t="s">
@@ -9671,11 +9704,11 @@
         <v>66</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J19" s="49"/>
     </row>
@@ -9687,7 +9720,7 @@
         <v>56</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46" t="s">
@@ -9701,10 +9734,10 @@
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -9715,7 +9748,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="50"/>
       <c r="E21" s="50" t="s">
@@ -9729,10 +9762,10 @@
       </c>
       <c r="H21" s="50"/>
       <c r="I21" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J21" s="52" t="s">
-        <v>74</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -9804,7 +9837,7 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="160" t="s">
+      <c r="K1" s="165" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="55"/>
@@ -9825,7 +9858,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="161"/>
+      <c r="K2" s="166"/>
     </row>
     <row r="3" spans="1:17" s="56" customFormat="1">
       <c r="A3" s="48"/>
@@ -9838,7 +9871,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="161"/>
+      <c r="K3" s="166"/>
     </row>
     <row r="4" spans="1:17" s="56" customFormat="1">
       <c r="A4" s="48"/>
@@ -9853,270 +9886,270 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="56" customFormat="1">
-      <c r="A5" s="168" t="s">
+      <c r="A5" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="123"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="124"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="126"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="137"/>
     </row>
     <row r="7" spans="1:17" s="57" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="169"/>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="172"/>
+      <c r="A7" s="177"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="180"/>
       <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:17" s="57" customFormat="1">
-      <c r="A8" s="169"/>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="172"/>
+      <c r="A8" s="177"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="180"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:17" s="57" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="173"/>
-      <c r="B9" s="174"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="175"/>
+      <c r="A9" s="181"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="183"/>
     </row>
     <row r="10" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="168" t="s">
+      <c r="A10" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="84.75" customHeight="1">
-      <c r="A11" s="176" t="s">
-        <v>232</v>
-      </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113"/>
+      <c r="A11" s="184" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
     </row>
     <row r="12" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="168" t="s">
+      <c r="A12" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="123"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
     </row>
     <row r="13" spans="1:17" s="59" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="176" t="s">
+      <c r="A13" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="113"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="168" t="s">
+      <c r="A14" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="123"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="180" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="181"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="181"/>
-      <c r="E15" s="181"/>
-      <c r="F15" s="181"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="182"/>
+      <c r="A15" s="152" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="162"/>
     </row>
     <row r="16" spans="1:17" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="183" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="184"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="184"/>
-      <c r="G16" s="184"/>
-      <c r="H16" s="184"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="185"/>
+        <v>89</v>
+      </c>
+      <c r="C16" s="146" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="1:10" s="57" customFormat="1">
       <c r="A17" s="60">
         <v>1</v>
       </c>
       <c r="B17" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="186" t="s">
-        <v>207</v>
-      </c>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="188"/>
+        <v>136</v>
+      </c>
+      <c r="C17" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="151"/>
     </row>
     <row r="18" spans="1:10" s="57" customFormat="1" ht="24" customHeight="1">
       <c r="A18" s="44">
         <v>2</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="186" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="187"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="188"/>
+        <v>139</v>
+      </c>
+      <c r="C18" s="163" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="151"/>
     </row>
     <row r="19" spans="1:10" s="57" customFormat="1" ht="27.75" customHeight="1">
       <c r="A19" s="44">
         <v>3</v>
       </c>
       <c r="B19" s="84" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="186" t="s">
-        <v>230</v>
-      </c>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="187"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="188"/>
+        <v>140</v>
+      </c>
+      <c r="C19" s="163" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="151"/>
     </row>
     <row r="20" spans="1:10" s="57" customFormat="1" ht="42" customHeight="1">
       <c r="A20" s="49">
         <v>4</v>
       </c>
       <c r="B20" s="88" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="186" t="s">
-        <v>257</v>
-      </c>
-      <c r="D20" s="187"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="187"/>
-      <c r="H20" s="187"/>
-      <c r="I20" s="187"/>
-      <c r="J20" s="188"/>
+        <v>137</v>
+      </c>
+      <c r="C20" s="163" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="151"/>
     </row>
     <row r="21" spans="1:10" s="57" customFormat="1" ht="39.75" customHeight="1">
       <c r="A21" s="49">
         <v>5</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="186" t="s">
-        <v>258</v>
-      </c>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="187"/>
-      <c r="J21" s="188"/>
+        <v>138</v>
+      </c>
+      <c r="C21" s="163" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="151"/>
     </row>
     <row r="22" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A22" s="44">
         <v>6</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="C22" s="186" t="s">
-        <v>245</v>
+        <v>257</v>
+      </c>
+      <c r="C22" s="163" t="s">
+        <v>243</v>
       </c>
       <c r="D22" s="209"/>
       <c r="E22" s="209"/>
@@ -10127,368 +10160,368 @@
       <c r="J22" s="210"/>
     </row>
     <row r="23" spans="1:10" s="57" customFormat="1">
-      <c r="A23" s="165"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="166"/>
-      <c r="J23" s="167"/>
+      <c r="A23" s="173"/>
+      <c r="B23" s="174"/>
+      <c r="C23" s="174"/>
+      <c r="D23" s="174"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="174"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="175"/>
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A24" s="180" t="s">
-        <v>150</v>
-      </c>
-      <c r="B24" s="181"/>
-      <c r="C24" s="181"/>
-      <c r="D24" s="181"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="181"/>
-      <c r="J24" s="182"/>
+      <c r="A24" s="152" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="161"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="162"/>
     </row>
     <row r="25" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A25" s="89">
         <v>1</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="186" t="s">
-        <v>174</v>
-      </c>
-      <c r="D25" s="187"/>
-      <c r="E25" s="187"/>
-      <c r="F25" s="187"/>
-      <c r="G25" s="187"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="188"/>
+        <v>137</v>
+      </c>
+      <c r="C25" s="163" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="151"/>
     </row>
     <row r="26" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A26" s="89">
         <v>2</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="186" t="s">
-        <v>174</v>
-      </c>
-      <c r="D26" s="187"/>
-      <c r="E26" s="187"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="187"/>
-      <c r="J26" s="188"/>
+        <v>138</v>
+      </c>
+      <c r="C26" s="163" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="151"/>
     </row>
     <row r="27" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A27" s="44">
         <v>3</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="186" t="s">
-        <v>174</v>
-      </c>
-      <c r="D27" s="187"/>
-      <c r="E27" s="187"/>
-      <c r="F27" s="187"/>
-      <c r="G27" s="187"/>
-      <c r="H27" s="187"/>
-      <c r="I27" s="187"/>
-      <c r="J27" s="188"/>
+        <v>150</v>
+      </c>
+      <c r="C27" s="163" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="151"/>
     </row>
     <row r="28" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A28" s="44">
         <v>4</v>
       </c>
       <c r="B28" s="84" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="186" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="163" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="151"/>
+    </row>
+    <row r="29" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A29" s="138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="185"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="186"/>
+    </row>
+    <row r="30" spans="1:10" s="57" customFormat="1" ht="36" customHeight="1">
+      <c r="A30" s="152" t="s">
         <v>174</v>
       </c>
-      <c r="D28" s="187"/>
-      <c r="E28" s="187"/>
-      <c r="F28" s="187"/>
-      <c r="G28" s="187"/>
-      <c r="H28" s="187"/>
-      <c r="I28" s="187"/>
-      <c r="J28" s="188"/>
-    </row>
-    <row r="29" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="178"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="179"/>
-    </row>
-    <row r="30" spans="1:10" s="57" customFormat="1" ht="36" customHeight="1">
-      <c r="A30" s="180" t="s">
-        <v>175</v>
-      </c>
-      <c r="B30" s="181"/>
-      <c r="C30" s="181"/>
-      <c r="D30" s="181"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="182"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="162"/>
     </row>
     <row r="31" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="C31" s="146" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="183" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="185"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="148"/>
     </row>
     <row r="32" spans="1:10" s="57" customFormat="1">
       <c r="A32" s="60">
         <v>1</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="C32" s="205" t="s">
-        <v>233</v>
-      </c>
-      <c r="D32" s="193"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="194"/>
+        <v>139</v>
+      </c>
+      <c r="C32" s="211" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="157"/>
     </row>
     <row r="33" spans="1:12" s="57" customFormat="1">
       <c r="A33" s="60">
         <v>2</v>
       </c>
       <c r="B33" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="206"/>
-      <c r="D33" s="207"/>
-      <c r="E33" s="207"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="207"/>
-      <c r="H33" s="207"/>
-      <c r="I33" s="207"/>
-      <c r="J33" s="208"/>
+        <v>140</v>
+      </c>
+      <c r="C33" s="212"/>
+      <c r="D33" s="213"/>
+      <c r="E33" s="213"/>
+      <c r="F33" s="213"/>
+      <c r="G33" s="213"/>
+      <c r="H33" s="213"/>
+      <c r="I33" s="213"/>
+      <c r="J33" s="214"/>
     </row>
     <row r="34" spans="1:12" s="57" customFormat="1">
       <c r="A34" s="60">
         <v>3</v>
       </c>
       <c r="B34" s="88" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="206"/>
-      <c r="D34" s="207"/>
-      <c r="E34" s="207"/>
-      <c r="F34" s="207"/>
-      <c r="G34" s="207"/>
-      <c r="H34" s="207"/>
-      <c r="I34" s="207"/>
-      <c r="J34" s="208"/>
+        <v>137</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="213"/>
+      <c r="E34" s="213"/>
+      <c r="F34" s="213"/>
+      <c r="G34" s="213"/>
+      <c r="H34" s="213"/>
+      <c r="I34" s="213"/>
+      <c r="J34" s="214"/>
     </row>
     <row r="35" spans="1:12" s="57" customFormat="1">
       <c r="A35" s="60">
         <v>4</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="195"/>
-      <c r="D35" s="196"/>
-      <c r="E35" s="196"/>
-      <c r="F35" s="196"/>
-      <c r="G35" s="196"/>
-      <c r="H35" s="196"/>
-      <c r="I35" s="196"/>
-      <c r="J35" s="197"/>
+        <v>138</v>
+      </c>
+      <c r="C35" s="158"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="159"/>
+      <c r="J35" s="160"/>
     </row>
     <row r="36" spans="1:12" s="57" customFormat="1">
-      <c r="A36" s="141"/>
-      <c r="B36" s="158"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="158"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="142"/>
+      <c r="A36" s="143"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="144"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="145"/>
     </row>
     <row r="37" spans="1:12" s="57" customFormat="1">
-      <c r="A37" s="180" t="s">
-        <v>149</v>
-      </c>
-      <c r="B37" s="189"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="189"/>
-      <c r="E37" s="189"/>
-      <c r="F37" s="189"/>
-      <c r="G37" s="189"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="189"/>
-      <c r="J37" s="190"/>
+      <c r="A37" s="152" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="153"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="154"/>
     </row>
     <row r="38" spans="1:12" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="C38" s="183" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="184"/>
-      <c r="E38" s="184"/>
-      <c r="F38" s="184"/>
-      <c r="G38" s="184"/>
-      <c r="H38" s="184"/>
-      <c r="I38" s="184"/>
-      <c r="J38" s="185"/>
+      <c r="C38" s="146" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="147"/>
+      <c r="E38" s="147"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="148"/>
     </row>
     <row r="39" spans="1:12" s="57" customFormat="1">
       <c r="A39" s="89">
         <v>1</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="191" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" s="187"/>
-      <c r="E39" s="187"/>
-      <c r="F39" s="187"/>
-      <c r="G39" s="187"/>
-      <c r="H39" s="187"/>
-      <c r="I39" s="187"/>
-      <c r="J39" s="188"/>
+        <v>137</v>
+      </c>
+      <c r="C39" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="151"/>
     </row>
     <row r="40" spans="1:12" s="57" customFormat="1">
       <c r="A40" s="89">
         <v>2</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="191" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" s="187"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
-      <c r="J40" s="188"/>
+        <v>138</v>
+      </c>
+      <c r="C40" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="151"/>
     </row>
     <row r="41" spans="1:12" s="57" customFormat="1">
       <c r="A41" s="44">
         <v>3</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="C41" s="191" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41" s="187"/>
-      <c r="E41" s="187"/>
-      <c r="F41" s="187"/>
-      <c r="G41" s="187"/>
-      <c r="H41" s="187"/>
-      <c r="I41" s="187"/>
-      <c r="J41" s="188"/>
+        <v>150</v>
+      </c>
+      <c r="C41" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="151"/>
     </row>
     <row r="42" spans="1:12" s="57" customFormat="1">
       <c r="A42" s="44">
         <v>4</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="191" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" s="187"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="187"/>
-      <c r="G42" s="187"/>
-      <c r="H42" s="187"/>
-      <c r="I42" s="187"/>
-      <c r="J42" s="188"/>
+        <v>140</v>
+      </c>
+      <c r="C42" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="151"/>
     </row>
     <row r="43" spans="1:12" s="57" customFormat="1">
-      <c r="A43" s="141"/>
-      <c r="B43" s="158"/>
-      <c r="C43" s="158"/>
-      <c r="D43" s="158"/>
-      <c r="E43" s="158"/>
-      <c r="F43" s="158"/>
-      <c r="G43" s="158"/>
-      <c r="H43" s="158"/>
-      <c r="I43" s="158"/>
-      <c r="J43" s="142"/>
+      <c r="A43" s="143"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="144"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="144"/>
+      <c r="G43" s="144"/>
+      <c r="H43" s="144"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="145"/>
     </row>
     <row r="44" spans="1:12" s="57" customFormat="1">
-      <c r="A44" s="165"/>
-      <c r="B44" s="211"/>
-      <c r="C44" s="211"/>
-      <c r="D44" s="211"/>
-      <c r="E44" s="211"/>
-      <c r="F44" s="211"/>
-      <c r="G44" s="211"/>
-      <c r="H44" s="211"/>
-      <c r="I44" s="211"/>
-      <c r="J44" s="212"/>
+      <c r="A44" s="173"/>
+      <c r="B44" s="207"/>
+      <c r="C44" s="207"/>
+      <c r="D44" s="207"/>
+      <c r="E44" s="207"/>
+      <c r="F44" s="207"/>
+      <c r="G44" s="207"/>
+      <c r="H44" s="207"/>
+      <c r="I44" s="207"/>
+      <c r="J44" s="208"/>
     </row>
     <row r="45" spans="1:12" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="177" t="s">
+      <c r="A45" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="178"/>
-      <c r="C45" s="178"/>
-      <c r="D45" s="178"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="178"/>
-      <c r="G45" s="178"/>
-      <c r="H45" s="178"/>
-      <c r="I45" s="178"/>
-      <c r="J45" s="179"/>
+      <c r="B45" s="185"/>
+      <c r="C45" s="185"/>
+      <c r="D45" s="185"/>
+      <c r="E45" s="185"/>
+      <c r="F45" s="185"/>
+      <c r="G45" s="185"/>
+      <c r="H45" s="185"/>
+      <c r="I45" s="185"/>
+      <c r="J45" s="186"/>
     </row>
     <row r="46" spans="1:12" s="83" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="61" t="s">
@@ -10503,14 +10536,14 @@
       <c r="D46" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="200" t="s">
+      <c r="E46" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="201"/>
-      <c r="G46" s="201"/>
-      <c r="H46" s="201"/>
-      <c r="I46" s="201"/>
-      <c r="J46" s="201"/>
+      <c r="F46" s="142"/>
+      <c r="G46" s="142"/>
+      <c r="H46" s="142"/>
+      <c r="I46" s="142"/>
+      <c r="J46" s="142"/>
       <c r="K46" s="57"/>
       <c r="L46" s="57"/>
     </row>
@@ -10519,106 +10552,106 @@
         <v>1</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C47" s="65"/>
       <c r="D47" s="66"/>
-      <c r="E47" s="151" t="s">
-        <v>153</v>
-      </c>
-      <c r="F47" s="120"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="120"/>
-      <c r="J47" s="120"/>
+      <c r="E47" s="195" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" s="129"/>
+      <c r="G47" s="129"/>
+      <c r="H47" s="129"/>
+      <c r="I47" s="129"/>
+      <c r="J47" s="129"/>
     </row>
     <row r="48" spans="1:12" s="57" customFormat="1">
-      <c r="A48" s="162" t="s">
-        <v>185</v>
-      </c>
-      <c r="B48" s="163"/>
-      <c r="C48" s="163"/>
-      <c r="D48" s="163"/>
-      <c r="E48" s="163"/>
-      <c r="F48" s="163"/>
-      <c r="G48" s="163"/>
-      <c r="H48" s="163"/>
-      <c r="I48" s="163"/>
-      <c r="J48" s="164"/>
+      <c r="A48" s="170" t="s">
+        <v>184</v>
+      </c>
+      <c r="B48" s="171"/>
+      <c r="C48" s="171"/>
+      <c r="D48" s="171"/>
+      <c r="E48" s="171"/>
+      <c r="F48" s="171"/>
+      <c r="G48" s="171"/>
+      <c r="H48" s="171"/>
+      <c r="I48" s="171"/>
+      <c r="J48" s="172"/>
     </row>
     <row r="49" spans="1:12" s="59" customFormat="1" ht="77.25" customHeight="1">
       <c r="A49" s="74">
         <v>1</v>
       </c>
       <c r="B49" s="91" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="94" t="s">
         <v>179</v>
       </c>
-      <c r="C49" s="94" t="s">
-        <v>180</v>
-      </c>
       <c r="D49" s="93"/>
-      <c r="E49" s="155" t="s">
-        <v>189</v>
-      </c>
-      <c r="F49" s="156"/>
-      <c r="G49" s="156"/>
-      <c r="H49" s="156"/>
-      <c r="I49" s="156"/>
-      <c r="J49" s="157"/>
+      <c r="E49" s="199" t="s">
+        <v>188</v>
+      </c>
+      <c r="F49" s="200"/>
+      <c r="G49" s="200"/>
+      <c r="H49" s="200"/>
+      <c r="I49" s="200"/>
+      <c r="J49" s="201"/>
     </row>
     <row r="50" spans="1:12" s="59" customFormat="1" ht="50.25" customHeight="1">
       <c r="A50" s="71">
         <v>2</v>
       </c>
       <c r="B50" s="72" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C50" s="94" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D50" s="93"/>
-      <c r="E50" s="155" t="s">
-        <v>261</v>
-      </c>
-      <c r="F50" s="156"/>
-      <c r="G50" s="156"/>
-      <c r="H50" s="156"/>
-      <c r="I50" s="156"/>
-      <c r="J50" s="157"/>
+      <c r="E50" s="199" t="s">
+        <v>259</v>
+      </c>
+      <c r="F50" s="200"/>
+      <c r="G50" s="200"/>
+      <c r="H50" s="200"/>
+      <c r="I50" s="200"/>
+      <c r="J50" s="201"/>
     </row>
     <row r="51" spans="1:12" s="57" customFormat="1">
       <c r="A51" s="74">
         <v>3</v>
       </c>
       <c r="B51" s="91" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="94" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" s="92"/>
+      <c r="E51" s="167" t="s">
+        <v>183</v>
+      </c>
+      <c r="F51" s="120"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="121"/>
+    </row>
+    <row r="52" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="170" t="s">
         <v>182</v>
       </c>
-      <c r="C51" s="94" t="s">
-        <v>180</v>
-      </c>
-      <c r="D51" s="92"/>
-      <c r="E51" s="138" t="s">
-        <v>184</v>
-      </c>
-      <c r="F51" s="112"/>
-      <c r="G51" s="112"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="112"/>
-      <c r="J51" s="113"/>
-    </row>
-    <row r="52" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="162" t="s">
-        <v>183</v>
-      </c>
-      <c r="B52" s="163"/>
-      <c r="C52" s="163"/>
-      <c r="D52" s="163"/>
-      <c r="E52" s="163"/>
-      <c r="F52" s="163"/>
-      <c r="G52" s="163"/>
-      <c r="H52" s="163"/>
-      <c r="I52" s="163"/>
-      <c r="J52" s="164"/>
+      <c r="B52" s="171"/>
+      <c r="C52" s="171"/>
+      <c r="D52" s="171"/>
+      <c r="E52" s="171"/>
+      <c r="F52" s="171"/>
+      <c r="G52" s="171"/>
+      <c r="H52" s="171"/>
+      <c r="I52" s="171"/>
+      <c r="J52" s="172"/>
       <c r="K52" s="57"/>
       <c r="L52" s="57"/>
     </row>
@@ -10627,152 +10660,152 @@
         <v>1</v>
       </c>
       <c r="B53" s="68" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C53" s="69" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="70"/>
-      <c r="E53" s="151" t="s">
-        <v>260</v>
-      </c>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="120"/>
-      <c r="J53" s="120"/>
+      <c r="E53" s="195" t="s">
+        <v>258</v>
+      </c>
+      <c r="F53" s="129"/>
+      <c r="G53" s="129"/>
+      <c r="H53" s="129"/>
+      <c r="I53" s="129"/>
+      <c r="J53" s="129"/>
     </row>
     <row r="54" spans="1:12" s="57" customFormat="1" ht="107.25" customHeight="1">
       <c r="A54" s="71">
         <v>2</v>
       </c>
       <c r="B54" s="72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C54" s="69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D54" s="73"/>
-      <c r="E54" s="155" t="s">
-        <v>264</v>
-      </c>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
-      <c r="H54" s="156"/>
-      <c r="I54" s="156"/>
-      <c r="J54" s="157"/>
+      <c r="E54" s="199" t="s">
+        <v>262</v>
+      </c>
+      <c r="F54" s="200"/>
+      <c r="G54" s="200"/>
+      <c r="H54" s="200"/>
+      <c r="I54" s="200"/>
+      <c r="J54" s="201"/>
     </row>
     <row r="55" spans="1:12" s="57" customFormat="1" ht="54.75" customHeight="1">
       <c r="A55" s="74">
         <v>3</v>
       </c>
       <c r="B55" s="68" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C55" s="69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D55" s="75"/>
-      <c r="E55" s="138" t="s">
-        <v>263</v>
-      </c>
-      <c r="F55" s="112"/>
-      <c r="G55" s="112"/>
-      <c r="H55" s="112"/>
-      <c r="I55" s="112"/>
-      <c r="J55" s="113"/>
+      <c r="E55" s="167" t="s">
+        <v>261</v>
+      </c>
+      <c r="F55" s="120"/>
+      <c r="G55" s="120"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="120"/>
+      <c r="J55" s="121"/>
     </row>
     <row r="56" spans="1:12" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A56" s="148" t="s">
+      <c r="A56" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="149"/>
-      <c r="C56" s="149"/>
-      <c r="D56" s="149"/>
-      <c r="E56" s="149"/>
-      <c r="F56" s="149"/>
-      <c r="G56" s="149"/>
-      <c r="H56" s="149"/>
-      <c r="I56" s="149"/>
-      <c r="J56" s="150"/>
+      <c r="B56" s="193"/>
+      <c r="C56" s="193"/>
+      <c r="D56" s="193"/>
+      <c r="E56" s="193"/>
+      <c r="F56" s="193"/>
+      <c r="G56" s="193"/>
+      <c r="H56" s="193"/>
+      <c r="I56" s="193"/>
+      <c r="J56" s="194"/>
     </row>
     <row r="57" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="146" t="s">
+      <c r="B57" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="147"/>
-      <c r="D57" s="138" t="s">
+      <c r="C57" s="191"/>
+      <c r="D57" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="112"/>
-      <c r="F57" s="112"/>
-      <c r="G57" s="112"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="112"/>
-      <c r="J57" s="113"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="120"/>
+      <c r="G57" s="120"/>
+      <c r="H57" s="120"/>
+      <c r="I57" s="120"/>
+      <c r="J57" s="121"/>
     </row>
     <row r="58" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="143"/>
-      <c r="B58" s="213"/>
-      <c r="C58" s="213"/>
-      <c r="D58" s="213"/>
-      <c r="E58" s="213"/>
-      <c r="F58" s="213"/>
-      <c r="G58" s="213"/>
-      <c r="H58" s="213"/>
-      <c r="I58" s="213"/>
-      <c r="J58" s="214"/>
+      <c r="A58" s="187"/>
+      <c r="B58" s="205"/>
+      <c r="C58" s="205"/>
+      <c r="D58" s="205"/>
+      <c r="E58" s="205"/>
+      <c r="F58" s="205"/>
+      <c r="G58" s="205"/>
+      <c r="H58" s="205"/>
+      <c r="I58" s="205"/>
+      <c r="J58" s="206"/>
     </row>
     <row r="59" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="74"/>
-      <c r="B59" s="141"/>
-      <c r="C59" s="142"/>
-      <c r="D59" s="138"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="112"/>
-      <c r="H59" s="112"/>
-      <c r="I59" s="112"/>
-      <c r="J59" s="113"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="167"/>
+      <c r="E59" s="120"/>
+      <c r="F59" s="120"/>
+      <c r="G59" s="120"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="120"/>
+      <c r="J59" s="121"/>
     </row>
     <row r="60" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="74"/>
-      <c r="B60" s="141"/>
-      <c r="C60" s="142"/>
-      <c r="D60" s="138"/>
-      <c r="E60" s="112"/>
-      <c r="F60" s="112"/>
-      <c r="G60" s="112"/>
-      <c r="H60" s="112"/>
-      <c r="I60" s="112"/>
-      <c r="J60" s="113"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="167"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="120"/>
+      <c r="G60" s="120"/>
+      <c r="H60" s="120"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="121"/>
     </row>
     <row r="61" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="143"/>
-      <c r="B61" s="213"/>
-      <c r="C61" s="213"/>
-      <c r="D61" s="213"/>
-      <c r="E61" s="213"/>
-      <c r="F61" s="213"/>
-      <c r="G61" s="213"/>
-      <c r="H61" s="213"/>
-      <c r="I61" s="213"/>
-      <c r="J61" s="214"/>
+      <c r="A61" s="187"/>
+      <c r="B61" s="205"/>
+      <c r="C61" s="205"/>
+      <c r="D61" s="205"/>
+      <c r="E61" s="205"/>
+      <c r="F61" s="205"/>
+      <c r="G61" s="205"/>
+      <c r="H61" s="205"/>
+      <c r="I61" s="205"/>
+      <c r="J61" s="206"/>
     </row>
     <row r="62" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="74"/>
-      <c r="B62" s="141"/>
-      <c r="C62" s="142"/>
-      <c r="D62" s="138"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="112"/>
-      <c r="G62" s="112"/>
-      <c r="H62" s="112"/>
-      <c r="I62" s="112"/>
-      <c r="J62" s="113"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="167"/>
+      <c r="E62" s="120"/>
+      <c r="F62" s="120"/>
+      <c r="G62" s="120"/>
+      <c r="H62" s="120"/>
+      <c r="I62" s="120"/>
+      <c r="J62" s="121"/>
     </row>
     <row r="63" spans="1:12" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A63" s="78" t="s">
@@ -10795,14 +10828,14 @@
       <c r="B64" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="141"/>
-      <c r="D64" s="112"/>
-      <c r="E64" s="112"/>
-      <c r="F64" s="112"/>
-      <c r="G64" s="112"/>
-      <c r="H64" s="112"/>
-      <c r="I64" s="112"/>
-      <c r="J64" s="113"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="120"/>
+      <c r="E64" s="120"/>
+      <c r="F64" s="120"/>
+      <c r="G64" s="120"/>
+      <c r="H64" s="120"/>
+      <c r="I64" s="120"/>
+      <c r="J64" s="121"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="74">
@@ -10811,17 +10844,60 @@
       <c r="B65" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="159"/>
-      <c r="D65" s="159"/>
-      <c r="E65" s="159"/>
-      <c r="F65" s="159"/>
-      <c r="G65" s="159"/>
-      <c r="H65" s="159"/>
-      <c r="I65" s="159"/>
-      <c r="J65" s="159"/>
+      <c r="C65" s="164"/>
+      <c r="D65" s="164"/>
+      <c r="E65" s="164"/>
+      <c r="F65" s="164"/>
+      <c r="G65" s="164"/>
+      <c r="H65" s="164"/>
+      <c r="I65" s="164"/>
+      <c r="J65" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C32:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="D62:J62"/>
@@ -10838,49 +10914,6 @@
     <mergeCell ref="A56:J56"/>
     <mergeCell ref="E47:J47"/>
     <mergeCell ref="A52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C32:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10933,7 +10966,7 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="160" t="s">
+      <c r="K1" s="165" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="40"/>
@@ -10960,7 +10993,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="161"/>
+      <c r="K2" s="166"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -10978,7 +11011,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="161"/>
+      <c r="K3" s="166"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -11043,19 +11076,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="D7" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="43" t="s">
         <v>214</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>216</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>19</v>
@@ -11064,10 +11097,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -11101,7 +11134,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="202" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B10" s="215"/>
       <c r="C10" s="215"/>
@@ -11115,19 +11148,19 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="D11" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="43" t="s">
         <v>214</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>216</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>19</v>
@@ -11136,10 +11169,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -11150,29 +11183,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="50" t="s">
-        <v>166</v>
-      </c>
       <c r="D12" s="46" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F12" s="107" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G12" s="106" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H12" s="50"/>
       <c r="I12" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J12" s="96" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -11180,29 +11213,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="50" t="s">
-        <v>168</v>
-      </c>
       <c r="D13" s="46" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E13" s="104" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F13" s="108" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G13" s="108" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H13" s="50"/>
       <c r="I13" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J13" s="96" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -11210,29 +11243,29 @@
         <v>3</v>
       </c>
       <c r="B14" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="50" t="s">
-        <v>160</v>
-      </c>
       <c r="D14" s="46" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E14" s="104" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F14" s="107" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G14" s="108" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J14" s="96" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -11240,29 +11273,29 @@
         <v>4</v>
       </c>
       <c r="B15" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="50" t="s">
-        <v>163</v>
-      </c>
       <c r="D15" s="46" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E15" s="104" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" s="107" t="s">
+        <v>219</v>
+      </c>
+      <c r="G15" s="106" t="s">
         <v>220</v>
-      </c>
-      <c r="F15" s="107" t="s">
-        <v>221</v>
-      </c>
-      <c r="G15" s="106" t="s">
-        <v>222</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J15" s="96" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -11270,31 +11303,31 @@
         <v>5</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="D16" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>170</v>
-      </c>
       <c r="F16" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H16" s="44">
         <v>0</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J16" s="101" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11311,7 +11344,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="202" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B18" s="203"/>
       <c r="C18" s="203"/>
@@ -11325,19 +11358,19 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="D19" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="43" t="s">
         <v>214</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>216</v>
       </c>
       <c r="F19" s="43" t="s">
         <v>19</v>
@@ -11346,10 +11379,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I19" s="43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J19" s="43" t="s">
         <v>0</v>
@@ -11360,29 +11393,29 @@
         <v>3</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E20" s="104" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F20" s="107" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G20" s="106" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J20" s="96" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -11390,29 +11423,29 @@
         <v>4</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E21" s="104" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" s="107" t="s">
+        <v>219</v>
+      </c>
+      <c r="G21" s="106" t="s">
         <v>220</v>
-      </c>
-      <c r="F21" s="107" t="s">
-        <v>221</v>
-      </c>
-      <c r="G21" s="106" t="s">
-        <v>222</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J21" s="96" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -11420,29 +11453,29 @@
         <v>1</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E22" s="104" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F22" s="107" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G22" s="108" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H22" s="50"/>
       <c r="I22" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J22" s="96" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -11450,29 +11483,29 @@
         <v>2</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E23" s="104" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F23" s="108" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G23" s="108" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H23" s="50"/>
       <c r="I23" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J23" s="96" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
+++ b/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">畫面_APF0102MA1!$A$1:$J$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">畫面_APF0102MA1!$A$1:$J$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0102MM1!$A$1:$J$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">欄位_APF0102MA1!$A$1:$J$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0102MM1!$A$1:$J$14</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="266">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -206,10 +206,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Button說明</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -598,20 +594,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>查詢角色
-1. 使用者輸入查詢條件篩選欲選取的角色。
-2. 系統依查詢條件顯示資料於grid。
-3. 使用者選取特定角色進行資料設定。
-查詢帳號
-1. 使用者於特定角色下輸入查詢條件篩選欲選取的帳號。
-2. 系統依查詢條件顯示資料於grid。
-維護Mapping設定
-1. 使用者選取適當帳號。
-2. 加入角色或移除後點選儲存按鈕。
-3. 系統依設定資訊儲存並回應設定成功訊息。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>其他</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -871,10 +853,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>查詢</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>_CLICK</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -908,10 +886,6 @@
   </si>
   <si>
     <t>導頁方式開啟APF0102MA1，被選取角色內所有的帳號資訊顯示在開啟的APF0102MA_Grid 右半部(角色帳號區)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>查詢按鈕提供開窗選取功能，例如:員工編號可自行輸入(模糊查詢)或點選查詢按鈕，跳出員工查詢視窗，於員工查詢視窗輸入條件(員工編號或員工姓名模糊查詢)後按下確認按鈕，下方顯示查詢結果，雙擊一筆員工查詢結果，帶回員工編號與員工姓名(圖二)。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1076,18 +1050,18 @@
   </si>
   <si>
     <t>org_id</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(10)</t>
   </si>
   <si>
     <t>position_id</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(5)</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>string 10</t>
@@ -1127,11 +1101,11 @@
   </si>
   <si>
     <t>varchar2(10)</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(10)</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>string 10</t>
@@ -1253,6 +1227,39 @@
   </si>
   <si>
     <t>0:預設角色 1:職稱角色 2:自訂角色</t>
+  </si>
+  <si>
+    <t>單位查詢</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>職稱查詢</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>員工查詢</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.查詢「單位代號/單位名稱」提供開窗選取功能，開窗後系統連結各模組的資料庫，依可查詢範圍權限，顯示可查詢的單位資訊。
+1.1使用者輸入查詢條件，可輸入單位代號或單位名稱，並以模糊查詢。
+1.2系統依查詢條件顯示資訊於下方列表。
+1.3使用者選取特定單位，雙擊此筆資料，系統將選取的單位代號及單位名稱帶回原視窗中查詢條件下。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1查詢「職稱代號/職稱名稱」提供開窗選取功能，開窗後系統連結CMD模組資料庫，顯示所有權限職稱資訊。
+1.1使用者輸入查詢條件，可輸入職稱代號或職稱名稱，並以模糊查詢。
+1.2系統依查詢條件顯示資訊於下方列表。
+1.3使用者選取特定權限職稱，雙擊此筆資料，系統將選取的職稱代號及職稱名稱帶回原視窗中查詢條件下。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1查詢「員工編號/員工姓名」提供開窗選取功能，開窗後系統連結CMD模組資料庫，依可查詢範圍權限，顯示可查詢的人員資訊。
+1.1使用者輸入查詢條件，可輸入員工編號或員工姓名，並以模糊查詢。
+1.2系統依查詢條件顯示資訊於下方列表。
+1.3使用者選取特定人員，雙擊此筆資料，系統將選取的員工編號及員工姓名帶回原視窗中查詢條件下。</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1262,7 +1269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1415,11 +1422,6 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1788,11 +1790,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1943,7 +1945,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2077,8 +2079,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2086,6 +2088,15 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2137,21 +2148,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2215,13 +2214,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2242,10 +2241,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2269,7 +2268,7 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2278,13 +2277,13 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2320,13 +2319,13 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2347,7 +2346,7 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2380,10 +2379,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2948,7 +2947,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9940636" cy="493568"/>
+          <a:ext cx="9953625" cy="495300"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -3428,13 +3427,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>666750</xdr:colOff>
-          <xdr:row>83</xdr:row>
+          <xdr:row>81</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3480,14 +3479,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>84</xdr:row>
-          <xdr:rowOff>266702</xdr:rowOff>
+          <xdr:row>83</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>665018</xdr:colOff>
-          <xdr:row>108</xdr:row>
-          <xdr:rowOff>38101</xdr:rowOff>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>106</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7265,133 +7264,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="109" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
+      <c r="A1" s="112" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>44</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>49</v>
-      </c>
       <c r="D3" s="102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="110" t="s">
-        <v>126</v>
+      <c r="A5" s="113" t="s">
+        <v>124</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="102" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="110"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="35" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="110" t="s">
-        <v>127</v>
+      <c r="A7" s="113" t="s">
+        <v>125</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
-      <c r="A8" s="111"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="38" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="103" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A9" s="110" t="s">
-        <v>128</v>
+      <c r="A9" s="113" t="s">
+        <v>126</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A10" s="110"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A11" s="110"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" hidden="1" customHeight="1" thickBot="1">
       <c r="A12" s="37"/>
       <c r="B12" s="35" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="39"/>
@@ -7556,10 +7555,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>41</v>
       </c>
       <c r="D6" s="22">
         <v>41563</v>
@@ -7690,10 +7689,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M91" sqref="M91"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7706,17 +7705,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="112" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="M1" s="115" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="113"/>
+      <c r="M2" s="116"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="113"/>
+      <c r="M3" s="116"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -7733,245 +7732,213 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="134"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="133"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="135" t="s">
-        <v>247</v>
-      </c>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="137"/>
+      <c r="A6" s="134" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="136"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="116" t="s">
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="118"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="121"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="132" t="s">
-        <v>117</v>
+      <c r="A8" s="131" t="s">
+        <v>116</v>
       </c>
       <c r="B8" s="129"/>
       <c r="C8" s="129"/>
       <c r="D8" s="129"/>
       <c r="E8" s="129"/>
-      <c r="F8" s="120" t="s">
+      <c r="F8" s="123" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="124"/>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="121"/>
+    </row>
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="131" t="s">
         <v>118</v>
-      </c>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="121"/>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="114" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="118"/>
-    </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="132" t="s">
-        <v>119</v>
       </c>
       <c r="B10" s="129"/>
       <c r="C10" s="129"/>
       <c r="D10" s="129"/>
       <c r="E10" s="129"/>
-      <c r="F10" s="120" t="s">
+      <c r="F10" s="123" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="124"/>
+    </row>
+    <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="121"/>
+    </row>
+    <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
+      <c r="A12" s="131" t="s">
         <v>120</v>
-      </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="121"/>
-    </row>
-    <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="124" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="131" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="118"/>
-    </row>
-    <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A12" s="132" t="s">
-        <v>121</v>
       </c>
       <c r="B12" s="129"/>
       <c r="C12" s="129"/>
       <c r="D12" s="129"/>
       <c r="E12" s="129"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="121"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="124"/>
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="131" t="s">
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="118"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="121"/>
     </row>
     <row r="14" spans="1:13" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A14" s="132" t="s">
-        <v>122</v>
+      <c r="A14" s="131" t="s">
+        <v>121</v>
       </c>
       <c r="B14" s="129"/>
       <c r="C14" s="129"/>
       <c r="D14" s="129"/>
       <c r="E14" s="129"/>
-      <c r="F14" s="120" t="s">
+      <c r="F14" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="124"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5">
+      <c r="A15" s="122" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="124"/>
+    </row>
+    <row r="83" spans="1:12" ht="21" customHeight="1">
+      <c r="A83" s="122" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="121"/>
-    </row>
-    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="119" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="127"/>
-    </row>
-    <row r="16" spans="1:13" s="19" customFormat="1" ht="194.25" customHeight="1">
-      <c r="A16" s="128" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="130"/>
-    </row>
-    <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="119" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="121"/>
-    </row>
-    <row r="85" spans="1:12" ht="21" customHeight="1">
-      <c r="A85" s="119" t="s">
-        <v>125</v>
-      </c>
-      <c r="B85" s="122"/>
-      <c r="C85" s="122"/>
-      <c r="D85" s="122"/>
-      <c r="E85" s="122"/>
-      <c r="F85" s="122"/>
-      <c r="G85" s="122"/>
-      <c r="H85" s="122"/>
-      <c r="I85" s="122"/>
-      <c r="J85" s="122"/>
-      <c r="K85" s="122"/>
-      <c r="L85" s="123"/>
+      <c r="B83" s="125"/>
+      <c r="C83" s="125"/>
+      <c r="D83" s="125"/>
+      <c r="E83" s="125"/>
+      <c r="F83" s="125"/>
+      <c r="G83" s="125"/>
+      <c r="H83" s="125"/>
+      <c r="I83" s="125"/>
+      <c r="J83" s="125"/>
+      <c r="K83" s="125"/>
+      <c r="L83" s="126"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="21">
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A7:E7"/>
@@ -7982,11 +7949,9 @@
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A85:L85"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A83:L83"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -8015,13 +7980,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
                 <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>83</xdr:row>
+                <xdr:row>81</xdr:row>
                 <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
@@ -8040,13 +8005,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>83</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
                 <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>108</xdr:row>
+                <xdr:row>106</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
@@ -8070,15 +8035,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="112" t="s">
-        <v>246</v>
+      <c r="P1" s="115" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="113"/>
+      <c r="P2" s="116"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="113"/>
+      <c r="P3" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8128,7 +8093,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -8159,8 +8124,8 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="165" t="s">
-        <v>50</v>
+      <c r="K1" s="164" t="s">
+        <v>49</v>
       </c>
       <c r="L1" s="55"/>
       <c r="M1" s="55"/>
@@ -8180,7 +8145,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="166"/>
+      <c r="K2" s="165"/>
     </row>
     <row r="3" spans="1:17" s="56" customFormat="1">
       <c r="A3" s="48"/>
@@ -8193,7 +8158,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="166"/>
+      <c r="K3" s="165"/>
     </row>
     <row r="4" spans="1:17" s="56" customFormat="1">
       <c r="A4" s="48"/>
@@ -8208,614 +8173,614 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="56" customFormat="1">
-      <c r="A5" s="176" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="A5" s="175" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="135"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="137"/>
+      <c r="A6" s="134"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="136"/>
     </row>
     <row r="7" spans="1:17" s="57" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="177"/>
-      <c r="B7" s="178"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="180"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="179"/>
       <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:17" s="57" customFormat="1">
-      <c r="A8" s="177"/>
-      <c r="B8" s="178"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="180"/>
+      <c r="A8" s="176"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="179"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:17" s="57" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="181"/>
-      <c r="B9" s="182"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="182"/>
-      <c r="J9" s="183"/>
+      <c r="A9" s="180"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="182"/>
     </row>
     <row r="10" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="121"/>
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="184" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
+      <c r="A11" s="183" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="124"/>
     </row>
     <row r="12" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="176" t="s">
+      <c r="A12" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="121"/>
     </row>
     <row r="13" spans="1:17" s="59" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="184" t="s">
+      <c r="A13" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="121"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="124"/>
     </row>
     <row r="14" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="176" t="s">
+      <c r="A14" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="121"/>
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="152" t="s">
-        <v>209</v>
-      </c>
-      <c r="B15" s="161"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="162"/>
+      <c r="A15" s="151" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="160"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="161"/>
     </row>
     <row r="16" spans="1:17" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="146" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="148"/>
+        <v>88</v>
+      </c>
+      <c r="C16" s="145" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
     </row>
     <row r="17" spans="1:10" s="57" customFormat="1" ht="55.5" customHeight="1">
       <c r="A17" s="60">
         <v>1</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" s="163" t="s">
-        <v>252</v>
-      </c>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="151"/>
+        <v>202</v>
+      </c>
+      <c r="C17" s="162" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="150"/>
     </row>
     <row r="18" spans="1:10" s="57" customFormat="1" ht="48.75" customHeight="1">
       <c r="A18" s="60">
         <v>2</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="C18" s="163" t="s">
-        <v>253</v>
-      </c>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="151"/>
+        <v>203</v>
+      </c>
+      <c r="C18" s="162" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="150"/>
     </row>
     <row r="19" spans="1:10" s="57" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="60">
         <v>3</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" s="163" t="s">
-        <v>254</v>
-      </c>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="151"/>
+        <v>204</v>
+      </c>
+      <c r="C19" s="162" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="149"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="150"/>
     </row>
     <row r="20" spans="1:10" s="57" customFormat="1">
-      <c r="A20" s="143"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="145"/>
+      <c r="A20" s="142"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="144"/>
     </row>
     <row r="21" spans="1:10" s="57" customFormat="1">
-      <c r="A21" s="152" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="161"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="162"/>
+      <c r="A21" s="151" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="160"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="161"/>
     </row>
     <row r="22" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="146" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="148"/>
+        <v>88</v>
+      </c>
+      <c r="C22" s="145" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="146"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="147"/>
     </row>
     <row r="23" spans="1:10" s="57" customFormat="1">
       <c r="A23" s="60">
         <v>1</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="149" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="150"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="151"/>
+        <v>87</v>
+      </c>
+      <c r="C23" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="149"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="150"/>
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1">
       <c r="A24" s="60">
         <v>2</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="149" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="150"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="151"/>
+        <v>89</v>
+      </c>
+      <c r="C24" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="150"/>
     </row>
     <row r="25" spans="1:10" s="57" customFormat="1">
       <c r="A25" s="60">
         <v>3</v>
       </c>
       <c r="B25" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="148" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="149" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="151"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="150"/>
     </row>
     <row r="26" spans="1:10" s="57" customFormat="1">
       <c r="A26" s="60">
         <v>4</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="149" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="150"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="151"/>
+        <v>90</v>
+      </c>
+      <c r="C26" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="150"/>
     </row>
     <row r="27" spans="1:10" s="57" customFormat="1">
-      <c r="A27" s="173"/>
-      <c r="B27" s="174"/>
-      <c r="C27" s="174"/>
-      <c r="D27" s="174"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="175"/>
+      <c r="A27" s="172"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="173"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="173"/>
+      <c r="J27" s="174"/>
     </row>
     <row r="28" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="138" t="s">
+      <c r="A28" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="185"/>
-      <c r="C28" s="185"/>
-      <c r="D28" s="185"/>
-      <c r="E28" s="185"/>
-      <c r="F28" s="185"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="186"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="184"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="185"/>
     </row>
     <row r="29" spans="1:10" s="57" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="152" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="161"/>
-      <c r="C29" s="161"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="162"/>
+      <c r="A29" s="151" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="160"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="161"/>
     </row>
     <row r="30" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="146" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="148"/>
+        <v>88</v>
+      </c>
+      <c r="C30" s="145" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="147"/>
     </row>
     <row r="31" spans="1:10" s="57" customFormat="1">
       <c r="A31" s="60">
         <v>1</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="155" t="s">
-        <v>232</v>
-      </c>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="157"/>
+        <v>190</v>
+      </c>
+      <c r="C31" s="154" t="s">
+        <v>228</v>
+      </c>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="156"/>
     </row>
     <row r="32" spans="1:10" s="57" customFormat="1">
       <c r="A32" s="60">
         <v>2</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="C32" s="158"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="160"/>
+        <v>191</v>
+      </c>
+      <c r="C32" s="157"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="158"/>
+      <c r="J32" s="159"/>
     </row>
     <row r="33" spans="1:12" s="57" customFormat="1">
       <c r="A33" s="60">
         <v>3</v>
       </c>
       <c r="B33" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="148" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="149" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="151"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="150"/>
     </row>
     <row r="34" spans="1:12" s="57" customFormat="1">
-      <c r="A34" s="143"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="145"/>
+      <c r="A34" s="142"/>
+      <c r="B34" s="143"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="143"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="143"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="144"/>
     </row>
     <row r="35" spans="1:12" s="57" customFormat="1">
-      <c r="A35" s="152" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" s="153"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="154"/>
+      <c r="A35" s="151" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="152"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="153"/>
     </row>
     <row r="36" spans="1:12" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="146" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="148"/>
+        <v>88</v>
+      </c>
+      <c r="C36" s="145" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="146"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="147"/>
     </row>
     <row r="37" spans="1:12" s="57" customFormat="1">
       <c r="A37" s="60">
         <v>1</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="149" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="151"/>
+        <v>87</v>
+      </c>
+      <c r="C37" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="150"/>
     </row>
     <row r="38" spans="1:12" s="57" customFormat="1">
       <c r="A38" s="60">
         <v>2</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="149" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="151"/>
+        <v>89</v>
+      </c>
+      <c r="C38" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="150"/>
     </row>
     <row r="39" spans="1:12" s="57" customFormat="1">
       <c r="A39" s="60">
         <v>3</v>
       </c>
       <c r="B39" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="148" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="149" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="151"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="150"/>
     </row>
     <row r="40" spans="1:12" s="57" customFormat="1">
       <c r="A40" s="60">
         <v>4</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="149" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="151"/>
+        <v>90</v>
+      </c>
+      <c r="C40" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="150"/>
     </row>
     <row r="41" spans="1:12" s="57" customFormat="1">
-      <c r="A41" s="143"/>
-      <c r="B41" s="144"/>
-      <c r="C41" s="144"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="144"/>
-      <c r="J41" s="145"/>
+      <c r="A41" s="142"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
+      <c r="E41" s="143"/>
+      <c r="F41" s="143"/>
+      <c r="G41" s="143"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="143"/>
+      <c r="J41" s="144"/>
     </row>
     <row r="42" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="138" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="139"/>
-      <c r="C42" s="139"/>
-      <c r="D42" s="139"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="139"/>
-      <c r="J42" s="140"/>
+      <c r="A42" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="138"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="138"/>
+      <c r="F42" s="138"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="138"/>
+      <c r="I42" s="138"/>
+      <c r="J42" s="139"/>
     </row>
     <row r="43" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="61" t="s">
+      <c r="C43" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="D43" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="63" t="s">
+      <c r="E43" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="141" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" s="142"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="142"/>
+      <c r="F43" s="141"/>
+      <c r="G43" s="141"/>
+      <c r="H43" s="141"/>
+      <c r="I43" s="141"/>
+      <c r="J43" s="141"/>
       <c r="K43" s="57"/>
       <c r="L43" s="57"/>
     </row>
@@ -8824,12 +8789,12 @@
         <v>1</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C44" s="65"/>
       <c r="D44" s="66"/>
-      <c r="E44" s="195" t="s">
-        <v>132</v>
+      <c r="E44" s="194" t="s">
+        <v>130</v>
       </c>
       <c r="F44" s="129"/>
       <c r="G44" s="129"/>
@@ -8839,43 +8804,43 @@
     </row>
     <row r="45" spans="1:12" s="57" customFormat="1">
       <c r="A45" s="67"/>
-      <c r="B45" s="144"/>
-      <c r="C45" s="144"/>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144"/>
-      <c r="J45" s="145"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="143"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="143"/>
+      <c r="G45" s="143"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="143"/>
+      <c r="J45" s="144"/>
     </row>
     <row r="46" spans="1:12" s="57" customFormat="1">
-      <c r="A46" s="170" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="171"/>
-      <c r="C46" s="171"/>
-      <c r="D46" s="171"/>
-      <c r="E46" s="171"/>
-      <c r="F46" s="171"/>
-      <c r="G46" s="171"/>
-      <c r="H46" s="171"/>
-      <c r="I46" s="171"/>
-      <c r="J46" s="172"/>
+      <c r="A46" s="169" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="170"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
+      <c r="E46" s="170"/>
+      <c r="F46" s="170"/>
+      <c r="G46" s="170"/>
+      <c r="H46" s="170"/>
+      <c r="I46" s="170"/>
+      <c r="J46" s="171"/>
     </row>
     <row r="47" spans="1:12" s="57" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="60">
         <v>1</v>
       </c>
       <c r="B47" s="68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="70"/>
-      <c r="E47" s="195" t="s">
-        <v>133</v>
+      <c r="E47" s="194" t="s">
+        <v>131</v>
       </c>
       <c r="F47" s="129"/>
       <c r="G47" s="129"/>
@@ -8888,80 +8853,80 @@
         <v>2</v>
       </c>
       <c r="B48" s="72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="73"/>
-      <c r="E48" s="167" t="s">
-        <v>186</v>
-      </c>
-      <c r="F48" s="168"/>
-      <c r="G48" s="168"/>
-      <c r="H48" s="168"/>
-      <c r="I48" s="168"/>
-      <c r="J48" s="169"/>
+      <c r="E48" s="166" t="s">
+        <v>183</v>
+      </c>
+      <c r="F48" s="167"/>
+      <c r="G48" s="167"/>
+      <c r="H48" s="167"/>
+      <c r="I48" s="167"/>
+      <c r="J48" s="168"/>
     </row>
     <row r="49" spans="1:10" s="57" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="74">
         <v>3</v>
       </c>
       <c r="B49" s="68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="75"/>
-      <c r="E49" s="167" t="s">
-        <v>134</v>
-      </c>
-      <c r="F49" s="168"/>
-      <c r="G49" s="168"/>
-      <c r="H49" s="168"/>
-      <c r="I49" s="168"/>
-      <c r="J49" s="169"/>
+      <c r="E49" s="166" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" s="167"/>
+      <c r="G49" s="167"/>
+      <c r="H49" s="167"/>
+      <c r="I49" s="167"/>
+      <c r="J49" s="168"/>
     </row>
     <row r="50" spans="1:10" s="57" customFormat="1">
       <c r="A50" s="76"/>
-      <c r="B50" s="144"/>
-      <c r="C50" s="144"/>
-      <c r="D50" s="144"/>
-      <c r="E50" s="144"/>
-      <c r="F50" s="144"/>
-      <c r="G50" s="144"/>
-      <c r="H50" s="144"/>
-      <c r="I50" s="144"/>
-      <c r="J50" s="145"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="143"/>
+      <c r="E50" s="143"/>
+      <c r="F50" s="143"/>
+      <c r="G50" s="143"/>
+      <c r="H50" s="143"/>
+      <c r="I50" s="143"/>
+      <c r="J50" s="144"/>
     </row>
     <row r="51" spans="1:10" s="57" customFormat="1">
-      <c r="A51" s="196" t="s">
-        <v>130</v>
-      </c>
-      <c r="B51" s="197"/>
-      <c r="C51" s="197"/>
-      <c r="D51" s="197"/>
-      <c r="E51" s="197"/>
-      <c r="F51" s="197"/>
-      <c r="G51" s="197"/>
-      <c r="H51" s="197"/>
-      <c r="I51" s="197"/>
-      <c r="J51" s="198"/>
+      <c r="A51" s="195" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="196"/>
+      <c r="C51" s="196"/>
+      <c r="D51" s="196"/>
+      <c r="E51" s="196"/>
+      <c r="F51" s="196"/>
+      <c r="G51" s="196"/>
+      <c r="H51" s="196"/>
+      <c r="I51" s="196"/>
+      <c r="J51" s="197"/>
     </row>
     <row r="52" spans="1:10" s="57" customFormat="1" hidden="1">
       <c r="A52" s="60">
         <v>1</v>
       </c>
       <c r="B52" s="68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="70"/>
-      <c r="E52" s="195" t="s">
-        <v>101</v>
+      <c r="E52" s="194" t="s">
+        <v>100</v>
       </c>
       <c r="F52" s="129"/>
       <c r="G52" s="129"/>
@@ -8974,184 +8939,184 @@
         <v>2</v>
       </c>
       <c r="B53" s="68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C53" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="73"/>
-      <c r="E53" s="199" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" s="200"/>
-      <c r="G53" s="200"/>
-      <c r="H53" s="200"/>
-      <c r="I53" s="200"/>
-      <c r="J53" s="201"/>
+      <c r="E53" s="198" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53" s="199"/>
+      <c r="G53" s="199"/>
+      <c r="H53" s="199"/>
+      <c r="I53" s="199"/>
+      <c r="J53" s="200"/>
     </row>
     <row r="54" spans="1:10" s="57" customFormat="1" hidden="1">
       <c r="A54" s="60">
         <v>3</v>
       </c>
       <c r="B54" s="68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C54" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="73"/>
-      <c r="E54" s="199" t="s">
-        <v>103</v>
-      </c>
-      <c r="F54" s="200"/>
-      <c r="G54" s="200"/>
-      <c r="H54" s="200"/>
-      <c r="I54" s="200"/>
-      <c r="J54" s="201"/>
+      <c r="E54" s="198" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="199"/>
+      <c r="G54" s="199"/>
+      <c r="H54" s="199"/>
+      <c r="I54" s="199"/>
+      <c r="J54" s="200"/>
     </row>
     <row r="55" spans="1:10" s="57" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="60">
         <v>4</v>
       </c>
       <c r="B55" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C55" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="73"/>
-      <c r="E55" s="199" t="s">
-        <v>78</v>
-      </c>
-      <c r="F55" s="200"/>
-      <c r="G55" s="200"/>
-      <c r="H55" s="200"/>
-      <c r="I55" s="200"/>
-      <c r="J55" s="201"/>
+      <c r="E55" s="198" t="s">
+        <v>77</v>
+      </c>
+      <c r="F55" s="199"/>
+      <c r="G55" s="199"/>
+      <c r="H55" s="199"/>
+      <c r="I55" s="199"/>
+      <c r="J55" s="200"/>
     </row>
     <row r="56" spans="1:10" s="57" customFormat="1" ht="33.75" customHeight="1">
       <c r="A56" s="60">
         <v>1</v>
       </c>
       <c r="B56" s="85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C56" s="87" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="86"/>
-      <c r="E56" s="167" t="s">
-        <v>187</v>
-      </c>
-      <c r="F56" s="120"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
-      <c r="J56" s="121"/>
+      <c r="E56" s="166" t="s">
+        <v>184</v>
+      </c>
+      <c r="F56" s="123"/>
+      <c r="G56" s="123"/>
+      <c r="H56" s="123"/>
+      <c r="I56" s="123"/>
+      <c r="J56" s="124"/>
     </row>
     <row r="57" spans="1:10" s="57" customFormat="1">
       <c r="A57" s="77"/>
-      <c r="B57" s="144"/>
-      <c r="C57" s="144"/>
-      <c r="D57" s="144"/>
-      <c r="E57" s="144"/>
-      <c r="F57" s="144"/>
-      <c r="G57" s="144"/>
-      <c r="H57" s="144"/>
-      <c r="I57" s="144"/>
-      <c r="J57" s="145"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="143"/>
+      <c r="F57" s="143"/>
+      <c r="G57" s="143"/>
+      <c r="H57" s="143"/>
+      <c r="I57" s="143"/>
+      <c r="J57" s="144"/>
     </row>
     <row r="58" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="192" t="s">
+      <c r="A58" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="193"/>
-      <c r="C58" s="193"/>
-      <c r="D58" s="193"/>
-      <c r="E58" s="193"/>
-      <c r="F58" s="193"/>
-      <c r="G58" s="193"/>
-      <c r="H58" s="193"/>
-      <c r="I58" s="193"/>
-      <c r="J58" s="194"/>
+      <c r="B58" s="192"/>
+      <c r="C58" s="192"/>
+      <c r="D58" s="192"/>
+      <c r="E58" s="192"/>
+      <c r="F58" s="192"/>
+      <c r="G58" s="192"/>
+      <c r="H58" s="192"/>
+      <c r="I58" s="192"/>
+      <c r="J58" s="193"/>
     </row>
     <row r="59" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="190" t="s">
+      <c r="B59" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="191"/>
-      <c r="D59" s="167" t="s">
+      <c r="C59" s="190"/>
+      <c r="D59" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="120"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="120"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="120"/>
-      <c r="J59" s="121"/>
+      <c r="E59" s="123"/>
+      <c r="F59" s="123"/>
+      <c r="G59" s="123"/>
+      <c r="H59" s="123"/>
+      <c r="I59" s="123"/>
+      <c r="J59" s="124"/>
     </row>
     <row r="60" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="187"/>
-      <c r="B60" s="188"/>
-      <c r="C60" s="188"/>
-      <c r="D60" s="188"/>
-      <c r="E60" s="188"/>
-      <c r="F60" s="188"/>
-      <c r="G60" s="188"/>
-      <c r="H60" s="188"/>
-      <c r="I60" s="188"/>
-      <c r="J60" s="189"/>
+      <c r="A60" s="186"/>
+      <c r="B60" s="187"/>
+      <c r="C60" s="187"/>
+      <c r="D60" s="187"/>
+      <c r="E60" s="187"/>
+      <c r="F60" s="187"/>
+      <c r="G60" s="187"/>
+      <c r="H60" s="187"/>
+      <c r="I60" s="187"/>
+      <c r="J60" s="188"/>
     </row>
     <row r="61" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="74"/>
-      <c r="B61" s="143"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="167"/>
-      <c r="E61" s="168"/>
-      <c r="F61" s="168"/>
-      <c r="G61" s="168"/>
-      <c r="H61" s="168"/>
-      <c r="I61" s="168"/>
-      <c r="J61" s="169"/>
+      <c r="B61" s="142"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="166"/>
+      <c r="E61" s="167"/>
+      <c r="F61" s="167"/>
+      <c r="G61" s="167"/>
+      <c r="H61" s="167"/>
+      <c r="I61" s="167"/>
+      <c r="J61" s="168"/>
     </row>
     <row r="62" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="74"/>
-      <c r="B62" s="143"/>
-      <c r="C62" s="145"/>
-      <c r="D62" s="167"/>
-      <c r="E62" s="168"/>
-      <c r="F62" s="168"/>
-      <c r="G62" s="168"/>
-      <c r="H62" s="168"/>
-      <c r="I62" s="168"/>
-      <c r="J62" s="169"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="166"/>
+      <c r="E62" s="167"/>
+      <c r="F62" s="167"/>
+      <c r="G62" s="167"/>
+      <c r="H62" s="167"/>
+      <c r="I62" s="167"/>
+      <c r="J62" s="168"/>
     </row>
     <row r="63" spans="1:10" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="187"/>
-      <c r="B63" s="188"/>
-      <c r="C63" s="188"/>
-      <c r="D63" s="188"/>
-      <c r="E63" s="188"/>
-      <c r="F63" s="188"/>
-      <c r="G63" s="188"/>
-      <c r="H63" s="188"/>
-      <c r="I63" s="188"/>
-      <c r="J63" s="189"/>
+      <c r="A63" s="186"/>
+      <c r="B63" s="187"/>
+      <c r="C63" s="187"/>
+      <c r="D63" s="187"/>
+      <c r="E63" s="187"/>
+      <c r="F63" s="187"/>
+      <c r="G63" s="187"/>
+      <c r="H63" s="187"/>
+      <c r="I63" s="187"/>
+      <c r="J63" s="188"/>
     </row>
     <row r="64" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="74"/>
-      <c r="B64" s="143"/>
-      <c r="C64" s="145"/>
-      <c r="D64" s="167"/>
-      <c r="E64" s="168"/>
-      <c r="F64" s="168"/>
-      <c r="G64" s="168"/>
-      <c r="H64" s="168"/>
-      <c r="I64" s="168"/>
-      <c r="J64" s="169"/>
+      <c r="B64" s="142"/>
+      <c r="C64" s="144"/>
+      <c r="D64" s="166"/>
+      <c r="E64" s="167"/>
+      <c r="F64" s="167"/>
+      <c r="G64" s="167"/>
+      <c r="H64" s="167"/>
+      <c r="I64" s="167"/>
+      <c r="J64" s="168"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="78" t="s">
@@ -9174,14 +9139,14 @@
       <c r="B66" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="143"/>
-      <c r="D66" s="120"/>
-      <c r="E66" s="120"/>
-      <c r="F66" s="120"/>
-      <c r="G66" s="120"/>
-      <c r="H66" s="120"/>
-      <c r="I66" s="120"/>
-      <c r="J66" s="121"/>
+      <c r="C66" s="142"/>
+      <c r="D66" s="123"/>
+      <c r="E66" s="123"/>
+      <c r="F66" s="123"/>
+      <c r="G66" s="123"/>
+      <c r="H66" s="123"/>
+      <c r="I66" s="123"/>
+      <c r="J66" s="124"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="74">
@@ -9190,14 +9155,14 @@
       <c r="B67" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="164"/>
-      <c r="D67" s="164"/>
-      <c r="E67" s="164"/>
-      <c r="F67" s="164"/>
-      <c r="G67" s="164"/>
-      <c r="H67" s="164"/>
-      <c r="I67" s="164"/>
-      <c r="J67" s="164"/>
+      <c r="C67" s="163"/>
+      <c r="D67" s="163"/>
+      <c r="E67" s="163"/>
+      <c r="F67" s="163"/>
+      <c r="G67" s="163"/>
+      <c r="H67" s="163"/>
+      <c r="I67" s="163"/>
+      <c r="J67" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="63">
@@ -9316,8 +9281,8 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="165" t="s">
-        <v>50</v>
+      <c r="K1" s="164" t="s">
+        <v>49</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -9343,7 +9308,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="166"/>
+      <c r="K2" s="165"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -9361,7 +9326,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="166"/>
+      <c r="K3" s="165"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -9405,18 +9370,18 @@
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="202" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="203"/>
-      <c r="C6" s="203"/>
-      <c r="D6" s="203"/>
-      <c r="E6" s="203"/>
-      <c r="F6" s="203"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="203"/>
-      <c r="I6" s="203"/>
-      <c r="J6" s="204"/>
+      <c r="A6" s="201" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="203"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -9426,16 +9391,16 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="43" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>20</v>
@@ -9447,10 +9412,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -9483,34 +9448,34 @@
       <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="202" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="203"/>
-      <c r="C10" s="203"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="203"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="204"/>
+      <c r="A10" s="201" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="202"/>
+      <c r="C10" s="202"/>
+      <c r="D10" s="202"/>
+      <c r="E10" s="202"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="203"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="43" t="s">
         <v>196</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>200</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>19</v>
@@ -9519,10 +9484,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -9533,26 +9498,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" s="49"/>
     </row>
@@ -9561,26 +9526,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J13" s="49"/>
     </row>
@@ -9589,60 +9554,60 @@
         <v>3</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="51">
         <v>2</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="202" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="203"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="203"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="203"/>
-      <c r="J16" s="204"/>
+      <c r="A16" s="201" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="202"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="202"/>
+      <c r="F16" s="202"/>
+      <c r="G16" s="202"/>
+      <c r="H16" s="202"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="203"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="43" t="s">
         <v>196</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>200</v>
       </c>
       <c r="F17" s="43" t="s">
         <v>19</v>
@@ -9651,10 +9616,10 @@
         <v>13</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J17" s="43" t="s">
         <v>0</v>
@@ -9665,24 +9630,24 @@
         <v>1</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J18" s="49"/>
     </row>
@@ -9691,24 +9656,24 @@
         <v>2</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J19" s="49"/>
     </row>
@@ -9717,27 +9682,27 @@
         <v>3</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="47" t="s">
-        <v>59</v>
-      </c>
       <c r="G20" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -9745,27 +9710,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="50"/>
       <c r="E21" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="50"/>
       <c r="I21" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J21" s="52" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -9805,10 +9770,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54:J54"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9837,8 +9802,8 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="165" t="s">
-        <v>50</v>
+      <c r="K1" s="164" t="s">
+        <v>49</v>
       </c>
       <c r="L1" s="55"/>
       <c r="M1" s="55"/>
@@ -9858,7 +9823,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="166"/>
+      <c r="K2" s="165"/>
     </row>
     <row r="3" spans="1:17" s="56" customFormat="1">
       <c r="A3" s="48"/>
@@ -9871,7 +9836,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="166"/>
+      <c r="K3" s="165"/>
     </row>
     <row r="4" spans="1:17" s="56" customFormat="1">
       <c r="A4" s="48"/>
@@ -9886,664 +9851,664 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="56" customFormat="1">
-      <c r="A5" s="176" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="A5" s="175" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="135"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="137"/>
+      <c r="A6" s="134"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="136"/>
     </row>
     <row r="7" spans="1:17" s="57" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="177"/>
-      <c r="B7" s="178"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="180"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="179"/>
       <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:17" s="57" customFormat="1">
-      <c r="A8" s="177"/>
-      <c r="B8" s="178"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="180"/>
+      <c r="A8" s="176"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="179"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:17" s="57" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="181"/>
-      <c r="B9" s="182"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="182"/>
-      <c r="J9" s="183"/>
+      <c r="A9" s="180"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="182"/>
     </row>
     <row r="10" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="121"/>
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="84.75" customHeight="1">
-      <c r="A11" s="184" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
+      <c r="A11" s="183" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="124"/>
     </row>
     <row r="12" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="176" t="s">
+      <c r="A12" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="121"/>
     </row>
     <row r="13" spans="1:17" s="59" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="184" t="s">
+      <c r="A13" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="121"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="124"/>
     </row>
     <row r="14" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="176" t="s">
+      <c r="A14" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="121"/>
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="152" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="161"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="162"/>
+      <c r="A15" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="160"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="161"/>
     </row>
     <row r="16" spans="1:17" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="146" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="148"/>
+        <v>88</v>
+      </c>
+      <c r="C16" s="145" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
     </row>
     <row r="17" spans="1:10" s="57" customFormat="1">
       <c r="A17" s="60">
         <v>1</v>
       </c>
       <c r="B17" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="163" t="s">
-        <v>205</v>
-      </c>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="151"/>
+        <v>134</v>
+      </c>
+      <c r="C17" s="162" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="150"/>
     </row>
     <row r="18" spans="1:10" s="57" customFormat="1" ht="24" customHeight="1">
       <c r="A18" s="44">
         <v>2</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="163" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="151"/>
+        <v>137</v>
+      </c>
+      <c r="C18" s="162" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="150"/>
     </row>
     <row r="19" spans="1:10" s="57" customFormat="1" ht="27.75" customHeight="1">
       <c r="A19" s="44">
         <v>3</v>
       </c>
       <c r="B19" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="163" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="151"/>
+        <v>138</v>
+      </c>
+      <c r="C19" s="162" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" s="149"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="150"/>
     </row>
     <row r="20" spans="1:10" s="57" customFormat="1" ht="42" customHeight="1">
       <c r="A20" s="49">
         <v>4</v>
       </c>
       <c r="B20" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="163" t="s">
-        <v>255</v>
-      </c>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="151"/>
+        <v>135</v>
+      </c>
+      <c r="C20" s="162" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="150"/>
     </row>
     <row r="21" spans="1:10" s="57" customFormat="1" ht="39.75" customHeight="1">
       <c r="A21" s="49">
         <v>5</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="163" t="s">
-        <v>256</v>
-      </c>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="150"/>
-      <c r="H21" s="150"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="151"/>
+        <v>136</v>
+      </c>
+      <c r="C21" s="162" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="149"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
     </row>
     <row r="22" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A22" s="44">
         <v>6</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="163" t="s">
-        <v>243</v>
-      </c>
-      <c r="D22" s="209"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="209"/>
-      <c r="G22" s="209"/>
-      <c r="H22" s="209"/>
-      <c r="I22" s="209"/>
-      <c r="J22" s="210"/>
+        <v>253</v>
+      </c>
+      <c r="C22" s="162" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" s="208"/>
+      <c r="E22" s="208"/>
+      <c r="F22" s="208"/>
+      <c r="G22" s="208"/>
+      <c r="H22" s="208"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="209"/>
     </row>
     <row r="23" spans="1:10" s="57" customFormat="1">
-      <c r="A23" s="173"/>
-      <c r="B23" s="174"/>
-      <c r="C23" s="174"/>
-      <c r="D23" s="174"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="174"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="175"/>
+      <c r="A23" s="172"/>
+      <c r="B23" s="173"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="173"/>
+      <c r="J23" s="174"/>
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A24" s="152" t="s">
-        <v>149</v>
-      </c>
-      <c r="B24" s="161"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="162"/>
+      <c r="A24" s="151" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="160"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="161"/>
     </row>
     <row r="25" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A25" s="89">
         <v>1</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="163" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="151"/>
+        <v>135</v>
+      </c>
+      <c r="C25" s="162" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="150"/>
     </row>
     <row r="26" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A26" s="89">
         <v>2</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="163" t="s">
-        <v>173</v>
-      </c>
-      <c r="D26" s="150"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="151"/>
+        <v>136</v>
+      </c>
+      <c r="C26" s="162" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="150"/>
     </row>
     <row r="27" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A27" s="44">
         <v>3</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="163" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="151"/>
+        <v>148</v>
+      </c>
+      <c r="C27" s="162" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="150"/>
     </row>
     <row r="28" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A28" s="44">
         <v>4</v>
       </c>
       <c r="B28" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" s="163" t="s">
-        <v>173</v>
-      </c>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="151"/>
+        <v>138</v>
+      </c>
+      <c r="C28" s="162" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="150"/>
     </row>
     <row r="29" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="138" t="s">
+      <c r="A29" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="185"/>
-      <c r="C29" s="185"/>
-      <c r="D29" s="185"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="185"/>
-      <c r="J29" s="186"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="184"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="184"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="184"/>
+      <c r="J29" s="185"/>
     </row>
     <row r="30" spans="1:10" s="57" customFormat="1" ht="36" customHeight="1">
-      <c r="A30" s="152" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30" s="161"/>
-      <c r="C30" s="161"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="162"/>
+      <c r="A30" s="151" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="160"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="161"/>
     </row>
     <row r="31" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="145" t="s">
         <v>141</v>
       </c>
-      <c r="B31" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="146" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="148"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="147"/>
     </row>
     <row r="32" spans="1:10" s="57" customFormat="1">
       <c r="A32" s="60">
         <v>1</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="211" t="s">
-        <v>231</v>
-      </c>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="157"/>
+        <v>137</v>
+      </c>
+      <c r="C32" s="210" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="155"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="156"/>
     </row>
     <row r="33" spans="1:12" s="57" customFormat="1">
       <c r="A33" s="60">
         <v>2</v>
       </c>
       <c r="B33" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="212"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="214"/>
+        <v>138</v>
+      </c>
+      <c r="C33" s="211"/>
+      <c r="D33" s="212"/>
+      <c r="E33" s="212"/>
+      <c r="F33" s="212"/>
+      <c r="G33" s="212"/>
+      <c r="H33" s="212"/>
+      <c r="I33" s="212"/>
+      <c r="J33" s="213"/>
     </row>
     <row r="34" spans="1:12" s="57" customFormat="1">
       <c r="A34" s="60">
         <v>3</v>
       </c>
       <c r="B34" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="212"/>
-      <c r="D34" s="213"/>
-      <c r="E34" s="213"/>
-      <c r="F34" s="213"/>
-      <c r="G34" s="213"/>
-      <c r="H34" s="213"/>
-      <c r="I34" s="213"/>
-      <c r="J34" s="214"/>
+        <v>135</v>
+      </c>
+      <c r="C34" s="211"/>
+      <c r="D34" s="212"/>
+      <c r="E34" s="212"/>
+      <c r="F34" s="212"/>
+      <c r="G34" s="212"/>
+      <c r="H34" s="212"/>
+      <c r="I34" s="212"/>
+      <c r="J34" s="213"/>
     </row>
     <row r="35" spans="1:12" s="57" customFormat="1">
       <c r="A35" s="60">
         <v>4</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="158"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="159"/>
-      <c r="I35" s="159"/>
-      <c r="J35" s="160"/>
+        <v>136</v>
+      </c>
+      <c r="C35" s="157"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="158"/>
+      <c r="J35" s="159"/>
     </row>
     <row r="36" spans="1:12" s="57" customFormat="1">
-      <c r="A36" s="143"/>
-      <c r="B36" s="144"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="144"/>
-      <c r="I36" s="144"/>
-      <c r="J36" s="145"/>
+      <c r="A36" s="142"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="144"/>
     </row>
     <row r="37" spans="1:12" s="57" customFormat="1">
-      <c r="A37" s="152" t="s">
-        <v>148</v>
-      </c>
-      <c r="B37" s="153"/>
-      <c r="C37" s="153"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="154"/>
+      <c r="A37" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="152"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="153"/>
     </row>
     <row r="38" spans="1:12" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="60" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" s="146" t="s">
         <v>143</v>
       </c>
-      <c r="D38" s="147"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="148"/>
+      <c r="C38" s="145" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="146"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="146"/>
+      <c r="J38" s="147"/>
     </row>
     <row r="39" spans="1:12" s="57" customFormat="1">
       <c r="A39" s="89">
         <v>1</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="149" t="s">
-        <v>146</v>
-      </c>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="151"/>
+        <v>135</v>
+      </c>
+      <c r="C39" s="148" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="150"/>
     </row>
     <row r="40" spans="1:12" s="57" customFormat="1">
       <c r="A40" s="89">
         <v>2</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="149" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="151"/>
+        <v>136</v>
+      </c>
+      <c r="C40" s="148" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="150"/>
     </row>
     <row r="41" spans="1:12" s="57" customFormat="1">
       <c r="A41" s="44">
         <v>3</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" s="149" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="151"/>
+        <v>148</v>
+      </c>
+      <c r="C41" s="148" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="150"/>
     </row>
     <row r="42" spans="1:12" s="57" customFormat="1">
       <c r="A42" s="44">
         <v>4</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="C42" s="149" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="151"/>
+        <v>138</v>
+      </c>
+      <c r="C42" s="148" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="150"/>
     </row>
     <row r="43" spans="1:12" s="57" customFormat="1">
-      <c r="A43" s="143"/>
-      <c r="B43" s="144"/>
-      <c r="C43" s="144"/>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="144"/>
-      <c r="H43" s="144"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="145"/>
+      <c r="A43" s="142"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="143"/>
+      <c r="G43" s="143"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="143"/>
+      <c r="J43" s="144"/>
     </row>
     <row r="44" spans="1:12" s="57" customFormat="1">
-      <c r="A44" s="173"/>
-      <c r="B44" s="207"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="207"/>
-      <c r="E44" s="207"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="207"/>
-      <c r="H44" s="207"/>
-      <c r="I44" s="207"/>
-      <c r="J44" s="208"/>
+      <c r="A44" s="172"/>
+      <c r="B44" s="206"/>
+      <c r="C44" s="206"/>
+      <c r="D44" s="206"/>
+      <c r="E44" s="206"/>
+      <c r="F44" s="206"/>
+      <c r="G44" s="206"/>
+      <c r="H44" s="206"/>
+      <c r="I44" s="206"/>
+      <c r="J44" s="207"/>
     </row>
     <row r="45" spans="1:12" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="138" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="185"/>
-      <c r="C45" s="185"/>
-      <c r="D45" s="185"/>
-      <c r="E45" s="185"/>
-      <c r="F45" s="185"/>
-      <c r="G45" s="185"/>
-      <c r="H45" s="185"/>
-      <c r="I45" s="185"/>
-      <c r="J45" s="186"/>
+      <c r="A45" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="184"/>
+      <c r="C45" s="184"/>
+      <c r="D45" s="184"/>
+      <c r="E45" s="184"/>
+      <c r="F45" s="184"/>
+      <c r="G45" s="184"/>
+      <c r="H45" s="184"/>
+      <c r="I45" s="184"/>
+      <c r="J45" s="185"/>
     </row>
     <row r="46" spans="1:12" s="83" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="61" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="62" t="s">
+      <c r="D46" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="63" t="s">
+      <c r="E46" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="141" t="s">
-        <v>37</v>
-      </c>
-      <c r="F46" s="142"/>
-      <c r="G46" s="142"/>
-      <c r="H46" s="142"/>
-      <c r="I46" s="142"/>
-      <c r="J46" s="142"/>
+      <c r="F46" s="141"/>
+      <c r="G46" s="141"/>
+      <c r="H46" s="141"/>
+      <c r="I46" s="141"/>
+      <c r="J46" s="141"/>
       <c r="K46" s="57"/>
       <c r="L46" s="57"/>
     </row>
@@ -10552,12 +10517,12 @@
         <v>1</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C47" s="65"/>
       <c r="D47" s="66"/>
-      <c r="E47" s="195" t="s">
-        <v>152</v>
+      <c r="E47" s="194" t="s">
+        <v>150</v>
       </c>
       <c r="F47" s="129"/>
       <c r="G47" s="129"/>
@@ -10566,295 +10531,335 @@
       <c r="J47" s="129"/>
     </row>
     <row r="48" spans="1:12" s="57" customFormat="1">
-      <c r="A48" s="170" t="s">
-        <v>184</v>
-      </c>
-      <c r="B48" s="171"/>
-      <c r="C48" s="171"/>
-      <c r="D48" s="171"/>
-      <c r="E48" s="171"/>
-      <c r="F48" s="171"/>
-      <c r="G48" s="171"/>
-      <c r="H48" s="171"/>
-      <c r="I48" s="171"/>
-      <c r="J48" s="172"/>
-    </row>
-    <row r="49" spans="1:12" s="59" customFormat="1" ht="77.25" customHeight="1">
+      <c r="A48" s="169" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" s="170"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="170"/>
+      <c r="E48" s="170"/>
+      <c r="F48" s="170"/>
+      <c r="G48" s="170"/>
+      <c r="H48" s="170"/>
+      <c r="I48" s="170"/>
+      <c r="J48" s="171"/>
+    </row>
+    <row r="49" spans="1:12" s="59" customFormat="1" ht="106.5" customHeight="1">
       <c r="A49" s="74">
         <v>1</v>
       </c>
       <c r="B49" s="91" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
       <c r="C49" s="94" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D49" s="93"/>
-      <c r="E49" s="199" t="s">
-        <v>188</v>
-      </c>
-      <c r="F49" s="200"/>
-      <c r="G49" s="200"/>
-      <c r="H49" s="200"/>
-      <c r="I49" s="200"/>
-      <c r="J49" s="201"/>
-    </row>
-    <row r="50" spans="1:12" s="59" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A50" s="71">
+      <c r="E49" s="198" t="s">
+        <v>263</v>
+      </c>
+      <c r="F49" s="199"/>
+      <c r="G49" s="199"/>
+      <c r="H49" s="199"/>
+      <c r="I49" s="199"/>
+      <c r="J49" s="200"/>
+    </row>
+    <row r="50" spans="1:12" s="59" customFormat="1" ht="106.5" customHeight="1">
+      <c r="A50" s="74">
         <v>2</v>
       </c>
-      <c r="B50" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="C50" s="94" t="s">
-        <v>179</v>
-      </c>
-      <c r="D50" s="93"/>
-      <c r="E50" s="199" t="s">
-        <v>259</v>
-      </c>
-      <c r="F50" s="200"/>
-      <c r="G50" s="200"/>
-      <c r="H50" s="200"/>
-      <c r="I50" s="200"/>
-      <c r="J50" s="201"/>
-    </row>
-    <row r="51" spans="1:12" s="57" customFormat="1">
+      <c r="B50" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="C50" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="111"/>
+      <c r="E50" s="198" t="s">
+        <v>264</v>
+      </c>
+      <c r="F50" s="199"/>
+      <c r="G50" s="199"/>
+      <c r="H50" s="199"/>
+      <c r="I50" s="199"/>
+      <c r="J50" s="200"/>
+    </row>
+    <row r="51" spans="1:12" s="59" customFormat="1" ht="103.5" customHeight="1">
       <c r="A51" s="74">
         <v>3</v>
       </c>
-      <c r="B51" s="91" t="s">
-        <v>181</v>
-      </c>
-      <c r="C51" s="94" t="s">
+      <c r="B51" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="111"/>
+      <c r="E51" s="198" t="s">
+        <v>265</v>
+      </c>
+      <c r="F51" s="199"/>
+      <c r="G51" s="199"/>
+      <c r="H51" s="199"/>
+      <c r="I51" s="199"/>
+      <c r="J51" s="200"/>
+    </row>
+    <row r="52" spans="1:12" s="59" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A52" s="71">
+        <v>4</v>
+      </c>
+      <c r="B52" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="94" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="93"/>
+      <c r="E52" s="198" t="s">
+        <v>255</v>
+      </c>
+      <c r="F52" s="199"/>
+      <c r="G52" s="199"/>
+      <c r="H52" s="199"/>
+      <c r="I52" s="199"/>
+      <c r="J52" s="200"/>
+    </row>
+    <row r="53" spans="1:12" s="57" customFormat="1">
+      <c r="A53" s="74">
+        <v>5</v>
+      </c>
+      <c r="B53" s="91" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" s="94" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="92"/>
+      <c r="E53" s="166" t="s">
+        <v>180</v>
+      </c>
+      <c r="F53" s="123"/>
+      <c r="G53" s="123"/>
+      <c r="H53" s="123"/>
+      <c r="I53" s="123"/>
+      <c r="J53" s="124"/>
+    </row>
+    <row r="54" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
+      <c r="A54" s="169" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="92"/>
-      <c r="E51" s="167" t="s">
-        <v>183</v>
-      </c>
-      <c r="F51" s="120"/>
-      <c r="G51" s="120"/>
-      <c r="H51" s="120"/>
-      <c r="I51" s="120"/>
-      <c r="J51" s="121"/>
-    </row>
-    <row r="52" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="170" t="s">
-        <v>182</v>
-      </c>
-      <c r="B52" s="171"/>
-      <c r="C52" s="171"/>
-      <c r="D52" s="171"/>
-      <c r="E52" s="171"/>
-      <c r="F52" s="171"/>
-      <c r="G52" s="171"/>
-      <c r="H52" s="171"/>
-      <c r="I52" s="171"/>
-      <c r="J52" s="172"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-    </row>
-    <row r="53" spans="1:12" s="57" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A53" s="60">
+      <c r="B54" s="170"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="170"/>
+      <c r="E54" s="170"/>
+      <c r="F54" s="170"/>
+      <c r="G54" s="170"/>
+      <c r="H54" s="170"/>
+      <c r="I54" s="170"/>
+      <c r="J54" s="171"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="57"/>
+    </row>
+    <row r="55" spans="1:12" s="57" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A55" s="60">
         <v>1</v>
       </c>
-      <c r="B53" s="68" t="s">
-        <v>204</v>
-      </c>
-      <c r="C53" s="69" t="s">
+      <c r="B55" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="70"/>
-      <c r="E53" s="195" t="s">
+      <c r="D55" s="70"/>
+      <c r="E55" s="194" t="s">
+        <v>254</v>
+      </c>
+      <c r="F55" s="129"/>
+      <c r="G55" s="129"/>
+      <c r="H55" s="129"/>
+      <c r="I55" s="129"/>
+      <c r="J55" s="129"/>
+    </row>
+    <row r="56" spans="1:12" s="57" customFormat="1" ht="107.25" customHeight="1">
+      <c r="A56" s="71">
+        <v>2</v>
+      </c>
+      <c r="B56" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="73"/>
+      <c r="E56" s="198" t="s">
         <v>258</v>
       </c>
-      <c r="F53" s="129"/>
-      <c r="G53" s="129"/>
-      <c r="H53" s="129"/>
-      <c r="I53" s="129"/>
-      <c r="J53" s="129"/>
-    </row>
-    <row r="54" spans="1:12" s="57" customFormat="1" ht="107.25" customHeight="1">
-      <c r="A54" s="71">
-        <v>2</v>
-      </c>
-      <c r="B54" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="69" t="s">
+      <c r="F56" s="199"/>
+      <c r="G56" s="199"/>
+      <c r="H56" s="199"/>
+      <c r="I56" s="199"/>
+      <c r="J56" s="200"/>
+    </row>
+    <row r="57" spans="1:12" s="57" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A57" s="74">
+        <v>3</v>
+      </c>
+      <c r="B57" s="68" t="s">
+        <v>256</v>
+      </c>
+      <c r="C57" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="D54" s="73"/>
-      <c r="E54" s="199" t="s">
-        <v>262</v>
-      </c>
-      <c r="F54" s="200"/>
-      <c r="G54" s="200"/>
-      <c r="H54" s="200"/>
-      <c r="I54" s="200"/>
-      <c r="J54" s="201"/>
-    </row>
-    <row r="55" spans="1:12" s="57" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A55" s="74">
-        <v>3</v>
-      </c>
-      <c r="B55" s="68" t="s">
-        <v>260</v>
-      </c>
-      <c r="C55" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="D55" s="75"/>
-      <c r="E55" s="167" t="s">
-        <v>261</v>
-      </c>
-      <c r="F55" s="120"/>
-      <c r="G55" s="120"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="120"/>
-      <c r="J55" s="121"/>
-    </row>
-    <row r="56" spans="1:12" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A56" s="192" t="s">
+      <c r="D57" s="75"/>
+      <c r="E57" s="166" t="s">
+        <v>257</v>
+      </c>
+      <c r="F57" s="123"/>
+      <c r="G57" s="123"/>
+      <c r="H57" s="123"/>
+      <c r="I57" s="123"/>
+      <c r="J57" s="124"/>
+    </row>
+    <row r="58" spans="1:12" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A58" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="193"/>
-      <c r="C56" s="193"/>
-      <c r="D56" s="193"/>
-      <c r="E56" s="193"/>
-      <c r="F56" s="193"/>
-      <c r="G56" s="193"/>
-      <c r="H56" s="193"/>
-      <c r="I56" s="193"/>
-      <c r="J56" s="194"/>
-    </row>
-    <row r="57" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A57" s="74" t="s">
+      <c r="B58" s="192"/>
+      <c r="C58" s="192"/>
+      <c r="D58" s="192"/>
+      <c r="E58" s="192"/>
+      <c r="F58" s="192"/>
+      <c r="G58" s="192"/>
+      <c r="H58" s="192"/>
+      <c r="I58" s="192"/>
+      <c r="J58" s="193"/>
+    </row>
+    <row r="59" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A59" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="190" t="s">
+      <c r="B59" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="191"/>
-      <c r="D57" s="167" t="s">
+      <c r="C59" s="190"/>
+      <c r="D59" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="120"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="120"/>
-      <c r="H57" s="120"/>
-      <c r="I57" s="120"/>
-      <c r="J57" s="121"/>
-    </row>
-    <row r="58" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="187"/>
-      <c r="B58" s="205"/>
-      <c r="C58" s="205"/>
-      <c r="D58" s="205"/>
-      <c r="E58" s="205"/>
-      <c r="F58" s="205"/>
-      <c r="G58" s="205"/>
-      <c r="H58" s="205"/>
-      <c r="I58" s="205"/>
-      <c r="J58" s="206"/>
-    </row>
-    <row r="59" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="74"/>
-      <c r="B59" s="143"/>
-      <c r="C59" s="145"/>
-      <c r="D59" s="167"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="120"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="120"/>
-      <c r="J59" s="121"/>
-    </row>
-    <row r="60" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="74"/>
-      <c r="B60" s="143"/>
-      <c r="C60" s="145"/>
-      <c r="D60" s="167"/>
-      <c r="E60" s="120"/>
-      <c r="F60" s="120"/>
-      <c r="G60" s="120"/>
-      <c r="H60" s="120"/>
-      <c r="I60" s="120"/>
-      <c r="J60" s="121"/>
-    </row>
-    <row r="61" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="187"/>
-      <c r="B61" s="205"/>
-      <c r="C61" s="205"/>
-      <c r="D61" s="205"/>
-      <c r="E61" s="205"/>
-      <c r="F61" s="205"/>
-      <c r="G61" s="205"/>
-      <c r="H61" s="205"/>
-      <c r="I61" s="205"/>
-      <c r="J61" s="206"/>
+      <c r="E59" s="123"/>
+      <c r="F59" s="123"/>
+      <c r="G59" s="123"/>
+      <c r="H59" s="123"/>
+      <c r="I59" s="123"/>
+      <c r="J59" s="124"/>
+    </row>
+    <row r="60" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
+      <c r="A60" s="186"/>
+      <c r="B60" s="204"/>
+      <c r="C60" s="204"/>
+      <c r="D60" s="204"/>
+      <c r="E60" s="204"/>
+      <c r="F60" s="204"/>
+      <c r="G60" s="204"/>
+      <c r="H60" s="204"/>
+      <c r="I60" s="204"/>
+      <c r="J60" s="205"/>
+    </row>
+    <row r="61" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A61" s="74"/>
+      <c r="B61" s="142"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="166"/>
+      <c r="E61" s="123"/>
+      <c r="F61" s="123"/>
+      <c r="G61" s="123"/>
+      <c r="H61" s="123"/>
+      <c r="I61" s="123"/>
+      <c r="J61" s="124"/>
     </row>
     <row r="62" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="74"/>
-      <c r="B62" s="143"/>
-      <c r="C62" s="145"/>
-      <c r="D62" s="167"/>
-      <c r="E62" s="120"/>
-      <c r="F62" s="120"/>
-      <c r="G62" s="120"/>
-      <c r="H62" s="120"/>
-      <c r="I62" s="120"/>
-      <c r="J62" s="121"/>
-    </row>
-    <row r="63" spans="1:12" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="78" t="s">
+      <c r="B62" s="142"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="166"/>
+      <c r="E62" s="123"/>
+      <c r="F62" s="123"/>
+      <c r="G62" s="123"/>
+      <c r="H62" s="123"/>
+      <c r="I62" s="123"/>
+      <c r="J62" s="124"/>
+    </row>
+    <row r="63" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
+      <c r="A63" s="186"/>
+      <c r="B63" s="204"/>
+      <c r="C63" s="204"/>
+      <c r="D63" s="204"/>
+      <c r="E63" s="204"/>
+      <c r="F63" s="204"/>
+      <c r="G63" s="204"/>
+      <c r="H63" s="204"/>
+      <c r="I63" s="204"/>
+      <c r="J63" s="205"/>
+    </row>
+    <row r="64" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A64" s="74"/>
+      <c r="B64" s="142"/>
+      <c r="C64" s="144"/>
+      <c r="D64" s="166"/>
+      <c r="E64" s="123"/>
+      <c r="F64" s="123"/>
+      <c r="G64" s="123"/>
+      <c r="H64" s="123"/>
+      <c r="I64" s="123"/>
+      <c r="J64" s="124"/>
+    </row>
+    <row r="65" spans="1:10" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A65" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="79"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="80"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="80"/>
-      <c r="I63" s="80"/>
-      <c r="J63" s="81"/>
-    </row>
-    <row r="64" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A64" s="74">
+      <c r="B65" s="79"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="80"/>
+      <c r="G65" s="80"/>
+      <c r="H65" s="80"/>
+      <c r="I65" s="80"/>
+      <c r="J65" s="81"/>
+    </row>
+    <row r="66" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A66" s="74">
         <v>1</v>
       </c>
-      <c r="B64" s="82" t="s">
+      <c r="B66" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="143"/>
-      <c r="D64" s="120"/>
-      <c r="E64" s="120"/>
-      <c r="F64" s="120"/>
-      <c r="G64" s="120"/>
-      <c r="H64" s="120"/>
-      <c r="I64" s="120"/>
-      <c r="J64" s="121"/>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="74">
+      <c r="C66" s="142"/>
+      <c r="D66" s="123"/>
+      <c r="E66" s="123"/>
+      <c r="F66" s="123"/>
+      <c r="G66" s="123"/>
+      <c r="H66" s="123"/>
+      <c r="I66" s="123"/>
+      <c r="J66" s="124"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="74">
         <v>2</v>
       </c>
-      <c r="B65" s="82" t="s">
+      <c r="B67" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="164"/>
-      <c r="D65" s="164"/>
-      <c r="E65" s="164"/>
-      <c r="F65" s="164"/>
-      <c r="G65" s="164"/>
-      <c r="H65" s="164"/>
-      <c r="I65" s="164"/>
-      <c r="J65" s="164"/>
+      <c r="C67" s="163"/>
+      <c r="D67" s="163"/>
+      <c r="E67" s="163"/>
+      <c r="F67" s="163"/>
+      <c r="G67" s="163"/>
+      <c r="H67" s="163"/>
+      <c r="I67" s="163"/>
+      <c r="J67" s="163"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="61">
     <mergeCell ref="A37:J37"/>
     <mergeCell ref="C38:J38"/>
     <mergeCell ref="C39:J39"/>
@@ -10862,10 +10867,12 @@
     <mergeCell ref="C41:J41"/>
     <mergeCell ref="A48:J48"/>
     <mergeCell ref="E49:J49"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="E53:J53"/>
     <mergeCell ref="C42:J42"/>
     <mergeCell ref="A43:J43"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="E50:J50"/>
     <mergeCell ref="C28:J28"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="C26:J26"/>
@@ -10882,9 +10889,9 @@
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:J12"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
     <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E57:J57"/>
     <mergeCell ref="E46:J46"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A23:J23"/>
@@ -10899,21 +10906,21 @@
     <mergeCell ref="C20:J20"/>
     <mergeCell ref="C21:J21"/>
     <mergeCell ref="K1:K3"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:J61"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="D62:J62"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A63:J63"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="D59:J59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A58:J58"/>
     <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A54:J54"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10966,8 +10973,8 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="165" t="s">
-        <v>50</v>
+      <c r="K1" s="164" t="s">
+        <v>49</v>
       </c>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -10993,7 +11000,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="166"/>
+      <c r="K2" s="165"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -11011,7 +11018,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="166"/>
+      <c r="K3" s="165"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -11055,18 +11062,18 @@
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="202" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="203"/>
-      <c r="C6" s="203"/>
-      <c r="D6" s="203"/>
-      <c r="E6" s="203"/>
-      <c r="F6" s="203"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="203"/>
-      <c r="I6" s="203"/>
-      <c r="J6" s="204"/>
+      <c r="A6" s="201" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="203"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -11076,19 +11083,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="43" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>19</v>
@@ -11097,10 +11104,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -11133,34 +11140,34 @@
       <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="202" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="215"/>
-      <c r="C10" s="215"/>
-      <c r="D10" s="215"/>
-      <c r="E10" s="215"/>
-      <c r="F10" s="215"/>
-      <c r="G10" s="215"/>
-      <c r="H10" s="215"/>
-      <c r="I10" s="215"/>
-      <c r="J10" s="216"/>
+      <c r="A10" s="201" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="214"/>
+      <c r="C10" s="214"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="214"/>
+      <c r="H10" s="214"/>
+      <c r="I10" s="214"/>
+      <c r="J10" s="215"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>19</v>
@@ -11169,10 +11176,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -11183,29 +11190,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E12" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="107" t="s">
+        <v>217</v>
+      </c>
+      <c r="G12" s="106" t="s">
         <v>218</v>
-      </c>
-      <c r="F12" s="107" t="s">
-        <v>221</v>
-      </c>
-      <c r="G12" s="106" t="s">
-        <v>222</v>
       </c>
       <c r="H12" s="50"/>
       <c r="I12" s="44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J12" s="96" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -11213,29 +11220,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E13" s="104" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F13" s="108" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G13" s="108" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H13" s="50"/>
       <c r="I13" s="44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J13" s="96" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -11243,29 +11250,29 @@
         <v>3</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E14" s="104" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F14" s="107" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G14" s="108" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J14" s="96" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -11273,29 +11280,29 @@
         <v>4</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E15" s="104" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F15" s="107" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G15" s="106" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J15" s="96" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -11303,31 +11310,31 @@
         <v>5</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H16" s="44">
         <v>0</v>
       </c>
       <c r="I16" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" s="101" t="s">
         <v>175</v>
-      </c>
-      <c r="J16" s="101" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11343,34 +11350,34 @@
       <c r="J17" s="100"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="202" t="s">
-        <v>210</v>
-      </c>
-      <c r="B18" s="203"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
-      <c r="H18" s="203"/>
-      <c r="I18" s="203"/>
-      <c r="J18" s="204"/>
+      <c r="A18" s="201" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" s="202"/>
+      <c r="C18" s="202"/>
+      <c r="D18" s="202"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="203"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="43" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F19" s="43" t="s">
         <v>19</v>
@@ -11379,10 +11386,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I19" s="43" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J19" s="43" t="s">
         <v>0</v>
@@ -11393,29 +11400,29 @@
         <v>3</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E20" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" s="107" t="s">
+        <v>217</v>
+      </c>
+      <c r="G20" s="106" t="s">
         <v>218</v>
-      </c>
-      <c r="F20" s="107" t="s">
-        <v>221</v>
-      </c>
-      <c r="G20" s="106" t="s">
-        <v>222</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J20" s="96" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -11423,29 +11430,29 @@
         <v>4</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E21" s="104" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F21" s="107" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G21" s="106" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J21" s="96" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -11453,29 +11460,29 @@
         <v>1</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E22" s="104" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F22" s="107" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G22" s="108" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H22" s="50"/>
       <c r="I22" s="44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J22" s="96" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -11483,29 +11490,29 @@
         <v>2</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E23" s="104" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F23" s="108" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G23" s="108" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H23" s="50"/>
       <c r="I23" s="44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J23" s="96" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
+++ b/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -18,37 +18,37 @@
     <sheet name="IPO" sheetId="39" r:id="rId4"/>
     <sheet name="畫面_APF0102MM1" sheetId="7" r:id="rId5"/>
     <sheet name="欄位_APF0102MM1" sheetId="14" r:id="rId6"/>
-    <sheet name="畫面_APF0102MA1" sheetId="33" r:id="rId7"/>
-    <sheet name="欄位_APF0102MA1" sheetId="34" r:id="rId8"/>
+    <sheet name="畫面_APF0102MU1" sheetId="33" r:id="rId7"/>
+    <sheet name="欄位_APF0102MU1" sheetId="34" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">畫面_APF0102MA1!$A$1:$J$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0102MM1!$A$1:$J$66</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">欄位_APF0102MA1!$A$1:$J$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">畫面_APF0102MU1!$A$1:$J$80</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0102MM1!$A$1:$J$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">欄位_APF0102MU1!$A$1:$J$23</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">畫面_APF0102MA1!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0102MM1!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">欄位_APF0102MA1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">畫面_APF0102MU1!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0102MM1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">欄位_APF0102MU1!$1:$5</definedName>
+    <definedName name="solver_lin" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_lin" localSheetId="6" hidden="1">0</definedName>
-    <definedName name="solver_lin" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="6" hidden="1">畫面_APF0102MA1!#REF!</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">畫面_APF0102MM1!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">畫面_APF0102MU1!#REF!</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="283">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -462,10 +462,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>無。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>角色生效</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -638,10 +634,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>以導頁方式開啟APF0102MA1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>清除APF0102MM1_Query畫面所有欄位</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -682,165 +674,74 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>NO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="2"/>
+    <t>APF0102MM1_Query</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF0102MM1_Grid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_roleprofile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbtINPUT_SOURCE_TYPE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工編號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtINPUT_EMPLOYEE_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工姓名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtINPUT_EMPLOYEE_NAME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtINPUT_DEPT_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工職稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtINPUT_EMPLOYEE_POSITION</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbtINPUT_NON_ROLE_ACCOUNT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>顯示用。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">APF0102MA1_Query
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：按下『確認』鈕時</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0102MA1_Grid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">APF0102MA1_Grid
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：按下『確認』鈕時</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>部門名稱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>『APF0102MA1』Form</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>開啟APF0102MA1_Query</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0102MM1_Query</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>APF0102MM1_Grid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_roleprofile</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>rbtINPUT_SOURCE_TYPE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>true(1)顯示●，false(0)則不顯示</t>
-  </si>
-  <si>
-    <t>員工編號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtINPUT_EMPLOYEE_ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工姓名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtINPUT_EMPLOYEE_NAME</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>部門代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtINPUT_DEPT_ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工職稱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtINPUT_EMPLOYEE_POSITION</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>rbtINPUT_NON_ROLE_ACCOUNT</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>APF0102MA1_Query</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>部門名稱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>顯示用。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">APF0102MA1_Query
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：按下『確認』鈕時</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -869,23 +770,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>清除APF0102MA1_Query畫面所有欄位</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0102MA1_Query</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>查詢類別</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>開啟APF0102MM1_Grid，並將查詢角色結果置於APF0102MM1_Grid中</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>導頁方式開啟APF0102MA1，被選取角色內所有的帳號資訊顯示在開啟的APF0102MA_Grid 右半部(角色帳號區)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1008,10 +897,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>APF0102MA1_Grid (非角色帳號及非角色帳號)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1036,16 +921,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>共通性 CMD DB</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp</t>
-  </si>
-  <si>
-    <t>emp_name</t>
-  </si>
-  <si>
     <t>varchar2(20)</t>
   </si>
   <si>
@@ -1056,10 +931,6 @@
     <t>varchar2(10)</t>
   </si>
   <si>
-    <t>position_id</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar2(5)</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -1076,22 +947,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1. 輸入型態:string，輸入型態:string，最大長度限制:英文5(控制項控制)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 輸入型態:string，最大長度限制:英文10(控制項控制)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.前畫面:APF0102MA1
-1.1 SESSION內容:
-1.2 成立條件:該使用者擁有此功能權限即角色加入帳號及自角色移除帳號
-1.3 如是角色來源是選擇職稱角色，此角色所含的功能及權限，已事先於其他系統定義好，於APF 中，僅能查詢，
-    所以APF0102MA1_Grid的相關 button 均是反灰 disable。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1104,10 +959,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>varchar2(10)</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
     <t>string 10</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1116,14 +967,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>string 10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string 5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>EMPLOYEE_ID</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1168,38 +1011,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>畫面_APF0102MA1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位_APF0102MA1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-最大長度限制:英文10(控制項控制)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">輸入型態:string
-最大長度限制:中文20(控制項控制)
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">預定角色，職稱角色，自訂角色，三者必需選其一。(控制項控制)
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 輸入型態:string，細輸入型態:string，最大長度限制:英文10(控制項控制)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 輸入型態:string，最大長度限制:英文20(控制項控制) </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>顯示查詢結果於</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1208,15 +1019,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>開啟APF0102MA1_Grid，依輸入的查詢條件，整合後端 DB資料，並將查詢結果置於APF0102MA1_Grid中，資料依查詢類別，顯示於非角色帳號或角色帳號區塊</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>重新載入</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>按此鈕功後，Grid中非角色帳號及角色帳號區塊同步回至帳號加入或移除前的初始狀態</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1259,6 +1062,238 @@
 1.1使用者輸入查詢條件，可輸入員工編號或員工姓名，並以模糊查詢。
 1.2系統依查詢條件顯示資訊於下方列表。
 1.3使用者選取特定人員，雙擊此筆資料，系統將選取的員工編號及員工姓名帶回原視窗中查詢條件下。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>預定角色，職稱角色，自訂角色，三者必需選其一。(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>畫面_APF0102MU1</t>
+  </si>
+  <si>
+    <t>欄位_APF0102MU1</t>
+  </si>
+  <si>
+    <t>以導頁方式開啟APF0102MU1</t>
+  </si>
+  <si>
+    <t>導頁方式開啟APF0102MU1，被選取角色內所有的帳號資訊顯示在開啟的APF0102MA_Grid 右半部(角色帳號區)</t>
+  </si>
+  <si>
+    <t>APF0102MU1_Query
+檢查時機：按下『確認』鈕時</t>
+  </si>
+  <si>
+    <t>『APF0102MU1』Form</t>
+  </si>
+  <si>
+    <t>開啟APF0102MU1_Query</t>
+  </si>
+  <si>
+    <t>APF0102MU1_Query</t>
+  </si>
+  <si>
+    <t>開啟APF0102MU1_Grid，依輸入的查詢條件，整合後端 DB資料，並將查詢結果置於APF0102MU1_Grid中，資料依查詢類別，顯示於非角色帳號或角色帳號區塊</t>
+  </si>
+  <si>
+    <t>清除APF0102MU1_Query畫面所有欄位</t>
+  </si>
+  <si>
+    <t>1.前畫面:APF0102MU1
+1.1 SESSION內容:
+1.2 成立條件:該使用者擁有此功能修改權限。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>單位代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_Role</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>不顯示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF0102MU1_Grid_非角色帳號
+檢查時機：按下『確認』鈕時</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0102MU1_Grid_角色帳號
+檢查時機：按下『確認』鈕時</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>單位名稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位名稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效註記</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_emp_unique</t>
+  </si>
+  <si>
+    <t>emp_id</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>suda_work_id</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF0102MU1_Grid (非角色帳號)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF0102MU1_Grid (角色帳號)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(50)</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_id</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_name</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>suda_work_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>org_name</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>org</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效註記</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORG_NAME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP_NAME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUDA_WORK_NAME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP_STATE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_state</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>true(1)顯示●，false(0)則不顯示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:失效，1:生效中，2:未來生效
+0、2顯示●，1則不顯示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.角色帳號Grid回復至帳號加入或移除前的初始狀態。
+2.非角色帳號Grid以上方查詢條件重新查詢並列出。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:數字
+最大長度限制:數字10(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:英數字
+最大長度限制:英文5(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">輸入型態:string，
+格式:中英數字
+最大長度限制:中文20(控制項控制) </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:英數字
+最大長度限制:英文10(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:中英數字
+最大長度限制:中文20(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:數字
+最大長度限制:英文10(控制項控制)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1472,7 +1507,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1512,12 +1547,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1794,7 +1823,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2057,9 +2086,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2097,6 +2123,33 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2106,6 +2159,42 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2118,63 +2207,213 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2186,219 +2425,75 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -4642,7 +4737,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="9466984" cy="584489"/>
+          <a:ext cx="9466608" cy="581853"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -6247,13 +6342,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>234941</xdr:colOff>
+      <xdr:colOff>215900</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -6265,7 +6360,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6278,8 +6373,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47625" y="1076325"/>
-          <a:ext cx="4759316" cy="3571875"/>
+          <a:off x="0" y="1057275"/>
+          <a:ext cx="4787900" cy="3590925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6291,15 +6386,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>276227</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>838201</xdr:colOff>
+      <xdr:colOff>863600</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>20674</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6309,7 +6404,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6322,8 +6417,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4848227" y="1066800"/>
-          <a:ext cx="4752974" cy="3592549"/>
+          <a:off x="4838700" y="1057275"/>
+          <a:ext cx="4787900" cy="3590925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7251,7 +7346,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7264,12 +7359,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="112" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
+      <c r="A1" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="31" t="s">
@@ -7295,82 +7390,82 @@
       <c r="C3" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="101" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="C4" s="35"/>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="101" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="101" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21" customHeight="1">
+      <c r="A6" s="121"/>
+      <c r="B6" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="101" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21" customHeight="1">
+      <c r="A7" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="102" t="s">
+      <c r="B7" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="101" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="113"/>
-      <c r="B6" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="113" t="s">
+    <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
+      <c r="A8" s="122"/>
+      <c r="B8" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="102" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
+      <c r="A9" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
-      <c r="A8" s="114"/>
-      <c r="B8" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="103" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A9" s="113" t="s">
-        <v>126</v>
-      </c>
       <c r="B9" s="38" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A10" s="113"/>
+      <c r="A10" s="121"/>
       <c r="B10" s="38" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="36" t="s">
@@ -7378,9 +7473,9 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A11" s="113"/>
+      <c r="A11" s="121"/>
       <c r="B11" s="38" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="36" t="s">
@@ -7390,7 +7485,7 @@
     <row r="12" spans="1:4" ht="21" hidden="1" customHeight="1" thickBot="1">
       <c r="A12" s="37"/>
       <c r="B12" s="35" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="39"/>
@@ -7691,8 +7786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7707,15 +7802,15 @@
       <c r="A1" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="115" t="s">
+      <c r="M1" s="135" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="116"/>
+      <c r="M2" s="136"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="116"/>
+      <c r="M3" s="136"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -7732,220 +7827,213 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="133"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="144"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="134" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="136"/>
+      <c r="A6" s="132" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="134"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="119" t="s">
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="121"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="129"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="125" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="130" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="123" t="s">
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="131"/>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="129"/>
+    </row>
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="124"/>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="117" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="119" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="121"/>
-    </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="131" t="s">
+      <c r="B10" s="126"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="130" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="123" t="s">
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="131"/>
+    </row>
+    <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="129"/>
+    </row>
+    <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
+      <c r="A12" s="125" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="124"/>
-    </row>
-    <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="127" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="121"/>
-    </row>
-    <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A12" s="131" t="s">
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="131"/>
+    </row>
+    <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="129"/>
+    </row>
+    <row r="14" spans="1:13" s="24" customFormat="1" ht="33" customHeight="1">
+      <c r="A14" s="125" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="124"/>
-    </row>
-    <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="128"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="121"/>
-    </row>
-    <row r="14" spans="1:13" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A14" s="131" t="s">
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="123" t="s">
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="131"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5">
+      <c r="A15" s="139" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="131"/>
+    </row>
+    <row r="83" spans="1:12" ht="21" customHeight="1">
+      <c r="A83" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="124"/>
-    </row>
-    <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="122" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="124"/>
-    </row>
-    <row r="83" spans="1:12" ht="21" customHeight="1">
-      <c r="A83" s="122" t="s">
-        <v>123</v>
-      </c>
-      <c r="B83" s="125"/>
-      <c r="C83" s="125"/>
-      <c r="D83" s="125"/>
-      <c r="E83" s="125"/>
-      <c r="F83" s="125"/>
-      <c r="G83" s="125"/>
-      <c r="H83" s="125"/>
-      <c r="I83" s="125"/>
-      <c r="J83" s="125"/>
-      <c r="K83" s="125"/>
-      <c r="L83" s="126"/>
+      <c r="B83" s="140"/>
+      <c r="C83" s="140"/>
+      <c r="D83" s="140"/>
+      <c r="E83" s="140"/>
+      <c r="F83" s="140"/>
+      <c r="G83" s="140"/>
+      <c r="H83" s="140"/>
+      <c r="I83" s="140"/>
+      <c r="J83" s="140"/>
+      <c r="K83" s="140"/>
+      <c r="L83" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -7960,6 +8048,13 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -8030,20 +8125,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="115" t="s">
-        <v>242</v>
+      <c r="P1" s="135" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="116"/>
+      <c r="P2" s="136"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="116"/>
+      <c r="P3" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8093,8 +8190,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8124,7 +8221,7 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="164" t="s">
+      <c r="K1" s="167" t="s">
         <v>49</v>
       </c>
       <c r="L1" s="55"/>
@@ -8145,7 +8242,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="165"/>
+      <c r="K2" s="168"/>
     </row>
     <row r="3" spans="1:17" s="56" customFormat="1">
       <c r="A3" s="48"/>
@@ -8158,7 +8255,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="165"/>
+      <c r="K3" s="168"/>
     </row>
     <row r="4" spans="1:17" s="56" customFormat="1">
       <c r="A4" s="48"/>
@@ -8176,27 +8273,27 @@
       <c r="A5" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="121"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="129"/>
     </row>
     <row r="6" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="134"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="136"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="134"/>
     </row>
     <row r="7" spans="1:17" s="57" customFormat="1" ht="144" customHeight="1">
       <c r="A7" s="176"/>
@@ -8240,85 +8337,85 @@
       <c r="A10" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="121"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="129"/>
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="51" customHeight="1">
       <c r="A11" s="183" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
+        <v>114</v>
+      </c>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="131"/>
     </row>
     <row r="12" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="121"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="129"/>
     </row>
     <row r="13" spans="1:17" s="59" customFormat="1" ht="21.75" customHeight="1">
       <c r="A13" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="124"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="131"/>
     </row>
     <row r="14" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="121"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="129"/>
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="151" t="s">
-        <v>205</v>
-      </c>
-      <c r="B15" s="160"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="161"/>
+      <c r="A15" s="187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="188"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="189"/>
     </row>
     <row r="16" spans="1:17" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="60" t="s">
@@ -8327,96 +8424,96 @@
       <c r="B16" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="145" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147"/>
+      <c r="C16" s="190" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="191"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="191"/>
+      <c r="J16" s="192"/>
     </row>
     <row r="17" spans="1:10" s="57" customFormat="1" ht="55.5" customHeight="1">
       <c r="A17" s="60">
         <v>1</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" s="162" t="s">
-        <v>248</v>
-      </c>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="150"/>
+        <v>183</v>
+      </c>
+      <c r="C17" s="193" t="s">
+        <v>280</v>
+      </c>
+      <c r="D17" s="194"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="195"/>
     </row>
     <row r="18" spans="1:10" s="57" customFormat="1" ht="48.75" customHeight="1">
       <c r="A18" s="60">
         <v>2</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="162" t="s">
-        <v>249</v>
-      </c>
-      <c r="D18" s="149"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="150"/>
+        <v>184</v>
+      </c>
+      <c r="C18" s="193" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="195"/>
     </row>
     <row r="19" spans="1:10" s="57" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="60">
         <v>3</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="162" t="s">
-        <v>250</v>
-      </c>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="150"/>
+        <v>185</v>
+      </c>
+      <c r="C19" s="193" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="195"/>
     </row>
     <row r="20" spans="1:10" s="57" customFormat="1">
-      <c r="A20" s="142"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="144"/>
+      <c r="A20" s="148"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="1:10" s="57" customFormat="1">
-      <c r="A21" s="151" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="161"/>
+      <c r="A21" s="187" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="188"/>
+      <c r="C21" s="188"/>
+      <c r="D21" s="188"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="189"/>
     </row>
     <row r="22" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="60" t="s">
@@ -8425,16 +8522,16 @@
       <c r="B22" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="145" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="147"/>
+      <c r="C22" s="190" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="191"/>
+      <c r="E22" s="191"/>
+      <c r="F22" s="191"/>
+      <c r="G22" s="191"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="191"/>
+      <c r="J22" s="192"/>
     </row>
     <row r="23" spans="1:10" s="57" customFormat="1">
       <c r="A23" s="60">
@@ -8443,16 +8540,16 @@
       <c r="B23" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="149"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="149"/>
-      <c r="J23" s="150"/>
+      <c r="C23" s="198" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="194"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="194"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="194"/>
+      <c r="J23" s="195"/>
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1">
       <c r="A24" s="60">
@@ -8461,34 +8558,34 @@
       <c r="B24" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="150"/>
+      <c r="C24" s="198" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="194"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="195"/>
     </row>
     <row r="25" spans="1:10" s="57" customFormat="1">
       <c r="A25" s="60">
         <v>3</v>
       </c>
       <c r="B25" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="149"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="150"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="194"/>
+      <c r="J25" s="195"/>
     </row>
     <row r="26" spans="1:10" s="57" customFormat="1">
       <c r="A26" s="60">
@@ -8497,16 +8594,16 @@
       <c r="B26" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="149"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="150"/>
+      <c r="C26" s="198" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="194"/>
+      <c r="E26" s="194"/>
+      <c r="F26" s="194"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="194"/>
+      <c r="J26" s="195"/>
     </row>
     <row r="27" spans="1:10" s="57" customFormat="1">
       <c r="A27" s="172"/>
@@ -8521,32 +8618,32 @@
       <c r="J27" s="174"/>
     </row>
     <row r="28" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="137" t="s">
+      <c r="A28" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="184"/>
-      <c r="C28" s="184"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="184"/>
-      <c r="J28" s="185"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="186"/>
     </row>
     <row r="29" spans="1:10" s="57" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="151" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="160"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="161"/>
+      <c r="A29" s="187" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="188"/>
+      <c r="C29" s="188"/>
+      <c r="D29" s="188"/>
+      <c r="E29" s="188"/>
+      <c r="F29" s="188"/>
+      <c r="G29" s="188"/>
+      <c r="H29" s="188"/>
+      <c r="I29" s="188"/>
+      <c r="J29" s="189"/>
     </row>
     <row r="30" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="60" t="s">
@@ -8555,50 +8652,50 @@
       <c r="B30" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="145" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="146"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="147"/>
-    </row>
-    <row r="31" spans="1:10" s="57" customFormat="1">
+      <c r="C30" s="190" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
+      <c r="F30" s="191"/>
+      <c r="G30" s="191"/>
+      <c r="H30" s="191"/>
+      <c r="I30" s="191"/>
+      <c r="J30" s="192"/>
+    </row>
+    <row r="31" spans="1:10" s="57" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="60">
         <v>1</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="154" t="s">
-        <v>228</v>
-      </c>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="156"/>
+        <v>171</v>
+      </c>
+      <c r="C31" s="199" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" s="200"/>
+      <c r="E31" s="200"/>
+      <c r="F31" s="200"/>
+      <c r="G31" s="200"/>
+      <c r="H31" s="200"/>
+      <c r="I31" s="200"/>
+      <c r="J31" s="201"/>
     </row>
     <row r="32" spans="1:10" s="57" customFormat="1">
       <c r="A32" s="60">
         <v>2</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="C32" s="157"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="159"/>
+        <v>172</v>
+      </c>
+      <c r="C32" s="202"/>
+      <c r="D32" s="203"/>
+      <c r="E32" s="203"/>
+      <c r="F32" s="203"/>
+      <c r="G32" s="203"/>
+      <c r="H32" s="203"/>
+      <c r="I32" s="203"/>
+      <c r="J32" s="204"/>
     </row>
     <row r="33" spans="1:12" s="57" customFormat="1">
       <c r="A33" s="60">
@@ -8607,42 +8704,40 @@
       <c r="B33" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="148" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="150"/>
+      <c r="C33" s="205"/>
+      <c r="D33" s="206"/>
+      <c r="E33" s="206"/>
+      <c r="F33" s="206"/>
+      <c r="G33" s="206"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="206"/>
+      <c r="J33" s="207"/>
     </row>
     <row r="34" spans="1:12" s="57" customFormat="1">
-      <c r="A34" s="142"/>
-      <c r="B34" s="143"/>
-      <c r="C34" s="143"/>
-      <c r="D34" s="143"/>
-      <c r="E34" s="143"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="143"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="144"/>
+      <c r="A34" s="148"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="149"/>
     </row>
     <row r="35" spans="1:12" s="57" customFormat="1">
-      <c r="A35" s="151" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="152"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="152"/>
-      <c r="J35" s="153"/>
+      <c r="A35" s="187" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="196"/>
+      <c r="C35" s="196"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="197"/>
     </row>
     <row r="36" spans="1:12" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="60" t="s">
@@ -8651,16 +8746,16 @@
       <c r="B36" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="145" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="146"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="146"/>
-      <c r="J36" s="147"/>
+      <c r="C36" s="190" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="191"/>
+      <c r="E36" s="191"/>
+      <c r="F36" s="191"/>
+      <c r="G36" s="191"/>
+      <c r="H36" s="191"/>
+      <c r="I36" s="191"/>
+      <c r="J36" s="192"/>
     </row>
     <row r="37" spans="1:12" s="57" customFormat="1">
       <c r="A37" s="60">
@@ -8669,16 +8764,16 @@
       <c r="B37" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="150"/>
+      <c r="C37" s="198" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="194"/>
+      <c r="E37" s="194"/>
+      <c r="F37" s="194"/>
+      <c r="G37" s="194"/>
+      <c r="H37" s="194"/>
+      <c r="I37" s="194"/>
+      <c r="J37" s="195"/>
     </row>
     <row r="38" spans="1:12" s="57" customFormat="1">
       <c r="A38" s="60">
@@ -8687,34 +8782,34 @@
       <c r="B38" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="150"/>
+      <c r="C38" s="198" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="194"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="194"/>
+      <c r="G38" s="194"/>
+      <c r="H38" s="194"/>
+      <c r="I38" s="194"/>
+      <c r="J38" s="195"/>
     </row>
     <row r="39" spans="1:12" s="57" customFormat="1">
       <c r="A39" s="60">
         <v>3</v>
       </c>
       <c r="B39" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="150"/>
+      <c r="D39" s="194"/>
+      <c r="E39" s="194"/>
+      <c r="F39" s="194"/>
+      <c r="G39" s="194"/>
+      <c r="H39" s="194"/>
+      <c r="I39" s="194"/>
+      <c r="J39" s="195"/>
     </row>
     <row r="40" spans="1:12" s="57" customFormat="1">
       <c r="A40" s="60">
@@ -8723,42 +8818,42 @@
       <c r="B40" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="150"/>
+      <c r="C40" s="198" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="194"/>
+      <c r="E40" s="194"/>
+      <c r="F40" s="194"/>
+      <c r="G40" s="194"/>
+      <c r="H40" s="194"/>
+      <c r="I40" s="194"/>
+      <c r="J40" s="195"/>
     </row>
     <row r="41" spans="1:12" s="57" customFormat="1">
-      <c r="A41" s="142"/>
-      <c r="B41" s="143"/>
-      <c r="C41" s="143"/>
-      <c r="D41" s="143"/>
-      <c r="E41" s="143"/>
-      <c r="F41" s="143"/>
-      <c r="G41" s="143"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="143"/>
-      <c r="J41" s="144"/>
+      <c r="A41" s="148"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="165"/>
+      <c r="J41" s="149"/>
     </row>
     <row r="42" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="137" t="s">
+      <c r="A42" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="138"/>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="138"/>
-      <c r="F42" s="138"/>
-      <c r="G42" s="138"/>
-      <c r="H42" s="138"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="139"/>
+      <c r="B42" s="208"/>
+      <c r="C42" s="208"/>
+      <c r="D42" s="208"/>
+      <c r="E42" s="208"/>
+      <c r="F42" s="208"/>
+      <c r="G42" s="208"/>
+      <c r="H42" s="208"/>
+      <c r="I42" s="208"/>
+      <c r="J42" s="209"/>
     </row>
     <row r="43" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="61" t="s">
@@ -8773,14 +8868,14 @@
       <c r="D43" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="140" t="s">
+      <c r="E43" s="210" t="s">
         <v>36</v>
       </c>
-      <c r="F43" s="141"/>
-      <c r="G43" s="141"/>
-      <c r="H43" s="141"/>
-      <c r="I43" s="141"/>
-      <c r="J43" s="141"/>
+      <c r="F43" s="211"/>
+      <c r="G43" s="211"/>
+      <c r="H43" s="211"/>
+      <c r="I43" s="211"/>
+      <c r="J43" s="211"/>
       <c r="K43" s="57"/>
       <c r="L43" s="57"/>
     </row>
@@ -8789,34 +8884,34 @@
         <v>1</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" s="65"/>
       <c r="D44" s="66"/>
-      <c r="E44" s="194" t="s">
-        <v>130</v>
-      </c>
-      <c r="F44" s="129"/>
-      <c r="G44" s="129"/>
-      <c r="H44" s="129"/>
-      <c r="I44" s="129"/>
-      <c r="J44" s="129"/>
+      <c r="E44" s="158" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" s="126"/>
+      <c r="G44" s="126"/>
+      <c r="H44" s="126"/>
+      <c r="I44" s="126"/>
+      <c r="J44" s="126"/>
     </row>
     <row r="45" spans="1:12" s="57" customFormat="1">
       <c r="A45" s="67"/>
-      <c r="B45" s="143"/>
-      <c r="C45" s="143"/>
-      <c r="D45" s="143"/>
-      <c r="E45" s="143"/>
-      <c r="F45" s="143"/>
-      <c r="G45" s="143"/>
-      <c r="H45" s="143"/>
-      <c r="I45" s="143"/>
-      <c r="J45" s="144"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="165"/>
+      <c r="F45" s="165"/>
+      <c r="G45" s="165"/>
+      <c r="H45" s="165"/>
+      <c r="I45" s="165"/>
+      <c r="J45" s="149"/>
     </row>
     <row r="46" spans="1:12" s="57" customFormat="1">
       <c r="A46" s="169" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B46" s="170"/>
       <c r="C46" s="170"/>
@@ -8833,290 +8928,290 @@
         <v>1</v>
       </c>
       <c r="B47" s="68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="70"/>
-      <c r="E47" s="194" t="s">
-        <v>131</v>
-      </c>
-      <c r="F47" s="129"/>
-      <c r="G47" s="129"/>
-      <c r="H47" s="129"/>
-      <c r="I47" s="129"/>
-      <c r="J47" s="129"/>
+      <c r="E47" s="158" t="s">
+        <v>230</v>
+      </c>
+      <c r="F47" s="126"/>
+      <c r="G47" s="126"/>
+      <c r="H47" s="126"/>
+      <c r="I47" s="126"/>
+      <c r="J47" s="126"/>
     </row>
     <row r="48" spans="1:12" s="59" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="71">
         <v>2</v>
       </c>
       <c r="B48" s="72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="73"/>
-      <c r="E48" s="166" t="s">
-        <v>183</v>
-      </c>
-      <c r="F48" s="167"/>
-      <c r="G48" s="167"/>
-      <c r="H48" s="167"/>
-      <c r="I48" s="167"/>
-      <c r="J48" s="168"/>
+      <c r="E48" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="F48" s="146"/>
+      <c r="G48" s="146"/>
+      <c r="H48" s="146"/>
+      <c r="I48" s="146"/>
+      <c r="J48" s="147"/>
     </row>
     <row r="49" spans="1:10" s="57" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="74">
         <v>3</v>
       </c>
       <c r="B49" s="68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="75"/>
-      <c r="E49" s="166" t="s">
-        <v>132</v>
-      </c>
-      <c r="F49" s="167"/>
-      <c r="G49" s="167"/>
-      <c r="H49" s="167"/>
-      <c r="I49" s="167"/>
-      <c r="J49" s="168"/>
+      <c r="E49" s="145" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="146"/>
+      <c r="G49" s="146"/>
+      <c r="H49" s="146"/>
+      <c r="I49" s="146"/>
+      <c r="J49" s="147"/>
     </row>
     <row r="50" spans="1:10" s="57" customFormat="1">
       <c r="A50" s="76"/>
-      <c r="B50" s="143"/>
-      <c r="C50" s="143"/>
-      <c r="D50" s="143"/>
-      <c r="E50" s="143"/>
-      <c r="F50" s="143"/>
-      <c r="G50" s="143"/>
-      <c r="H50" s="143"/>
-      <c r="I50" s="143"/>
-      <c r="J50" s="144"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
+      <c r="E50" s="165"/>
+      <c r="F50" s="165"/>
+      <c r="G50" s="165"/>
+      <c r="H50" s="165"/>
+      <c r="I50" s="165"/>
+      <c r="J50" s="149"/>
     </row>
     <row r="51" spans="1:10" s="57" customFormat="1">
-      <c r="A51" s="195" t="s">
-        <v>128</v>
-      </c>
-      <c r="B51" s="196"/>
-      <c r="C51" s="196"/>
-      <c r="D51" s="196"/>
-      <c r="E51" s="196"/>
-      <c r="F51" s="196"/>
-      <c r="G51" s="196"/>
-      <c r="H51" s="196"/>
-      <c r="I51" s="196"/>
-      <c r="J51" s="197"/>
+      <c r="A51" s="159" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="160"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="160"/>
+      <c r="E51" s="160"/>
+      <c r="F51" s="160"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="160"/>
+      <c r="I51" s="160"/>
+      <c r="J51" s="161"/>
     </row>
     <row r="52" spans="1:10" s="57" customFormat="1" hidden="1">
       <c r="A52" s="60">
         <v>1</v>
       </c>
       <c r="B52" s="68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C52" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="70"/>
-      <c r="E52" s="194" t="s">
-        <v>100</v>
-      </c>
-      <c r="F52" s="129"/>
-      <c r="G52" s="129"/>
-      <c r="H52" s="129"/>
-      <c r="I52" s="129"/>
-      <c r="J52" s="129"/>
+      <c r="E52" s="158" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="126"/>
+      <c r="G52" s="126"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="126"/>
+      <c r="J52" s="126"/>
     </row>
     <row r="53" spans="1:10" s="57" customFormat="1" hidden="1">
       <c r="A53" s="60">
         <v>2</v>
       </c>
       <c r="B53" s="68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="73"/>
-      <c r="E53" s="198" t="s">
-        <v>101</v>
-      </c>
-      <c r="F53" s="199"/>
-      <c r="G53" s="199"/>
-      <c r="H53" s="199"/>
-      <c r="I53" s="199"/>
-      <c r="J53" s="200"/>
+      <c r="E53" s="162" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="163"/>
+      <c r="G53" s="163"/>
+      <c r="H53" s="163"/>
+      <c r="I53" s="163"/>
+      <c r="J53" s="164"/>
     </row>
     <row r="54" spans="1:10" s="57" customFormat="1" hidden="1">
       <c r="A54" s="60">
         <v>3</v>
       </c>
       <c r="B54" s="68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C54" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="73"/>
-      <c r="E54" s="198" t="s">
-        <v>102</v>
-      </c>
-      <c r="F54" s="199"/>
-      <c r="G54" s="199"/>
-      <c r="H54" s="199"/>
-      <c r="I54" s="199"/>
-      <c r="J54" s="200"/>
+      <c r="E54" s="162" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" s="163"/>
+      <c r="G54" s="163"/>
+      <c r="H54" s="163"/>
+      <c r="I54" s="163"/>
+      <c r="J54" s="164"/>
     </row>
     <row r="55" spans="1:10" s="57" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="60">
         <v>4</v>
       </c>
       <c r="B55" s="68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C55" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="73"/>
-      <c r="E55" s="198" t="s">
+      <c r="E55" s="162" t="s">
         <v>77</v>
       </c>
-      <c r="F55" s="199"/>
-      <c r="G55" s="199"/>
-      <c r="H55" s="199"/>
-      <c r="I55" s="199"/>
-      <c r="J55" s="200"/>
+      <c r="F55" s="163"/>
+      <c r="G55" s="163"/>
+      <c r="H55" s="163"/>
+      <c r="I55" s="163"/>
+      <c r="J55" s="164"/>
     </row>
     <row r="56" spans="1:10" s="57" customFormat="1" ht="33.75" customHeight="1">
       <c r="A56" s="60">
         <v>1</v>
       </c>
       <c r="B56" s="85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C56" s="87" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="86"/>
-      <c r="E56" s="166" t="s">
-        <v>184</v>
-      </c>
-      <c r="F56" s="123"/>
-      <c r="G56" s="123"/>
-      <c r="H56" s="123"/>
-      <c r="I56" s="123"/>
-      <c r="J56" s="124"/>
+      <c r="E56" s="145" t="s">
+        <v>231</v>
+      </c>
+      <c r="F56" s="130"/>
+      <c r="G56" s="130"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="131"/>
     </row>
     <row r="57" spans="1:10" s="57" customFormat="1">
       <c r="A57" s="77"/>
-      <c r="B57" s="143"/>
-      <c r="C57" s="143"/>
-      <c r="D57" s="143"/>
-      <c r="E57" s="143"/>
-      <c r="F57" s="143"/>
-      <c r="G57" s="143"/>
-      <c r="H57" s="143"/>
-      <c r="I57" s="143"/>
-      <c r="J57" s="144"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
+      <c r="E57" s="165"/>
+      <c r="F57" s="165"/>
+      <c r="G57" s="165"/>
+      <c r="H57" s="165"/>
+      <c r="I57" s="165"/>
+      <c r="J57" s="149"/>
     </row>
     <row r="58" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="191" t="s">
+      <c r="A58" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="192"/>
-      <c r="C58" s="192"/>
-      <c r="D58" s="192"/>
-      <c r="E58" s="192"/>
-      <c r="F58" s="192"/>
-      <c r="G58" s="192"/>
-      <c r="H58" s="192"/>
-      <c r="I58" s="192"/>
-      <c r="J58" s="193"/>
+      <c r="B58" s="156"/>
+      <c r="C58" s="156"/>
+      <c r="D58" s="156"/>
+      <c r="E58" s="156"/>
+      <c r="F58" s="156"/>
+      <c r="G58" s="156"/>
+      <c r="H58" s="156"/>
+      <c r="I58" s="156"/>
+      <c r="J58" s="157"/>
     </row>
     <row r="59" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="189" t="s">
+      <c r="B59" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="190"/>
-      <c r="D59" s="166" t="s">
+      <c r="C59" s="154"/>
+      <c r="D59" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="123"/>
-      <c r="F59" s="123"/>
-      <c r="G59" s="123"/>
-      <c r="H59" s="123"/>
-      <c r="I59" s="123"/>
-      <c r="J59" s="124"/>
+      <c r="E59" s="130"/>
+      <c r="F59" s="130"/>
+      <c r="G59" s="130"/>
+      <c r="H59" s="130"/>
+      <c r="I59" s="130"/>
+      <c r="J59" s="131"/>
     </row>
     <row r="60" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="186"/>
-      <c r="B60" s="187"/>
-      <c r="C60" s="187"/>
-      <c r="D60" s="187"/>
-      <c r="E60" s="187"/>
-      <c r="F60" s="187"/>
-      <c r="G60" s="187"/>
-      <c r="H60" s="187"/>
-      <c r="I60" s="187"/>
-      <c r="J60" s="188"/>
+      <c r="A60" s="150"/>
+      <c r="B60" s="151"/>
+      <c r="C60" s="151"/>
+      <c r="D60" s="151"/>
+      <c r="E60" s="151"/>
+      <c r="F60" s="151"/>
+      <c r="G60" s="151"/>
+      <c r="H60" s="151"/>
+      <c r="I60" s="151"/>
+      <c r="J60" s="152"/>
     </row>
     <row r="61" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="74"/>
-      <c r="B61" s="142"/>
-      <c r="C61" s="144"/>
-      <c r="D61" s="166"/>
-      <c r="E61" s="167"/>
-      <c r="F61" s="167"/>
-      <c r="G61" s="167"/>
-      <c r="H61" s="167"/>
-      <c r="I61" s="167"/>
-      <c r="J61" s="168"/>
+      <c r="B61" s="148"/>
+      <c r="C61" s="149"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="146"/>
+      <c r="F61" s="146"/>
+      <c r="G61" s="146"/>
+      <c r="H61" s="146"/>
+      <c r="I61" s="146"/>
+      <c r="J61" s="147"/>
     </row>
     <row r="62" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="74"/>
-      <c r="B62" s="142"/>
-      <c r="C62" s="144"/>
-      <c r="D62" s="166"/>
-      <c r="E62" s="167"/>
-      <c r="F62" s="167"/>
-      <c r="G62" s="167"/>
-      <c r="H62" s="167"/>
-      <c r="I62" s="167"/>
-      <c r="J62" s="168"/>
+      <c r="B62" s="148"/>
+      <c r="C62" s="149"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="146"/>
+      <c r="F62" s="146"/>
+      <c r="G62" s="146"/>
+      <c r="H62" s="146"/>
+      <c r="I62" s="146"/>
+      <c r="J62" s="147"/>
     </row>
     <row r="63" spans="1:10" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="186"/>
-      <c r="B63" s="187"/>
-      <c r="C63" s="187"/>
-      <c r="D63" s="187"/>
-      <c r="E63" s="187"/>
-      <c r="F63" s="187"/>
-      <c r="G63" s="187"/>
-      <c r="H63" s="187"/>
-      <c r="I63" s="187"/>
-      <c r="J63" s="188"/>
+      <c r="A63" s="150"/>
+      <c r="B63" s="151"/>
+      <c r="C63" s="151"/>
+      <c r="D63" s="151"/>
+      <c r="E63" s="151"/>
+      <c r="F63" s="151"/>
+      <c r="G63" s="151"/>
+      <c r="H63" s="151"/>
+      <c r="I63" s="151"/>
+      <c r="J63" s="152"/>
     </row>
     <row r="64" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="74"/>
-      <c r="B64" s="142"/>
-      <c r="C64" s="144"/>
-      <c r="D64" s="166"/>
-      <c r="E64" s="167"/>
-      <c r="F64" s="167"/>
-      <c r="G64" s="167"/>
-      <c r="H64" s="167"/>
-      <c r="I64" s="167"/>
-      <c r="J64" s="168"/>
+      <c r="B64" s="148"/>
+      <c r="C64" s="149"/>
+      <c r="D64" s="145"/>
+      <c r="E64" s="146"/>
+      <c r="F64" s="146"/>
+      <c r="G64" s="146"/>
+      <c r="H64" s="146"/>
+      <c r="I64" s="146"/>
+      <c r="J64" s="147"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="78" t="s">
@@ -9139,14 +9234,14 @@
       <c r="B66" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="142"/>
-      <c r="D66" s="123"/>
-      <c r="E66" s="123"/>
-      <c r="F66" s="123"/>
-      <c r="G66" s="123"/>
-      <c r="H66" s="123"/>
-      <c r="I66" s="123"/>
-      <c r="J66" s="124"/>
+      <c r="C66" s="148"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="130"/>
+      <c r="F66" s="130"/>
+      <c r="G66" s="130"/>
+      <c r="H66" s="130"/>
+      <c r="I66" s="130"/>
+      <c r="J66" s="131"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="74">
@@ -9155,22 +9250,58 @@
       <c r="B67" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="163"/>
-      <c r="D67" s="163"/>
-      <c r="E67" s="163"/>
-      <c r="F67" s="163"/>
-      <c r="G67" s="163"/>
-      <c r="H67" s="163"/>
-      <c r="I67" s="163"/>
-      <c r="J67" s="163"/>
+      <c r="C67" s="166"/>
+      <c r="D67" s="166"/>
+      <c r="E67" s="166"/>
+      <c r="F67" s="166"/>
+      <c r="G67" s="166"/>
+      <c r="H67" s="166"/>
+      <c r="I67" s="166"/>
+      <c r="J67" s="166"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B62:C62"/>
+  <mergeCells count="62">
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C31:J33"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="A60:J60"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="A58:J58"/>
@@ -9187,48 +9318,11 @@
     <mergeCell ref="B45:J45"/>
     <mergeCell ref="B50:J50"/>
     <mergeCell ref="B57:J57"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D61:J61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B62:C62"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9248,10 +9342,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9281,7 +9375,7 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="164" t="s">
+      <c r="K1" s="167" t="s">
         <v>49</v>
       </c>
       <c r="L1" s="40"/>
@@ -9308,7 +9402,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="165"/>
+      <c r="K2" s="168"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -9326,7 +9420,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="165"/>
+      <c r="K3" s="168"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -9370,18 +9464,18 @@
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="201" t="s">
+      <c r="A6" s="212" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="202"/>
-      <c r="I6" s="202"/>
-      <c r="J6" s="203"/>
+      <c r="B6" s="213"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="213"/>
+      <c r="I6" s="213"/>
+      <c r="J6" s="214"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -9391,16 +9485,16 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="43" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>20</v>
@@ -9412,7 +9506,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="I7" s="43" t="s">
         <v>38</v>
@@ -9448,34 +9542,34 @@
       <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="201" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="202"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="202"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="203"/>
+      <c r="A10" s="212" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="213"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="214"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>19</v>
@@ -9484,10 +9578,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -9501,10 +9595,10 @@
         <v>51</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="46" t="s">
         <v>59</v>
@@ -9532,7 +9626,7 @@
         <v>76</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" s="46" t="s">
         <v>62</v>
@@ -9557,7 +9651,7 @@
         <v>53</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50" t="s">
@@ -9576,38 +9670,38 @@
         <v>78</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="201" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="202"/>
-      <c r="C16" s="202"/>
-      <c r="D16" s="202"/>
-      <c r="E16" s="202"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="202"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="203"/>
+      <c r="A16" s="212" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="213"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="213"/>
+      <c r="F16" s="213"/>
+      <c r="G16" s="213"/>
+      <c r="H16" s="213"/>
+      <c r="I16" s="213"/>
+      <c r="J16" s="214"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="43" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="F17" s="43" t="s">
         <v>19</v>
@@ -9616,10 +9710,10 @@
         <v>13</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="J17" s="43" t="s">
         <v>0</v>
@@ -9630,50 +9724,52 @@
         <v>1</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>81</v>
+        <v>240</v>
+      </c>
+      <c r="C18" s="111" t="s">
+        <v>241</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46" t="s">
-        <v>153</v>
+        <v>242</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>110</v>
+        <v>241</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>69</v>
+        <v>243</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="49"/>
+        <v>244</v>
+      </c>
+      <c r="J18" s="47" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="49">
         <v>2</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="46" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J19" s="49"/>
     </row>
@@ -9682,68 +9778,94 @@
         <v>3</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="J20" s="47" t="s">
-        <v>155</v>
-      </c>
+      <c r="J20" s="49"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="44">
+      <c r="A21" s="49">
         <v>4</v>
       </c>
-      <c r="B21" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="50"/>
+      <c r="B21" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="46"/>
       <c r="I21" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="52" t="s">
-        <v>259</v>
+      <c r="J21" s="47" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="53"/>
+      <c r="A22" s="49">
+        <v>5</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="50"/>
+      <c r="I22" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="52" t="s">
+        <v>220</v>
+      </c>
       <c r="K22" s="54"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9770,10 +9892,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9802,7 +9924,7 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="164" t="s">
+      <c r="K1" s="167" t="s">
         <v>49</v>
       </c>
       <c r="L1" s="55"/>
@@ -9823,7 +9945,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="165"/>
+      <c r="K2" s="168"/>
     </row>
     <row r="3" spans="1:17" s="56" customFormat="1">
       <c r="A3" s="48"/>
@@ -9836,7 +9958,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="165"/>
+      <c r="K3" s="168"/>
     </row>
     <row r="4" spans="1:17" s="56" customFormat="1">
       <c r="A4" s="48"/>
@@ -9854,27 +9976,27 @@
       <c r="A5" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="121"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="129"/>
     </row>
     <row r="6" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="134"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="136"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="134"/>
     </row>
     <row r="7" spans="1:17" s="57" customFormat="1" ht="144" customHeight="1">
       <c r="A7" s="176"/>
@@ -9918,85 +10040,85 @@
       <c r="A10" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="121"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="129"/>
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="84.75" customHeight="1">
       <c r="A11" s="183" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
+        <v>238</v>
+      </c>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="131"/>
     </row>
     <row r="12" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="121"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="129"/>
     </row>
     <row r="13" spans="1:17" s="59" customFormat="1" ht="21.75" customHeight="1">
       <c r="A13" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="124"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="131"/>
     </row>
     <row r="14" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="121"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="129"/>
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="160"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="161"/>
+      <c r="A15" s="187" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="188"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="189"/>
     </row>
     <row r="16" spans="1:17" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="60" t="s">
@@ -10005,124 +10127,124 @@
       <c r="B16" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="145" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147"/>
+      <c r="C16" s="190" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="191"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="191"/>
+      <c r="J16" s="192"/>
     </row>
     <row r="17" spans="1:10" s="57" customFormat="1">
       <c r="A17" s="60">
         <v>1</v>
       </c>
       <c r="B17" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="162" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="150"/>
-    </row>
-    <row r="18" spans="1:10" s="57" customFormat="1" ht="24" customHeight="1">
+        <v>132</v>
+      </c>
+      <c r="C17" s="193" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="194"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="195"/>
+    </row>
+    <row r="18" spans="1:10" s="57" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="44">
         <v>2</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="162" t="s">
-        <v>225</v>
-      </c>
-      <c r="D18" s="149"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="150"/>
-    </row>
-    <row r="19" spans="1:10" s="57" customFormat="1" ht="27.75" customHeight="1">
+        <v>239</v>
+      </c>
+      <c r="C18" s="193" t="s">
+        <v>277</v>
+      </c>
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="195"/>
+    </row>
+    <row r="19" spans="1:10" s="57" customFormat="1" ht="54.75" customHeight="1">
       <c r="A19" s="44">
         <v>3</v>
       </c>
       <c r="B19" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="162" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="150"/>
-    </row>
-    <row r="20" spans="1:10" s="57" customFormat="1" ht="42" customHeight="1">
+        <v>136</v>
+      </c>
+      <c r="C19" s="193" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="195"/>
+    </row>
+    <row r="20" spans="1:10" s="57" customFormat="1" ht="57" customHeight="1">
       <c r="A20" s="49">
         <v>4</v>
       </c>
       <c r="B20" s="88" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="162" t="s">
-        <v>251</v>
-      </c>
-      <c r="D20" s="149"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="150"/>
-    </row>
-    <row r="21" spans="1:10" s="57" customFormat="1" ht="39.75" customHeight="1">
+        <v>133</v>
+      </c>
+      <c r="C20" s="193" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" s="194"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="195"/>
+    </row>
+    <row r="21" spans="1:10" s="57" customFormat="1" ht="51" customHeight="1">
       <c r="A21" s="49">
         <v>5</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="162" t="s">
-        <v>252</v>
-      </c>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="150"/>
+        <v>134</v>
+      </c>
+      <c r="C21" s="193" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="194"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="194"/>
+      <c r="J21" s="195"/>
     </row>
     <row r="22" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A22" s="44">
         <v>6</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>253</v>
-      </c>
-      <c r="C22" s="162" t="s">
-        <v>239</v>
-      </c>
-      <c r="D22" s="208"/>
-      <c r="E22" s="208"/>
-      <c r="F22" s="208"/>
-      <c r="G22" s="208"/>
-      <c r="H22" s="208"/>
-      <c r="I22" s="208"/>
-      <c r="J22" s="209"/>
+        <v>216</v>
+      </c>
+      <c r="C22" s="193" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="224"/>
+      <c r="E22" s="224"/>
+      <c r="F22" s="224"/>
+      <c r="G22" s="224"/>
+      <c r="H22" s="224"/>
+      <c r="I22" s="224"/>
+      <c r="J22" s="225"/>
     </row>
     <row r="23" spans="1:10" s="57" customFormat="1">
       <c r="A23" s="172"/>
@@ -10137,790 +10259,1027 @@
       <c r="J23" s="174"/>
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A24" s="151" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="160"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="161"/>
+      <c r="A24" s="187" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24" s="188"/>
+      <c r="C24" s="188"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="188"/>
+      <c r="J24" s="189"/>
     </row>
     <row r="25" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A25" s="89">
         <v>1</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="162" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" s="149"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="150"/>
+        <v>133</v>
+      </c>
+      <c r="C25" s="193" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="194"/>
+      <c r="J25" s="195"/>
     </row>
     <row r="26" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A26" s="89">
         <v>2</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="162" t="s">
-        <v>171</v>
-      </c>
-      <c r="D26" s="149"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="150"/>
+        <v>134</v>
+      </c>
+      <c r="C26" s="193" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="194"/>
+      <c r="E26" s="194"/>
+      <c r="F26" s="194"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="194"/>
+      <c r="J26" s="195"/>
     </row>
     <row r="27" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A27" s="44">
         <v>3</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" s="162" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="150"/>
+        <v>248</v>
+      </c>
+      <c r="C27" s="193" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="194"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="194"/>
+      <c r="J27" s="195"/>
     </row>
     <row r="28" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A28" s="44">
         <v>4</v>
       </c>
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="112" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="193" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="194"/>
+      <c r="E28" s="194"/>
+      <c r="F28" s="194"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="194"/>
+      <c r="J28" s="195"/>
+    </row>
+    <row r="29" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A29" s="232"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118"/>
+    </row>
+    <row r="30" spans="1:10" s="57" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A30" s="187" t="s">
+        <v>247</v>
+      </c>
+      <c r="B30" s="188"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="188"/>
+      <c r="F30" s="188"/>
+      <c r="G30" s="188"/>
+      <c r="H30" s="188"/>
+      <c r="I30" s="188"/>
+      <c r="J30" s="189"/>
+    </row>
+    <row r="31" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A31" s="89">
+        <v>1</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="193" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="195"/>
+    </row>
+    <row r="32" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A32" s="89">
+        <v>2</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="193" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="194"/>
+      <c r="E32" s="194"/>
+      <c r="F32" s="194"/>
+      <c r="G32" s="194"/>
+      <c r="H32" s="194"/>
+      <c r="I32" s="194"/>
+      <c r="J32" s="195"/>
+    </row>
+    <row r="33" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A33" s="44">
+        <v>3</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="193" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="194"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="194"/>
+      <c r="J33" s="195"/>
+    </row>
+    <row r="34" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A34" s="44">
+        <v>4</v>
+      </c>
+      <c r="B34" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="193" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="194"/>
+      <c r="E34" s="194"/>
+      <c r="F34" s="194"/>
+      <c r="G34" s="194"/>
+      <c r="H34" s="194"/>
+      <c r="I34" s="194"/>
+      <c r="J34" s="195"/>
+    </row>
+    <row r="35" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A35" s="44">
+        <v>5</v>
+      </c>
+      <c r="B35" s="112" t="s">
+        <v>250</v>
+      </c>
+      <c r="C35" s="193" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="194"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="194"/>
+      <c r="G35" s="194"/>
+      <c r="H35" s="194"/>
+      <c r="I35" s="194"/>
+      <c r="J35" s="195"/>
+    </row>
+    <row r="36" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A36" s="233"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="234"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="116"/>
+    </row>
+    <row r="37" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A37" s="184" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="185"/>
+      <c r="C37" s="185"/>
+      <c r="D37" s="185"/>
+      <c r="E37" s="185"/>
+      <c r="F37" s="185"/>
+      <c r="G37" s="185"/>
+      <c r="H37" s="185"/>
+      <c r="I37" s="185"/>
+      <c r="J37" s="186"/>
+    </row>
+    <row r="38" spans="1:10" s="57" customFormat="1" ht="36" customHeight="1">
+      <c r="A38" s="187" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" s="188"/>
+      <c r="C38" s="188"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="188"/>
+      <c r="F38" s="188"/>
+      <c r="G38" s="188"/>
+      <c r="H38" s="188"/>
+      <c r="I38" s="188"/>
+      <c r="J38" s="189"/>
+    </row>
+    <row r="39" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A39" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="162" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="150"/>
-    </row>
-    <row r="29" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="137" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="184"/>
-      <c r="C29" s="184"/>
-      <c r="D29" s="184"/>
-      <c r="E29" s="184"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="184"/>
-      <c r="H29" s="184"/>
-      <c r="I29" s="184"/>
-      <c r="J29" s="185"/>
-    </row>
-    <row r="30" spans="1:10" s="57" customFormat="1" ht="36" customHeight="1">
-      <c r="A30" s="151" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" s="160"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="161"/>
-    </row>
-    <row r="31" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A31" s="60" t="s">
+      <c r="C39" s="190" t="s">
         <v>139</v>
       </c>
-      <c r="B31" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="145" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="147"/>
-    </row>
-    <row r="32" spans="1:10" s="57" customFormat="1">
-      <c r="A32" s="60">
+      <c r="D39" s="191"/>
+      <c r="E39" s="191"/>
+      <c r="F39" s="191"/>
+      <c r="G39" s="191"/>
+      <c r="H39" s="191"/>
+      <c r="I39" s="191"/>
+      <c r="J39" s="192"/>
+    </row>
+    <row r="40" spans="1:10" s="57" customFormat="1">
+      <c r="A40" s="60">
         <v>1</v>
       </c>
-      <c r="B32" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="210" t="s">
-        <v>227</v>
-      </c>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="156"/>
-    </row>
-    <row r="33" spans="1:12" s="57" customFormat="1">
-      <c r="A33" s="60">
+      <c r="B40" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="215" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="216"/>
+      <c r="E40" s="216"/>
+      <c r="F40" s="216"/>
+      <c r="G40" s="216"/>
+      <c r="H40" s="216"/>
+      <c r="I40" s="216"/>
+      <c r="J40" s="217"/>
+    </row>
+    <row r="41" spans="1:10" s="57" customFormat="1">
+      <c r="A41" s="60">
         <v>2</v>
       </c>
-      <c r="B33" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" s="211"/>
-      <c r="D33" s="212"/>
-      <c r="E33" s="212"/>
-      <c r="F33" s="212"/>
-      <c r="G33" s="212"/>
-      <c r="H33" s="212"/>
-      <c r="I33" s="212"/>
-      <c r="J33" s="213"/>
-    </row>
-    <row r="34" spans="1:12" s="57" customFormat="1">
-      <c r="A34" s="60">
+      <c r="B41" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="218"/>
+      <c r="D41" s="219"/>
+      <c r="E41" s="219"/>
+      <c r="F41" s="219"/>
+      <c r="G41" s="219"/>
+      <c r="H41" s="219"/>
+      <c r="I41" s="219"/>
+      <c r="J41" s="220"/>
+    </row>
+    <row r="42" spans="1:10" s="57" customFormat="1">
+      <c r="A42" s="60">
         <v>3</v>
       </c>
-      <c r="B34" s="88" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" s="211"/>
-      <c r="D34" s="212"/>
-      <c r="E34" s="212"/>
-      <c r="F34" s="212"/>
-      <c r="G34" s="212"/>
-      <c r="H34" s="212"/>
-      <c r="I34" s="212"/>
-      <c r="J34" s="213"/>
-    </row>
-    <row r="35" spans="1:12" s="57" customFormat="1">
-      <c r="A35" s="60">
+      <c r="B42" s="88" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="218"/>
+      <c r="D42" s="219"/>
+      <c r="E42" s="219"/>
+      <c r="F42" s="219"/>
+      <c r="G42" s="219"/>
+      <c r="H42" s="219"/>
+      <c r="I42" s="219"/>
+      <c r="J42" s="220"/>
+    </row>
+    <row r="43" spans="1:10" s="57" customFormat="1">
+      <c r="A43" s="60">
         <v>4</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B43" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="221"/>
+      <c r="D43" s="222"/>
+      <c r="E43" s="222"/>
+      <c r="F43" s="222"/>
+      <c r="G43" s="222"/>
+      <c r="H43" s="222"/>
+      <c r="I43" s="222"/>
+      <c r="J43" s="223"/>
+    </row>
+    <row r="44" spans="1:10" s="57" customFormat="1">
+      <c r="A44" s="148"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="165"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="149"/>
+    </row>
+    <row r="45" spans="1:10" s="57" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A45" s="187" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" s="188"/>
+      <c r="C45" s="188"/>
+      <c r="D45" s="188"/>
+      <c r="E45" s="188"/>
+      <c r="F45" s="188"/>
+      <c r="G45" s="188"/>
+      <c r="H45" s="188"/>
+      <c r="I45" s="188"/>
+      <c r="J45" s="189"/>
+    </row>
+    <row r="46" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A46" s="89">
+        <v>1</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="193" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="194"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="194"/>
+      <c r="G46" s="194"/>
+      <c r="H46" s="194"/>
+      <c r="I46" s="194"/>
+      <c r="J46" s="195"/>
+    </row>
+    <row r="47" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A47" s="89">
+        <v>2</v>
+      </c>
+      <c r="B47" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="193" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="194"/>
+      <c r="E47" s="194"/>
+      <c r="F47" s="194"/>
+      <c r="G47" s="194"/>
+      <c r="H47" s="194"/>
+      <c r="I47" s="194"/>
+      <c r="J47" s="195"/>
+    </row>
+    <row r="48" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A48" s="44">
+        <v>3</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" s="193" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="194"/>
+      <c r="E48" s="194"/>
+      <c r="F48" s="194"/>
+      <c r="G48" s="194"/>
+      <c r="H48" s="194"/>
+      <c r="I48" s="194"/>
+      <c r="J48" s="195"/>
+    </row>
+    <row r="49" spans="1:12" s="57" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A49" s="44">
+        <v>4</v>
+      </c>
+      <c r="B49" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="157"/>
-      <c r="D35" s="158"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="159"/>
-    </row>
-    <row r="36" spans="1:12" s="57" customFormat="1">
-      <c r="A36" s="142"/>
-      <c r="B36" s="143"/>
-      <c r="C36" s="143"/>
-      <c r="D36" s="143"/>
-      <c r="E36" s="143"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="144"/>
-    </row>
-    <row r="37" spans="1:12" s="57" customFormat="1">
-      <c r="A37" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="B37" s="152"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="153"/>
-    </row>
-    <row r="38" spans="1:12" s="57" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A38" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="B38" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="145" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="146"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="147"/>
-    </row>
-    <row r="39" spans="1:12" s="57" customFormat="1">
-      <c r="A39" s="89">
+      <c r="C49" s="193" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="194"/>
+      <c r="E49" s="194"/>
+      <c r="F49" s="194"/>
+      <c r="G49" s="194"/>
+      <c r="H49" s="194"/>
+      <c r="I49" s="194"/>
+      <c r="J49" s="195"/>
+    </row>
+    <row r="50" spans="1:12" s="57" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A50" s="232"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="117"/>
+      <c r="E50" s="117"/>
+      <c r="F50" s="117"/>
+      <c r="G50" s="117"/>
+      <c r="H50" s="117"/>
+      <c r="I50" s="117"/>
+      <c r="J50" s="118"/>
+    </row>
+    <row r="51" spans="1:12" s="57" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A51" s="187" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" s="188"/>
+      <c r="C51" s="188"/>
+      <c r="D51" s="188"/>
+      <c r="E51" s="188"/>
+      <c r="F51" s="188"/>
+      <c r="G51" s="188"/>
+      <c r="H51" s="188"/>
+      <c r="I51" s="188"/>
+      <c r="J51" s="189"/>
+    </row>
+    <row r="52" spans="1:12" s="57" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A52" s="89">
         <v>1</v>
       </c>
-      <c r="B39" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="148" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="150"/>
-    </row>
-    <row r="40" spans="1:12" s="57" customFormat="1">
-      <c r="A40" s="89">
+      <c r="B52" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="193" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="194"/>
+      <c r="E52" s="194"/>
+      <c r="F52" s="194"/>
+      <c r="G52" s="194"/>
+      <c r="H52" s="194"/>
+      <c r="I52" s="194"/>
+      <c r="J52" s="195"/>
+    </row>
+    <row r="53" spans="1:12" s="57" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A53" s="89">
         <v>2</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B53" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="193" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="194"/>
+      <c r="E53" s="194"/>
+      <c r="F53" s="194"/>
+      <c r="G53" s="194"/>
+      <c r="H53" s="194"/>
+      <c r="I53" s="194"/>
+      <c r="J53" s="195"/>
+    </row>
+    <row r="54" spans="1:12" s="57" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A54" s="44">
+        <v>3</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="C54" s="193" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="194"/>
+      <c r="E54" s="194"/>
+      <c r="F54" s="194"/>
+      <c r="G54" s="194"/>
+      <c r="H54" s="194"/>
+      <c r="I54" s="194"/>
+      <c r="J54" s="195"/>
+    </row>
+    <row r="55" spans="1:12" s="57" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A55" s="44">
+        <v>4</v>
+      </c>
+      <c r="B55" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="C40" s="148" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="150"/>
-    </row>
-    <row r="41" spans="1:12" s="57" customFormat="1">
-      <c r="A41" s="44">
+      <c r="C55" s="193" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="194"/>
+      <c r="E55" s="194"/>
+      <c r="F55" s="194"/>
+      <c r="G55" s="194"/>
+      <c r="H55" s="194"/>
+      <c r="I55" s="194"/>
+      <c r="J55" s="195"/>
+    </row>
+    <row r="56" spans="1:12" s="57" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A56" s="44">
+        <v>5</v>
+      </c>
+      <c r="B56" s="112" t="s">
+        <v>250</v>
+      </c>
+      <c r="C56" s="193" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="194"/>
+      <c r="E56" s="194"/>
+      <c r="F56" s="194"/>
+      <c r="G56" s="194"/>
+      <c r="H56" s="194"/>
+      <c r="I56" s="194"/>
+      <c r="J56" s="195"/>
+    </row>
+    <row r="57" spans="1:12" s="57" customFormat="1">
+      <c r="A57" s="148"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
+      <c r="E57" s="165"/>
+      <c r="F57" s="165"/>
+      <c r="G57" s="165"/>
+      <c r="H57" s="165"/>
+      <c r="I57" s="165"/>
+      <c r="J57" s="149"/>
+    </row>
+    <row r="58" spans="1:12" s="57" customFormat="1">
+      <c r="A58" s="172"/>
+      <c r="B58" s="226"/>
+      <c r="C58" s="226"/>
+      <c r="D58" s="226"/>
+      <c r="E58" s="226"/>
+      <c r="F58" s="226"/>
+      <c r="G58" s="226"/>
+      <c r="H58" s="226"/>
+      <c r="I58" s="226"/>
+      <c r="J58" s="227"/>
+    </row>
+    <row r="59" spans="1:12" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A59" s="184" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="185"/>
+      <c r="C59" s="185"/>
+      <c r="D59" s="185"/>
+      <c r="E59" s="185"/>
+      <c r="F59" s="185"/>
+      <c r="G59" s="185"/>
+      <c r="H59" s="185"/>
+      <c r="I59" s="185"/>
+      <c r="J59" s="186"/>
+    </row>
+    <row r="60" spans="1:12" s="83" customFormat="1" ht="15" customHeight="1">
+      <c r="A60" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="210" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="211"/>
+      <c r="G60" s="211"/>
+      <c r="H60" s="211"/>
+      <c r="I60" s="211"/>
+      <c r="J60" s="211"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="57"/>
+    </row>
+    <row r="61" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A61" s="64">
+        <v>1</v>
+      </c>
+      <c r="B61" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="C61" s="65"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="158" t="s">
+        <v>234</v>
+      </c>
+      <c r="F61" s="126"/>
+      <c r="G61" s="126"/>
+      <c r="H61" s="126"/>
+      <c r="I61" s="126"/>
+      <c r="J61" s="126"/>
+    </row>
+    <row r="62" spans="1:12" s="57" customFormat="1">
+      <c r="A62" s="169" t="s">
+        <v>235</v>
+      </c>
+      <c r="B62" s="170"/>
+      <c r="C62" s="170"/>
+      <c r="D62" s="170"/>
+      <c r="E62" s="170"/>
+      <c r="F62" s="170"/>
+      <c r="G62" s="170"/>
+      <c r="H62" s="170"/>
+      <c r="I62" s="170"/>
+      <c r="J62" s="171"/>
+    </row>
+    <row r="63" spans="1:12" s="59" customFormat="1" ht="106.5" customHeight="1">
+      <c r="A63" s="74">
+        <v>1</v>
+      </c>
+      <c r="B63" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="C63" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" s="93"/>
+      <c r="E63" s="162" t="s">
+        <v>224</v>
+      </c>
+      <c r="F63" s="163"/>
+      <c r="G63" s="163"/>
+      <c r="H63" s="163"/>
+      <c r="I63" s="163"/>
+      <c r="J63" s="164"/>
+    </row>
+    <row r="64" spans="1:12" s="59" customFormat="1" ht="106.5" customHeight="1">
+      <c r="A64" s="74">
+        <v>2</v>
+      </c>
+      <c r="B64" s="108" t="s">
+        <v>222</v>
+      </c>
+      <c r="C64" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="110"/>
+      <c r="E64" s="162" t="s">
+        <v>225</v>
+      </c>
+      <c r="F64" s="163"/>
+      <c r="G64" s="163"/>
+      <c r="H64" s="163"/>
+      <c r="I64" s="163"/>
+      <c r="J64" s="164"/>
+    </row>
+    <row r="65" spans="1:12" s="59" customFormat="1" ht="103.5" customHeight="1">
+      <c r="A65" s="74">
         <v>3</v>
       </c>
-      <c r="B41" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="148" t="s">
-        <v>144</v>
-      </c>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="150"/>
-    </row>
-    <row r="42" spans="1:12" s="57" customFormat="1">
-      <c r="A42" s="44">
+      <c r="B65" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="C65" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="110"/>
+      <c r="E65" s="162" t="s">
+        <v>226</v>
+      </c>
+      <c r="F65" s="163"/>
+      <c r="G65" s="163"/>
+      <c r="H65" s="163"/>
+      <c r="I65" s="163"/>
+      <c r="J65" s="164"/>
+    </row>
+    <row r="66" spans="1:12" s="59" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A66" s="71">
         <v>4</v>
       </c>
-      <c r="B42" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="148" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="150"/>
-    </row>
-    <row r="43" spans="1:12" s="57" customFormat="1">
-      <c r="A43" s="142"/>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="143"/>
-      <c r="E43" s="143"/>
-      <c r="F43" s="143"/>
-      <c r="G43" s="143"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="144"/>
-    </row>
-    <row r="44" spans="1:12" s="57" customFormat="1">
-      <c r="A44" s="172"/>
-      <c r="B44" s="206"/>
-      <c r="C44" s="206"/>
-      <c r="D44" s="206"/>
-      <c r="E44" s="206"/>
-      <c r="F44" s="206"/>
-      <c r="G44" s="206"/>
-      <c r="H44" s="206"/>
-      <c r="I44" s="206"/>
-      <c r="J44" s="207"/>
-    </row>
-    <row r="45" spans="1:12" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="137" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="184"/>
-      <c r="C45" s="184"/>
-      <c r="D45" s="184"/>
-      <c r="E45" s="184"/>
-      <c r="F45" s="184"/>
-      <c r="G45" s="184"/>
-      <c r="H45" s="184"/>
-      <c r="I45" s="184"/>
-      <c r="J45" s="185"/>
-    </row>
-    <row r="46" spans="1:12" s="83" customFormat="1" ht="15" customHeight="1">
-      <c r="A46" s="61" t="s">
+      <c r="B66" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="D66" s="93"/>
+      <c r="E66" s="162" t="s">
+        <v>236</v>
+      </c>
+      <c r="F66" s="163"/>
+      <c r="G66" s="163"/>
+      <c r="H66" s="163"/>
+      <c r="I66" s="163"/>
+      <c r="J66" s="164"/>
+    </row>
+    <row r="67" spans="1:12" s="57" customFormat="1">
+      <c r="A67" s="74">
         <v>5</v>
       </c>
-      <c r="B46" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46" s="140" t="s">
-        <v>36</v>
-      </c>
-      <c r="F46" s="141"/>
-      <c r="G46" s="141"/>
-      <c r="H46" s="141"/>
-      <c r="I46" s="141"/>
-      <c r="J46" s="141"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-    </row>
-    <row r="47" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A47" s="64">
+      <c r="B67" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" s="92"/>
+      <c r="E67" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="F67" s="130"/>
+      <c r="G67" s="130"/>
+      <c r="H67" s="130"/>
+      <c r="I67" s="130"/>
+      <c r="J67" s="131"/>
+    </row>
+    <row r="68" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
+      <c r="A68" s="169" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="170"/>
+      <c r="C68" s="170"/>
+      <c r="D68" s="170"/>
+      <c r="E68" s="170"/>
+      <c r="F68" s="170"/>
+      <c r="G68" s="170"/>
+      <c r="H68" s="170"/>
+      <c r="I68" s="170"/>
+      <c r="J68" s="171"/>
+      <c r="K68" s="57"/>
+      <c r="L68" s="57"/>
+    </row>
+    <row r="69" spans="1:12" s="57" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A69" s="60">
         <v>1</v>
       </c>
-      <c r="B47" s="64" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="194" t="s">
-        <v>150</v>
-      </c>
-      <c r="F47" s="129"/>
-      <c r="G47" s="129"/>
-      <c r="H47" s="129"/>
-      <c r="I47" s="129"/>
-      <c r="J47" s="129"/>
-    </row>
-    <row r="48" spans="1:12" s="57" customFormat="1">
-      <c r="A48" s="169" t="s">
+      <c r="B69" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="B48" s="170"/>
-      <c r="C48" s="170"/>
-      <c r="D48" s="170"/>
-      <c r="E48" s="170"/>
-      <c r="F48" s="170"/>
-      <c r="G48" s="170"/>
-      <c r="H48" s="170"/>
-      <c r="I48" s="170"/>
-      <c r="J48" s="171"/>
-    </row>
-    <row r="49" spans="1:12" s="59" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A49" s="74">
+      <c r="C69" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="70"/>
+      <c r="E69" s="158" t="s">
+        <v>217</v>
+      </c>
+      <c r="F69" s="126"/>
+      <c r="G69" s="126"/>
+      <c r="H69" s="126"/>
+      <c r="I69" s="126"/>
+      <c r="J69" s="126"/>
+    </row>
+    <row r="70" spans="1:12" s="57" customFormat="1" ht="107.25" customHeight="1">
+      <c r="A70" s="71">
+        <v>2</v>
+      </c>
+      <c r="B70" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" s="73"/>
+      <c r="E70" s="162" t="s">
+        <v>219</v>
+      </c>
+      <c r="F70" s="163"/>
+      <c r="G70" s="163"/>
+      <c r="H70" s="163"/>
+      <c r="I70" s="163"/>
+      <c r="J70" s="164"/>
+    </row>
+    <row r="71" spans="1:12" s="57" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A71" s="74">
+        <v>3</v>
+      </c>
+      <c r="B71" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="75"/>
+      <c r="E71" s="145" t="s">
+        <v>276</v>
+      </c>
+      <c r="F71" s="130"/>
+      <c r="G71" s="130"/>
+      <c r="H71" s="130"/>
+      <c r="I71" s="130"/>
+      <c r="J71" s="131"/>
+    </row>
+    <row r="72" spans="1:12" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A72" s="155" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="156"/>
+      <c r="C72" s="156"/>
+      <c r="D72" s="156"/>
+      <c r="E72" s="156"/>
+      <c r="F72" s="156"/>
+      <c r="G72" s="156"/>
+      <c r="H72" s="156"/>
+      <c r="I72" s="156"/>
+      <c r="J72" s="157"/>
+    </row>
+    <row r="73" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A73" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="154"/>
+      <c r="D73" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="130"/>
+      <c r="F73" s="130"/>
+      <c r="G73" s="130"/>
+      <c r="H73" s="130"/>
+      <c r="I73" s="130"/>
+      <c r="J73" s="131"/>
+    </row>
+    <row r="74" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
+      <c r="A74" s="150"/>
+      <c r="B74" s="228"/>
+      <c r="C74" s="228"/>
+      <c r="D74" s="228"/>
+      <c r="E74" s="228"/>
+      <c r="F74" s="228"/>
+      <c r="G74" s="228"/>
+      <c r="H74" s="228"/>
+      <c r="I74" s="228"/>
+      <c r="J74" s="229"/>
+    </row>
+    <row r="75" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A75" s="74"/>
+      <c r="B75" s="148"/>
+      <c r="C75" s="149"/>
+      <c r="D75" s="145"/>
+      <c r="E75" s="130"/>
+      <c r="F75" s="130"/>
+      <c r="G75" s="130"/>
+      <c r="H75" s="130"/>
+      <c r="I75" s="130"/>
+      <c r="J75" s="131"/>
+    </row>
+    <row r="76" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A76" s="74"/>
+      <c r="B76" s="148"/>
+      <c r="C76" s="149"/>
+      <c r="D76" s="145"/>
+      <c r="E76" s="130"/>
+      <c r="F76" s="130"/>
+      <c r="G76" s="130"/>
+      <c r="H76" s="130"/>
+      <c r="I76" s="130"/>
+      <c r="J76" s="131"/>
+    </row>
+    <row r="77" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
+      <c r="A77" s="150"/>
+      <c r="B77" s="228"/>
+      <c r="C77" s="228"/>
+      <c r="D77" s="228"/>
+      <c r="E77" s="228"/>
+      <c r="F77" s="228"/>
+      <c r="G77" s="228"/>
+      <c r="H77" s="228"/>
+      <c r="I77" s="228"/>
+      <c r="J77" s="229"/>
+    </row>
+    <row r="78" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A78" s="74"/>
+      <c r="B78" s="148"/>
+      <c r="C78" s="149"/>
+      <c r="D78" s="145"/>
+      <c r="E78" s="130"/>
+      <c r="F78" s="130"/>
+      <c r="G78" s="130"/>
+      <c r="H78" s="130"/>
+      <c r="I78" s="130"/>
+      <c r="J78" s="131"/>
+    </row>
+    <row r="79" spans="1:12" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A79" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="79"/>
+      <c r="C79" s="80"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="80"/>
+      <c r="F79" s="80"/>
+      <c r="G79" s="80"/>
+      <c r="H79" s="80"/>
+      <c r="I79" s="80"/>
+      <c r="J79" s="81"/>
+    </row>
+    <row r="80" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A80" s="74">
         <v>1</v>
       </c>
-      <c r="B49" s="91" t="s">
-        <v>260</v>
-      </c>
-      <c r="C49" s="94" t="s">
-        <v>176</v>
-      </c>
-      <c r="D49" s="93"/>
-      <c r="E49" s="198" t="s">
-        <v>263</v>
-      </c>
-      <c r="F49" s="199"/>
-      <c r="G49" s="199"/>
-      <c r="H49" s="199"/>
-      <c r="I49" s="199"/>
-      <c r="J49" s="200"/>
-    </row>
-    <row r="50" spans="1:12" s="59" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A50" s="74">
+      <c r="B80" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="148"/>
+      <c r="D80" s="130"/>
+      <c r="E80" s="130"/>
+      <c r="F80" s="130"/>
+      <c r="G80" s="130"/>
+      <c r="H80" s="130"/>
+      <c r="I80" s="130"/>
+      <c r="J80" s="131"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="74">
         <v>2</v>
       </c>
-      <c r="B50" s="109" t="s">
-        <v>261</v>
-      </c>
-      <c r="C50" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="111"/>
-      <c r="E50" s="198" t="s">
-        <v>264</v>
-      </c>
-      <c r="F50" s="199"/>
-      <c r="G50" s="199"/>
-      <c r="H50" s="199"/>
-      <c r="I50" s="199"/>
-      <c r="J50" s="200"/>
-    </row>
-    <row r="51" spans="1:12" s="59" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A51" s="74">
+      <c r="B81" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="109" t="s">
-        <v>262</v>
-      </c>
-      <c r="C51" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="111"/>
-      <c r="E51" s="198" t="s">
-        <v>265</v>
-      </c>
-      <c r="F51" s="199"/>
-      <c r="G51" s="199"/>
-      <c r="H51" s="199"/>
-      <c r="I51" s="199"/>
-      <c r="J51" s="200"/>
-    </row>
-    <row r="52" spans="1:12" s="59" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A52" s="71">
-        <v>4</v>
-      </c>
-      <c r="B52" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="C52" s="94" t="s">
-        <v>176</v>
-      </c>
-      <c r="D52" s="93"/>
-      <c r="E52" s="198" t="s">
-        <v>255</v>
-      </c>
-      <c r="F52" s="199"/>
-      <c r="G52" s="199"/>
-      <c r="H52" s="199"/>
-      <c r="I52" s="199"/>
-      <c r="J52" s="200"/>
-    </row>
-    <row r="53" spans="1:12" s="57" customFormat="1">
-      <c r="A53" s="74">
-        <v>5</v>
-      </c>
-      <c r="B53" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="C53" s="94" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" s="92"/>
-      <c r="E53" s="166" t="s">
-        <v>180</v>
-      </c>
-      <c r="F53" s="123"/>
-      <c r="G53" s="123"/>
-      <c r="H53" s="123"/>
-      <c r="I53" s="123"/>
-      <c r="J53" s="124"/>
-    </row>
-    <row r="54" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="169" t="s">
-        <v>179</v>
-      </c>
-      <c r="B54" s="170"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
-      <c r="E54" s="170"/>
-      <c r="F54" s="170"/>
-      <c r="G54" s="170"/>
-      <c r="H54" s="170"/>
-      <c r="I54" s="170"/>
-      <c r="J54" s="171"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
-    </row>
-    <row r="55" spans="1:12" s="57" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A55" s="60">
-        <v>1</v>
-      </c>
-      <c r="B55" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="C55" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="70"/>
-      <c r="E55" s="194" t="s">
-        <v>254</v>
-      </c>
-      <c r="F55" s="129"/>
-      <c r="G55" s="129"/>
-      <c r="H55" s="129"/>
-      <c r="I55" s="129"/>
-      <c r="J55" s="129"/>
-    </row>
-    <row r="56" spans="1:12" s="57" customFormat="1" ht="107.25" customHeight="1">
-      <c r="A56" s="71">
-        <v>2</v>
-      </c>
-      <c r="B56" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" s="73"/>
-      <c r="E56" s="198" t="s">
-        <v>258</v>
-      </c>
-      <c r="F56" s="199"/>
-      <c r="G56" s="199"/>
-      <c r="H56" s="199"/>
-      <c r="I56" s="199"/>
-      <c r="J56" s="200"/>
-    </row>
-    <row r="57" spans="1:12" s="57" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A57" s="74">
-        <v>3</v>
-      </c>
-      <c r="B57" s="68" t="s">
-        <v>256</v>
-      </c>
-      <c r="C57" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57" s="75"/>
-      <c r="E57" s="166" t="s">
-        <v>257</v>
-      </c>
-      <c r="F57" s="123"/>
-      <c r="G57" s="123"/>
-      <c r="H57" s="123"/>
-      <c r="I57" s="123"/>
-      <c r="J57" s="124"/>
-    </row>
-    <row r="58" spans="1:12" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A58" s="191" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="192"/>
-      <c r="C58" s="192"/>
-      <c r="D58" s="192"/>
-      <c r="E58" s="192"/>
-      <c r="F58" s="192"/>
-      <c r="G58" s="192"/>
-      <c r="H58" s="192"/>
-      <c r="I58" s="192"/>
-      <c r="J58" s="193"/>
-    </row>
-    <row r="59" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="189" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="190"/>
-      <c r="D59" s="166" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="123"/>
-      <c r="F59" s="123"/>
-      <c r="G59" s="123"/>
-      <c r="H59" s="123"/>
-      <c r="I59" s="123"/>
-      <c r="J59" s="124"/>
-    </row>
-    <row r="60" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="186"/>
-      <c r="B60" s="204"/>
-      <c r="C60" s="204"/>
-      <c r="D60" s="204"/>
-      <c r="E60" s="204"/>
-      <c r="F60" s="204"/>
-      <c r="G60" s="204"/>
-      <c r="H60" s="204"/>
-      <c r="I60" s="204"/>
-      <c r="J60" s="205"/>
-    </row>
-    <row r="61" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="74"/>
-      <c r="B61" s="142"/>
-      <c r="C61" s="144"/>
-      <c r="D61" s="166"/>
-      <c r="E61" s="123"/>
-      <c r="F61" s="123"/>
-      <c r="G61" s="123"/>
-      <c r="H61" s="123"/>
-      <c r="I61" s="123"/>
-      <c r="J61" s="124"/>
-    </row>
-    <row r="62" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="74"/>
-      <c r="B62" s="142"/>
-      <c r="C62" s="144"/>
-      <c r="D62" s="166"/>
-      <c r="E62" s="123"/>
-      <c r="F62" s="123"/>
-      <c r="G62" s="123"/>
-      <c r="H62" s="123"/>
-      <c r="I62" s="123"/>
-      <c r="J62" s="124"/>
-    </row>
-    <row r="63" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A63" s="186"/>
-      <c r="B63" s="204"/>
-      <c r="C63" s="204"/>
-      <c r="D63" s="204"/>
-      <c r="E63" s="204"/>
-      <c r="F63" s="204"/>
-      <c r="G63" s="204"/>
-      <c r="H63" s="204"/>
-      <c r="I63" s="204"/>
-      <c r="J63" s="205"/>
-    </row>
-    <row r="64" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A64" s="74"/>
-      <c r="B64" s="142"/>
-      <c r="C64" s="144"/>
-      <c r="D64" s="166"/>
-      <c r="E64" s="123"/>
-      <c r="F64" s="123"/>
-      <c r="G64" s="123"/>
-      <c r="H64" s="123"/>
-      <c r="I64" s="123"/>
-      <c r="J64" s="124"/>
-    </row>
-    <row r="65" spans="1:10" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A65" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" s="79"/>
-      <c r="C65" s="80"/>
-      <c r="D65" s="80"/>
-      <c r="E65" s="80"/>
-      <c r="F65" s="80"/>
-      <c r="G65" s="80"/>
-      <c r="H65" s="80"/>
-      <c r="I65" s="80"/>
-      <c r="J65" s="81"/>
-    </row>
-    <row r="66" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A66" s="74">
-        <v>1</v>
-      </c>
-      <c r="B66" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="142"/>
-      <c r="D66" s="123"/>
-      <c r="E66" s="123"/>
-      <c r="F66" s="123"/>
-      <c r="G66" s="123"/>
-      <c r="H66" s="123"/>
-      <c r="I66" s="123"/>
-      <c r="J66" s="124"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="74">
-        <v>2</v>
-      </c>
-      <c r="B67" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="163"/>
-      <c r="D67" s="163"/>
-      <c r="E67" s="163"/>
-      <c r="F67" s="163"/>
-      <c r="G67" s="163"/>
-      <c r="H67" s="163"/>
-      <c r="I67" s="163"/>
-      <c r="J67" s="163"/>
+      <c r="C81" s="166"/>
+      <c r="D81" s="166"/>
+      <c r="E81" s="166"/>
+      <c r="F81" s="166"/>
+      <c r="G81" s="166"/>
+      <c r="H81" s="166"/>
+      <c r="I81" s="166"/>
+      <c r="J81" s="166"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="72">
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:J78"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C81:J81"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:J75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:J76"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:J73"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A23:J23"/>
     <mergeCell ref="A37:J37"/>
-    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
     <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C32:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J9"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:J12"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C40:J43"/>
     <mergeCell ref="A44:J44"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="E64:J64"/>
     <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:J61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10940,10 +11299,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10973,7 +11332,7 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="164" t="s">
+      <c r="K1" s="167" t="s">
         <v>49</v>
       </c>
       <c r="L1" s="40"/>
@@ -11000,7 +11359,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="165"/>
+      <c r="K2" s="168"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -11018,7 +11377,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="165"/>
+      <c r="K3" s="168"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -11062,18 +11421,18 @@
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="201" t="s">
+      <c r="A6" s="212" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="202"/>
-      <c r="I6" s="202"/>
-      <c r="J6" s="203"/>
+      <c r="B6" s="213"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="213"/>
+      <c r="I6" s="213"/>
+      <c r="J6" s="214"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -11083,19 +11442,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="43" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>19</v>
@@ -11104,10 +11463,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>0</v>
@@ -11140,34 +11499,34 @@
       <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="201" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="214"/>
-      <c r="C10" s="214"/>
-      <c r="D10" s="214"/>
-      <c r="E10" s="214"/>
-      <c r="F10" s="214"/>
-      <c r="G10" s="214"/>
-      <c r="H10" s="214"/>
-      <c r="I10" s="214"/>
-      <c r="J10" s="215"/>
+      <c r="A10" s="212" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="230"/>
+      <c r="C10" s="230"/>
+      <c r="D10" s="230"/>
+      <c r="E10" s="230"/>
+      <c r="F10" s="230"/>
+      <c r="G10" s="230"/>
+      <c r="H10" s="230"/>
+      <c r="I10" s="230"/>
+      <c r="J10" s="231"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>19</v>
@@ -11176,10 +11535,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>0</v>
@@ -11190,194 +11549,186 @@
         <v>1</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="E12" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="F12" s="107" t="s">
-        <v>217</v>
-      </c>
-      <c r="G12" s="106" t="s">
-        <v>218</v>
+        <v>197</v>
+      </c>
+      <c r="E12" s="103" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="106" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="105" t="s">
+        <v>195</v>
       </c>
       <c r="H12" s="50"/>
       <c r="I12" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="J12" s="96" t="s">
-        <v>213</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="44">
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="E13" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="F13" s="108" t="s">
-        <v>219</v>
-      </c>
-      <c r="G13" s="108" t="s">
-        <v>220</v>
+        <v>198</v>
+      </c>
+      <c r="E13" s="103" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" s="107" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13" s="107" t="s">
+        <v>196</v>
       </c>
       <c r="H13" s="50"/>
       <c r="I13" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="J13" s="96" t="s">
-        <v>213</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="J13" s="49"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="49">
         <v>3</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="E14" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="F14" s="107" t="s">
-        <v>217</v>
-      </c>
-      <c r="G14" s="108" t="s">
-        <v>229</v>
+        <v>197</v>
+      </c>
+      <c r="E14" s="103" t="s">
+        <v>251</v>
+      </c>
+      <c r="F14" s="106" t="s">
+        <v>258</v>
+      </c>
+      <c r="G14" s="107" t="s">
+        <v>202</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="J14" s="96" t="s">
-        <v>213</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="49">
         <v>4</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="E15" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="F15" s="107" t="s">
-        <v>215</v>
-      </c>
-      <c r="G15" s="106" t="s">
-        <v>216</v>
+        <v>199</v>
+      </c>
+      <c r="E15" s="103" t="s">
+        <v>251</v>
+      </c>
+      <c r="F15" s="106" t="s">
+        <v>259</v>
+      </c>
+      <c r="G15" s="105" t="s">
+        <v>193</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="J15" s="96" t="s">
-        <v>213</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="49">
         <v>5</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="H16" s="44">
         <v>0</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="J16" s="101" t="s">
-        <v>175</v>
+        <v>157</v>
+      </c>
+      <c r="J16" s="100" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="97"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
       <c r="I17" s="95"/>
-      <c r="J17" s="100"/>
+      <c r="J17" s="99"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="201" t="s">
-        <v>206</v>
-      </c>
-      <c r="B18" s="202"/>
-      <c r="C18" s="202"/>
-      <c r="D18" s="202"/>
-      <c r="E18" s="202"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="202"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="203"/>
+      <c r="A18" s="212" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="213"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="213"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="213"/>
+      <c r="G18" s="213"/>
+      <c r="H18" s="213"/>
+      <c r="I18" s="213"/>
+      <c r="J18" s="214"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="43" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="F19" s="43" t="s">
         <v>19</v>
@@ -11386,10 +11737,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="I19" s="43" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="J19" s="43" t="s">
         <v>0</v>
@@ -11397,130 +11748,311 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="E20" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="F20" s="107" t="s">
-        <v>217</v>
-      </c>
-      <c r="G20" s="106" t="s">
-        <v>218</v>
+        <v>203</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" s="106" t="s">
+        <v>252</v>
+      </c>
+      <c r="G20" s="105" t="s">
+        <v>195</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="J20" s="96" t="s">
-        <v>213</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="J20" s="49"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="E21" s="104" t="s">
-        <v>214</v>
+        <v>204</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>251</v>
       </c>
       <c r="F21" s="107" t="s">
-        <v>215</v>
-      </c>
-      <c r="G21" s="106" t="s">
-        <v>216</v>
+        <v>260</v>
+      </c>
+      <c r="G21" s="105" t="s">
+        <v>193</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="J21" s="96" t="s">
-        <v>213</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="44">
-        <v>1</v>
+      <c r="A22" s="49">
+        <v>3</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="E22" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="F22" s="107" t="s">
-        <v>217</v>
-      </c>
-      <c r="G22" s="108" t="s">
-        <v>230</v>
+        <v>272</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="F22" s="106" t="s">
+        <v>262</v>
+      </c>
+      <c r="G22" s="107" t="s">
+        <v>264</v>
       </c>
       <c r="H22" s="50"/>
       <c r="I22" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="J22" s="96" t="s">
-        <v>213</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="J22" s="49"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="44">
-        <v>2</v>
+      <c r="A23" s="49">
+        <v>4</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="E23" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="F23" s="108" t="s">
-        <v>219</v>
-      </c>
-      <c r="G23" s="108" t="s">
-        <v>220</v>
+        <v>273</v>
+      </c>
+      <c r="E23" s="103" t="s">
+        <v>251</v>
+      </c>
+      <c r="F23" s="106" t="s">
+        <v>261</v>
+      </c>
+      <c r="G23" s="107" t="s">
+        <v>257</v>
       </c>
       <c r="H23" s="50"/>
       <c r="I23" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="J23" s="96" t="s">
-        <v>213</v>
+        <v>155</v>
+      </c>
+      <c r="J23" s="49"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="212" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" s="213"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="213"/>
+      <c r="E25" s="213"/>
+      <c r="F25" s="213"/>
+      <c r="G25" s="213"/>
+      <c r="H25" s="213"/>
+      <c r="I25" s="213"/>
+      <c r="J25" s="214"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="I26" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="J26" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="49">
+        <v>1</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" s="103" t="s">
+        <v>251</v>
+      </c>
+      <c r="F27" s="106" t="s">
+        <v>252</v>
+      </c>
+      <c r="G27" s="105" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" s="46"/>
+      <c r="I27" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" s="49"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="49">
+        <v>2</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" s="103" t="s">
+        <v>251</v>
+      </c>
+      <c r="F28" s="107" t="s">
+        <v>260</v>
+      </c>
+      <c r="G28" s="105" t="s">
+        <v>193</v>
+      </c>
+      <c r="H28" s="46"/>
+      <c r="I28" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" s="49"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="49">
+        <v>3</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="F29" s="106" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" s="107" t="s">
+        <v>264</v>
+      </c>
+      <c r="H29" s="50"/>
+      <c r="I29" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="49"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="49">
+        <v>4</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" s="103" t="s">
+        <v>251</v>
+      </c>
+      <c r="F30" s="106" t="s">
+        <v>261</v>
+      </c>
+      <c r="G30" s="107" t="s">
+        <v>257</v>
+      </c>
+      <c r="H30" s="50"/>
+      <c r="I30" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" s="49"/>
+    </row>
+    <row r="31" spans="1:10" ht="33">
+      <c r="A31" s="49">
+        <v>5</v>
+      </c>
+      <c r="B31" s="112" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31" s="112" t="s">
+        <v>270</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="236" t="s">
+        <v>251</v>
+      </c>
+      <c r="F31" s="237" t="s">
+        <v>271</v>
+      </c>
+      <c r="G31" s="107" t="s">
+        <v>196</v>
+      </c>
+      <c r="H31" s="50"/>
+      <c r="I31" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="J31" s="235" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A25:J25"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
+++ b/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -2741,6 +2741,99 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2750,6 +2843,42 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2762,59 +2891,92 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2831,14 +2993,98 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2850,7 +3096,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2858,15 +3104,15 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2894,395 +3140,149 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -4318,8 +4318,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>666750</xdr:colOff>
-          <xdr:row>81</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>89</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4364,13 +4364,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>83</xdr:row>
+          <xdr:row>90</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>676275</xdr:colOff>
-          <xdr:row>106</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4936,10 +4936,10 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8149,12 +8149,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="31" t="s">
@@ -8197,7 +8197,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="156" t="s">
         <v>109</v>
       </c>
       <c r="B5" s="35" t="s">
@@ -8209,7 +8209,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="125"/>
+      <c r="A6" s="156"/>
       <c r="B6" s="35" t="s">
         <v>190</v>
       </c>
@@ -8219,7 +8219,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="156" t="s">
         <v>110</v>
       </c>
       <c r="B7" s="35" t="s">
@@ -8231,7 +8231,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
-      <c r="A8" s="126"/>
+      <c r="A8" s="157"/>
       <c r="B8" s="38" t="s">
         <v>195</v>
       </c>
@@ -8241,7 +8241,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="156" t="s">
         <v>111</v>
       </c>
       <c r="B9" s="38" t="s">
@@ -8253,7 +8253,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A10" s="125"/>
+      <c r="A10" s="156"/>
       <c r="B10" s="38" t="s">
         <v>144</v>
       </c>
@@ -8263,7 +8263,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A11" s="125"/>
+      <c r="A11" s="156"/>
       <c r="B11" s="38" t="s">
         <v>145</v>
       </c>
@@ -8574,10 +8574,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N61" sqref="N61"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8592,15 +8592,15 @@
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="127" t="s">
+      <c r="M1" s="170" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="128"/>
+      <c r="M2" s="171"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="128"/>
+      <c r="M3" s="171"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -8617,223 +8617,218 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="144"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="145"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="178"/>
+      <c r="K5" s="178"/>
+      <c r="L5" s="179"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="167" t="s">
         <v>188</v>
       </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="148"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="169"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="131" t="s">
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="133"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="164"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="142" t="s">
+      <c r="A8" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="143"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="135" t="s">
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="136"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="166"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131" t="s">
+      <c r="B9" s="173"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="133"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="164"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="143"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="135" t="s">
+      <c r="B10" s="161"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="165" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="136"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="166"/>
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="140"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="141" t="s">
+      <c r="B11" s="159"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="133"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="164"/>
     </row>
     <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A12" s="142" t="s">
+      <c r="A12" s="160" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="143"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="136"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="166"/>
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="141" t="s">
+      <c r="B13" s="159"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="133"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
+      <c r="L13" s="164"/>
     </row>
     <row r="14" spans="1:13" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A14" s="142" t="s">
+      <c r="A14" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="135" t="s">
+      <c r="B14" s="161"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="165" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="136"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="166"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="136"/>
-    </row>
-    <row r="83" spans="1:12" ht="21" customHeight="1">
-      <c r="A83" s="134" t="s">
+      <c r="B15" s="165"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="166"/>
+    </row>
+    <row r="90" spans="1:12" ht="21" customHeight="1">
+      <c r="A90" s="174" t="s">
         <v>108</v>
       </c>
-      <c r="B83" s="137"/>
-      <c r="C83" s="137"/>
-      <c r="D83" s="137"/>
-      <c r="E83" s="137"/>
-      <c r="F83" s="137"/>
-      <c r="G83" s="137"/>
-      <c r="H83" s="137"/>
-      <c r="I83" s="137"/>
-      <c r="J83" s="137"/>
-      <c r="K83" s="137"/>
-      <c r="L83" s="138"/>
+      <c r="B90" s="175"/>
+      <c r="C90" s="175"/>
+      <c r="D90" s="175"/>
+      <c r="E90" s="175"/>
+      <c r="F90" s="175"/>
+      <c r="G90" s="175"/>
+      <c r="H90" s="175"/>
+      <c r="I90" s="175"/>
+      <c r="J90" s="175"/>
+      <c r="K90" s="175"/>
+      <c r="L90" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A83:L83"/>
+    <mergeCell ref="A90:L90"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
@@ -8845,6 +8840,11 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -8871,8 +8871,8 @@
               <to>
                 <xdr:col>11</xdr:col>
                 <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>81</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:row>89</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8890,13 +8890,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>83</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
                 <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>106</xdr:row>
+                <xdr:row>113</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
@@ -8922,15 +8922,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="127" t="s">
+      <c r="P1" s="170" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="128"/>
+      <c r="P2" s="171"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="128"/>
+      <c r="P3" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9011,7 +9011,7 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="179" t="s">
+      <c r="K1" s="220" t="s">
         <v>47</v>
       </c>
       <c r="L1" s="55"/>
@@ -9032,7 +9032,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="180"/>
+      <c r="K2" s="221"/>
     </row>
     <row r="3" spans="1:17" s="56" customFormat="1">
       <c r="A3" s="48"/>
@@ -9045,7 +9045,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="180"/>
+      <c r="K3" s="221"/>
     </row>
     <row r="4" spans="1:17" s="56" customFormat="1">
       <c r="A4" s="48"/>
@@ -9060,152 +9060,152 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="56" customFormat="1">
-      <c r="A5" s="190" t="s">
+      <c r="A5" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="164"/>
     </row>
     <row r="6" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="146"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="A6" s="167"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="169"/>
     </row>
     <row r="7" spans="1:17" s="57" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="191"/>
-      <c r="B7" s="192"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="194"/>
+      <c r="A7" s="226"/>
+      <c r="B7" s="227"/>
+      <c r="C7" s="227"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="227"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="229"/>
       <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:17" s="57" customFormat="1">
-      <c r="A8" s="191"/>
-      <c r="B8" s="192"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="194"/>
+      <c r="A8" s="226"/>
+      <c r="B8" s="227"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="227"/>
+      <c r="H8" s="227"/>
+      <c r="I8" s="228"/>
+      <c r="J8" s="229"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:17" s="57" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="195"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="197"/>
+      <c r="A9" s="230"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="231"/>
+      <c r="G9" s="231"/>
+      <c r="H9" s="231"/>
+      <c r="I9" s="231"/>
+      <c r="J9" s="232"/>
     </row>
     <row r="10" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="190" t="s">
+      <c r="A10" s="225" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="133"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="164"/>
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="198" t="s">
+      <c r="A11" s="233" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="136"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="166"/>
     </row>
     <row r="12" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="190" t="s">
+      <c r="A12" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="133"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="164"/>
     </row>
     <row r="13" spans="1:17" s="59" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="198" t="s">
+      <c r="A13" s="233" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="136"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="166"/>
     </row>
     <row r="14" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="190" t="s">
+      <c r="A14" s="225" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="133"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="164"/>
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="163" t="s">
+      <c r="A15" s="236" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="176"/>
+      <c r="B15" s="237"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="237"/>
+      <c r="F15" s="237"/>
+      <c r="G15" s="237"/>
+      <c r="H15" s="237"/>
+      <c r="I15" s="237"/>
+      <c r="J15" s="238"/>
     </row>
     <row r="16" spans="1:17" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="60" t="s">
@@ -9214,16 +9214,16 @@
       <c r="B16" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="239" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="159"/>
+      <c r="D16" s="240"/>
+      <c r="E16" s="240"/>
+      <c r="F16" s="240"/>
+      <c r="G16" s="240"/>
+      <c r="H16" s="240"/>
+      <c r="I16" s="240"/>
+      <c r="J16" s="241"/>
     </row>
     <row r="17" spans="1:10" s="57" customFormat="1" ht="55.5" customHeight="1">
       <c r="A17" s="60">
@@ -9232,16 +9232,16 @@
       <c r="B17" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="C17" s="177" t="s">
+      <c r="C17" s="242" t="s">
         <v>238</v>
       </c>
-      <c r="D17" s="161"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="162"/>
+      <c r="D17" s="243"/>
+      <c r="E17" s="243"/>
+      <c r="F17" s="243"/>
+      <c r="G17" s="243"/>
+      <c r="H17" s="243"/>
+      <c r="I17" s="243"/>
+      <c r="J17" s="244"/>
     </row>
     <row r="18" spans="1:10" s="57" customFormat="1" ht="48.75" customHeight="1">
       <c r="A18" s="60">
@@ -9250,16 +9250,16 @@
       <c r="B18" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="177" t="s">
+      <c r="C18" s="242" t="s">
         <v>239</v>
       </c>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="162"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="243"/>
+      <c r="F18" s="243"/>
+      <c r="G18" s="243"/>
+      <c r="H18" s="243"/>
+      <c r="I18" s="243"/>
+      <c r="J18" s="244"/>
     </row>
     <row r="19" spans="1:10" s="57" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="60">
@@ -9268,42 +9268,42 @@
       <c r="B19" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="177" t="s">
+      <c r="C19" s="242" t="s">
         <v>193</v>
       </c>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="162"/>
+      <c r="D19" s="243"/>
+      <c r="E19" s="243"/>
+      <c r="F19" s="243"/>
+      <c r="G19" s="243"/>
+      <c r="H19" s="243"/>
+      <c r="I19" s="243"/>
+      <c r="J19" s="244"/>
     </row>
     <row r="20" spans="1:10" s="57" customFormat="1">
-      <c r="A20" s="154"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="156"/>
+      <c r="A20" s="213"/>
+      <c r="B20" s="190"/>
+      <c r="C20" s="190"/>
+      <c r="D20" s="190"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="190"/>
+      <c r="H20" s="190"/>
+      <c r="I20" s="190"/>
+      <c r="J20" s="191"/>
     </row>
     <row r="21" spans="1:10" s="57" customFormat="1">
-      <c r="A21" s="163" t="s">
+      <c r="A21" s="236" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="175"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="176"/>
+      <c r="B21" s="237"/>
+      <c r="C21" s="237"/>
+      <c r="D21" s="237"/>
+      <c r="E21" s="237"/>
+      <c r="F21" s="237"/>
+      <c r="G21" s="237"/>
+      <c r="H21" s="237"/>
+      <c r="I21" s="237"/>
+      <c r="J21" s="238"/>
     </row>
     <row r="22" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="60" t="s">
@@ -9312,16 +9312,16 @@
       <c r="B22" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="157" t="s">
+      <c r="C22" s="239" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="159"/>
+      <c r="D22" s="240"/>
+      <c r="E22" s="240"/>
+      <c r="F22" s="240"/>
+      <c r="G22" s="240"/>
+      <c r="H22" s="240"/>
+      <c r="I22" s="240"/>
+      <c r="J22" s="241"/>
     </row>
     <row r="23" spans="1:10" s="57" customFormat="1">
       <c r="A23" s="60">
@@ -9330,16 +9330,16 @@
       <c r="B23" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="160" t="s">
+      <c r="C23" s="247" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="162"/>
+      <c r="D23" s="243"/>
+      <c r="E23" s="243"/>
+      <c r="F23" s="243"/>
+      <c r="G23" s="243"/>
+      <c r="H23" s="243"/>
+      <c r="I23" s="243"/>
+      <c r="J23" s="244"/>
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1">
       <c r="A24" s="60">
@@ -9348,16 +9348,16 @@
       <c r="B24" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="160" t="s">
+      <c r="C24" s="247" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="162"/>
+      <c r="D24" s="243"/>
+      <c r="E24" s="243"/>
+      <c r="F24" s="243"/>
+      <c r="G24" s="243"/>
+      <c r="H24" s="243"/>
+      <c r="I24" s="243"/>
+      <c r="J24" s="244"/>
     </row>
     <row r="25" spans="1:10" s="57" customFormat="1">
       <c r="A25" s="60">
@@ -9366,16 +9366,16 @@
       <c r="B25" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="160" t="s">
+      <c r="C25" s="247" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="162"/>
+      <c r="D25" s="243"/>
+      <c r="E25" s="243"/>
+      <c r="F25" s="243"/>
+      <c r="G25" s="243"/>
+      <c r="H25" s="243"/>
+      <c r="I25" s="243"/>
+      <c r="J25" s="244"/>
     </row>
     <row r="26" spans="1:10" s="57" customFormat="1">
       <c r="A26" s="60">
@@ -9384,56 +9384,56 @@
       <c r="B26" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="160" t="s">
+      <c r="C26" s="247" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="162"/>
+      <c r="D26" s="243"/>
+      <c r="E26" s="243"/>
+      <c r="F26" s="243"/>
+      <c r="G26" s="243"/>
+      <c r="H26" s="243"/>
+      <c r="I26" s="243"/>
+      <c r="J26" s="244"/>
     </row>
     <row r="27" spans="1:10" s="57" customFormat="1">
-      <c r="A27" s="187"/>
-      <c r="B27" s="188"/>
-      <c r="C27" s="188"/>
-      <c r="D27" s="188"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="188"/>
-      <c r="G27" s="188"/>
-      <c r="H27" s="188"/>
-      <c r="I27" s="188"/>
-      <c r="J27" s="189"/>
+      <c r="A27" s="222"/>
+      <c r="B27" s="223"/>
+      <c r="C27" s="223"/>
+      <c r="D27" s="223"/>
+      <c r="E27" s="223"/>
+      <c r="F27" s="223"/>
+      <c r="G27" s="223"/>
+      <c r="H27" s="223"/>
+      <c r="I27" s="223"/>
+      <c r="J27" s="224"/>
     </row>
     <row r="28" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="149" t="s">
+      <c r="A28" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="199"/>
-      <c r="C28" s="199"/>
-      <c r="D28" s="199"/>
-      <c r="E28" s="199"/>
-      <c r="F28" s="199"/>
-      <c r="G28" s="199"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="199"/>
-      <c r="J28" s="200"/>
+      <c r="B28" s="234"/>
+      <c r="C28" s="234"/>
+      <c r="D28" s="234"/>
+      <c r="E28" s="234"/>
+      <c r="F28" s="234"/>
+      <c r="G28" s="234"/>
+      <c r="H28" s="234"/>
+      <c r="I28" s="234"/>
+      <c r="J28" s="235"/>
     </row>
     <row r="29" spans="1:10" s="57" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="163" t="s">
+      <c r="A29" s="236" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="175"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="176"/>
+      <c r="B29" s="237"/>
+      <c r="C29" s="237"/>
+      <c r="D29" s="237"/>
+      <c r="E29" s="237"/>
+      <c r="F29" s="237"/>
+      <c r="G29" s="237"/>
+      <c r="H29" s="237"/>
+      <c r="I29" s="237"/>
+      <c r="J29" s="238"/>
     </row>
     <row r="30" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="60" t="s">
@@ -9442,16 +9442,16 @@
       <c r="B30" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="157" t="s">
+      <c r="C30" s="239" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="158"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="159"/>
+      <c r="D30" s="240"/>
+      <c r="E30" s="240"/>
+      <c r="F30" s="240"/>
+      <c r="G30" s="240"/>
+      <c r="H30" s="240"/>
+      <c r="I30" s="240"/>
+      <c r="J30" s="241"/>
     </row>
     <row r="31" spans="1:10" s="57" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="60">
@@ -9460,16 +9460,16 @@
       <c r="B31" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="166" t="s">
+      <c r="C31" s="248" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="167"/>
-      <c r="I31" s="167"/>
-      <c r="J31" s="168"/>
+      <c r="D31" s="249"/>
+      <c r="E31" s="249"/>
+      <c r="F31" s="249"/>
+      <c r="G31" s="249"/>
+      <c r="H31" s="249"/>
+      <c r="I31" s="249"/>
+      <c r="J31" s="250"/>
     </row>
     <row r="32" spans="1:10" s="57" customFormat="1">
       <c r="A32" s="60">
@@ -9478,14 +9478,14 @@
       <c r="B32" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="169"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="171"/>
+      <c r="C32" s="251"/>
+      <c r="D32" s="252"/>
+      <c r="E32" s="252"/>
+      <c r="F32" s="252"/>
+      <c r="G32" s="252"/>
+      <c r="H32" s="252"/>
+      <c r="I32" s="252"/>
+      <c r="J32" s="253"/>
     </row>
     <row r="33" spans="1:12" s="57" customFormat="1">
       <c r="A33" s="60">
@@ -9494,40 +9494,40 @@
       <c r="B33" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="172"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="174"/>
+      <c r="C33" s="254"/>
+      <c r="D33" s="255"/>
+      <c r="E33" s="255"/>
+      <c r="F33" s="255"/>
+      <c r="G33" s="255"/>
+      <c r="H33" s="255"/>
+      <c r="I33" s="255"/>
+      <c r="J33" s="256"/>
     </row>
     <row r="34" spans="1:12" s="57" customFormat="1">
-      <c r="A34" s="154"/>
-      <c r="B34" s="155"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="156"/>
+      <c r="A34" s="213"/>
+      <c r="B34" s="190"/>
+      <c r="C34" s="190"/>
+      <c r="D34" s="190"/>
+      <c r="E34" s="190"/>
+      <c r="F34" s="190"/>
+      <c r="G34" s="190"/>
+      <c r="H34" s="190"/>
+      <c r="I34" s="190"/>
+      <c r="J34" s="191"/>
     </row>
     <row r="35" spans="1:12" s="57" customFormat="1">
-      <c r="A35" s="163" t="s">
+      <c r="A35" s="236" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="164"/>
-      <c r="C35" s="164"/>
-      <c r="D35" s="164"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="164"/>
-      <c r="G35" s="164"/>
-      <c r="H35" s="164"/>
-      <c r="I35" s="164"/>
-      <c r="J35" s="165"/>
+      <c r="B35" s="245"/>
+      <c r="C35" s="245"/>
+      <c r="D35" s="245"/>
+      <c r="E35" s="245"/>
+      <c r="F35" s="245"/>
+      <c r="G35" s="245"/>
+      <c r="H35" s="245"/>
+      <c r="I35" s="245"/>
+      <c r="J35" s="246"/>
     </row>
     <row r="36" spans="1:12" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="60" t="s">
@@ -9536,16 +9536,16 @@
       <c r="B36" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="157" t="s">
+      <c r="C36" s="239" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="158"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="159"/>
+      <c r="D36" s="240"/>
+      <c r="E36" s="240"/>
+      <c r="F36" s="240"/>
+      <c r="G36" s="240"/>
+      <c r="H36" s="240"/>
+      <c r="I36" s="240"/>
+      <c r="J36" s="241"/>
     </row>
     <row r="37" spans="1:12" s="57" customFormat="1">
       <c r="A37" s="60">
@@ -9554,16 +9554,16 @@
       <c r="B37" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="160" t="s">
+      <c r="C37" s="247" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="161"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="161"/>
-      <c r="G37" s="161"/>
-      <c r="H37" s="161"/>
-      <c r="I37" s="161"/>
-      <c r="J37" s="162"/>
+      <c r="D37" s="243"/>
+      <c r="E37" s="243"/>
+      <c r="F37" s="243"/>
+      <c r="G37" s="243"/>
+      <c r="H37" s="243"/>
+      <c r="I37" s="243"/>
+      <c r="J37" s="244"/>
     </row>
     <row r="38" spans="1:12" s="57" customFormat="1">
       <c r="A38" s="60">
@@ -9572,16 +9572,16 @@
       <c r="B38" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="160" t="s">
+      <c r="C38" s="247" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="162"/>
+      <c r="D38" s="243"/>
+      <c r="E38" s="243"/>
+      <c r="F38" s="243"/>
+      <c r="G38" s="243"/>
+      <c r="H38" s="243"/>
+      <c r="I38" s="243"/>
+      <c r="J38" s="244"/>
     </row>
     <row r="39" spans="1:12" s="57" customFormat="1">
       <c r="A39" s="60">
@@ -9590,16 +9590,16 @@
       <c r="B39" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="160" t="s">
+      <c r="C39" s="247" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="161"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="161"/>
-      <c r="J39" s="162"/>
+      <c r="D39" s="243"/>
+      <c r="E39" s="243"/>
+      <c r="F39" s="243"/>
+      <c r="G39" s="243"/>
+      <c r="H39" s="243"/>
+      <c r="I39" s="243"/>
+      <c r="J39" s="244"/>
     </row>
     <row r="40" spans="1:12" s="57" customFormat="1">
       <c r="A40" s="60">
@@ -9608,20 +9608,20 @@
       <c r="B40" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="160" t="s">
+      <c r="C40" s="247" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="161"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="161"/>
-      <c r="J40" s="162"/>
+      <c r="D40" s="243"/>
+      <c r="E40" s="243"/>
+      <c r="F40" s="243"/>
+      <c r="G40" s="243"/>
+      <c r="H40" s="243"/>
+      <c r="I40" s="243"/>
+      <c r="J40" s="244"/>
     </row>
     <row r="41" spans="1:12" s="57" customFormat="1">
       <c r="A41" s="110"/>
-      <c r="B41" s="233"/>
+      <c r="B41" s="124"/>
       <c r="C41" s="116"/>
       <c r="D41" s="116"/>
       <c r="E41" s="116"/>
@@ -9632,54 +9632,54 @@
       <c r="J41" s="117"/>
     </row>
     <row r="42" spans="1:12" s="57" customFormat="1">
-      <c r="A42" s="234" t="s">
+      <c r="A42" s="257" t="s">
         <v>241</v>
       </c>
-      <c r="B42" s="235"/>
-      <c r="C42" s="235"/>
-      <c r="D42" s="235"/>
-      <c r="E42" s="235"/>
-      <c r="F42" s="235"/>
-      <c r="G42" s="235"/>
-      <c r="H42" s="235"/>
-      <c r="I42" s="235"/>
-      <c r="J42" s="236"/>
+      <c r="B42" s="258"/>
+      <c r="C42" s="258"/>
+      <c r="D42" s="258"/>
+      <c r="E42" s="258"/>
+      <c r="F42" s="258"/>
+      <c r="G42" s="258"/>
+      <c r="H42" s="258"/>
+      <c r="I42" s="258"/>
+      <c r="J42" s="259"/>
     </row>
     <row r="43" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A43" s="163" t="s">
+      <c r="A43" s="236" t="s">
         <v>242</v>
       </c>
-      <c r="B43" s="164"/>
-      <c r="C43" s="164"/>
-      <c r="D43" s="164"/>
-      <c r="E43" s="164"/>
-      <c r="F43" s="164"/>
-      <c r="G43" s="164"/>
-      <c r="H43" s="164"/>
-      <c r="I43" s="164"/>
-      <c r="J43" s="165"/>
+      <c r="B43" s="245"/>
+      <c r="C43" s="245"/>
+      <c r="D43" s="245"/>
+      <c r="E43" s="245"/>
+      <c r="F43" s="245"/>
+      <c r="G43" s="245"/>
+      <c r="H43" s="245"/>
+      <c r="I43" s="245"/>
+      <c r="J43" s="246"/>
     </row>
     <row r="44" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="60"/>
       <c r="B44" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="C44" s="237" t="s">
+      <c r="C44" s="125" t="s">
         <v>244</v>
       </c>
-      <c r="D44" s="237" t="s">
+      <c r="D44" s="125" t="s">
         <v>245</v>
       </c>
-      <c r="E44" s="237" t="s">
+      <c r="E44" s="125" t="s">
         <v>246</v>
       </c>
-      <c r="F44" s="238" t="s">
+      <c r="F44" s="260" t="s">
         <v>247</v>
       </c>
-      <c r="G44" s="239"/>
-      <c r="H44" s="239"/>
-      <c r="I44" s="239"/>
-      <c r="J44" s="240"/>
+      <c r="G44" s="261"/>
+      <c r="H44" s="261"/>
+      <c r="I44" s="261"/>
+      <c r="J44" s="262"/>
       <c r="K44" s="57"/>
       <c r="L44" s="57"/>
     </row>
@@ -9690,84 +9690,84 @@
       <c r="B45" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="C45" s="241" t="s">
+      <c r="C45" s="126" t="s">
         <v>249</v>
       </c>
-      <c r="D45" s="241" t="s">
+      <c r="D45" s="126" t="s">
         <v>250</v>
       </c>
-      <c r="E45" s="241" t="s">
+      <c r="E45" s="126" t="s">
         <v>251</v>
       </c>
-      <c r="F45" s="242" t="s">
+      <c r="F45" s="200" t="s">
         <v>252</v>
       </c>
-      <c r="G45" s="243"/>
-      <c r="H45" s="243"/>
-      <c r="I45" s="243"/>
-      <c r="J45" s="244"/>
+      <c r="G45" s="201"/>
+      <c r="H45" s="201"/>
+      <c r="I45" s="201"/>
+      <c r="J45" s="202"/>
     </row>
     <row r="46" spans="1:12" s="57" customFormat="1">
-      <c r="A46" s="204"/>
-      <c r="B46" s="245"/>
-      <c r="C46" s="245"/>
-      <c r="D46" s="245"/>
-      <c r="E46" s="245"/>
-      <c r="F46" s="245"/>
-      <c r="G46" s="245"/>
-      <c r="H46" s="245"/>
-      <c r="I46" s="245"/>
-      <c r="J46" s="246"/>
+      <c r="A46" s="214"/>
+      <c r="B46" s="263"/>
+      <c r="C46" s="263"/>
+      <c r="D46" s="263"/>
+      <c r="E46" s="263"/>
+      <c r="F46" s="263"/>
+      <c r="G46" s="263"/>
+      <c r="H46" s="263"/>
+      <c r="I46" s="263"/>
+      <c r="J46" s="264"/>
     </row>
     <row r="47" spans="1:12" s="57" customFormat="1">
-      <c r="A47" s="234" t="s">
+      <c r="A47" s="257" t="s">
         <v>253</v>
       </c>
-      <c r="B47" s="235"/>
-      <c r="C47" s="235"/>
-      <c r="D47" s="235"/>
-      <c r="E47" s="235"/>
-      <c r="F47" s="235"/>
-      <c r="G47" s="235"/>
-      <c r="H47" s="235"/>
-      <c r="I47" s="235"/>
-      <c r="J47" s="236"/>
+      <c r="B47" s="258"/>
+      <c r="C47" s="258"/>
+      <c r="D47" s="258"/>
+      <c r="E47" s="258"/>
+      <c r="F47" s="258"/>
+      <c r="G47" s="258"/>
+      <c r="H47" s="258"/>
+      <c r="I47" s="258"/>
+      <c r="J47" s="259"/>
     </row>
     <row r="48" spans="1:12" s="57" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A48" s="163" t="s">
+      <c r="A48" s="236" t="s">
         <v>254</v>
       </c>
-      <c r="B48" s="164"/>
-      <c r="C48" s="164"/>
-      <c r="D48" s="164"/>
-      <c r="E48" s="164"/>
-      <c r="F48" s="164"/>
-      <c r="G48" s="164"/>
-      <c r="H48" s="164"/>
-      <c r="I48" s="164"/>
-      <c r="J48" s="165"/>
+      <c r="B48" s="245"/>
+      <c r="C48" s="245"/>
+      <c r="D48" s="245"/>
+      <c r="E48" s="245"/>
+      <c r="F48" s="245"/>
+      <c r="G48" s="245"/>
+      <c r="H48" s="245"/>
+      <c r="I48" s="245"/>
+      <c r="J48" s="246"/>
     </row>
     <row r="49" spans="1:12" s="59" customFormat="1" ht="39" customHeight="1">
       <c r="A49" s="60"/>
       <c r="B49" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="C49" s="237" t="s">
+      <c r="C49" s="125" t="s">
         <v>244</v>
       </c>
-      <c r="D49" s="237" t="s">
+      <c r="D49" s="125" t="s">
         <v>245</v>
       </c>
-      <c r="E49" s="237" t="s">
+      <c r="E49" s="125" t="s">
         <v>246</v>
       </c>
-      <c r="F49" s="238" t="s">
+      <c r="F49" s="260" t="s">
         <v>247</v>
       </c>
-      <c r="G49" s="239"/>
-      <c r="H49" s="239"/>
-      <c r="I49" s="239"/>
-      <c r="J49" s="240"/>
+      <c r="G49" s="261"/>
+      <c r="H49" s="261"/>
+      <c r="I49" s="261"/>
+      <c r="J49" s="262"/>
     </row>
     <row r="50" spans="1:12" s="57" customFormat="1" ht="16.5" customHeight="1">
       <c r="A50" s="60">
@@ -9776,48 +9776,48 @@
       <c r="B50" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="C50" s="241" t="s">
+      <c r="C50" s="126" t="s">
         <v>249</v>
       </c>
-      <c r="D50" s="241" t="s">
+      <c r="D50" s="126" t="s">
         <v>250</v>
       </c>
-      <c r="E50" s="241" t="s">
+      <c r="E50" s="126" t="s">
         <v>251</v>
       </c>
-      <c r="F50" s="242" t="s">
+      <c r="F50" s="200" t="s">
         <v>256</v>
       </c>
-      <c r="G50" s="243"/>
-      <c r="H50" s="243"/>
-      <c r="I50" s="243"/>
-      <c r="J50" s="244"/>
+      <c r="G50" s="201"/>
+      <c r="H50" s="201"/>
+      <c r="I50" s="201"/>
+      <c r="J50" s="202"/>
     </row>
     <row r="51" spans="1:12" s="57" customFormat="1">
-      <c r="A51" s="154"/>
-      <c r="B51" s="155"/>
-      <c r="C51" s="155"/>
-      <c r="D51" s="155"/>
-      <c r="E51" s="155"/>
-      <c r="F51" s="155"/>
-      <c r="G51" s="155"/>
-      <c r="H51" s="155"/>
-      <c r="I51" s="155"/>
-      <c r="J51" s="156"/>
+      <c r="A51" s="213"/>
+      <c r="B51" s="190"/>
+      <c r="C51" s="190"/>
+      <c r="D51" s="190"/>
+      <c r="E51" s="190"/>
+      <c r="F51" s="190"/>
+      <c r="G51" s="190"/>
+      <c r="H51" s="190"/>
+      <c r="I51" s="190"/>
+      <c r="J51" s="191"/>
     </row>
     <row r="52" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="149" t="s">
+      <c r="A52" s="203" t="s">
         <v>257</v>
       </c>
-      <c r="B52" s="150"/>
-      <c r="C52" s="150"/>
-      <c r="D52" s="150"/>
-      <c r="E52" s="150"/>
-      <c r="F52" s="150"/>
-      <c r="G52" s="150"/>
-      <c r="H52" s="150"/>
-      <c r="I52" s="150"/>
-      <c r="J52" s="151"/>
+      <c r="B52" s="204"/>
+      <c r="C52" s="204"/>
+      <c r="D52" s="204"/>
+      <c r="E52" s="204"/>
+      <c r="F52" s="204"/>
+      <c r="G52" s="204"/>
+      <c r="H52" s="204"/>
+      <c r="I52" s="204"/>
+      <c r="J52" s="205"/>
     </row>
     <row r="53" spans="1:12" s="59" customFormat="1">
       <c r="A53" s="61" t="s">
@@ -9832,78 +9832,78 @@
       <c r="D53" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="E53" s="152" t="s">
+      <c r="E53" s="206" t="s">
         <v>262</v>
       </c>
-      <c r="F53" s="153"/>
-      <c r="G53" s="153"/>
-      <c r="H53" s="153"/>
-      <c r="I53" s="153"/>
-      <c r="J53" s="153"/>
+      <c r="F53" s="207"/>
+      <c r="G53" s="207"/>
+      <c r="H53" s="207"/>
+      <c r="I53" s="207"/>
+      <c r="J53" s="207"/>
       <c r="K53" s="57"/>
       <c r="L53" s="57"/>
     </row>
     <row r="54" spans="1:12" s="57" customFormat="1">
-      <c r="A54" s="247">
+      <c r="A54" s="183">
         <v>1</v>
       </c>
-      <c r="B54" s="247" t="s">
+      <c r="B54" s="183" t="s">
         <v>263</v>
       </c>
-      <c r="C54" s="248" t="s">
+      <c r="C54" s="127" t="s">
         <v>264</v>
       </c>
-      <c r="D54" s="248"/>
-      <c r="E54" s="249" t="s">
+      <c r="D54" s="127"/>
+      <c r="E54" s="208" t="s">
         <v>265</v>
       </c>
-      <c r="F54" s="250"/>
-      <c r="G54" s="250"/>
-      <c r="H54" s="250"/>
-      <c r="I54" s="250"/>
-      <c r="J54" s="251"/>
+      <c r="F54" s="209"/>
+      <c r="G54" s="209"/>
+      <c r="H54" s="209"/>
+      <c r="I54" s="209"/>
+      <c r="J54" s="210"/>
     </row>
     <row r="55" spans="1:12" s="57" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A55" s="252"/>
-      <c r="B55" s="252"/>
-      <c r="C55" s="253" t="s">
+      <c r="A55" s="184"/>
+      <c r="B55" s="184"/>
+      <c r="C55" s="128" t="s">
         <v>266</v>
       </c>
-      <c r="D55" s="248"/>
-      <c r="E55" s="254" t="s">
+      <c r="D55" s="127"/>
+      <c r="E55" s="211" t="s">
         <v>267</v>
       </c>
-      <c r="F55" s="255"/>
-      <c r="G55" s="255"/>
-      <c r="H55" s="255"/>
-      <c r="I55" s="255"/>
-      <c r="J55" s="255"/>
+      <c r="F55" s="212"/>
+      <c r="G55" s="212"/>
+      <c r="H55" s="212"/>
+      <c r="I55" s="212"/>
+      <c r="J55" s="212"/>
     </row>
     <row r="56" spans="1:12" s="57" customFormat="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="155"/>
-      <c r="C56" s="155"/>
-      <c r="D56" s="155"/>
-      <c r="E56" s="155"/>
-      <c r="F56" s="155"/>
-      <c r="G56" s="155"/>
-      <c r="H56" s="155"/>
-      <c r="I56" s="155"/>
-      <c r="J56" s="156"/>
+      <c r="B56" s="190"/>
+      <c r="C56" s="190"/>
+      <c r="D56" s="190"/>
+      <c r="E56" s="190"/>
+      <c r="F56" s="190"/>
+      <c r="G56" s="190"/>
+      <c r="H56" s="190"/>
+      <c r="I56" s="190"/>
+      <c r="J56" s="191"/>
     </row>
     <row r="57" spans="1:12" s="57" customFormat="1">
-      <c r="A57" s="184" t="s">
+      <c r="A57" s="192" t="s">
         <v>268</v>
       </c>
-      <c r="B57" s="185"/>
-      <c r="C57" s="185"/>
-      <c r="D57" s="185"/>
-      <c r="E57" s="185"/>
-      <c r="F57" s="185"/>
-      <c r="G57" s="185"/>
-      <c r="H57" s="185"/>
-      <c r="I57" s="185"/>
-      <c r="J57" s="186"/>
+      <c r="B57" s="193"/>
+      <c r="C57" s="193"/>
+      <c r="D57" s="193"/>
+      <c r="E57" s="193"/>
+      <c r="F57" s="193"/>
+      <c r="G57" s="193"/>
+      <c r="H57" s="193"/>
+      <c r="I57" s="193"/>
+      <c r="J57" s="194"/>
     </row>
     <row r="58" spans="1:12" s="57" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A58" s="60">
@@ -9916,256 +9916,256 @@
         <v>270</v>
       </c>
       <c r="D58" s="111"/>
-      <c r="E58" s="209" t="s">
+      <c r="E58" s="195" t="s">
         <v>271</v>
       </c>
-      <c r="F58" s="143"/>
-      <c r="G58" s="143"/>
-      <c r="H58" s="143"/>
-      <c r="I58" s="143"/>
-      <c r="J58" s="143"/>
+      <c r="F58" s="161"/>
+      <c r="G58" s="161"/>
+      <c r="H58" s="161"/>
+      <c r="I58" s="161"/>
+      <c r="J58" s="161"/>
     </row>
     <row r="59" spans="1:12" s="57" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A59" s="256"/>
-      <c r="B59" s="257" t="s">
+      <c r="A59" s="129"/>
+      <c r="B59" s="185" t="s">
         <v>272</v>
       </c>
-      <c r="C59" s="258" t="s">
+      <c r="C59" s="130" t="s">
         <v>273</v>
       </c>
       <c r="D59" s="112"/>
-      <c r="E59" s="181" t="s">
+      <c r="E59" s="187" t="s">
         <v>274</v>
       </c>
-      <c r="F59" s="182"/>
-      <c r="G59" s="182"/>
-      <c r="H59" s="182"/>
-      <c r="I59" s="182"/>
-      <c r="J59" s="183"/>
+      <c r="F59" s="188"/>
+      <c r="G59" s="188"/>
+      <c r="H59" s="188"/>
+      <c r="I59" s="188"/>
+      <c r="J59" s="189"/>
     </row>
     <row r="60" spans="1:12" s="59" customFormat="1">
       <c r="A60" s="67">
         <v>1</v>
       </c>
-      <c r="B60" s="259"/>
-      <c r="C60" s="258" t="s">
+      <c r="B60" s="196"/>
+      <c r="C60" s="130" t="s">
         <v>275</v>
       </c>
-      <c r="D60" s="260"/>
-      <c r="E60" s="210" t="s">
+      <c r="D60" s="131"/>
+      <c r="E60" s="197" t="s">
         <v>276</v>
       </c>
-      <c r="F60" s="211"/>
-      <c r="G60" s="211"/>
-      <c r="H60" s="211"/>
-      <c r="I60" s="211"/>
-      <c r="J60" s="212"/>
+      <c r="F60" s="198"/>
+      <c r="G60" s="198"/>
+      <c r="H60" s="198"/>
+      <c r="I60" s="198"/>
+      <c r="J60" s="199"/>
     </row>
     <row r="61" spans="1:12" s="57" customFormat="1" ht="49.5">
       <c r="A61" s="67"/>
-      <c r="B61" s="261"/>
-      <c r="C61" s="258" t="s">
+      <c r="B61" s="186"/>
+      <c r="C61" s="130" t="s">
         <v>277</v>
       </c>
-      <c r="D61" s="260" t="s">
+      <c r="D61" s="131" t="s">
         <v>278</v>
       </c>
-      <c r="E61" s="210" t="s">
+      <c r="E61" s="197" t="s">
         <v>279</v>
       </c>
-      <c r="F61" s="211"/>
-      <c r="G61" s="211"/>
-      <c r="H61" s="211"/>
-      <c r="I61" s="211"/>
-      <c r="J61" s="212"/>
+      <c r="F61" s="198"/>
+      <c r="G61" s="198"/>
+      <c r="H61" s="198"/>
+      <c r="I61" s="198"/>
+      <c r="J61" s="199"/>
     </row>
     <row r="62" spans="1:12" s="57" customFormat="1" ht="84" customHeight="1">
       <c r="A62" s="65">
         <v>2</v>
       </c>
-      <c r="B62" s="262" t="s">
+      <c r="B62" s="132" t="s">
         <v>280</v>
       </c>
       <c r="C62" s="114" t="s">
         <v>281</v>
       </c>
       <c r="D62" s="108"/>
-      <c r="E62" s="181" t="s">
+      <c r="E62" s="187" t="s">
         <v>282</v>
       </c>
-      <c r="F62" s="182"/>
-      <c r="G62" s="182"/>
-      <c r="H62" s="182"/>
-      <c r="I62" s="182"/>
-      <c r="J62" s="183"/>
+      <c r="F62" s="188"/>
+      <c r="G62" s="188"/>
+      <c r="H62" s="188"/>
+      <c r="I62" s="188"/>
+      <c r="J62" s="189"/>
     </row>
     <row r="63" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="69"/>
-      <c r="B63" s="155"/>
-      <c r="C63" s="155"/>
-      <c r="D63" s="155"/>
-      <c r="E63" s="155"/>
-      <c r="F63" s="155"/>
-      <c r="G63" s="155"/>
-      <c r="H63" s="155"/>
-      <c r="I63" s="155"/>
-      <c r="J63" s="156"/>
+      <c r="B63" s="190"/>
+      <c r="C63" s="190"/>
+      <c r="D63" s="190"/>
+      <c r="E63" s="190"/>
+      <c r="F63" s="190"/>
+      <c r="G63" s="190"/>
+      <c r="H63" s="190"/>
+      <c r="I63" s="190"/>
+      <c r="J63" s="191"/>
     </row>
     <row r="64" spans="1:12" s="57" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A64" s="201" t="s">
+      <c r="A64" s="180" t="s">
         <v>288</v>
       </c>
-      <c r="B64" s="202"/>
-      <c r="C64" s="202"/>
-      <c r="D64" s="202"/>
-      <c r="E64" s="202"/>
-      <c r="F64" s="202"/>
-      <c r="G64" s="202"/>
-      <c r="H64" s="202"/>
-      <c r="I64" s="202"/>
-      <c r="J64" s="203"/>
+      <c r="B64" s="181"/>
+      <c r="C64" s="181"/>
+      <c r="D64" s="181"/>
+      <c r="E64" s="181"/>
+      <c r="F64" s="181"/>
+      <c r="G64" s="181"/>
+      <c r="H64" s="181"/>
+      <c r="I64" s="181"/>
+      <c r="J64" s="182"/>
     </row>
     <row r="65" spans="1:10" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A65" s="247">
+      <c r="A65" s="183">
         <v>1</v>
       </c>
-      <c r="B65" s="257" t="s">
+      <c r="B65" s="185" t="s">
         <v>92</v>
       </c>
       <c r="C65" s="114" t="s">
         <v>283</v>
       </c>
       <c r="D65" s="108"/>
-      <c r="E65" s="181" t="s">
+      <c r="E65" s="187" t="s">
         <v>284</v>
       </c>
-      <c r="F65" s="182"/>
-      <c r="G65" s="182"/>
-      <c r="H65" s="182"/>
-      <c r="I65" s="182"/>
-      <c r="J65" s="183"/>
+      <c r="F65" s="188"/>
+      <c r="G65" s="188"/>
+      <c r="H65" s="188"/>
+      <c r="I65" s="188"/>
+      <c r="J65" s="189"/>
     </row>
     <row r="66" spans="1:10" s="57" customFormat="1" ht="66">
-      <c r="A66" s="252"/>
-      <c r="B66" s="261"/>
-      <c r="C66" s="263" t="s">
+      <c r="A66" s="184"/>
+      <c r="B66" s="186"/>
+      <c r="C66" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="D66" s="264" t="s">
+      <c r="D66" s="134" t="s">
         <v>286</v>
       </c>
-      <c r="E66" s="181" t="s">
+      <c r="E66" s="187" t="s">
         <v>287</v>
       </c>
-      <c r="F66" s="182"/>
-      <c r="G66" s="182"/>
-      <c r="H66" s="182"/>
-      <c r="I66" s="182"/>
-      <c r="J66" s="183"/>
+      <c r="F66" s="188"/>
+      <c r="G66" s="188"/>
+      <c r="H66" s="188"/>
+      <c r="I66" s="188"/>
+      <c r="J66" s="189"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="70"/>
-      <c r="B67" s="155"/>
-      <c r="C67" s="155"/>
-      <c r="D67" s="155"/>
-      <c r="E67" s="155"/>
-      <c r="F67" s="155"/>
-      <c r="G67" s="155"/>
-      <c r="H67" s="155"/>
-      <c r="I67" s="155"/>
-      <c r="J67" s="156"/>
+      <c r="B67" s="190"/>
+      <c r="C67" s="190"/>
+      <c r="D67" s="190"/>
+      <c r="E67" s="190"/>
+      <c r="F67" s="190"/>
+      <c r="G67" s="190"/>
+      <c r="H67" s="190"/>
+      <c r="I67" s="190"/>
+      <c r="J67" s="191"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="206" t="s">
+      <c r="A68" s="216" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="207"/>
-      <c r="C68" s="207"/>
-      <c r="D68" s="207"/>
-      <c r="E68" s="207"/>
-      <c r="F68" s="207"/>
-      <c r="G68" s="207"/>
-      <c r="H68" s="207"/>
-      <c r="I68" s="207"/>
-      <c r="J68" s="208"/>
+      <c r="B68" s="217"/>
+      <c r="C68" s="217"/>
+      <c r="D68" s="217"/>
+      <c r="E68" s="217"/>
+      <c r="F68" s="217"/>
+      <c r="G68" s="217"/>
+      <c r="H68" s="217"/>
+      <c r="I68" s="217"/>
+      <c r="J68" s="218"/>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="204" t="s">
+      <c r="B69" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="181" t="s">
+      <c r="C69" s="215"/>
+      <c r="D69" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="E69" s="135"/>
-      <c r="F69" s="135"/>
-      <c r="G69" s="135"/>
-      <c r="H69" s="135"/>
-      <c r="I69" s="135"/>
-      <c r="J69" s="136"/>
+      <c r="E69" s="165"/>
+      <c r="F69" s="165"/>
+      <c r="G69" s="165"/>
+      <c r="H69" s="165"/>
+      <c r="I69" s="165"/>
+      <c r="J69" s="166"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="201"/>
-      <c r="B70" s="202"/>
-      <c r="C70" s="202"/>
-      <c r="D70" s="202"/>
-      <c r="E70" s="202"/>
-      <c r="F70" s="202"/>
-      <c r="G70" s="202"/>
-      <c r="H70" s="202"/>
-      <c r="I70" s="202"/>
-      <c r="J70" s="203"/>
+      <c r="A70" s="180"/>
+      <c r="B70" s="181"/>
+      <c r="C70" s="181"/>
+      <c r="D70" s="181"/>
+      <c r="E70" s="181"/>
+      <c r="F70" s="181"/>
+      <c r="G70" s="181"/>
+      <c r="H70" s="181"/>
+      <c r="I70" s="181"/>
+      <c r="J70" s="182"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="68"/>
-      <c r="B71" s="154"/>
-      <c r="C71" s="156"/>
-      <c r="D71" s="181"/>
-      <c r="E71" s="182"/>
-      <c r="F71" s="182"/>
-      <c r="G71" s="182"/>
-      <c r="H71" s="182"/>
-      <c r="I71" s="182"/>
-      <c r="J71" s="183"/>
+      <c r="B71" s="213"/>
+      <c r="C71" s="191"/>
+      <c r="D71" s="187"/>
+      <c r="E71" s="188"/>
+      <c r="F71" s="188"/>
+      <c r="G71" s="188"/>
+      <c r="H71" s="188"/>
+      <c r="I71" s="188"/>
+      <c r="J71" s="189"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="68"/>
-      <c r="B72" s="154"/>
-      <c r="C72" s="156"/>
-      <c r="D72" s="181"/>
-      <c r="E72" s="182"/>
-      <c r="F72" s="182"/>
-      <c r="G72" s="182"/>
-      <c r="H72" s="182"/>
-      <c r="I72" s="182"/>
-      <c r="J72" s="183"/>
+      <c r="B72" s="213"/>
+      <c r="C72" s="191"/>
+      <c r="D72" s="187"/>
+      <c r="E72" s="188"/>
+      <c r="F72" s="188"/>
+      <c r="G72" s="188"/>
+      <c r="H72" s="188"/>
+      <c r="I72" s="188"/>
+      <c r="J72" s="189"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="201"/>
-      <c r="B73" s="202"/>
-      <c r="C73" s="202"/>
-      <c r="D73" s="202"/>
-      <c r="E73" s="202"/>
-      <c r="F73" s="202"/>
-      <c r="G73" s="202"/>
-      <c r="H73" s="202"/>
-      <c r="I73" s="202"/>
-      <c r="J73" s="203"/>
+      <c r="A73" s="180"/>
+      <c r="B73" s="181"/>
+      <c r="C73" s="181"/>
+      <c r="D73" s="181"/>
+      <c r="E73" s="181"/>
+      <c r="F73" s="181"/>
+      <c r="G73" s="181"/>
+      <c r="H73" s="181"/>
+      <c r="I73" s="181"/>
+      <c r="J73" s="182"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="68"/>
-      <c r="B74" s="154"/>
-      <c r="C74" s="156"/>
-      <c r="D74" s="181"/>
-      <c r="E74" s="182"/>
-      <c r="F74" s="182"/>
-      <c r="G74" s="182"/>
-      <c r="H74" s="182"/>
-      <c r="I74" s="182"/>
-      <c r="J74" s="183"/>
+      <c r="B74" s="213"/>
+      <c r="C74" s="191"/>
+      <c r="D74" s="187"/>
+      <c r="E74" s="188"/>
+      <c r="F74" s="188"/>
+      <c r="G74" s="188"/>
+      <c r="H74" s="188"/>
+      <c r="I74" s="188"/>
+      <c r="J74" s="189"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="71" t="s">
@@ -10188,14 +10188,14 @@
       <c r="B76" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="154"/>
-      <c r="D76" s="135"/>
-      <c r="E76" s="135"/>
-      <c r="F76" s="135"/>
-      <c r="G76" s="135"/>
-      <c r="H76" s="135"/>
-      <c r="I76" s="135"/>
-      <c r="J76" s="136"/>
+      <c r="C76" s="213"/>
+      <c r="D76" s="165"/>
+      <c r="E76" s="165"/>
+      <c r="F76" s="165"/>
+      <c r="G76" s="165"/>
+      <c r="H76" s="165"/>
+      <c r="I76" s="165"/>
+      <c r="J76" s="166"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="68">
@@ -10204,48 +10204,45 @@
       <c r="B77" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="178"/>
-      <c r="D77" s="178"/>
-      <c r="E77" s="178"/>
-      <c r="F77" s="178"/>
-      <c r="G77" s="178"/>
-      <c r="H77" s="178"/>
-      <c r="I77" s="178"/>
-      <c r="J77" s="178"/>
+      <c r="C77" s="219"/>
+      <c r="D77" s="219"/>
+      <c r="E77" s="219"/>
+      <c r="F77" s="219"/>
+      <c r="G77" s="219"/>
+      <c r="H77" s="219"/>
+      <c r="I77" s="219"/>
+      <c r="J77" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="E62:J62"/>
-    <mergeCell ref="B56:J56"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="E58:J58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="D74:J74"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="D72:J72"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="D69:J69"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="B63:J63"/>
-    <mergeCell ref="B67:J67"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C31:J33"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
     <mergeCell ref="C77:J77"/>
     <mergeCell ref="C76:J76"/>
     <mergeCell ref="K1:K3"/>
@@ -10262,35 +10259,38 @@
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="A21:J21"/>
     <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C31:J33"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="D69:J69"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="B67:J67"/>
+    <mergeCell ref="D74:J74"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="D72:J72"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E55:J55"/>
     <mergeCell ref="A51:J51"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="B63:J63"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10343,7 +10343,7 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="179" t="s">
+      <c r="K1" s="220" t="s">
         <v>47</v>
       </c>
       <c r="L1" s="40"/>
@@ -10370,7 +10370,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="180"/>
+      <c r="K2" s="221"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -10388,7 +10388,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="180"/>
+      <c r="K3" s="221"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -10432,18 +10432,18 @@
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="213" t="s">
+      <c r="A6" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="214"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="214"/>
-      <c r="H6" s="214"/>
-      <c r="I6" s="214"/>
-      <c r="J6" s="215"/>
+      <c r="B6" s="266"/>
+      <c r="C6" s="266"/>
+      <c r="D6" s="266"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="266"/>
+      <c r="G6" s="266"/>
+      <c r="H6" s="266"/>
+      <c r="I6" s="266"/>
+      <c r="J6" s="267"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -10510,18 +10510,18 @@
       <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="213" t="s">
+      <c r="A10" s="265" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="214"/>
-      <c r="C10" s="214"/>
-      <c r="D10" s="214"/>
-      <c r="E10" s="214"/>
-      <c r="F10" s="214"/>
-      <c r="G10" s="214"/>
-      <c r="H10" s="214"/>
-      <c r="I10" s="214"/>
-      <c r="J10" s="215"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="266"/>
+      <c r="G10" s="266"/>
+      <c r="H10" s="266"/>
+      <c r="I10" s="266"/>
+      <c r="J10" s="267"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
@@ -10642,18 +10642,18 @@
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="213" t="s">
+      <c r="A16" s="265" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="214"/>
-      <c r="C16" s="214"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="214"/>
-      <c r="G16" s="214"/>
-      <c r="H16" s="214"/>
-      <c r="I16" s="214"/>
-      <c r="J16" s="215"/>
+      <c r="B16" s="266"/>
+      <c r="C16" s="266"/>
+      <c r="D16" s="266"/>
+      <c r="E16" s="266"/>
+      <c r="F16" s="266"/>
+      <c r="G16" s="266"/>
+      <c r="H16" s="266"/>
+      <c r="I16" s="266"/>
+      <c r="J16" s="267"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="43" t="s">
@@ -10892,7 +10892,7 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="179" t="s">
+      <c r="K1" s="220" t="s">
         <v>47</v>
       </c>
       <c r="L1" s="55"/>
@@ -10913,7 +10913,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="180"/>
+      <c r="K2" s="221"/>
     </row>
     <row r="3" spans="1:17" s="56" customFormat="1">
       <c r="A3" s="48"/>
@@ -10926,7 +10926,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="180"/>
+      <c r="K3" s="221"/>
     </row>
     <row r="4" spans="1:17" s="56" customFormat="1">
       <c r="A4" s="48"/>
@@ -10941,152 +10941,152 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="56" customFormat="1">
-      <c r="A5" s="190" t="s">
+      <c r="A5" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="164"/>
     </row>
     <row r="6" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="146"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
+      <c r="A6" s="167"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="169"/>
     </row>
     <row r="7" spans="1:17" s="57" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="191"/>
-      <c r="B7" s="192"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="194"/>
+      <c r="A7" s="226"/>
+      <c r="B7" s="227"/>
+      <c r="C7" s="227"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="227"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="229"/>
       <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:17" s="57" customFormat="1">
-      <c r="A8" s="191"/>
-      <c r="B8" s="192"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="194"/>
+      <c r="A8" s="226"/>
+      <c r="B8" s="227"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="227"/>
+      <c r="H8" s="227"/>
+      <c r="I8" s="228"/>
+      <c r="J8" s="229"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:17" s="57" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="195"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="197"/>
+      <c r="A9" s="230"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="231"/>
+      <c r="G9" s="231"/>
+      <c r="H9" s="231"/>
+      <c r="I9" s="231"/>
+      <c r="J9" s="232"/>
     </row>
     <row r="10" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="190" t="s">
+      <c r="A10" s="225" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="133"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="164"/>
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="84.75" customHeight="1">
-      <c r="A11" s="198" t="s">
+      <c r="A11" s="233" t="s">
         <v>198</v>
       </c>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="136"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="166"/>
     </row>
     <row r="12" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="190" t="s">
+      <c r="A12" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="133"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="164"/>
     </row>
     <row r="13" spans="1:17" s="59" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="198" t="s">
+      <c r="A13" s="233" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="136"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="166"/>
     </row>
     <row r="14" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="190" t="s">
+      <c r="A14" s="225" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="133"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="164"/>
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="163" t="s">
+      <c r="A15" s="236" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="176"/>
+      <c r="B15" s="237"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="237"/>
+      <c r="F15" s="237"/>
+      <c r="G15" s="237"/>
+      <c r="H15" s="237"/>
+      <c r="I15" s="237"/>
+      <c r="J15" s="238"/>
     </row>
     <row r="16" spans="1:17" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="60" t="s">
@@ -11095,16 +11095,16 @@
       <c r="B16" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="239" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="159"/>
+      <c r="D16" s="240"/>
+      <c r="E16" s="240"/>
+      <c r="F16" s="240"/>
+      <c r="G16" s="240"/>
+      <c r="H16" s="240"/>
+      <c r="I16" s="240"/>
+      <c r="J16" s="241"/>
     </row>
     <row r="17" spans="1:10" s="57" customFormat="1">
       <c r="A17" s="60">
@@ -11113,16 +11113,16 @@
       <c r="B17" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="177" t="s">
+      <c r="C17" s="242" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="161"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="162"/>
+      <c r="D17" s="243"/>
+      <c r="E17" s="243"/>
+      <c r="F17" s="243"/>
+      <c r="G17" s="243"/>
+      <c r="H17" s="243"/>
+      <c r="I17" s="243"/>
+      <c r="J17" s="244"/>
     </row>
     <row r="18" spans="1:10" s="57" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="44">
@@ -11131,16 +11131,16 @@
       <c r="B18" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="C18" s="177" t="s">
+      <c r="C18" s="242" t="s">
         <v>235</v>
       </c>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="162"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="243"/>
+      <c r="F18" s="243"/>
+      <c r="G18" s="243"/>
+      <c r="H18" s="243"/>
+      <c r="I18" s="243"/>
+      <c r="J18" s="244"/>
     </row>
     <row r="19" spans="1:10" s="57" customFormat="1" ht="54.75" customHeight="1">
       <c r="A19" s="44">
@@ -11149,16 +11149,16 @@
       <c r="B19" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="177" t="s">
+      <c r="C19" s="242" t="s">
         <v>236</v>
       </c>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="162"/>
+      <c r="D19" s="243"/>
+      <c r="E19" s="243"/>
+      <c r="F19" s="243"/>
+      <c r="G19" s="243"/>
+      <c r="H19" s="243"/>
+      <c r="I19" s="243"/>
+      <c r="J19" s="244"/>
     </row>
     <row r="20" spans="1:10" s="57" customFormat="1" ht="57" customHeight="1">
       <c r="A20" s="49">
@@ -11167,16 +11167,16 @@
       <c r="B20" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="177" t="s">
+      <c r="C20" s="242" t="s">
         <v>240</v>
       </c>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="162"/>
+      <c r="D20" s="243"/>
+      <c r="E20" s="243"/>
+      <c r="F20" s="243"/>
+      <c r="G20" s="243"/>
+      <c r="H20" s="243"/>
+      <c r="I20" s="243"/>
+      <c r="J20" s="244"/>
     </row>
     <row r="21" spans="1:10" s="57" customFormat="1" ht="51" customHeight="1">
       <c r="A21" s="49">
@@ -11185,16 +11185,16 @@
       <c r="B21" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="177" t="s">
+      <c r="C21" s="242" t="s">
         <v>237</v>
       </c>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="162"/>
+      <c r="D21" s="243"/>
+      <c r="E21" s="243"/>
+      <c r="F21" s="243"/>
+      <c r="G21" s="243"/>
+      <c r="H21" s="243"/>
+      <c r="I21" s="243"/>
+      <c r="J21" s="244"/>
     </row>
     <row r="22" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A22" s="44">
@@ -11203,42 +11203,42 @@
       <c r="B22" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="177" t="s">
+      <c r="C22" s="242" t="s">
         <v>184</v>
       </c>
-      <c r="D22" s="220"/>
-      <c r="E22" s="220"/>
-      <c r="F22" s="220"/>
-      <c r="G22" s="220"/>
-      <c r="H22" s="220"/>
-      <c r="I22" s="220"/>
-      <c r="J22" s="221"/>
+      <c r="D22" s="302"/>
+      <c r="E22" s="302"/>
+      <c r="F22" s="302"/>
+      <c r="G22" s="302"/>
+      <c r="H22" s="302"/>
+      <c r="I22" s="302"/>
+      <c r="J22" s="303"/>
     </row>
     <row r="23" spans="1:10" s="57" customFormat="1">
-      <c r="A23" s="187"/>
-      <c r="B23" s="188"/>
-      <c r="C23" s="188"/>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="189"/>
+      <c r="A23" s="222"/>
+      <c r="B23" s="223"/>
+      <c r="C23" s="223"/>
+      <c r="D23" s="223"/>
+      <c r="E23" s="223"/>
+      <c r="F23" s="223"/>
+      <c r="G23" s="223"/>
+      <c r="H23" s="223"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="224"/>
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A24" s="163" t="s">
+      <c r="A24" s="236" t="s">
         <v>206</v>
       </c>
-      <c r="B24" s="175"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="175"/>
-      <c r="E24" s="175"/>
-      <c r="F24" s="175"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="175"/>
-      <c r="J24" s="176"/>
+      <c r="B24" s="237"/>
+      <c r="C24" s="237"/>
+      <c r="D24" s="237"/>
+      <c r="E24" s="237"/>
+      <c r="F24" s="237"/>
+      <c r="G24" s="237"/>
+      <c r="H24" s="237"/>
+      <c r="I24" s="237"/>
+      <c r="J24" s="238"/>
     </row>
     <row r="25" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A25" s="80">
@@ -11247,16 +11247,16 @@
       <c r="B25" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="177" t="s">
+      <c r="C25" s="242" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="162"/>
+      <c r="D25" s="243"/>
+      <c r="E25" s="243"/>
+      <c r="F25" s="243"/>
+      <c r="G25" s="243"/>
+      <c r="H25" s="243"/>
+      <c r="I25" s="243"/>
+      <c r="J25" s="244"/>
     </row>
     <row r="26" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A26" s="80">
@@ -11265,16 +11265,16 @@
       <c r="B26" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="177" t="s">
+      <c r="C26" s="242" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="162"/>
+      <c r="D26" s="243"/>
+      <c r="E26" s="243"/>
+      <c r="F26" s="243"/>
+      <c r="G26" s="243"/>
+      <c r="H26" s="243"/>
+      <c r="I26" s="243"/>
+      <c r="J26" s="244"/>
     </row>
     <row r="27" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A27" s="44">
@@ -11283,16 +11283,16 @@
       <c r="B27" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="C27" s="177" t="s">
+      <c r="C27" s="242" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="162"/>
+      <c r="D27" s="243"/>
+      <c r="E27" s="243"/>
+      <c r="F27" s="243"/>
+      <c r="G27" s="243"/>
+      <c r="H27" s="243"/>
+      <c r="I27" s="243"/>
+      <c r="J27" s="244"/>
     </row>
     <row r="28" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A28" s="44">
@@ -11301,16 +11301,16 @@
       <c r="B28" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="177" t="s">
+      <c r="C28" s="242" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="161"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="162"/>
+      <c r="D28" s="243"/>
+      <c r="E28" s="243"/>
+      <c r="F28" s="243"/>
+      <c r="G28" s="243"/>
+      <c r="H28" s="243"/>
+      <c r="I28" s="243"/>
+      <c r="J28" s="244"/>
     </row>
     <row r="29" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A29" s="118"/>
@@ -11325,18 +11325,18 @@
       <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:10" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A30" s="163" t="s">
+      <c r="A30" s="236" t="s">
         <v>207</v>
       </c>
-      <c r="B30" s="175"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="175"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="176"/>
+      <c r="B30" s="237"/>
+      <c r="C30" s="237"/>
+      <c r="D30" s="237"/>
+      <c r="E30" s="237"/>
+      <c r="F30" s="237"/>
+      <c r="G30" s="237"/>
+      <c r="H30" s="237"/>
+      <c r="I30" s="237"/>
+      <c r="J30" s="238"/>
     </row>
     <row r="31" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A31" s="80">
@@ -11345,16 +11345,16 @@
       <c r="B31" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="177" t="s">
+      <c r="C31" s="242" t="s">
         <v>137</v>
       </c>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="162"/>
+      <c r="D31" s="243"/>
+      <c r="E31" s="243"/>
+      <c r="F31" s="243"/>
+      <c r="G31" s="243"/>
+      <c r="H31" s="243"/>
+      <c r="I31" s="243"/>
+      <c r="J31" s="244"/>
     </row>
     <row r="32" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A32" s="80">
@@ -11363,16 +11363,16 @@
       <c r="B32" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="177" t="s">
+      <c r="C32" s="242" t="s">
         <v>137</v>
       </c>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="162"/>
+      <c r="D32" s="243"/>
+      <c r="E32" s="243"/>
+      <c r="F32" s="243"/>
+      <c r="G32" s="243"/>
+      <c r="H32" s="243"/>
+      <c r="I32" s="243"/>
+      <c r="J32" s="244"/>
     </row>
     <row r="33" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A33" s="44">
@@ -11381,16 +11381,16 @@
       <c r="B33" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="C33" s="177" t="s">
+      <c r="C33" s="242" t="s">
         <v>137</v>
       </c>
-      <c r="D33" s="161"/>
-      <c r="E33" s="161"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="161"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="161"/>
-      <c r="J33" s="162"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="243"/>
+      <c r="F33" s="243"/>
+      <c r="G33" s="243"/>
+      <c r="H33" s="243"/>
+      <c r="I33" s="243"/>
+      <c r="J33" s="244"/>
     </row>
     <row r="34" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A34" s="44">
@@ -11399,16 +11399,16 @@
       <c r="B34" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="177" t="s">
+      <c r="C34" s="242" t="s">
         <v>137</v>
       </c>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="161"/>
-      <c r="J34" s="162"/>
+      <c r="D34" s="243"/>
+      <c r="E34" s="243"/>
+      <c r="F34" s="243"/>
+      <c r="G34" s="243"/>
+      <c r="H34" s="243"/>
+      <c r="I34" s="243"/>
+      <c r="J34" s="244"/>
     </row>
     <row r="35" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A35" s="44">
@@ -11417,16 +11417,16 @@
       <c r="B35" s="96" t="s">
         <v>210</v>
       </c>
-      <c r="C35" s="177" t="s">
+      <c r="C35" s="242" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="161"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="161"/>
-      <c r="I35" s="161"/>
-      <c r="J35" s="162"/>
+      <c r="D35" s="243"/>
+      <c r="E35" s="243"/>
+      <c r="F35" s="243"/>
+      <c r="G35" s="243"/>
+      <c r="H35" s="243"/>
+      <c r="I35" s="243"/>
+      <c r="J35" s="244"/>
     </row>
     <row r="36" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A36" s="119"/>
@@ -11441,32 +11441,32 @@
       <c r="J36" s="100"/>
     </row>
     <row r="37" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A37" s="149" t="s">
+      <c r="A37" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="199"/>
-      <c r="C37" s="199"/>
-      <c r="D37" s="199"/>
-      <c r="E37" s="199"/>
-      <c r="F37" s="199"/>
-      <c r="G37" s="199"/>
-      <c r="H37" s="199"/>
-      <c r="I37" s="199"/>
-      <c r="J37" s="200"/>
+      <c r="B37" s="234"/>
+      <c r="C37" s="234"/>
+      <c r="D37" s="234"/>
+      <c r="E37" s="234"/>
+      <c r="F37" s="234"/>
+      <c r="G37" s="234"/>
+      <c r="H37" s="234"/>
+      <c r="I37" s="234"/>
+      <c r="J37" s="235"/>
     </row>
     <row r="38" spans="1:10" s="57" customFormat="1" ht="36" customHeight="1">
-      <c r="A38" s="163" t="s">
+      <c r="A38" s="236" t="s">
         <v>196</v>
       </c>
-      <c r="B38" s="175"/>
-      <c r="C38" s="175"/>
-      <c r="D38" s="175"/>
-      <c r="E38" s="175"/>
-      <c r="F38" s="175"/>
-      <c r="G38" s="175"/>
-      <c r="H38" s="175"/>
-      <c r="I38" s="175"/>
-      <c r="J38" s="176"/>
+      <c r="B38" s="237"/>
+      <c r="C38" s="237"/>
+      <c r="D38" s="237"/>
+      <c r="E38" s="237"/>
+      <c r="F38" s="237"/>
+      <c r="G38" s="237"/>
+      <c r="H38" s="237"/>
+      <c r="I38" s="237"/>
+      <c r="J38" s="238"/>
     </row>
     <row r="39" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A39" s="60" t="s">
@@ -11475,16 +11475,16 @@
       <c r="B39" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="157" t="s">
+      <c r="C39" s="239" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="158"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="158"/>
-      <c r="I39" s="158"/>
-      <c r="J39" s="159"/>
+      <c r="D39" s="240"/>
+      <c r="E39" s="240"/>
+      <c r="F39" s="240"/>
+      <c r="G39" s="240"/>
+      <c r="H39" s="240"/>
+      <c r="I39" s="240"/>
+      <c r="J39" s="241"/>
     </row>
     <row r="40" spans="1:10" s="57" customFormat="1">
       <c r="A40" s="60">
@@ -11493,16 +11493,16 @@
       <c r="B40" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="222" t="s">
+      <c r="C40" s="291" t="s">
         <v>175</v>
       </c>
-      <c r="D40" s="223"/>
-      <c r="E40" s="223"/>
-      <c r="F40" s="223"/>
-      <c r="G40" s="223"/>
-      <c r="H40" s="223"/>
-      <c r="I40" s="223"/>
-      <c r="J40" s="224"/>
+      <c r="D40" s="292"/>
+      <c r="E40" s="292"/>
+      <c r="F40" s="292"/>
+      <c r="G40" s="292"/>
+      <c r="H40" s="292"/>
+      <c r="I40" s="292"/>
+      <c r="J40" s="293"/>
     </row>
     <row r="41" spans="1:10" s="57" customFormat="1">
       <c r="A41" s="60">
@@ -11511,14 +11511,14 @@
       <c r="B41" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="225"/>
-      <c r="D41" s="226"/>
-      <c r="E41" s="226"/>
-      <c r="F41" s="226"/>
-      <c r="G41" s="226"/>
-      <c r="H41" s="226"/>
-      <c r="I41" s="226"/>
-      <c r="J41" s="227"/>
+      <c r="C41" s="294"/>
+      <c r="D41" s="295"/>
+      <c r="E41" s="295"/>
+      <c r="F41" s="295"/>
+      <c r="G41" s="295"/>
+      <c r="H41" s="295"/>
+      <c r="I41" s="295"/>
+      <c r="J41" s="296"/>
     </row>
     <row r="42" spans="1:10" s="57" customFormat="1">
       <c r="A42" s="60">
@@ -11527,14 +11527,14 @@
       <c r="B42" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="225"/>
-      <c r="D42" s="226"/>
-      <c r="E42" s="226"/>
-      <c r="F42" s="226"/>
-      <c r="G42" s="226"/>
-      <c r="H42" s="226"/>
-      <c r="I42" s="226"/>
-      <c r="J42" s="227"/>
+      <c r="C42" s="294"/>
+      <c r="D42" s="295"/>
+      <c r="E42" s="295"/>
+      <c r="F42" s="295"/>
+      <c r="G42" s="295"/>
+      <c r="H42" s="295"/>
+      <c r="I42" s="295"/>
+      <c r="J42" s="296"/>
     </row>
     <row r="43" spans="1:10" s="57" customFormat="1">
       <c r="A43" s="60">
@@ -11543,40 +11543,40 @@
       <c r="B43" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="228"/>
-      <c r="D43" s="229"/>
-      <c r="E43" s="229"/>
-      <c r="F43" s="229"/>
-      <c r="G43" s="229"/>
-      <c r="H43" s="229"/>
-      <c r="I43" s="229"/>
-      <c r="J43" s="230"/>
+      <c r="C43" s="297"/>
+      <c r="D43" s="298"/>
+      <c r="E43" s="298"/>
+      <c r="F43" s="298"/>
+      <c r="G43" s="298"/>
+      <c r="H43" s="298"/>
+      <c r="I43" s="298"/>
+      <c r="J43" s="299"/>
     </row>
     <row r="44" spans="1:10" s="57" customFormat="1">
-      <c r="A44" s="154"/>
-      <c r="B44" s="155"/>
-      <c r="C44" s="155"/>
-      <c r="D44" s="155"/>
-      <c r="E44" s="155"/>
-      <c r="F44" s="155"/>
-      <c r="G44" s="155"/>
-      <c r="H44" s="155"/>
-      <c r="I44" s="155"/>
-      <c r="J44" s="156"/>
+      <c r="A44" s="213"/>
+      <c r="B44" s="190"/>
+      <c r="C44" s="190"/>
+      <c r="D44" s="190"/>
+      <c r="E44" s="190"/>
+      <c r="F44" s="190"/>
+      <c r="G44" s="190"/>
+      <c r="H44" s="190"/>
+      <c r="I44" s="190"/>
+      <c r="J44" s="191"/>
     </row>
     <row r="45" spans="1:10" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="236" t="s">
         <v>206</v>
       </c>
-      <c r="B45" s="175"/>
-      <c r="C45" s="175"/>
-      <c r="D45" s="175"/>
-      <c r="E45" s="175"/>
-      <c r="F45" s="175"/>
-      <c r="G45" s="175"/>
-      <c r="H45" s="175"/>
-      <c r="I45" s="175"/>
-      <c r="J45" s="176"/>
+      <c r="B45" s="237"/>
+      <c r="C45" s="237"/>
+      <c r="D45" s="237"/>
+      <c r="E45" s="237"/>
+      <c r="F45" s="237"/>
+      <c r="G45" s="237"/>
+      <c r="H45" s="237"/>
+      <c r="I45" s="237"/>
+      <c r="J45" s="238"/>
     </row>
     <row r="46" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A46" s="80">
@@ -11585,16 +11585,16 @@
       <c r="B46" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="177" t="s">
+      <c r="C46" s="242" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="161"/>
-      <c r="E46" s="161"/>
-      <c r="F46" s="161"/>
-      <c r="G46" s="161"/>
-      <c r="H46" s="161"/>
-      <c r="I46" s="161"/>
-      <c r="J46" s="162"/>
+      <c r="D46" s="243"/>
+      <c r="E46" s="243"/>
+      <c r="F46" s="243"/>
+      <c r="G46" s="243"/>
+      <c r="H46" s="243"/>
+      <c r="I46" s="243"/>
+      <c r="J46" s="244"/>
     </row>
     <row r="47" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A47" s="80">
@@ -11603,16 +11603,16 @@
       <c r="B47" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="177" t="s">
+      <c r="C47" s="242" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="161"/>
-      <c r="E47" s="161"/>
-      <c r="F47" s="161"/>
-      <c r="G47" s="161"/>
-      <c r="H47" s="161"/>
-      <c r="I47" s="161"/>
-      <c r="J47" s="162"/>
+      <c r="D47" s="243"/>
+      <c r="E47" s="243"/>
+      <c r="F47" s="243"/>
+      <c r="G47" s="243"/>
+      <c r="H47" s="243"/>
+      <c r="I47" s="243"/>
+      <c r="J47" s="244"/>
     </row>
     <row r="48" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A48" s="44">
@@ -11621,16 +11621,16 @@
       <c r="B48" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="C48" s="177" t="s">
+      <c r="C48" s="242" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="161"/>
-      <c r="E48" s="161"/>
-      <c r="F48" s="161"/>
-      <c r="G48" s="161"/>
-      <c r="H48" s="161"/>
-      <c r="I48" s="161"/>
-      <c r="J48" s="162"/>
+      <c r="D48" s="243"/>
+      <c r="E48" s="243"/>
+      <c r="F48" s="243"/>
+      <c r="G48" s="243"/>
+      <c r="H48" s="243"/>
+      <c r="I48" s="243"/>
+      <c r="J48" s="244"/>
     </row>
     <row r="49" spans="1:12" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A49" s="44">
@@ -11639,16 +11639,16 @@
       <c r="B49" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="177" t="s">
+      <c r="C49" s="242" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="161"/>
-      <c r="E49" s="161"/>
-      <c r="F49" s="161"/>
-      <c r="G49" s="161"/>
-      <c r="H49" s="161"/>
-      <c r="I49" s="161"/>
-      <c r="J49" s="162"/>
+      <c r="D49" s="243"/>
+      <c r="E49" s="243"/>
+      <c r="F49" s="243"/>
+      <c r="G49" s="243"/>
+      <c r="H49" s="243"/>
+      <c r="I49" s="243"/>
+      <c r="J49" s="244"/>
     </row>
     <row r="50" spans="1:12" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A50" s="118"/>
@@ -11663,18 +11663,18 @@
       <c r="J50" s="102"/>
     </row>
     <row r="51" spans="1:12" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A51" s="163" t="s">
+      <c r="A51" s="236" t="s">
         <v>207</v>
       </c>
-      <c r="B51" s="175"/>
-      <c r="C51" s="175"/>
-      <c r="D51" s="175"/>
-      <c r="E51" s="175"/>
-      <c r="F51" s="175"/>
-      <c r="G51" s="175"/>
-      <c r="H51" s="175"/>
-      <c r="I51" s="175"/>
-      <c r="J51" s="176"/>
+      <c r="B51" s="237"/>
+      <c r="C51" s="237"/>
+      <c r="D51" s="237"/>
+      <c r="E51" s="237"/>
+      <c r="F51" s="237"/>
+      <c r="G51" s="237"/>
+      <c r="H51" s="237"/>
+      <c r="I51" s="237"/>
+      <c r="J51" s="238"/>
     </row>
     <row r="52" spans="1:12" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A52" s="80">
@@ -11683,16 +11683,16 @@
       <c r="B52" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="177" t="s">
+      <c r="C52" s="242" t="s">
         <v>87</v>
       </c>
-      <c r="D52" s="161"/>
-      <c r="E52" s="161"/>
-      <c r="F52" s="161"/>
-      <c r="G52" s="161"/>
-      <c r="H52" s="161"/>
-      <c r="I52" s="161"/>
-      <c r="J52" s="162"/>
+      <c r="D52" s="243"/>
+      <c r="E52" s="243"/>
+      <c r="F52" s="243"/>
+      <c r="G52" s="243"/>
+      <c r="H52" s="243"/>
+      <c r="I52" s="243"/>
+      <c r="J52" s="244"/>
     </row>
     <row r="53" spans="1:12" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A53" s="80">
@@ -11701,16 +11701,16 @@
       <c r="B53" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C53" s="177" t="s">
+      <c r="C53" s="242" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="161"/>
-      <c r="E53" s="161"/>
-      <c r="F53" s="161"/>
-      <c r="G53" s="161"/>
-      <c r="H53" s="161"/>
-      <c r="I53" s="161"/>
-      <c r="J53" s="162"/>
+      <c r="D53" s="243"/>
+      <c r="E53" s="243"/>
+      <c r="F53" s="243"/>
+      <c r="G53" s="243"/>
+      <c r="H53" s="243"/>
+      <c r="I53" s="243"/>
+      <c r="J53" s="244"/>
     </row>
     <row r="54" spans="1:12" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A54" s="44">
@@ -11719,16 +11719,16 @@
       <c r="B54" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="C54" s="177" t="s">
+      <c r="C54" s="242" t="s">
         <v>87</v>
       </c>
-      <c r="D54" s="161"/>
-      <c r="E54" s="161"/>
-      <c r="F54" s="161"/>
-      <c r="G54" s="161"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="161"/>
-      <c r="J54" s="162"/>
+      <c r="D54" s="243"/>
+      <c r="E54" s="243"/>
+      <c r="F54" s="243"/>
+      <c r="G54" s="243"/>
+      <c r="H54" s="243"/>
+      <c r="I54" s="243"/>
+      <c r="J54" s="244"/>
     </row>
     <row r="55" spans="1:12" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A55" s="44">
@@ -11737,16 +11737,16 @@
       <c r="B55" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="177" t="s">
+      <c r="C55" s="242" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="161"/>
-      <c r="E55" s="161"/>
-      <c r="F55" s="161"/>
-      <c r="G55" s="161"/>
-      <c r="H55" s="161"/>
-      <c r="I55" s="161"/>
-      <c r="J55" s="162"/>
+      <c r="D55" s="243"/>
+      <c r="E55" s="243"/>
+      <c r="F55" s="243"/>
+      <c r="G55" s="243"/>
+      <c r="H55" s="243"/>
+      <c r="I55" s="243"/>
+      <c r="J55" s="244"/>
     </row>
     <row r="56" spans="1:12" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A56" s="44">
@@ -11755,16 +11755,16 @@
       <c r="B56" s="96" t="s">
         <v>210</v>
       </c>
-      <c r="C56" s="177" t="s">
+      <c r="C56" s="242" t="s">
         <v>87</v>
       </c>
-      <c r="D56" s="161"/>
-      <c r="E56" s="161"/>
-      <c r="F56" s="161"/>
-      <c r="G56" s="161"/>
-      <c r="H56" s="161"/>
-      <c r="I56" s="161"/>
-      <c r="J56" s="162"/>
+      <c r="D56" s="243"/>
+      <c r="E56" s="243"/>
+      <c r="F56" s="243"/>
+      <c r="G56" s="243"/>
+      <c r="H56" s="243"/>
+      <c r="I56" s="243"/>
+      <c r="J56" s="244"/>
     </row>
     <row r="57" spans="1:12" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A57" s="119"/>
@@ -11779,54 +11779,54 @@
       <c r="J57" s="117"/>
     </row>
     <row r="58" spans="1:12" s="57" customFormat="1">
-      <c r="A58" s="234" t="s">
+      <c r="A58" s="257" t="s">
         <v>289</v>
       </c>
-      <c r="B58" s="235"/>
-      <c r="C58" s="235"/>
-      <c r="D58" s="235"/>
-      <c r="E58" s="235"/>
-      <c r="F58" s="235"/>
-      <c r="G58" s="235"/>
-      <c r="H58" s="235"/>
-      <c r="I58" s="235"/>
-      <c r="J58" s="236"/>
+      <c r="B58" s="258"/>
+      <c r="C58" s="258"/>
+      <c r="D58" s="258"/>
+      <c r="E58" s="258"/>
+      <c r="F58" s="258"/>
+      <c r="G58" s="258"/>
+      <c r="H58" s="258"/>
+      <c r="I58" s="258"/>
+      <c r="J58" s="259"/>
     </row>
     <row r="59" spans="1:12" s="57" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A59" s="163" t="s">
+      <c r="A59" s="236" t="s">
         <v>290</v>
       </c>
-      <c r="B59" s="164"/>
-      <c r="C59" s="164"/>
-      <c r="D59" s="164"/>
-      <c r="E59" s="164"/>
-      <c r="F59" s="164"/>
-      <c r="G59" s="164"/>
-      <c r="H59" s="164"/>
-      <c r="I59" s="164"/>
-      <c r="J59" s="165"/>
+      <c r="B59" s="245"/>
+      <c r="C59" s="245"/>
+      <c r="D59" s="245"/>
+      <c r="E59" s="245"/>
+      <c r="F59" s="245"/>
+      <c r="G59" s="245"/>
+      <c r="H59" s="245"/>
+      <c r="I59" s="245"/>
+      <c r="J59" s="246"/>
     </row>
     <row r="60" spans="1:12" s="57" customFormat="1" ht="15.75" customHeight="1">
       <c r="A60" s="60"/>
       <c r="B60" s="60" t="s">
         <v>291</v>
       </c>
-      <c r="C60" s="237" t="s">
+      <c r="C60" s="125" t="s">
         <v>292</v>
       </c>
-      <c r="D60" s="237" t="s">
+      <c r="D60" s="125" t="s">
         <v>293</v>
       </c>
-      <c r="E60" s="237" t="s">
+      <c r="E60" s="125" t="s">
         <v>294</v>
       </c>
-      <c r="F60" s="238" t="s">
+      <c r="F60" s="260" t="s">
         <v>295</v>
       </c>
-      <c r="G60" s="239"/>
-      <c r="H60" s="239"/>
-      <c r="I60" s="239"/>
-      <c r="J60" s="240"/>
+      <c r="G60" s="261"/>
+      <c r="H60" s="261"/>
+      <c r="I60" s="261"/>
+      <c r="J60" s="262"/>
     </row>
     <row r="61" spans="1:12" s="76" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="60">
@@ -11835,86 +11835,86 @@
       <c r="B61" s="60" t="s">
         <v>296</v>
       </c>
-      <c r="C61" s="241" t="s">
+      <c r="C61" s="126" t="s">
         <v>297</v>
       </c>
-      <c r="D61" s="241" t="s">
+      <c r="D61" s="126" t="s">
         <v>298</v>
       </c>
-      <c r="E61" s="241" t="s">
+      <c r="E61" s="126" t="s">
         <v>299</v>
       </c>
-      <c r="F61" s="242" t="s">
+      <c r="F61" s="200" t="s">
         <v>300</v>
       </c>
-      <c r="G61" s="243"/>
-      <c r="H61" s="243"/>
-      <c r="I61" s="243"/>
-      <c r="J61" s="244"/>
+      <c r="G61" s="201"/>
+      <c r="H61" s="201"/>
+      <c r="I61" s="201"/>
+      <c r="J61" s="202"/>
       <c r="K61" s="57"/>
       <c r="L61" s="57"/>
     </row>
     <row r="62" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="204"/>
-      <c r="B62" s="245"/>
-      <c r="C62" s="245"/>
-      <c r="D62" s="245"/>
-      <c r="E62" s="245"/>
-      <c r="F62" s="245"/>
-      <c r="G62" s="245"/>
-      <c r="H62" s="245"/>
-      <c r="I62" s="245"/>
-      <c r="J62" s="246"/>
+      <c r="A62" s="214"/>
+      <c r="B62" s="263"/>
+      <c r="C62" s="263"/>
+      <c r="D62" s="263"/>
+      <c r="E62" s="263"/>
+      <c r="F62" s="263"/>
+      <c r="G62" s="263"/>
+      <c r="H62" s="263"/>
+      <c r="I62" s="263"/>
+      <c r="J62" s="264"/>
     </row>
     <row r="63" spans="1:12" s="57" customFormat="1">
-      <c r="A63" s="234" t="s">
+      <c r="A63" s="257" t="s">
         <v>301</v>
       </c>
-      <c r="B63" s="235"/>
-      <c r="C63" s="235"/>
-      <c r="D63" s="235"/>
-      <c r="E63" s="235"/>
-      <c r="F63" s="235"/>
-      <c r="G63" s="235"/>
-      <c r="H63" s="235"/>
-      <c r="I63" s="235"/>
-      <c r="J63" s="236"/>
+      <c r="B63" s="258"/>
+      <c r="C63" s="258"/>
+      <c r="D63" s="258"/>
+      <c r="E63" s="258"/>
+      <c r="F63" s="258"/>
+      <c r="G63" s="258"/>
+      <c r="H63" s="258"/>
+      <c r="I63" s="258"/>
+      <c r="J63" s="259"/>
     </row>
     <row r="64" spans="1:12" s="59" customFormat="1">
-      <c r="A64" s="163" t="s">
+      <c r="A64" s="236" t="s">
         <v>302</v>
       </c>
-      <c r="B64" s="164"/>
-      <c r="C64" s="164"/>
-      <c r="D64" s="164"/>
-      <c r="E64" s="164"/>
-      <c r="F64" s="164"/>
-      <c r="G64" s="164"/>
-      <c r="H64" s="164"/>
-      <c r="I64" s="164"/>
-      <c r="J64" s="165"/>
+      <c r="B64" s="245"/>
+      <c r="C64" s="245"/>
+      <c r="D64" s="245"/>
+      <c r="E64" s="245"/>
+      <c r="F64" s="245"/>
+      <c r="G64" s="245"/>
+      <c r="H64" s="245"/>
+      <c r="I64" s="245"/>
+      <c r="J64" s="246"/>
     </row>
     <row r="65" spans="1:12" s="59" customFormat="1">
       <c r="A65" s="60"/>
       <c r="B65" s="60" t="s">
         <v>291</v>
       </c>
-      <c r="C65" s="237" t="s">
+      <c r="C65" s="125" t="s">
         <v>292</v>
       </c>
-      <c r="D65" s="237" t="s">
+      <c r="D65" s="125" t="s">
         <v>293</v>
       </c>
-      <c r="E65" s="237" t="s">
+      <c r="E65" s="125" t="s">
         <v>294</v>
       </c>
-      <c r="F65" s="238" t="s">
+      <c r="F65" s="260" t="s">
         <v>295</v>
       </c>
-      <c r="G65" s="239"/>
-      <c r="H65" s="239"/>
-      <c r="I65" s="239"/>
-      <c r="J65" s="240"/>
+      <c r="G65" s="261"/>
+      <c r="H65" s="261"/>
+      <c r="I65" s="261"/>
+      <c r="J65" s="262"/>
     </row>
     <row r="66" spans="1:12" s="59" customFormat="1">
       <c r="A66" s="60">
@@ -11923,48 +11923,48 @@
       <c r="B66" s="60" t="s">
         <v>303</v>
       </c>
-      <c r="C66" s="241" t="s">
+      <c r="C66" s="126" t="s">
         <v>297</v>
       </c>
-      <c r="D66" s="241" t="s">
+      <c r="D66" s="126" t="s">
         <v>298</v>
       </c>
-      <c r="E66" s="241" t="s">
+      <c r="E66" s="126" t="s">
         <v>299</v>
       </c>
-      <c r="F66" s="242" t="s">
+      <c r="F66" s="200" t="s">
         <v>304</v>
       </c>
-      <c r="G66" s="243"/>
-      <c r="H66" s="243"/>
-      <c r="I66" s="243"/>
-      <c r="J66" s="244"/>
+      <c r="G66" s="201"/>
+      <c r="H66" s="201"/>
+      <c r="I66" s="201"/>
+      <c r="J66" s="202"/>
     </row>
     <row r="67" spans="1:12" s="57" customFormat="1">
-      <c r="A67" s="187"/>
-      <c r="B67" s="218"/>
-      <c r="C67" s="218"/>
-      <c r="D67" s="218"/>
-      <c r="E67" s="218"/>
-      <c r="F67" s="218"/>
-      <c r="G67" s="218"/>
-      <c r="H67" s="218"/>
-      <c r="I67" s="218"/>
-      <c r="J67" s="219"/>
+      <c r="A67" s="222"/>
+      <c r="B67" s="300"/>
+      <c r="C67" s="300"/>
+      <c r="D67" s="300"/>
+      <c r="E67" s="300"/>
+      <c r="F67" s="300"/>
+      <c r="G67" s="300"/>
+      <c r="H67" s="300"/>
+      <c r="I67" s="300"/>
+      <c r="J67" s="301"/>
     </row>
     <row r="68" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A68" s="149" t="s">
+      <c r="A68" s="203" t="s">
         <v>29</v>
       </c>
-      <c r="B68" s="199"/>
-      <c r="C68" s="199"/>
-      <c r="D68" s="199"/>
-      <c r="E68" s="199"/>
-      <c r="F68" s="199"/>
-      <c r="G68" s="199"/>
-      <c r="H68" s="199"/>
-      <c r="I68" s="199"/>
-      <c r="J68" s="200"/>
+      <c r="B68" s="234"/>
+      <c r="C68" s="234"/>
+      <c r="D68" s="234"/>
+      <c r="E68" s="234"/>
+      <c r="F68" s="234"/>
+      <c r="G68" s="234"/>
+      <c r="H68" s="234"/>
+      <c r="I68" s="234"/>
+      <c r="J68" s="235"/>
       <c r="K68" s="57"/>
       <c r="L68" s="57"/>
     </row>
@@ -11978,100 +11978,100 @@
       <c r="C69" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="265" t="s">
+      <c r="D69" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E69" s="152" t="s">
+      <c r="E69" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="F69" s="153"/>
-      <c r="G69" s="153"/>
-      <c r="H69" s="153"/>
-      <c r="I69" s="153"/>
-      <c r="J69" s="153"/>
+      <c r="F69" s="207"/>
+      <c r="G69" s="207"/>
+      <c r="H69" s="207"/>
+      <c r="I69" s="207"/>
+      <c r="J69" s="207"/>
     </row>
     <row r="70" spans="1:12" s="57" customFormat="1" ht="107.25" customHeight="1">
-      <c r="A70" s="247">
+      <c r="A70" s="183">
         <v>1</v>
       </c>
-      <c r="B70" s="247" t="s">
+      <c r="B70" s="183" t="s">
         <v>305</v>
       </c>
       <c r="C70" s="64" t="s">
         <v>306</v>
       </c>
-      <c r="D70" s="265"/>
-      <c r="E70" s="266" t="s">
+      <c r="D70" s="135"/>
+      <c r="E70" s="283" t="s">
         <v>307</v>
       </c>
-      <c r="F70" s="267"/>
-      <c r="G70" s="267"/>
-      <c r="H70" s="267"/>
-      <c r="I70" s="267"/>
-      <c r="J70" s="267"/>
+      <c r="F70" s="287"/>
+      <c r="G70" s="287"/>
+      <c r="H70" s="287"/>
+      <c r="I70" s="287"/>
+      <c r="J70" s="287"/>
     </row>
     <row r="71" spans="1:12" s="57" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A71" s="268"/>
-      <c r="B71" s="268"/>
+      <c r="A71" s="286"/>
+      <c r="B71" s="286"/>
       <c r="C71" s="64" t="s">
         <v>308</v>
       </c>
-      <c r="D71" s="269" t="s">
+      <c r="D71" s="136" t="s">
         <v>286</v>
       </c>
-      <c r="E71" s="209" t="s">
+      <c r="E71" s="195" t="s">
         <v>309</v>
       </c>
-      <c r="F71" s="143"/>
-      <c r="G71" s="143"/>
-      <c r="H71" s="143"/>
-      <c r="I71" s="143"/>
-      <c r="J71" s="143"/>
+      <c r="F71" s="161"/>
+      <c r="G71" s="161"/>
+      <c r="H71" s="161"/>
+      <c r="I71" s="161"/>
+      <c r="J71" s="161"/>
     </row>
     <row r="72" spans="1:12" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A72" s="184" t="s">
+      <c r="A72" s="192" t="s">
         <v>310</v>
       </c>
-      <c r="B72" s="185"/>
-      <c r="C72" s="185"/>
-      <c r="D72" s="185"/>
-      <c r="E72" s="185"/>
-      <c r="F72" s="185"/>
-      <c r="G72" s="185"/>
-      <c r="H72" s="185"/>
-      <c r="I72" s="185"/>
-      <c r="J72" s="186"/>
+      <c r="B72" s="193"/>
+      <c r="C72" s="193"/>
+      <c r="D72" s="193"/>
+      <c r="E72" s="193"/>
+      <c r="F72" s="193"/>
+      <c r="G72" s="193"/>
+      <c r="H72" s="193"/>
+      <c r="I72" s="193"/>
+      <c r="J72" s="194"/>
     </row>
     <row r="73" spans="1:12" s="57" customFormat="1" ht="112.5" customHeight="1">
-      <c r="A73" s="270">
+      <c r="A73" s="268">
         <v>1</v>
       </c>
-      <c r="B73" s="257" t="s">
+      <c r="B73" s="185" t="s">
         <v>311</v>
       </c>
       <c r="C73" s="114" t="s">
         <v>312</v>
       </c>
       <c r="D73" s="112"/>
-      <c r="E73" s="266" t="s">
+      <c r="E73" s="283" t="s">
         <v>313</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="G73" s="271"/>
-      <c r="H73" s="271"/>
-      <c r="I73" s="271"/>
-      <c r="J73" s="272"/>
+      <c r="F73" s="284"/>
+      <c r="G73" s="284"/>
+      <c r="H73" s="284"/>
+      <c r="I73" s="284"/>
+      <c r="J73" s="285"/>
     </row>
     <row r="74" spans="1:12" s="59" customFormat="1">
-      <c r="A74" s="252"/>
-      <c r="B74" s="261"/>
+      <c r="A74" s="184"/>
+      <c r="B74" s="186"/>
       <c r="C74" s="114" t="s">
         <v>314</v>
       </c>
       <c r="D74" s="112" t="s">
         <v>315</v>
       </c>
-      <c r="E74" s="181" t="s">
+      <c r="E74" s="187" t="s">
         <v>316</v>
       </c>
       <c r="F74" s="273"/>
@@ -12087,52 +12087,52 @@
       <c r="B75" s="276" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="258" t="s">
+      <c r="C75" s="130" t="s">
         <v>317</v>
       </c>
       <c r="D75" s="112"/>
-      <c r="E75" s="181" t="s">
+      <c r="E75" s="187" t="s">
         <v>318</v>
       </c>
-      <c r="F75" s="182"/>
-      <c r="G75" s="182"/>
-      <c r="H75" s="182"/>
-      <c r="I75" s="182"/>
-      <c r="J75" s="183"/>
+      <c r="F75" s="188"/>
+      <c r="G75" s="188"/>
+      <c r="H75" s="188"/>
+      <c r="I75" s="188"/>
+      <c r="J75" s="189"/>
     </row>
     <row r="76" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A76" s="277"/>
-      <c r="B76" s="259"/>
-      <c r="C76" s="278" t="s">
+      <c r="A76" s="269"/>
+      <c r="B76" s="196"/>
+      <c r="C76" s="137" t="s">
         <v>312</v>
       </c>
-      <c r="D76" s="279"/>
-      <c r="E76" s="280" t="s">
+      <c r="D76" s="138"/>
+      <c r="E76" s="277" t="s">
         <v>319</v>
       </c>
-      <c r="F76" s="281"/>
-      <c r="G76" s="281"/>
-      <c r="H76" s="281"/>
-      <c r="I76" s="281"/>
-      <c r="J76" s="282"/>
+      <c r="F76" s="278"/>
+      <c r="G76" s="278"/>
+      <c r="H76" s="278"/>
+      <c r="I76" s="278"/>
+      <c r="J76" s="279"/>
     </row>
     <row r="77" spans="1:12" s="59" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A77" s="252"/>
-      <c r="B77" s="261"/>
-      <c r="C77" s="283" t="s">
+      <c r="A77" s="184"/>
+      <c r="B77" s="186"/>
+      <c r="C77" s="139" t="s">
         <v>320</v>
       </c>
-      <c r="D77" s="279" t="s">
+      <c r="D77" s="138" t="s">
         <v>321</v>
       </c>
-      <c r="E77" s="284" t="s">
+      <c r="E77" s="280" t="s">
         <v>322</v>
       </c>
-      <c r="F77" s="285"/>
-      <c r="G77" s="285"/>
-      <c r="H77" s="285"/>
-      <c r="I77" s="285"/>
-      <c r="J77" s="286"/>
+      <c r="F77" s="281"/>
+      <c r="G77" s="281"/>
+      <c r="H77" s="281"/>
+      <c r="I77" s="281"/>
+      <c r="J77" s="282"/>
     </row>
     <row r="78" spans="1:12" s="57" customFormat="1" ht="103.5" customHeight="1">
       <c r="A78" s="68">
@@ -12145,19 +12145,19 @@
         <v>12</v>
       </c>
       <c r="D78" s="108"/>
-      <c r="E78" s="181" t="s">
+      <c r="E78" s="187" t="s">
         <v>323</v>
       </c>
-      <c r="F78" s="135"/>
-      <c r="G78" s="135"/>
-      <c r="H78" s="135"/>
-      <c r="I78" s="135"/>
-      <c r="J78" s="136"/>
+      <c r="F78" s="165"/>
+      <c r="G78" s="165"/>
+      <c r="H78" s="165"/>
+      <c r="I78" s="165"/>
+      <c r="J78" s="166"/>
     </row>
     <row r="79" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A79" s="287"/>
+      <c r="A79" s="140"/>
       <c r="B79" s="113"/>
-      <c r="C79" s="288"/>
+      <c r="C79" s="141"/>
       <c r="D79" s="109"/>
       <c r="E79" s="109"/>
       <c r="F79" s="105"/>
@@ -12167,49 +12167,49 @@
       <c r="J79" s="106"/>
     </row>
     <row r="80" spans="1:12" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A80" s="184" t="s">
+      <c r="A80" s="192" t="s">
         <v>325</v>
       </c>
-      <c r="B80" s="185"/>
-      <c r="C80" s="185"/>
-      <c r="D80" s="185"/>
-      <c r="E80" s="185"/>
-      <c r="F80" s="185"/>
-      <c r="G80" s="185"/>
-      <c r="H80" s="185"/>
-      <c r="I80" s="185"/>
-      <c r="J80" s="186"/>
+      <c r="B80" s="193"/>
+      <c r="C80" s="193"/>
+      <c r="D80" s="193"/>
+      <c r="E80" s="193"/>
+      <c r="F80" s="193"/>
+      <c r="G80" s="193"/>
+      <c r="H80" s="193"/>
+      <c r="I80" s="193"/>
+      <c r="J80" s="194"/>
     </row>
     <row r="81" spans="1:10" s="57" customFormat="1" ht="137.25" customHeight="1">
-      <c r="A81" s="247">
+      <c r="A81" s="183">
         <v>1</v>
       </c>
-      <c r="B81" s="257" t="s">
+      <c r="B81" s="185" t="s">
         <v>326</v>
       </c>
       <c r="C81" s="114" t="s">
         <v>281</v>
       </c>
       <c r="D81" s="111"/>
-      <c r="E81" s="266" t="s">
+      <c r="E81" s="283" t="s">
         <v>327</v>
       </c>
-      <c r="F81" s="271"/>
-      <c r="G81" s="271"/>
-      <c r="H81" s="271"/>
-      <c r="I81" s="271"/>
-      <c r="J81" s="272"/>
+      <c r="F81" s="284"/>
+      <c r="G81" s="284"/>
+      <c r="H81" s="284"/>
+      <c r="I81" s="284"/>
+      <c r="J81" s="285"/>
     </row>
     <row r="82" spans="1:10" ht="81" customHeight="1">
-      <c r="A82" s="277"/>
-      <c r="B82" s="259"/>
-      <c r="C82" s="258" t="s">
+      <c r="A82" s="269"/>
+      <c r="B82" s="196"/>
+      <c r="C82" s="130" t="s">
         <v>328</v>
       </c>
-      <c r="D82" s="289" t="s">
+      <c r="D82" s="142" t="s">
         <v>286</v>
       </c>
-      <c r="E82" s="181" t="s">
+      <c r="E82" s="187" t="s">
         <v>329</v>
       </c>
       <c r="F82" s="273"/>
@@ -12219,200 +12219,200 @@
       <c r="J82" s="274"/>
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A83" s="270">
+      <c r="A83" s="268">
         <v>2</v>
       </c>
-      <c r="B83" s="257" t="s">
+      <c r="B83" s="185" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="258" t="s">
+      <c r="C83" s="130" t="s">
         <v>317</v>
       </c>
       <c r="D83" s="112"/>
-      <c r="E83" s="181" t="s">
+      <c r="E83" s="187" t="s">
         <v>318</v>
       </c>
-      <c r="F83" s="182"/>
-      <c r="G83" s="182"/>
-      <c r="H83" s="182"/>
-      <c r="I83" s="182"/>
-      <c r="J83" s="183"/>
+      <c r="F83" s="188"/>
+      <c r="G83" s="188"/>
+      <c r="H83" s="188"/>
+      <c r="I83" s="188"/>
+      <c r="J83" s="189"/>
     </row>
     <row r="84" spans="1:10" ht="65.25" customHeight="1">
-      <c r="A84" s="277"/>
-      <c r="B84" s="259"/>
+      <c r="A84" s="269"/>
+      <c r="B84" s="196"/>
       <c r="C84" s="114" t="s">
         <v>330</v>
       </c>
       <c r="D84" s="112"/>
-      <c r="E84" s="210" t="s">
+      <c r="E84" s="197" t="s">
         <v>331</v>
       </c>
-      <c r="F84" s="211"/>
-      <c r="G84" s="211"/>
-      <c r="H84" s="211"/>
-      <c r="I84" s="211"/>
-      <c r="J84" s="212"/>
+      <c r="F84" s="198"/>
+      <c r="G84" s="198"/>
+      <c r="H84" s="198"/>
+      <c r="I84" s="198"/>
+      <c r="J84" s="199"/>
     </row>
     <row r="85" spans="1:10" ht="87" customHeight="1">
-      <c r="A85" s="252"/>
-      <c r="B85" s="261"/>
-      <c r="C85" s="258" t="s">
+      <c r="A85" s="184"/>
+      <c r="B85" s="186"/>
+      <c r="C85" s="130" t="s">
         <v>332</v>
       </c>
       <c r="D85" s="112" t="s">
         <v>333</v>
       </c>
-      <c r="E85" s="210" t="s">
+      <c r="E85" s="197" t="s">
         <v>334</v>
       </c>
-      <c r="F85" s="211"/>
-      <c r="G85" s="211"/>
-      <c r="H85" s="211"/>
-      <c r="I85" s="211"/>
-      <c r="J85" s="212"/>
+      <c r="F85" s="198"/>
+      <c r="G85" s="198"/>
+      <c r="H85" s="198"/>
+      <c r="I85" s="198"/>
+      <c r="J85" s="199"/>
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A86" s="290">
+      <c r="A86" s="270">
         <v>3</v>
       </c>
-      <c r="B86" s="257" t="s">
+      <c r="B86" s="185" t="s">
         <v>335</v>
       </c>
-      <c r="C86" s="283" t="s">
+      <c r="C86" s="139" t="s">
         <v>336</v>
       </c>
-      <c r="D86" s="291"/>
-      <c r="E86" s="292" t="s">
+      <c r="D86" s="143"/>
+      <c r="E86" s="288" t="s">
         <v>337</v>
       </c>
-      <c r="F86" s="293"/>
-      <c r="G86" s="293"/>
-      <c r="H86" s="293"/>
-      <c r="I86" s="293"/>
-      <c r="J86" s="294"/>
+      <c r="F86" s="289"/>
+      <c r="G86" s="289"/>
+      <c r="H86" s="289"/>
+      <c r="I86" s="289"/>
+      <c r="J86" s="290"/>
     </row>
     <row r="87" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A87" s="295"/>
-      <c r="B87" s="296"/>
-      <c r="C87" s="258" t="s">
+      <c r="A87" s="271"/>
+      <c r="B87" s="272"/>
+      <c r="C87" s="130" t="s">
         <v>338</v>
       </c>
-      <c r="D87" s="297" t="s">
+      <c r="D87" s="144" t="s">
         <v>339</v>
       </c>
-      <c r="E87" s="292" t="s">
+      <c r="E87" s="288" t="s">
         <v>340</v>
       </c>
-      <c r="F87" s="293"/>
-      <c r="G87" s="293"/>
-      <c r="H87" s="293"/>
-      <c r="I87" s="293"/>
-      <c r="J87" s="294"/>
+      <c r="F87" s="289"/>
+      <c r="G87" s="289"/>
+      <c r="H87" s="289"/>
+      <c r="I87" s="289"/>
+      <c r="J87" s="290"/>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A88" s="298"/>
-      <c r="B88" s="299"/>
-      <c r="C88" s="300"/>
-      <c r="D88" s="301"/>
-      <c r="E88" s="302"/>
-      <c r="F88" s="303"/>
-      <c r="G88" s="303"/>
-      <c r="H88" s="303"/>
-      <c r="I88" s="303"/>
-      <c r="J88" s="304"/>
+      <c r="A88" s="145"/>
+      <c r="B88" s="146"/>
+      <c r="C88" s="147"/>
+      <c r="D88" s="148"/>
+      <c r="E88" s="149"/>
+      <c r="F88" s="150"/>
+      <c r="G88" s="150"/>
+      <c r="H88" s="150"/>
+      <c r="I88" s="150"/>
+      <c r="J88" s="151"/>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A89" s="206" t="s">
+      <c r="A89" s="216" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="207"/>
-      <c r="C89" s="207"/>
-      <c r="D89" s="207"/>
-      <c r="E89" s="207"/>
-      <c r="F89" s="207"/>
-      <c r="G89" s="207"/>
-      <c r="H89" s="207"/>
-      <c r="I89" s="207"/>
-      <c r="J89" s="208"/>
+      <c r="B89" s="217"/>
+      <c r="C89" s="217"/>
+      <c r="D89" s="217"/>
+      <c r="E89" s="217"/>
+      <c r="F89" s="217"/>
+      <c r="G89" s="217"/>
+      <c r="H89" s="217"/>
+      <c r="I89" s="217"/>
+      <c r="J89" s="218"/>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1">
       <c r="A90" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B90" s="204" t="s">
+      <c r="B90" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="205"/>
-      <c r="D90" s="181" t="s">
+      <c r="C90" s="215"/>
+      <c r="D90" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="E90" s="135"/>
-      <c r="F90" s="135"/>
-      <c r="G90" s="135"/>
-      <c r="H90" s="135"/>
-      <c r="I90" s="135"/>
-      <c r="J90" s="136"/>
+      <c r="E90" s="165"/>
+      <c r="F90" s="165"/>
+      <c r="G90" s="165"/>
+      <c r="H90" s="165"/>
+      <c r="I90" s="165"/>
+      <c r="J90" s="166"/>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A91" s="201"/>
-      <c r="B91" s="216"/>
-      <c r="C91" s="216"/>
-      <c r="D91" s="216"/>
-      <c r="E91" s="216"/>
-      <c r="F91" s="216"/>
-      <c r="G91" s="216"/>
-      <c r="H91" s="216"/>
-      <c r="I91" s="216"/>
-      <c r="J91" s="217"/>
+      <c r="A91" s="180"/>
+      <c r="B91" s="304"/>
+      <c r="C91" s="304"/>
+      <c r="D91" s="304"/>
+      <c r="E91" s="304"/>
+      <c r="F91" s="304"/>
+      <c r="G91" s="304"/>
+      <c r="H91" s="304"/>
+      <c r="I91" s="304"/>
+      <c r="J91" s="305"/>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1">
       <c r="A92" s="68"/>
-      <c r="B92" s="154"/>
-      <c r="C92" s="156"/>
-      <c r="D92" s="181"/>
-      <c r="E92" s="135"/>
-      <c r="F92" s="135"/>
-      <c r="G92" s="135"/>
-      <c r="H92" s="135"/>
-      <c r="I92" s="135"/>
-      <c r="J92" s="136"/>
+      <c r="B92" s="213"/>
+      <c r="C92" s="191"/>
+      <c r="D92" s="187"/>
+      <c r="E92" s="165"/>
+      <c r="F92" s="165"/>
+      <c r="G92" s="165"/>
+      <c r="H92" s="165"/>
+      <c r="I92" s="165"/>
+      <c r="J92" s="166"/>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="68"/>
-      <c r="B93" s="154"/>
-      <c r="C93" s="156"/>
-      <c r="D93" s="181"/>
-      <c r="E93" s="135"/>
-      <c r="F93" s="135"/>
-      <c r="G93" s="135"/>
-      <c r="H93" s="135"/>
-      <c r="I93" s="135"/>
-      <c r="J93" s="136"/>
+      <c r="B93" s="213"/>
+      <c r="C93" s="191"/>
+      <c r="D93" s="187"/>
+      <c r="E93" s="165"/>
+      <c r="F93" s="165"/>
+      <c r="G93" s="165"/>
+      <c r="H93" s="165"/>
+      <c r="I93" s="165"/>
+      <c r="J93" s="166"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="201"/>
-      <c r="B94" s="216"/>
-      <c r="C94" s="216"/>
-      <c r="D94" s="216"/>
-      <c r="E94" s="216"/>
-      <c r="F94" s="216"/>
-      <c r="G94" s="216"/>
-      <c r="H94" s="216"/>
-      <c r="I94" s="216"/>
-      <c r="J94" s="217"/>
+      <c r="A94" s="180"/>
+      <c r="B94" s="304"/>
+      <c r="C94" s="304"/>
+      <c r="D94" s="304"/>
+      <c r="E94" s="304"/>
+      <c r="F94" s="304"/>
+      <c r="G94" s="304"/>
+      <c r="H94" s="304"/>
+      <c r="I94" s="304"/>
+      <c r="J94" s="305"/>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="68"/>
-      <c r="B95" s="154"/>
-      <c r="C95" s="156"/>
-      <c r="D95" s="181"/>
-      <c r="E95" s="135"/>
-      <c r="F95" s="135"/>
-      <c r="G95" s="135"/>
-      <c r="H95" s="135"/>
-      <c r="I95" s="135"/>
-      <c r="J95" s="136"/>
+      <c r="B95" s="213"/>
+      <c r="C95" s="191"/>
+      <c r="D95" s="187"/>
+      <c r="E95" s="165"/>
+      <c r="F95" s="165"/>
+      <c r="G95" s="165"/>
+      <c r="H95" s="165"/>
+      <c r="I95" s="165"/>
+      <c r="J95" s="166"/>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="71" t="s">
@@ -12435,14 +12435,14 @@
       <c r="B97" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C97" s="154"/>
-      <c r="D97" s="135"/>
-      <c r="E97" s="135"/>
-      <c r="F97" s="135"/>
-      <c r="G97" s="135"/>
-      <c r="H97" s="135"/>
-      <c r="I97" s="135"/>
-      <c r="J97" s="136"/>
+      <c r="C97" s="213"/>
+      <c r="D97" s="165"/>
+      <c r="E97" s="165"/>
+      <c r="F97" s="165"/>
+      <c r="G97" s="165"/>
+      <c r="H97" s="165"/>
+      <c r="I97" s="165"/>
+      <c r="J97" s="166"/>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="68">
@@ -12451,81 +12451,35 @@
       <c r="B98" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="178"/>
-      <c r="D98" s="178"/>
-      <c r="E98" s="178"/>
-      <c r="F98" s="178"/>
-      <c r="G98" s="178"/>
-      <c r="H98" s="178"/>
-      <c r="I98" s="178"/>
-      <c r="J98" s="178"/>
+      <c r="C98" s="219"/>
+      <c r="D98" s="219"/>
+      <c r="E98" s="219"/>
+      <c r="F98" s="219"/>
+      <c r="G98" s="219"/>
+      <c r="H98" s="219"/>
+      <c r="I98" s="219"/>
+      <c r="J98" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="E78:J78"/>
-    <mergeCell ref="A80:J80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="E82:J82"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="E76:J76"/>
-    <mergeCell ref="E77:J77"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="E73:J73"/>
-    <mergeCell ref="E74:J74"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="E83:J83"/>
-    <mergeCell ref="E86:J86"/>
-    <mergeCell ref="E87:J87"/>
-    <mergeCell ref="E85:J85"/>
-    <mergeCell ref="E84:J84"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C40:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:J95"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:J90"/>
+    <mergeCell ref="A89:J89"/>
+    <mergeCell ref="E81:J81"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:J92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:J93"/>
+    <mergeCell ref="A94:J94"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A37:J37"/>
     <mergeCell ref="A67:J67"/>
@@ -12541,25 +12495,71 @@
     <mergeCell ref="A30:J30"/>
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:J92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:J93"/>
-    <mergeCell ref="A94:J94"/>
     <mergeCell ref="C54:J54"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:J95"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:J90"/>
-    <mergeCell ref="A89:J89"/>
-    <mergeCell ref="E81:J81"/>
-    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C40:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="E76:J76"/>
+    <mergeCell ref="E77:J77"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="E78:J78"/>
+    <mergeCell ref="A80:J80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="E82:J82"/>
+    <mergeCell ref="E83:J83"/>
+    <mergeCell ref="E86:J86"/>
+    <mergeCell ref="E87:J87"/>
+    <mergeCell ref="E85:J85"/>
+    <mergeCell ref="E84:J84"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -12581,7 +12581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
@@ -12612,7 +12612,7 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="179" t="s">
+      <c r="K1" s="220" t="s">
         <v>47</v>
       </c>
       <c r="L1" s="40"/>
@@ -12639,7 +12639,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="180"/>
+      <c r="K2" s="221"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -12657,7 +12657,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="180"/>
+      <c r="K3" s="221"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -12701,18 +12701,18 @@
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="213" t="s">
+      <c r="A6" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="214"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="214"/>
-      <c r="H6" s="214"/>
-      <c r="I6" s="214"/>
-      <c r="J6" s="215"/>
+      <c r="B6" s="266"/>
+      <c r="C6" s="266"/>
+      <c r="D6" s="266"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="266"/>
+      <c r="G6" s="266"/>
+      <c r="H6" s="266"/>
+      <c r="I6" s="266"/>
+      <c r="J6" s="267"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -12779,18 +12779,18 @@
       <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="213" t="s">
+      <c r="A10" s="265" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="231"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="231"/>
-      <c r="E10" s="231"/>
-      <c r="F10" s="231"/>
-      <c r="G10" s="231"/>
-      <c r="H10" s="231"/>
-      <c r="I10" s="231"/>
-      <c r="J10" s="232"/>
+      <c r="B10" s="306"/>
+      <c r="C10" s="306"/>
+      <c r="D10" s="306"/>
+      <c r="E10" s="306"/>
+      <c r="F10" s="306"/>
+      <c r="G10" s="306"/>
+      <c r="H10" s="306"/>
+      <c r="I10" s="306"/>
+      <c r="J10" s="307"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="43" t="s">
@@ -13144,7 +13144,7 @@
       <c r="I22" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="J22" s="306" t="s">
+      <c r="J22" s="153" t="s">
         <v>140</v>
       </c>
     </row>
@@ -13161,18 +13161,18 @@
       <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="213" t="s">
+      <c r="A24" s="265" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="214"/>
-      <c r="C24" s="214"/>
-      <c r="D24" s="214"/>
-      <c r="E24" s="214"/>
-      <c r="F24" s="214"/>
-      <c r="G24" s="214"/>
-      <c r="H24" s="214"/>
-      <c r="I24" s="214"/>
-      <c r="J24" s="215"/>
+      <c r="B24" s="266"/>
+      <c r="C24" s="266"/>
+      <c r="D24" s="266"/>
+      <c r="E24" s="266"/>
+      <c r="F24" s="266"/>
+      <c r="G24" s="266"/>
+      <c r="H24" s="266"/>
+      <c r="I24" s="266"/>
+      <c r="J24" s="267"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="43" t="s">
@@ -13232,7 +13232,7 @@
       <c r="I26" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="J26" s="305" t="s">
+      <c r="J26" s="152" t="s">
         <v>364</v>
       </c>
     </row>
@@ -13262,7 +13262,7 @@
       <c r="I27" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="J27" s="305"/>
+      <c r="J27" s="152"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="49">
@@ -13290,7 +13290,7 @@
       <c r="I28" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="J28" s="305"/>
+      <c r="J28" s="152"/>
     </row>
     <row r="29" spans="1:10" ht="33">
       <c r="A29" s="49">
@@ -13318,7 +13318,7 @@
       <c r="I29" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="J29" s="307" t="s">
+      <c r="J29" s="154" t="s">
         <v>365</v>
       </c>
     </row>
@@ -13348,21 +13348,21 @@
       <c r="I30" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="J30" s="305"/>
+      <c r="J30" s="152"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="213" t="s">
+      <c r="A32" s="265" t="s">
         <v>215</v>
       </c>
-      <c r="B32" s="214"/>
-      <c r="C32" s="214"/>
-      <c r="D32" s="214"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="214"/>
-      <c r="G32" s="214"/>
-      <c r="H32" s="214"/>
-      <c r="I32" s="214"/>
-      <c r="J32" s="215"/>
+      <c r="B32" s="266"/>
+      <c r="C32" s="266"/>
+      <c r="D32" s="266"/>
+      <c r="E32" s="266"/>
+      <c r="F32" s="266"/>
+      <c r="G32" s="266"/>
+      <c r="H32" s="266"/>
+      <c r="I32" s="266"/>
+      <c r="J32" s="267"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="43" t="s">
@@ -13571,18 +13571,18 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="213" t="s">
+      <c r="A41" s="265" t="s">
         <v>366</v>
       </c>
-      <c r="B41" s="214"/>
-      <c r="C41" s="214"/>
-      <c r="D41" s="214"/>
-      <c r="E41" s="214"/>
-      <c r="F41" s="214"/>
-      <c r="G41" s="214"/>
-      <c r="H41" s="214"/>
-      <c r="I41" s="214"/>
-      <c r="J41" s="215"/>
+      <c r="B41" s="266"/>
+      <c r="C41" s="266"/>
+      <c r="D41" s="266"/>
+      <c r="E41" s="266"/>
+      <c r="F41" s="266"/>
+      <c r="G41" s="266"/>
+      <c r="H41" s="266"/>
+      <c r="I41" s="266"/>
+      <c r="J41" s="267"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="43" t="s">
@@ -13709,18 +13709,18 @@
       <c r="J46" s="121"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="213" t="s">
+      <c r="A48" s="265" t="s">
         <v>381</v>
       </c>
-      <c r="B48" s="214"/>
-      <c r="C48" s="214"/>
-      <c r="D48" s="214"/>
-      <c r="E48" s="214"/>
-      <c r="F48" s="214"/>
-      <c r="G48" s="214"/>
-      <c r="H48" s="214"/>
-      <c r="I48" s="214"/>
-      <c r="J48" s="215"/>
+      <c r="B48" s="266"/>
+      <c r="C48" s="266"/>
+      <c r="D48" s="266"/>
+      <c r="E48" s="266"/>
+      <c r="F48" s="266"/>
+      <c r="G48" s="266"/>
+      <c r="H48" s="266"/>
+      <c r="I48" s="266"/>
+      <c r="J48" s="267"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="43" t="s">
@@ -13851,18 +13851,18 @@
       <c r="J53" s="121"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="213" t="s">
+      <c r="A55" s="265" t="s">
         <v>407</v>
       </c>
-      <c r="B55" s="214"/>
-      <c r="C55" s="214"/>
-      <c r="D55" s="214"/>
-      <c r="E55" s="214"/>
-      <c r="F55" s="214"/>
-      <c r="G55" s="214"/>
-      <c r="H55" s="214"/>
-      <c r="I55" s="214"/>
-      <c r="J55" s="215"/>
+      <c r="B55" s="266"/>
+      <c r="C55" s="266"/>
+      <c r="D55" s="266"/>
+      <c r="E55" s="266"/>
+      <c r="F55" s="266"/>
+      <c r="G55" s="266"/>
+      <c r="H55" s="266"/>
+      <c r="I55" s="266"/>
+      <c r="J55" s="267"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="43" t="s">

--- a/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
+++ b/APF/RA006/RA006_APF0102_角色帳號設定作業.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -847,14 +847,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>varchar2(10)</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -1102,18 +1094,6 @@
     <t xml:space="preserve">輸入型態:string，
 格式:中英數字
 最大長度限制:中文20(控制項控制) </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-格式:英數字
-最大長度限制:英文10(控制項控制)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-格式:中英數字
-最大長度限制:中文20(控制項控制)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1426,12 +1406,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">1.呼叫ShowDialog() Javascrip
-查詢按鈕提供開窗選取功能，例如:員工編號可自行輸入(模糊查詢)或點選查詢按鈕，跳出員工查詢視窗，於員工查詢視窗輸入條件(員工編號或員工姓名模糊查詢)後按下確認按鈕，下方顯示查詢結果，雙擊一筆員工查詢結果，帶回員工編號與員工姓名(圖二)。
-呼叫 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>A.1 ShowDialog()</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1487,13 +1461,6 @@
   </si>
   <si>
     <t>回上一頁</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.呼叫WinConfirm( "APF_NO 47") JavaScript
-2.呼叫 APFRoleRelationController.RoleQuery()
-如已點選角色帳號設定但尚未儲存，此時則點選回上一頁按鈕，系統提示確認訊息，以免不慎放棄之前所做設定，訊息內容請參考APF訊息表 APF_NO 47，若選擇是，則取消在儲存之前的點選，含加入角色的帳號或自角色中移除的帳號，再以導頁方式開啟APF0102MM1，並帶回原先的查詢條件，若選擇否，則不做任何動作。
-如已點選角色帳號設定且已儲存，點選回上一頁按鈕，則以導頁方式開啟APF0102MM1，並帶回原先的查詢條件。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1522,23 +1489,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.呼叫WinConfirm( "APF_NO 14") JavaScript
-2.呼叫 APFRoleRelationController.RelationSetting()
-點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 14 或 15，若選擇是，則進行儲存，若選擇否，則不做任何動作。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>A.1 APFRoleRelationController.RelationSetting()</t>
   </si>
   <si>
     <t>int Rid, List&lt;string&gt; SelectSid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>儲存成功:
-1.原畫面顯示修改資料成功訊息，訊息內容請參考APF訊息表APF_NO 12
-2.點回上一頁按鈕，則以導頁方式開啟APF0102MM1，並帶回原先的查詢條件
-儲存失敗:顯示修改資料失敗訊息，訊息內容請參考APF訊息表APF_NO 13</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1867,6 +1821,52 @@
   <si>
     <t>vw_emp_unique.emp_id + '-' + vw_emp_unique.emp_name</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 02001。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 02001。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>儲存成功:
+1.原畫面顯示修改資料成功訊息，訊息內容請參考APF訊息表APF_NO 04001
+2.點回上一頁按鈕，則以導頁方式開啟APF0102MM1，並帶回原先的查詢條件
+儲存失敗:顯示修改資料失敗訊息，訊息內容請參考APF訊息表APF_NO 04002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫WinConfirm( "APF_NO 04004") JavaScript
+2.呼叫 APFRoleRelationController.RelationSetting()
+點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 04004 或 04005，若選擇是，則進行儲存，若選擇否，則不做任何動作。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫WinConfirm( "APF_NO 15002") JavaScript
+2.呼叫 APFRoleRelationController.RoleQuery()
+如已點選角色帳號設定但尚未儲存，此時則點選回上一頁按鈕，系統提示確認訊息，以免不慎放棄之前所做設定，訊息內容請參考APF訊息表 APF_NO 15002，若選擇是，則取消在儲存之前的點選，含加入角色的帳號或自角色中移除的帳號，再以導頁方式開啟APF0102MM1，並帶回原先的查詢條件，若選擇否，則不做任何動作。
+如已點選角色帳號設定且已儲存，點選回上一頁按鈕，則以導頁方式開啟APF0102MM1，並帶回原先的查詢條件。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.呼叫ShowDialog() Javascript
+查詢按鈕提供開窗選取功能，例如:員工編號可自行輸入(模糊查詢)或點選查詢按鈕，跳出員工查詢視窗，於員工查詢視窗輸入條件(員工編號或員工姓名模糊查詢)後按下確認按鈕，下方顯示查詢結果，雙擊一筆員工查詢結果，帶回員工編號與員工姓名(圖二)。
+呼叫 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:中英數字
+最大長度限制:中文20(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:英數字
+最大長度限制:英文10(控制項控制)</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2843,32 +2843,62 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2879,35 +2909,176 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2918,48 +3089,72 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2968,211 +3163,106 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3182,51 +3272,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3235,51 +3280,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4371,7 +4371,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>676275</xdr:colOff>
           <xdr:row>113</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8186,10 +8186,10 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="87" t="s">
@@ -8201,7 +8201,7 @@
         <v>109</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="87" t="s">
@@ -8211,7 +8211,7 @@
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="156"/>
       <c r="B6" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="87" t="s">
@@ -8223,7 +8223,7 @@
         <v>110</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="87" t="s">
@@ -8233,7 +8233,7 @@
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="157"/>
       <c r="B8" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="88" t="s">
@@ -8576,7 +8576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A75" sqref="A75:XFD81"/>
     </sheetView>
   </sheetViews>
@@ -8592,15 +8592,15 @@
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="170" t="s">
+      <c r="M1" s="158" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="171"/>
+      <c r="M2" s="159"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="171"/>
+      <c r="M3" s="159"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -8617,45 +8617,45 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="174" t="s">
+      <c r="A5" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="178"/>
-      <c r="K5" s="178"/>
-      <c r="L5" s="179"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="175"/>
+      <c r="K5" s="175"/>
+      <c r="L5" s="176"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="167" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="168"/>
-      <c r="K6" s="168"/>
-      <c r="L6" s="169"/>
+      <c r="A6" s="177" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="178"/>
+      <c r="K6" s="178"/>
+      <c r="L6" s="179"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
       <c r="F7" s="162" t="s">
         <v>22</v>
       </c>
@@ -8667,31 +8667,31 @@
       <c r="L7" s="164"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="173" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="161"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="165" t="s">
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="166" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="165"/>
-      <c r="K8" s="165"/>
-      <c r="L8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="167"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="172" t="s">
+      <c r="A9" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="173"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
       <c r="F9" s="162" t="s">
         <v>24</v>
       </c>
@@ -8703,32 +8703,32 @@
       <c r="L9" s="164"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="161"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="165" t="s">
+      <c r="B10" s="174"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="166" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="167"/>
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="158" t="s">
+      <c r="A11" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="159"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="177" t="s">
+      <c r="B11" s="171"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="172" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="163"/>
@@ -8739,30 +8739,30 @@
       <c r="L11" s="164"/>
     </row>
     <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A12" s="160" t="s">
+      <c r="A12" s="173" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="161"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="166"/>
+      <c r="B12" s="174"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="166"/>
+      <c r="L12" s="167"/>
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="158" t="s">
+      <c r="A13" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="159"/>
-      <c r="C13" s="159"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="177" t="s">
+      <c r="B13" s="171"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="172" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="163"/>
@@ -8773,57 +8773,62 @@
       <c r="L13" s="164"/>
     </row>
     <row r="14" spans="1:13" s="24" customFormat="1" ht="33" customHeight="1">
-      <c r="A14" s="160" t="s">
+      <c r="A14" s="173" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="161"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="165" t="s">
+      <c r="B14" s="174"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="166" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="165"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="166"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="166"/>
+      <c r="K14" s="166"/>
+      <c r="L14" s="167"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="174" t="s">
+      <c r="A15" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="165"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="166"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="166"/>
+      <c r="L15" s="167"/>
     </row>
     <row r="90" spans="1:12" ht="21" customHeight="1">
-      <c r="A90" s="174" t="s">
+      <c r="A90" s="165" t="s">
         <v>108</v>
       </c>
-      <c r="B90" s="175"/>
-      <c r="C90" s="175"/>
-      <c r="D90" s="175"/>
-      <c r="E90" s="175"/>
-      <c r="F90" s="175"/>
-      <c r="G90" s="175"/>
-      <c r="H90" s="175"/>
-      <c r="I90" s="175"/>
-      <c r="J90" s="175"/>
-      <c r="K90" s="175"/>
-      <c r="L90" s="176"/>
+      <c r="B90" s="168"/>
+      <c r="C90" s="168"/>
+      <c r="D90" s="168"/>
+      <c r="E90" s="168"/>
+      <c r="F90" s="168"/>
+      <c r="G90" s="168"/>
+      <c r="H90" s="168"/>
+      <c r="I90" s="168"/>
+      <c r="J90" s="168"/>
+      <c r="K90" s="168"/>
+      <c r="L90" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -8840,11 +8845,6 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -8897,7 +8897,7 @@
                 <xdr:col>11</xdr:col>
                 <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>113</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8922,15 +8922,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="170" t="s">
-        <v>187</v>
+      <c r="P1" s="158" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="171"/>
+      <c r="P2" s="159"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="171"/>
+      <c r="P3" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8980,8 +8980,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:J39"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9011,7 +9011,7 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="220" t="s">
+      <c r="K1" s="217" t="s">
         <v>47</v>
       </c>
       <c r="L1" s="55"/>
@@ -9032,7 +9032,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="221"/>
+      <c r="K2" s="218"/>
     </row>
     <row r="3" spans="1:17" s="56" customFormat="1">
       <c r="A3" s="48"/>
@@ -9045,7 +9045,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="221"/>
+      <c r="K3" s="218"/>
     </row>
     <row r="4" spans="1:17" s="56" customFormat="1">
       <c r="A4" s="48"/>
@@ -9060,7 +9060,7 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="56" customFormat="1">
-      <c r="A5" s="225" t="s">
+      <c r="A5" s="222" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="163"/>
@@ -9074,57 +9074,57 @@
       <c r="J5" s="164"/>
     </row>
     <row r="6" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="167"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="169"/>
+      <c r="A6" s="177"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="179"/>
     </row>
     <row r="7" spans="1:17" s="57" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="226"/>
-      <c r="B7" s="227"/>
-      <c r="C7" s="227"/>
-      <c r="D7" s="227"/>
-      <c r="E7" s="227"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="227"/>
-      <c r="H7" s="227"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="229"/>
+      <c r="A7" s="223"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
+      <c r="I7" s="225"/>
+      <c r="J7" s="226"/>
       <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:17" s="57" customFormat="1">
-      <c r="A8" s="226"/>
-      <c r="B8" s="227"/>
-      <c r="C8" s="227"/>
-      <c r="D8" s="227"/>
-      <c r="E8" s="227"/>
-      <c r="F8" s="227"/>
-      <c r="G8" s="227"/>
-      <c r="H8" s="227"/>
-      <c r="I8" s="228"/>
-      <c r="J8" s="229"/>
+      <c r="A8" s="223"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="225"/>
+      <c r="J8" s="226"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:17" s="57" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="230"/>
-      <c r="B9" s="231"/>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="231"/>
-      <c r="G9" s="231"/>
-      <c r="H9" s="231"/>
-      <c r="I9" s="231"/>
-      <c r="J9" s="232"/>
+      <c r="A9" s="227"/>
+      <c r="B9" s="228"/>
+      <c r="C9" s="228"/>
+      <c r="D9" s="228"/>
+      <c r="E9" s="228"/>
+      <c r="F9" s="228"/>
+      <c r="G9" s="228"/>
+      <c r="H9" s="228"/>
+      <c r="I9" s="228"/>
+      <c r="J9" s="229"/>
     </row>
     <row r="10" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="225" t="s">
+      <c r="A10" s="222" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="163"/>
@@ -9138,21 +9138,21 @@
       <c r="J10" s="164"/>
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="233" t="s">
+      <c r="A11" s="230" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="165"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="166"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="167"/>
     </row>
     <row r="12" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="225" t="s">
+      <c r="A12" s="222" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="163"/>
@@ -9166,21 +9166,21 @@
       <c r="J12" s="164"/>
     </row>
     <row r="13" spans="1:17" s="59" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="233" t="s">
+      <c r="A13" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="165"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="166"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="167"/>
     </row>
     <row r="14" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="225" t="s">
+      <c r="A14" s="222" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="163"/>
@@ -9194,18 +9194,18 @@
       <c r="J14" s="164"/>
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="236" t="s">
+      <c r="A15" s="183" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="237"/>
-      <c r="C15" s="237"/>
-      <c r="D15" s="237"/>
-      <c r="E15" s="237"/>
-      <c r="F15" s="237"/>
-      <c r="G15" s="237"/>
-      <c r="H15" s="237"/>
-      <c r="I15" s="237"/>
-      <c r="J15" s="238"/>
+      <c r="B15" s="213"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="213"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="214"/>
     </row>
     <row r="16" spans="1:17" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="60" t="s">
@@ -9214,16 +9214,16 @@
       <c r="B16" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="239" t="s">
+      <c r="C16" s="195" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="240"/>
-      <c r="E16" s="240"/>
-      <c r="F16" s="240"/>
-      <c r="G16" s="240"/>
-      <c r="H16" s="240"/>
-      <c r="I16" s="240"/>
-      <c r="J16" s="241"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="197"/>
     </row>
     <row r="17" spans="1:10" s="57" customFormat="1" ht="55.5" customHeight="1">
       <c r="A17" s="60">
@@ -9232,16 +9232,16 @@
       <c r="B17" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="C17" s="242" t="s">
-        <v>238</v>
-      </c>
-      <c r="D17" s="243"/>
-      <c r="E17" s="243"/>
-      <c r="F17" s="243"/>
-      <c r="G17" s="243"/>
-      <c r="H17" s="243"/>
-      <c r="I17" s="243"/>
-      <c r="J17" s="244"/>
+      <c r="C17" s="215" t="s">
+        <v>417</v>
+      </c>
+      <c r="D17" s="199"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="200"/>
     </row>
     <row r="18" spans="1:10" s="57" customFormat="1" ht="48.75" customHeight="1">
       <c r="A18" s="60">
@@ -9250,16 +9250,16 @@
       <c r="B18" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>239</v>
-      </c>
-      <c r="D18" s="243"/>
-      <c r="E18" s="243"/>
-      <c r="F18" s="243"/>
-      <c r="G18" s="243"/>
-      <c r="H18" s="243"/>
-      <c r="I18" s="243"/>
-      <c r="J18" s="244"/>
+      <c r="C18" s="215" t="s">
+        <v>416</v>
+      </c>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="200"/>
     </row>
     <row r="19" spans="1:10" s="57" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="60">
@@ -9268,42 +9268,42 @@
       <c r="B19" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="242" t="s">
-        <v>193</v>
-      </c>
-      <c r="D19" s="243"/>
-      <c r="E19" s="243"/>
-      <c r="F19" s="243"/>
-      <c r="G19" s="243"/>
-      <c r="H19" s="243"/>
-      <c r="I19" s="243"/>
-      <c r="J19" s="244"/>
+      <c r="C19" s="215" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="199"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="200"/>
     </row>
     <row r="20" spans="1:10" s="57" customFormat="1">
-      <c r="A20" s="213"/>
-      <c r="B20" s="190"/>
-      <c r="C20" s="190"/>
-      <c r="D20" s="190"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="190"/>
-      <c r="H20" s="190"/>
-      <c r="I20" s="190"/>
-      <c r="J20" s="191"/>
+      <c r="A20" s="201"/>
+      <c r="B20" s="202"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="203"/>
     </row>
     <row r="21" spans="1:10" s="57" customFormat="1">
-      <c r="A21" s="236" t="s">
+      <c r="A21" s="183" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="237"/>
-      <c r="C21" s="237"/>
-      <c r="D21" s="237"/>
-      <c r="E21" s="237"/>
-      <c r="F21" s="237"/>
-      <c r="G21" s="237"/>
-      <c r="H21" s="237"/>
-      <c r="I21" s="237"/>
-      <c r="J21" s="238"/>
+      <c r="B21" s="213"/>
+      <c r="C21" s="213"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="213"/>
+      <c r="G21" s="213"/>
+      <c r="H21" s="213"/>
+      <c r="I21" s="213"/>
+      <c r="J21" s="214"/>
     </row>
     <row r="22" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="60" t="s">
@@ -9312,16 +9312,16 @@
       <c r="B22" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="239" t="s">
+      <c r="C22" s="195" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="240"/>
-      <c r="E22" s="240"/>
-      <c r="F22" s="240"/>
-      <c r="G22" s="240"/>
-      <c r="H22" s="240"/>
-      <c r="I22" s="240"/>
-      <c r="J22" s="241"/>
+      <c r="D22" s="196"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="196"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="196"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="197"/>
     </row>
     <row r="23" spans="1:10" s="57" customFormat="1">
       <c r="A23" s="60">
@@ -9330,16 +9330,16 @@
       <c r="B23" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="247" t="s">
+      <c r="C23" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="243"/>
-      <c r="E23" s="243"/>
-      <c r="F23" s="243"/>
-      <c r="G23" s="243"/>
-      <c r="H23" s="243"/>
-      <c r="I23" s="243"/>
-      <c r="J23" s="244"/>
+      <c r="D23" s="199"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="199"/>
+      <c r="H23" s="199"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="200"/>
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1">
       <c r="A24" s="60">
@@ -9348,16 +9348,16 @@
       <c r="B24" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="247" t="s">
+      <c r="C24" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="243"/>
-      <c r="E24" s="243"/>
-      <c r="F24" s="243"/>
-      <c r="G24" s="243"/>
-      <c r="H24" s="243"/>
-      <c r="I24" s="243"/>
-      <c r="J24" s="244"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="199"/>
+      <c r="F24" s="199"/>
+      <c r="G24" s="199"/>
+      <c r="H24" s="199"/>
+      <c r="I24" s="199"/>
+      <c r="J24" s="200"/>
     </row>
     <row r="25" spans="1:10" s="57" customFormat="1">
       <c r="A25" s="60">
@@ -9366,16 +9366,16 @@
       <c r="B25" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="247" t="s">
+      <c r="C25" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="243"/>
-      <c r="E25" s="243"/>
-      <c r="F25" s="243"/>
-      <c r="G25" s="243"/>
-      <c r="H25" s="243"/>
-      <c r="I25" s="243"/>
-      <c r="J25" s="244"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="199"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="200"/>
     </row>
     <row r="26" spans="1:10" s="57" customFormat="1">
       <c r="A26" s="60">
@@ -9384,56 +9384,56 @@
       <c r="B26" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="247" t="s">
+      <c r="C26" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="243"/>
-      <c r="E26" s="243"/>
-      <c r="F26" s="243"/>
-      <c r="G26" s="243"/>
-      <c r="H26" s="243"/>
-      <c r="I26" s="243"/>
-      <c r="J26" s="244"/>
+      <c r="D26" s="199"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="199"/>
+      <c r="H26" s="199"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="200"/>
     </row>
     <row r="27" spans="1:10" s="57" customFormat="1">
-      <c r="A27" s="222"/>
-      <c r="B27" s="223"/>
-      <c r="C27" s="223"/>
-      <c r="D27" s="223"/>
-      <c r="E27" s="223"/>
-      <c r="F27" s="223"/>
-      <c r="G27" s="223"/>
-      <c r="H27" s="223"/>
-      <c r="I27" s="223"/>
-      <c r="J27" s="224"/>
+      <c r="A27" s="219"/>
+      <c r="B27" s="220"/>
+      <c r="C27" s="220"/>
+      <c r="D27" s="220"/>
+      <c r="E27" s="220"/>
+      <c r="F27" s="220"/>
+      <c r="G27" s="220"/>
+      <c r="H27" s="220"/>
+      <c r="I27" s="220"/>
+      <c r="J27" s="221"/>
     </row>
     <row r="28" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="203" t="s">
+      <c r="A28" s="231" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="234"/>
-      <c r="C28" s="234"/>
-      <c r="D28" s="234"/>
-      <c r="E28" s="234"/>
-      <c r="F28" s="234"/>
-      <c r="G28" s="234"/>
-      <c r="H28" s="234"/>
-      <c r="I28" s="234"/>
-      <c r="J28" s="235"/>
+      <c r="B28" s="232"/>
+      <c r="C28" s="232"/>
+      <c r="D28" s="232"/>
+      <c r="E28" s="232"/>
+      <c r="F28" s="232"/>
+      <c r="G28" s="232"/>
+      <c r="H28" s="232"/>
+      <c r="I28" s="232"/>
+      <c r="J28" s="233"/>
     </row>
     <row r="29" spans="1:10" s="57" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="236" t="s">
+      <c r="A29" s="183" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="237"/>
-      <c r="C29" s="237"/>
-      <c r="D29" s="237"/>
-      <c r="E29" s="237"/>
-      <c r="F29" s="237"/>
-      <c r="G29" s="237"/>
-      <c r="H29" s="237"/>
-      <c r="I29" s="237"/>
-      <c r="J29" s="238"/>
+      <c r="B29" s="213"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="213"/>
+      <c r="E29" s="213"/>
+      <c r="F29" s="213"/>
+      <c r="G29" s="213"/>
+      <c r="H29" s="213"/>
+      <c r="I29" s="213"/>
+      <c r="J29" s="214"/>
     </row>
     <row r="30" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="60" t="s">
@@ -9442,16 +9442,16 @@
       <c r="B30" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="239" t="s">
+      <c r="C30" s="195" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="240"/>
-      <c r="E30" s="240"/>
-      <c r="F30" s="240"/>
-      <c r="G30" s="240"/>
-      <c r="H30" s="240"/>
-      <c r="I30" s="240"/>
-      <c r="J30" s="241"/>
+      <c r="D30" s="196"/>
+      <c r="E30" s="196"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="196"/>
+      <c r="I30" s="196"/>
+      <c r="J30" s="197"/>
     </row>
     <row r="31" spans="1:10" s="57" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="60">
@@ -9460,16 +9460,16 @@
       <c r="B31" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="248" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" s="249"/>
-      <c r="E31" s="249"/>
-      <c r="F31" s="249"/>
-      <c r="G31" s="249"/>
-      <c r="H31" s="249"/>
-      <c r="I31" s="249"/>
-      <c r="J31" s="250"/>
+      <c r="C31" s="204" t="s">
+        <v>410</v>
+      </c>
+      <c r="D31" s="205"/>
+      <c r="E31" s="205"/>
+      <c r="F31" s="205"/>
+      <c r="G31" s="205"/>
+      <c r="H31" s="205"/>
+      <c r="I31" s="205"/>
+      <c r="J31" s="206"/>
     </row>
     <row r="32" spans="1:10" s="57" customFormat="1">
       <c r="A32" s="60">
@@ -9478,14 +9478,14 @@
       <c r="B32" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="251"/>
-      <c r="D32" s="252"/>
-      <c r="E32" s="252"/>
-      <c r="F32" s="252"/>
-      <c r="G32" s="252"/>
-      <c r="H32" s="252"/>
-      <c r="I32" s="252"/>
-      <c r="J32" s="253"/>
+      <c r="C32" s="207"/>
+      <c r="D32" s="208"/>
+      <c r="E32" s="208"/>
+      <c r="F32" s="208"/>
+      <c r="G32" s="208"/>
+      <c r="H32" s="208"/>
+      <c r="I32" s="208"/>
+      <c r="J32" s="209"/>
     </row>
     <row r="33" spans="1:12" s="57" customFormat="1">
       <c r="A33" s="60">
@@ -9494,40 +9494,40 @@
       <c r="B33" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="254"/>
-      <c r="D33" s="255"/>
-      <c r="E33" s="255"/>
-      <c r="F33" s="255"/>
-      <c r="G33" s="255"/>
-      <c r="H33" s="255"/>
-      <c r="I33" s="255"/>
-      <c r="J33" s="256"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="211"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="211"/>
+      <c r="J33" s="212"/>
     </row>
     <row r="34" spans="1:12" s="57" customFormat="1">
-      <c r="A34" s="213"/>
-      <c r="B34" s="190"/>
-      <c r="C34" s="190"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="190"/>
-      <c r="H34" s="190"/>
-      <c r="I34" s="190"/>
-      <c r="J34" s="191"/>
+      <c r="A34" s="201"/>
+      <c r="B34" s="202"/>
+      <c r="C34" s="202"/>
+      <c r="D34" s="202"/>
+      <c r="E34" s="202"/>
+      <c r="F34" s="202"/>
+      <c r="G34" s="202"/>
+      <c r="H34" s="202"/>
+      <c r="I34" s="202"/>
+      <c r="J34" s="203"/>
     </row>
     <row r="35" spans="1:12" s="57" customFormat="1">
-      <c r="A35" s="236" t="s">
+      <c r="A35" s="183" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="245"/>
-      <c r="C35" s="245"/>
-      <c r="D35" s="245"/>
-      <c r="E35" s="245"/>
-      <c r="F35" s="245"/>
-      <c r="G35" s="245"/>
-      <c r="H35" s="245"/>
-      <c r="I35" s="245"/>
-      <c r="J35" s="246"/>
+      <c r="B35" s="184"/>
+      <c r="C35" s="184"/>
+      <c r="D35" s="184"/>
+      <c r="E35" s="184"/>
+      <c r="F35" s="184"/>
+      <c r="G35" s="184"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="184"/>
+      <c r="J35" s="185"/>
     </row>
     <row r="36" spans="1:12" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="60" t="s">
@@ -9536,16 +9536,16 @@
       <c r="B36" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="239" t="s">
+      <c r="C36" s="195" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="240"/>
-      <c r="E36" s="240"/>
-      <c r="F36" s="240"/>
-      <c r="G36" s="240"/>
-      <c r="H36" s="240"/>
-      <c r="I36" s="240"/>
-      <c r="J36" s="241"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="196"/>
+      <c r="F36" s="196"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="196"/>
+      <c r="I36" s="196"/>
+      <c r="J36" s="197"/>
     </row>
     <row r="37" spans="1:12" s="57" customFormat="1">
       <c r="A37" s="60">
@@ -9554,16 +9554,16 @@
       <c r="B37" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="247" t="s">
+      <c r="C37" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="243"/>
-      <c r="E37" s="243"/>
-      <c r="F37" s="243"/>
-      <c r="G37" s="243"/>
-      <c r="H37" s="243"/>
-      <c r="I37" s="243"/>
-      <c r="J37" s="244"/>
+      <c r="D37" s="199"/>
+      <c r="E37" s="199"/>
+      <c r="F37" s="199"/>
+      <c r="G37" s="199"/>
+      <c r="H37" s="199"/>
+      <c r="I37" s="199"/>
+      <c r="J37" s="200"/>
     </row>
     <row r="38" spans="1:12" s="57" customFormat="1">
       <c r="A38" s="60">
@@ -9572,16 +9572,16 @@
       <c r="B38" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="247" t="s">
+      <c r="C38" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="243"/>
-      <c r="E38" s="243"/>
-      <c r="F38" s="243"/>
-      <c r="G38" s="243"/>
-      <c r="H38" s="243"/>
-      <c r="I38" s="243"/>
-      <c r="J38" s="244"/>
+      <c r="D38" s="199"/>
+      <c r="E38" s="199"/>
+      <c r="F38" s="199"/>
+      <c r="G38" s="199"/>
+      <c r="H38" s="199"/>
+      <c r="I38" s="199"/>
+      <c r="J38" s="200"/>
     </row>
     <row r="39" spans="1:12" s="57" customFormat="1">
       <c r="A39" s="60">
@@ -9590,16 +9590,16 @@
       <c r="B39" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="247" t="s">
+      <c r="C39" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="243"/>
-      <c r="E39" s="243"/>
-      <c r="F39" s="243"/>
-      <c r="G39" s="243"/>
-      <c r="H39" s="243"/>
-      <c r="I39" s="243"/>
-      <c r="J39" s="244"/>
+      <c r="D39" s="199"/>
+      <c r="E39" s="199"/>
+      <c r="F39" s="199"/>
+      <c r="G39" s="199"/>
+      <c r="H39" s="199"/>
+      <c r="I39" s="199"/>
+      <c r="J39" s="200"/>
     </row>
     <row r="40" spans="1:12" s="57" customFormat="1">
       <c r="A40" s="60">
@@ -9608,16 +9608,16 @@
       <c r="B40" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="247" t="s">
+      <c r="C40" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="243"/>
-      <c r="E40" s="243"/>
-      <c r="F40" s="243"/>
-      <c r="G40" s="243"/>
-      <c r="H40" s="243"/>
-      <c r="I40" s="243"/>
-      <c r="J40" s="244"/>
+      <c r="D40" s="199"/>
+      <c r="E40" s="199"/>
+      <c r="F40" s="199"/>
+      <c r="G40" s="199"/>
+      <c r="H40" s="199"/>
+      <c r="I40" s="199"/>
+      <c r="J40" s="200"/>
     </row>
     <row r="41" spans="1:12" s="57" customFormat="1">
       <c r="A41" s="110"/>
@@ -9632,54 +9632,54 @@
       <c r="J41" s="117"/>
     </row>
     <row r="42" spans="1:12" s="57" customFormat="1">
-      <c r="A42" s="257" t="s">
-        <v>241</v>
-      </c>
-      <c r="B42" s="258"/>
-      <c r="C42" s="258"/>
-      <c r="D42" s="258"/>
-      <c r="E42" s="258"/>
-      <c r="F42" s="258"/>
-      <c r="G42" s="258"/>
-      <c r="H42" s="258"/>
-      <c r="I42" s="258"/>
-      <c r="J42" s="259"/>
+      <c r="A42" s="180" t="s">
+        <v>237</v>
+      </c>
+      <c r="B42" s="181"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
+      <c r="E42" s="181"/>
+      <c r="F42" s="181"/>
+      <c r="G42" s="181"/>
+      <c r="H42" s="181"/>
+      <c r="I42" s="181"/>
+      <c r="J42" s="182"/>
     </row>
     <row r="43" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A43" s="236" t="s">
-        <v>242</v>
-      </c>
-      <c r="B43" s="245"/>
-      <c r="C43" s="245"/>
-      <c r="D43" s="245"/>
-      <c r="E43" s="245"/>
-      <c r="F43" s="245"/>
-      <c r="G43" s="245"/>
-      <c r="H43" s="245"/>
-      <c r="I43" s="245"/>
-      <c r="J43" s="246"/>
+      <c r="A43" s="183" t="s">
+        <v>238</v>
+      </c>
+      <c r="B43" s="184"/>
+      <c r="C43" s="184"/>
+      <c r="D43" s="184"/>
+      <c r="E43" s="184"/>
+      <c r="F43" s="184"/>
+      <c r="G43" s="184"/>
+      <c r="H43" s="184"/>
+      <c r="I43" s="184"/>
+      <c r="J43" s="185"/>
     </row>
     <row r="44" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="60"/>
       <c r="B44" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" s="125" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" s="125" t="s">
+        <v>241</v>
+      </c>
+      <c r="E44" s="125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F44" s="186" t="s">
         <v>243</v>
       </c>
-      <c r="C44" s="125" t="s">
-        <v>244</v>
-      </c>
-      <c r="D44" s="125" t="s">
-        <v>245</v>
-      </c>
-      <c r="E44" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="F44" s="260" t="s">
-        <v>247</v>
-      </c>
-      <c r="G44" s="261"/>
-      <c r="H44" s="261"/>
-      <c r="I44" s="261"/>
-      <c r="J44" s="262"/>
+      <c r="G44" s="187"/>
+      <c r="H44" s="187"/>
+      <c r="I44" s="187"/>
+      <c r="J44" s="188"/>
       <c r="K44" s="57"/>
       <c r="L44" s="57"/>
     </row>
@@ -9688,484 +9688,484 @@
         <v>1</v>
       </c>
       <c r="B45" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="C45" s="126" t="s">
+        <v>245</v>
+      </c>
+      <c r="D45" s="126" t="s">
+        <v>246</v>
+      </c>
+      <c r="E45" s="126" t="s">
+        <v>247</v>
+      </c>
+      <c r="F45" s="189" t="s">
         <v>248</v>
       </c>
-      <c r="C45" s="126" t="s">
+      <c r="G45" s="190"/>
+      <c r="H45" s="190"/>
+      <c r="I45" s="190"/>
+      <c r="J45" s="191"/>
+    </row>
+    <row r="46" spans="1:12" s="57" customFormat="1">
+      <c r="A46" s="192"/>
+      <c r="B46" s="193"/>
+      <c r="C46" s="193"/>
+      <c r="D46" s="193"/>
+      <c r="E46" s="193"/>
+      <c r="F46" s="193"/>
+      <c r="G46" s="193"/>
+      <c r="H46" s="193"/>
+      <c r="I46" s="193"/>
+      <c r="J46" s="194"/>
+    </row>
+    <row r="47" spans="1:12" s="57" customFormat="1">
+      <c r="A47" s="180" t="s">
         <v>249</v>
       </c>
-      <c r="D45" s="126" t="s">
+      <c r="B47" s="181"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="181"/>
+      <c r="E47" s="181"/>
+      <c r="F47" s="181"/>
+      <c r="G47" s="181"/>
+      <c r="H47" s="181"/>
+      <c r="I47" s="181"/>
+      <c r="J47" s="182"/>
+    </row>
+    <row r="48" spans="1:12" s="57" customFormat="1" ht="15" hidden="1" customHeight="1">
+      <c r="A48" s="183" t="s">
         <v>250</v>
       </c>
-      <c r="E45" s="126" t="s">
-        <v>251</v>
-      </c>
-      <c r="F45" s="200" t="s">
-        <v>252</v>
-      </c>
-      <c r="G45" s="201"/>
-      <c r="H45" s="201"/>
-      <c r="I45" s="201"/>
-      <c r="J45" s="202"/>
-    </row>
-    <row r="46" spans="1:12" s="57" customFormat="1">
-      <c r="A46" s="214"/>
-      <c r="B46" s="263"/>
-      <c r="C46" s="263"/>
-      <c r="D46" s="263"/>
-      <c r="E46" s="263"/>
-      <c r="F46" s="263"/>
-      <c r="G46" s="263"/>
-      <c r="H46" s="263"/>
-      <c r="I46" s="263"/>
-      <c r="J46" s="264"/>
-    </row>
-    <row r="47" spans="1:12" s="57" customFormat="1">
-      <c r="A47" s="257" t="s">
-        <v>253</v>
-      </c>
-      <c r="B47" s="258"/>
-      <c r="C47" s="258"/>
-      <c r="D47" s="258"/>
-      <c r="E47" s="258"/>
-      <c r="F47" s="258"/>
-      <c r="G47" s="258"/>
-      <c r="H47" s="258"/>
-      <c r="I47" s="258"/>
-      <c r="J47" s="259"/>
-    </row>
-    <row r="48" spans="1:12" s="57" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A48" s="236" t="s">
-        <v>254</v>
-      </c>
-      <c r="B48" s="245"/>
-      <c r="C48" s="245"/>
-      <c r="D48" s="245"/>
-      <c r="E48" s="245"/>
-      <c r="F48" s="245"/>
-      <c r="G48" s="245"/>
-      <c r="H48" s="245"/>
-      <c r="I48" s="245"/>
-      <c r="J48" s="246"/>
+      <c r="B48" s="184"/>
+      <c r="C48" s="184"/>
+      <c r="D48" s="184"/>
+      <c r="E48" s="184"/>
+      <c r="F48" s="184"/>
+      <c r="G48" s="184"/>
+      <c r="H48" s="184"/>
+      <c r="I48" s="184"/>
+      <c r="J48" s="185"/>
     </row>
     <row r="49" spans="1:12" s="59" customFormat="1" ht="39" customHeight="1">
       <c r="A49" s="60"/>
       <c r="B49" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="C49" s="125" t="s">
+        <v>240</v>
+      </c>
+      <c r="D49" s="125" t="s">
+        <v>241</v>
+      </c>
+      <c r="E49" s="125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F49" s="186" t="s">
         <v>243</v>
       </c>
-      <c r="C49" s="125" t="s">
-        <v>244</v>
-      </c>
-      <c r="D49" s="125" t="s">
-        <v>245</v>
-      </c>
-      <c r="E49" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="F49" s="260" t="s">
-        <v>247</v>
-      </c>
-      <c r="G49" s="261"/>
-      <c r="H49" s="261"/>
-      <c r="I49" s="261"/>
-      <c r="J49" s="262"/>
+      <c r="G49" s="187"/>
+      <c r="H49" s="187"/>
+      <c r="I49" s="187"/>
+      <c r="J49" s="188"/>
     </row>
     <row r="50" spans="1:12" s="57" customFormat="1" ht="16.5" customHeight="1">
       <c r="A50" s="60">
         <v>1</v>
       </c>
       <c r="B50" s="60" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C50" s="126" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D50" s="126" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E50" s="126" t="s">
-        <v>251</v>
-      </c>
-      <c r="F50" s="200" t="s">
-        <v>256</v>
-      </c>
-      <c r="G50" s="201"/>
-      <c r="H50" s="201"/>
-      <c r="I50" s="201"/>
-      <c r="J50" s="202"/>
+        <v>247</v>
+      </c>
+      <c r="F50" s="189" t="s">
+        <v>252</v>
+      </c>
+      <c r="G50" s="190"/>
+      <c r="H50" s="190"/>
+      <c r="I50" s="190"/>
+      <c r="J50" s="191"/>
     </row>
     <row r="51" spans="1:12" s="57" customFormat="1">
-      <c r="A51" s="213"/>
-      <c r="B51" s="190"/>
-      <c r="C51" s="190"/>
-      <c r="D51" s="190"/>
-      <c r="E51" s="190"/>
-      <c r="F51" s="190"/>
-      <c r="G51" s="190"/>
-      <c r="H51" s="190"/>
-      <c r="I51" s="190"/>
-      <c r="J51" s="191"/>
+      <c r="A51" s="201"/>
+      <c r="B51" s="202"/>
+      <c r="C51" s="202"/>
+      <c r="D51" s="202"/>
+      <c r="E51" s="202"/>
+      <c r="F51" s="202"/>
+      <c r="G51" s="202"/>
+      <c r="H51" s="202"/>
+      <c r="I51" s="202"/>
+      <c r="J51" s="203"/>
     </row>
     <row r="52" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="203" t="s">
-        <v>257</v>
-      </c>
-      <c r="B52" s="204"/>
-      <c r="C52" s="204"/>
-      <c r="D52" s="204"/>
-      <c r="E52" s="204"/>
-      <c r="F52" s="204"/>
-      <c r="G52" s="204"/>
-      <c r="H52" s="204"/>
-      <c r="I52" s="204"/>
-      <c r="J52" s="205"/>
+      <c r="A52" s="231" t="s">
+        <v>253</v>
+      </c>
+      <c r="B52" s="244"/>
+      <c r="C52" s="244"/>
+      <c r="D52" s="244"/>
+      <c r="E52" s="244"/>
+      <c r="F52" s="244"/>
+      <c r="G52" s="244"/>
+      <c r="H52" s="244"/>
+      <c r="I52" s="244"/>
+      <c r="J52" s="245"/>
     </row>
     <row r="53" spans="1:12" s="59" customFormat="1">
       <c r="A53" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53" s="61" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="D53" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="E53" s="246" t="s">
         <v>258</v>
       </c>
-      <c r="B53" s="61" t="s">
-        <v>259</v>
-      </c>
-      <c r="C53" s="62" t="s">
-        <v>260</v>
-      </c>
-      <c r="D53" s="63" t="s">
-        <v>261</v>
-      </c>
-      <c r="E53" s="206" t="s">
-        <v>262</v>
-      </c>
-      <c r="F53" s="207"/>
-      <c r="G53" s="207"/>
-      <c r="H53" s="207"/>
-      <c r="I53" s="207"/>
-      <c r="J53" s="207"/>
+      <c r="F53" s="247"/>
+      <c r="G53" s="247"/>
+      <c r="H53" s="247"/>
+      <c r="I53" s="247"/>
+      <c r="J53" s="247"/>
       <c r="K53" s="57"/>
       <c r="L53" s="57"/>
     </row>
     <row r="54" spans="1:12" s="57" customFormat="1">
-      <c r="A54" s="183">
+      <c r="A54" s="248">
         <v>1</v>
       </c>
-      <c r="B54" s="183" t="s">
+      <c r="B54" s="248" t="s">
+        <v>259</v>
+      </c>
+      <c r="C54" s="127" t="s">
+        <v>260</v>
+      </c>
+      <c r="D54" s="127"/>
+      <c r="E54" s="250" t="s">
+        <v>261</v>
+      </c>
+      <c r="F54" s="251"/>
+      <c r="G54" s="251"/>
+      <c r="H54" s="251"/>
+      <c r="I54" s="251"/>
+      <c r="J54" s="252"/>
+    </row>
+    <row r="55" spans="1:12" s="57" customFormat="1" ht="66.75" customHeight="1">
+      <c r="A55" s="249"/>
+      <c r="B55" s="249"/>
+      <c r="C55" s="128" t="s">
+        <v>262</v>
+      </c>
+      <c r="D55" s="127"/>
+      <c r="E55" s="253" t="s">
         <v>263</v>
       </c>
-      <c r="C54" s="127" t="s">
-        <v>264</v>
-      </c>
-      <c r="D54" s="127"/>
-      <c r="E54" s="208" t="s">
-        <v>265</v>
-      </c>
-      <c r="F54" s="209"/>
-      <c r="G54" s="209"/>
-      <c r="H54" s="209"/>
-      <c r="I54" s="209"/>
-      <c r="J54" s="210"/>
-    </row>
-    <row r="55" spans="1:12" s="57" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A55" s="184"/>
-      <c r="B55" s="184"/>
-      <c r="C55" s="128" t="s">
-        <v>266</v>
-      </c>
-      <c r="D55" s="127"/>
-      <c r="E55" s="211" t="s">
-        <v>267</v>
-      </c>
-      <c r="F55" s="212"/>
-      <c r="G55" s="212"/>
-      <c r="H55" s="212"/>
-      <c r="I55" s="212"/>
-      <c r="J55" s="212"/>
+      <c r="F55" s="254"/>
+      <c r="G55" s="254"/>
+      <c r="H55" s="254"/>
+      <c r="I55" s="254"/>
+      <c r="J55" s="254"/>
     </row>
     <row r="56" spans="1:12" s="57" customFormat="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="190"/>
-      <c r="C56" s="190"/>
-      <c r="D56" s="190"/>
-      <c r="E56" s="190"/>
-      <c r="F56" s="190"/>
-      <c r="G56" s="190"/>
-      <c r="H56" s="190"/>
-      <c r="I56" s="190"/>
-      <c r="J56" s="191"/>
+      <c r="B56" s="202"/>
+      <c r="C56" s="202"/>
+      <c r="D56" s="202"/>
+      <c r="E56" s="202"/>
+      <c r="F56" s="202"/>
+      <c r="G56" s="202"/>
+      <c r="H56" s="202"/>
+      <c r="I56" s="202"/>
+      <c r="J56" s="203"/>
     </row>
     <row r="57" spans="1:12" s="57" customFormat="1">
-      <c r="A57" s="192" t="s">
-        <v>268</v>
-      </c>
-      <c r="B57" s="193"/>
-      <c r="C57" s="193"/>
-      <c r="D57" s="193"/>
-      <c r="E57" s="193"/>
-      <c r="F57" s="193"/>
-      <c r="G57" s="193"/>
-      <c r="H57" s="193"/>
-      <c r="I57" s="193"/>
-      <c r="J57" s="194"/>
+      <c r="A57" s="255" t="s">
+        <v>264</v>
+      </c>
+      <c r="B57" s="256"/>
+      <c r="C57" s="256"/>
+      <c r="D57" s="256"/>
+      <c r="E57" s="256"/>
+      <c r="F57" s="256"/>
+      <c r="G57" s="256"/>
+      <c r="H57" s="256"/>
+      <c r="I57" s="256"/>
+      <c r="J57" s="257"/>
     </row>
     <row r="58" spans="1:12" s="57" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A58" s="60">
         <v>1</v>
       </c>
       <c r="B58" s="94" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C58" s="114" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D58" s="111"/>
-      <c r="E58" s="195" t="s">
-        <v>271</v>
-      </c>
-      <c r="F58" s="161"/>
-      <c r="G58" s="161"/>
-      <c r="H58" s="161"/>
-      <c r="I58" s="161"/>
-      <c r="J58" s="161"/>
+      <c r="E58" s="258" t="s">
+        <v>267</v>
+      </c>
+      <c r="F58" s="174"/>
+      <c r="G58" s="174"/>
+      <c r="H58" s="174"/>
+      <c r="I58" s="174"/>
+      <c r="J58" s="174"/>
     </row>
     <row r="59" spans="1:12" s="57" customFormat="1" ht="16.5" customHeight="1">
       <c r="A59" s="129"/>
-      <c r="B59" s="185" t="s">
-        <v>272</v>
+      <c r="B59" s="259" t="s">
+        <v>268</v>
       </c>
       <c r="C59" s="130" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D59" s="112"/>
-      <c r="E59" s="187" t="s">
-        <v>274</v>
-      </c>
-      <c r="F59" s="188"/>
-      <c r="G59" s="188"/>
-      <c r="H59" s="188"/>
-      <c r="I59" s="188"/>
-      <c r="J59" s="189"/>
+      <c r="E59" s="234" t="s">
+        <v>270</v>
+      </c>
+      <c r="F59" s="235"/>
+      <c r="G59" s="235"/>
+      <c r="H59" s="235"/>
+      <c r="I59" s="235"/>
+      <c r="J59" s="236"/>
     </row>
     <row r="60" spans="1:12" s="59" customFormat="1">
       <c r="A60" s="67">
         <v>1</v>
       </c>
-      <c r="B60" s="196"/>
+      <c r="B60" s="260"/>
       <c r="C60" s="130" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D60" s="131"/>
-      <c r="E60" s="197" t="s">
-        <v>276</v>
-      </c>
-      <c r="F60" s="198"/>
-      <c r="G60" s="198"/>
-      <c r="H60" s="198"/>
-      <c r="I60" s="198"/>
-      <c r="J60" s="199"/>
+      <c r="E60" s="262" t="s">
+        <v>272</v>
+      </c>
+      <c r="F60" s="263"/>
+      <c r="G60" s="263"/>
+      <c r="H60" s="263"/>
+      <c r="I60" s="263"/>
+      <c r="J60" s="264"/>
     </row>
     <row r="61" spans="1:12" s="57" customFormat="1" ht="49.5">
       <c r="A61" s="67"/>
-      <c r="B61" s="186"/>
+      <c r="B61" s="261"/>
       <c r="C61" s="130" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D61" s="131" t="s">
-        <v>278</v>
-      </c>
-      <c r="E61" s="197" t="s">
-        <v>279</v>
-      </c>
-      <c r="F61" s="198"/>
-      <c r="G61" s="198"/>
-      <c r="H61" s="198"/>
-      <c r="I61" s="198"/>
-      <c r="J61" s="199"/>
+        <v>274</v>
+      </c>
+      <c r="E61" s="262" t="s">
+        <v>275</v>
+      </c>
+      <c r="F61" s="263"/>
+      <c r="G61" s="263"/>
+      <c r="H61" s="263"/>
+      <c r="I61" s="263"/>
+      <c r="J61" s="264"/>
     </row>
     <row r="62" spans="1:12" s="57" customFormat="1" ht="84" customHeight="1">
       <c r="A62" s="65">
         <v>2</v>
       </c>
       <c r="B62" s="132" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C62" s="114" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D62" s="108"/>
-      <c r="E62" s="187" t="s">
-        <v>282</v>
-      </c>
-      <c r="F62" s="188"/>
-      <c r="G62" s="188"/>
-      <c r="H62" s="188"/>
-      <c r="I62" s="188"/>
-      <c r="J62" s="189"/>
+      <c r="E62" s="234" t="s">
+        <v>278</v>
+      </c>
+      <c r="F62" s="235"/>
+      <c r="G62" s="235"/>
+      <c r="H62" s="235"/>
+      <c r="I62" s="235"/>
+      <c r="J62" s="236"/>
     </row>
     <row r="63" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="69"/>
-      <c r="B63" s="190"/>
-      <c r="C63" s="190"/>
-      <c r="D63" s="190"/>
-      <c r="E63" s="190"/>
-      <c r="F63" s="190"/>
-      <c r="G63" s="190"/>
-      <c r="H63" s="190"/>
-      <c r="I63" s="190"/>
-      <c r="J63" s="191"/>
+      <c r="B63" s="202"/>
+      <c r="C63" s="202"/>
+      <c r="D63" s="202"/>
+      <c r="E63" s="202"/>
+      <c r="F63" s="202"/>
+      <c r="G63" s="202"/>
+      <c r="H63" s="202"/>
+      <c r="I63" s="202"/>
+      <c r="J63" s="203"/>
     </row>
     <row r="64" spans="1:12" s="57" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A64" s="180" t="s">
-        <v>288</v>
-      </c>
-      <c r="B64" s="181"/>
-      <c r="C64" s="181"/>
-      <c r="D64" s="181"/>
-      <c r="E64" s="181"/>
-      <c r="F64" s="181"/>
-      <c r="G64" s="181"/>
-      <c r="H64" s="181"/>
-      <c r="I64" s="181"/>
-      <c r="J64" s="182"/>
+      <c r="A64" s="237" t="s">
+        <v>284</v>
+      </c>
+      <c r="B64" s="238"/>
+      <c r="C64" s="238"/>
+      <c r="D64" s="238"/>
+      <c r="E64" s="238"/>
+      <c r="F64" s="238"/>
+      <c r="G64" s="238"/>
+      <c r="H64" s="238"/>
+      <c r="I64" s="238"/>
+      <c r="J64" s="239"/>
     </row>
     <row r="65" spans="1:10" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A65" s="183">
+      <c r="A65" s="248">
         <v>1</v>
       </c>
-      <c r="B65" s="185" t="s">
+      <c r="B65" s="259" t="s">
         <v>92</v>
       </c>
       <c r="C65" s="114" t="s">
+        <v>279</v>
+      </c>
+      <c r="D65" s="108"/>
+      <c r="E65" s="234" t="s">
+        <v>280</v>
+      </c>
+      <c r="F65" s="235"/>
+      <c r="G65" s="235"/>
+      <c r="H65" s="235"/>
+      <c r="I65" s="235"/>
+      <c r="J65" s="236"/>
+    </row>
+    <row r="66" spans="1:10" s="57" customFormat="1" ht="66">
+      <c r="A66" s="249"/>
+      <c r="B66" s="261"/>
+      <c r="C66" s="133" t="s">
+        <v>281</v>
+      </c>
+      <c r="D66" s="134" t="s">
+        <v>282</v>
+      </c>
+      <c r="E66" s="234" t="s">
         <v>283</v>
       </c>
-      <c r="D65" s="108"/>
-      <c r="E65" s="187" t="s">
-        <v>284</v>
-      </c>
-      <c r="F65" s="188"/>
-      <c r="G65" s="188"/>
-      <c r="H65" s="188"/>
-      <c r="I65" s="188"/>
-      <c r="J65" s="189"/>
-    </row>
-    <row r="66" spans="1:10" s="57" customFormat="1" ht="66">
-      <c r="A66" s="184"/>
-      <c r="B66" s="186"/>
-      <c r="C66" s="133" t="s">
-        <v>285</v>
-      </c>
-      <c r="D66" s="134" t="s">
-        <v>286</v>
-      </c>
-      <c r="E66" s="187" t="s">
-        <v>287</v>
-      </c>
-      <c r="F66" s="188"/>
-      <c r="G66" s="188"/>
-      <c r="H66" s="188"/>
-      <c r="I66" s="188"/>
-      <c r="J66" s="189"/>
+      <c r="F66" s="235"/>
+      <c r="G66" s="235"/>
+      <c r="H66" s="235"/>
+      <c r="I66" s="235"/>
+      <c r="J66" s="236"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="70"/>
-      <c r="B67" s="190"/>
-      <c r="C67" s="190"/>
-      <c r="D67" s="190"/>
-      <c r="E67" s="190"/>
-      <c r="F67" s="190"/>
-      <c r="G67" s="190"/>
-      <c r="H67" s="190"/>
-      <c r="I67" s="190"/>
-      <c r="J67" s="191"/>
+      <c r="B67" s="202"/>
+      <c r="C67" s="202"/>
+      <c r="D67" s="202"/>
+      <c r="E67" s="202"/>
+      <c r="F67" s="202"/>
+      <c r="G67" s="202"/>
+      <c r="H67" s="202"/>
+      <c r="I67" s="202"/>
+      <c r="J67" s="203"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="216" t="s">
+      <c r="A68" s="241" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="217"/>
-      <c r="C68" s="217"/>
-      <c r="D68" s="217"/>
-      <c r="E68" s="217"/>
-      <c r="F68" s="217"/>
-      <c r="G68" s="217"/>
-      <c r="H68" s="217"/>
-      <c r="I68" s="217"/>
-      <c r="J68" s="218"/>
+      <c r="B68" s="242"/>
+      <c r="C68" s="242"/>
+      <c r="D68" s="242"/>
+      <c r="E68" s="242"/>
+      <c r="F68" s="242"/>
+      <c r="G68" s="242"/>
+      <c r="H68" s="242"/>
+      <c r="I68" s="242"/>
+      <c r="J68" s="243"/>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="214" t="s">
+      <c r="B69" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="215"/>
-      <c r="D69" s="187" t="s">
+      <c r="C69" s="240"/>
+      <c r="D69" s="234" t="s">
         <v>8</v>
       </c>
-      <c r="E69" s="165"/>
-      <c r="F69" s="165"/>
-      <c r="G69" s="165"/>
-      <c r="H69" s="165"/>
-      <c r="I69" s="165"/>
-      <c r="J69" s="166"/>
+      <c r="E69" s="166"/>
+      <c r="F69" s="166"/>
+      <c r="G69" s="166"/>
+      <c r="H69" s="166"/>
+      <c r="I69" s="166"/>
+      <c r="J69" s="167"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="180"/>
-      <c r="B70" s="181"/>
-      <c r="C70" s="181"/>
-      <c r="D70" s="181"/>
-      <c r="E70" s="181"/>
-      <c r="F70" s="181"/>
-      <c r="G70" s="181"/>
-      <c r="H70" s="181"/>
-      <c r="I70" s="181"/>
-      <c r="J70" s="182"/>
+      <c r="A70" s="237"/>
+      <c r="B70" s="238"/>
+      <c r="C70" s="238"/>
+      <c r="D70" s="238"/>
+      <c r="E70" s="238"/>
+      <c r="F70" s="238"/>
+      <c r="G70" s="238"/>
+      <c r="H70" s="238"/>
+      <c r="I70" s="238"/>
+      <c r="J70" s="239"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="68"/>
-      <c r="B71" s="213"/>
-      <c r="C71" s="191"/>
-      <c r="D71" s="187"/>
-      <c r="E71" s="188"/>
-      <c r="F71" s="188"/>
-      <c r="G71" s="188"/>
-      <c r="H71" s="188"/>
-      <c r="I71" s="188"/>
-      <c r="J71" s="189"/>
+      <c r="B71" s="201"/>
+      <c r="C71" s="203"/>
+      <c r="D71" s="234"/>
+      <c r="E71" s="235"/>
+      <c r="F71" s="235"/>
+      <c r="G71" s="235"/>
+      <c r="H71" s="235"/>
+      <c r="I71" s="235"/>
+      <c r="J71" s="236"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="68"/>
-      <c r="B72" s="213"/>
-      <c r="C72" s="191"/>
-      <c r="D72" s="187"/>
-      <c r="E72" s="188"/>
-      <c r="F72" s="188"/>
-      <c r="G72" s="188"/>
-      <c r="H72" s="188"/>
-      <c r="I72" s="188"/>
-      <c r="J72" s="189"/>
+      <c r="B72" s="201"/>
+      <c r="C72" s="203"/>
+      <c r="D72" s="234"/>
+      <c r="E72" s="235"/>
+      <c r="F72" s="235"/>
+      <c r="G72" s="235"/>
+      <c r="H72" s="235"/>
+      <c r="I72" s="235"/>
+      <c r="J72" s="236"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="180"/>
-      <c r="B73" s="181"/>
-      <c r="C73" s="181"/>
-      <c r="D73" s="181"/>
-      <c r="E73" s="181"/>
-      <c r="F73" s="181"/>
-      <c r="G73" s="181"/>
-      <c r="H73" s="181"/>
-      <c r="I73" s="181"/>
-      <c r="J73" s="182"/>
+      <c r="A73" s="237"/>
+      <c r="B73" s="238"/>
+      <c r="C73" s="238"/>
+      <c r="D73" s="238"/>
+      <c r="E73" s="238"/>
+      <c r="F73" s="238"/>
+      <c r="G73" s="238"/>
+      <c r="H73" s="238"/>
+      <c r="I73" s="238"/>
+      <c r="J73" s="239"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="68"/>
-      <c r="B74" s="213"/>
-      <c r="C74" s="191"/>
-      <c r="D74" s="187"/>
-      <c r="E74" s="188"/>
-      <c r="F74" s="188"/>
-      <c r="G74" s="188"/>
-      <c r="H74" s="188"/>
-      <c r="I74" s="188"/>
-      <c r="J74" s="189"/>
+      <c r="B74" s="201"/>
+      <c r="C74" s="203"/>
+      <c r="D74" s="234"/>
+      <c r="E74" s="235"/>
+      <c r="F74" s="235"/>
+      <c r="G74" s="235"/>
+      <c r="H74" s="235"/>
+      <c r="I74" s="235"/>
+      <c r="J74" s="236"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="71" t="s">
@@ -10188,14 +10188,14 @@
       <c r="B76" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="213"/>
-      <c r="D76" s="165"/>
-      <c r="E76" s="165"/>
-      <c r="F76" s="165"/>
-      <c r="G76" s="165"/>
-      <c r="H76" s="165"/>
-      <c r="I76" s="165"/>
-      <c r="J76" s="166"/>
+      <c r="C76" s="201"/>
+      <c r="D76" s="166"/>
+      <c r="E76" s="166"/>
+      <c r="F76" s="166"/>
+      <c r="G76" s="166"/>
+      <c r="H76" s="166"/>
+      <c r="I76" s="166"/>
+      <c r="J76" s="167"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="68">
@@ -10204,44 +10204,49 @@
       <c r="B77" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="219"/>
-      <c r="D77" s="219"/>
-      <c r="E77" s="219"/>
-      <c r="F77" s="219"/>
-      <c r="G77" s="219"/>
-      <c r="H77" s="219"/>
-      <c r="I77" s="219"/>
-      <c r="J77" s="219"/>
+      <c r="C77" s="216"/>
+      <c r="D77" s="216"/>
+      <c r="E77" s="216"/>
+      <c r="F77" s="216"/>
+      <c r="G77" s="216"/>
+      <c r="H77" s="216"/>
+      <c r="I77" s="216"/>
+      <c r="J77" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C31:J33"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="B63:J63"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="D74:J74"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="D72:J72"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="D69:J69"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="B67:J67"/>
     <mergeCell ref="A20:J20"/>
     <mergeCell ref="C77:J77"/>
     <mergeCell ref="C76:J76"/>
@@ -10258,39 +10263,34 @@
     <mergeCell ref="D71:J71"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C31:J33"/>
+    <mergeCell ref="C30:J30"/>
     <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="D69:J69"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="B67:J67"/>
-    <mergeCell ref="D74:J74"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="D72:J72"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="B56:J56"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="E58:J58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="E62:J62"/>
-    <mergeCell ref="B63:J63"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="A46:J46"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10343,7 +10343,7 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="220" t="s">
+      <c r="K1" s="217" t="s">
         <v>47</v>
       </c>
       <c r="L1" s="40"/>
@@ -10370,7 +10370,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="221"/>
+      <c r="K2" s="218"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -10388,7 +10388,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="221"/>
+      <c r="K3" s="218"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -10638,7 +10638,7 @@
         <v>75</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -10692,27 +10692,27 @@
         <v>1</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C18" s="95" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F18" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="G18" s="46" t="s">
         <v>201</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>203</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J18" s="47" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -10792,7 +10792,7 @@
         <v>77</v>
       </c>
       <c r="J21" s="47" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -10820,7 +10820,7 @@
         <v>77</v>
       </c>
       <c r="J22" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K22" s="54"/>
     </row>
@@ -10862,8 +10862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92:C92"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10892,7 +10892,7 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="220" t="s">
+      <c r="K1" s="217" t="s">
         <v>47</v>
       </c>
       <c r="L1" s="55"/>
@@ -10913,7 +10913,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="221"/>
+      <c r="K2" s="218"/>
     </row>
     <row r="3" spans="1:17" s="56" customFormat="1">
       <c r="A3" s="48"/>
@@ -10926,7 +10926,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="221"/>
+      <c r="K3" s="218"/>
     </row>
     <row r="4" spans="1:17" s="56" customFormat="1">
       <c r="A4" s="48"/>
@@ -10941,7 +10941,7 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="56" customFormat="1">
-      <c r="A5" s="225" t="s">
+      <c r="A5" s="222" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="163"/>
@@ -10955,57 +10955,57 @@
       <c r="J5" s="164"/>
     </row>
     <row r="6" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="167"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="169"/>
+      <c r="A6" s="177"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="179"/>
     </row>
     <row r="7" spans="1:17" s="57" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="226"/>
-      <c r="B7" s="227"/>
-      <c r="C7" s="227"/>
-      <c r="D7" s="227"/>
-      <c r="E7" s="227"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="227"/>
-      <c r="H7" s="227"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="229"/>
+      <c r="A7" s="223"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
+      <c r="I7" s="225"/>
+      <c r="J7" s="226"/>
       <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:17" s="57" customFormat="1">
-      <c r="A8" s="226"/>
-      <c r="B8" s="227"/>
-      <c r="C8" s="227"/>
-      <c r="D8" s="227"/>
-      <c r="E8" s="227"/>
-      <c r="F8" s="227"/>
-      <c r="G8" s="227"/>
-      <c r="H8" s="227"/>
-      <c r="I8" s="228"/>
-      <c r="J8" s="229"/>
+      <c r="A8" s="223"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="225"/>
+      <c r="J8" s="226"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:17" s="57" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="230"/>
-      <c r="B9" s="231"/>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="231"/>
-      <c r="G9" s="231"/>
-      <c r="H9" s="231"/>
-      <c r="I9" s="231"/>
-      <c r="J9" s="232"/>
+      <c r="A9" s="227"/>
+      <c r="B9" s="228"/>
+      <c r="C9" s="228"/>
+      <c r="D9" s="228"/>
+      <c r="E9" s="228"/>
+      <c r="F9" s="228"/>
+      <c r="G9" s="228"/>
+      <c r="H9" s="228"/>
+      <c r="I9" s="228"/>
+      <c r="J9" s="229"/>
     </row>
     <row r="10" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="225" t="s">
+      <c r="A10" s="222" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="163"/>
@@ -11019,21 +11019,21 @@
       <c r="J10" s="164"/>
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="84.75" customHeight="1">
-      <c r="A11" s="233" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="165"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="166"/>
+      <c r="A11" s="230" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="166"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="167"/>
     </row>
     <row r="12" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="225" t="s">
+      <c r="A12" s="222" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="163"/>
@@ -11047,21 +11047,21 @@
       <c r="J12" s="164"/>
     </row>
     <row r="13" spans="1:17" s="59" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="233" t="s">
+      <c r="A13" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="165"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="166"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="167"/>
     </row>
     <row r="14" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="225" t="s">
+      <c r="A14" s="222" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="163"/>
@@ -11075,18 +11075,18 @@
       <c r="J14" s="164"/>
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="236" t="s">
-        <v>196</v>
-      </c>
-      <c r="B15" s="237"/>
-      <c r="C15" s="237"/>
-      <c r="D15" s="237"/>
-      <c r="E15" s="237"/>
-      <c r="F15" s="237"/>
-      <c r="G15" s="237"/>
-      <c r="H15" s="237"/>
-      <c r="I15" s="237"/>
-      <c r="J15" s="238"/>
+      <c r="A15" s="183" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="213"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="213"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="214"/>
     </row>
     <row r="16" spans="1:17" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="60" t="s">
@@ -11095,16 +11095,16 @@
       <c r="B16" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="239" t="s">
+      <c r="C16" s="195" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="240"/>
-      <c r="E16" s="240"/>
-      <c r="F16" s="240"/>
-      <c r="G16" s="240"/>
-      <c r="H16" s="240"/>
-      <c r="I16" s="240"/>
-      <c r="J16" s="241"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="197"/>
     </row>
     <row r="17" spans="1:10" s="57" customFormat="1">
       <c r="A17" s="60">
@@ -11113,34 +11113,34 @@
       <c r="B17" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="242" t="s">
+      <c r="C17" s="215" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="243"/>
-      <c r="E17" s="243"/>
-      <c r="F17" s="243"/>
-      <c r="G17" s="243"/>
-      <c r="H17" s="243"/>
-      <c r="I17" s="243"/>
-      <c r="J17" s="244"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="200"/>
     </row>
     <row r="18" spans="1:10" s="57" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="44">
         <v>2</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="242" t="s">
-        <v>235</v>
-      </c>
-      <c r="D18" s="243"/>
-      <c r="E18" s="243"/>
-      <c r="F18" s="243"/>
-      <c r="G18" s="243"/>
-      <c r="H18" s="243"/>
-      <c r="I18" s="243"/>
-      <c r="J18" s="244"/>
+        <v>197</v>
+      </c>
+      <c r="C18" s="215" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="200"/>
     </row>
     <row r="19" spans="1:10" s="57" customFormat="1" ht="54.75" customHeight="1">
       <c r="A19" s="44">
@@ -11149,16 +11149,16 @@
       <c r="B19" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="242" t="s">
-        <v>236</v>
-      </c>
-      <c r="D19" s="243"/>
-      <c r="E19" s="243"/>
-      <c r="F19" s="243"/>
-      <c r="G19" s="243"/>
-      <c r="H19" s="243"/>
-      <c r="I19" s="243"/>
-      <c r="J19" s="244"/>
+      <c r="C19" s="215" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" s="199"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="200"/>
     </row>
     <row r="20" spans="1:10" s="57" customFormat="1" ht="57" customHeight="1">
       <c r="A20" s="49">
@@ -11167,16 +11167,16 @@
       <c r="B20" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="242" t="s">
-        <v>240</v>
-      </c>
-      <c r="D20" s="243"/>
-      <c r="E20" s="243"/>
-      <c r="F20" s="243"/>
-      <c r="G20" s="243"/>
-      <c r="H20" s="243"/>
-      <c r="I20" s="243"/>
-      <c r="J20" s="244"/>
+      <c r="C20" s="215" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="199"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="199"/>
+      <c r="H20" s="199"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="200"/>
     </row>
     <row r="21" spans="1:10" s="57" customFormat="1" ht="51" customHeight="1">
       <c r="A21" s="49">
@@ -11185,60 +11185,60 @@
       <c r="B21" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="242" t="s">
-        <v>237</v>
-      </c>
-      <c r="D21" s="243"/>
-      <c r="E21" s="243"/>
-      <c r="F21" s="243"/>
-      <c r="G21" s="243"/>
-      <c r="H21" s="243"/>
-      <c r="I21" s="243"/>
-      <c r="J21" s="244"/>
+      <c r="C21" s="215" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="199"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="199"/>
+      <c r="G21" s="199"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="200"/>
     </row>
     <row r="22" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A22" s="44">
         <v>6</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" s="242" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22" s="302"/>
-      <c r="E22" s="302"/>
-      <c r="F22" s="302"/>
-      <c r="G22" s="302"/>
-      <c r="H22" s="302"/>
-      <c r="I22" s="302"/>
-      <c r="J22" s="303"/>
+        <v>189</v>
+      </c>
+      <c r="C22" s="215" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="275"/>
+      <c r="E22" s="275"/>
+      <c r="F22" s="275"/>
+      <c r="G22" s="275"/>
+      <c r="H22" s="275"/>
+      <c r="I22" s="275"/>
+      <c r="J22" s="276"/>
     </row>
     <row r="23" spans="1:10" s="57" customFormat="1">
-      <c r="A23" s="222"/>
-      <c r="B23" s="223"/>
-      <c r="C23" s="223"/>
-      <c r="D23" s="223"/>
-      <c r="E23" s="223"/>
-      <c r="F23" s="223"/>
-      <c r="G23" s="223"/>
-      <c r="H23" s="223"/>
-      <c r="I23" s="223"/>
-      <c r="J23" s="224"/>
+      <c r="A23" s="219"/>
+      <c r="B23" s="220"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="220"/>
+      <c r="E23" s="220"/>
+      <c r="F23" s="220"/>
+      <c r="G23" s="220"/>
+      <c r="H23" s="220"/>
+      <c r="I23" s="220"/>
+      <c r="J23" s="221"/>
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A24" s="236" t="s">
-        <v>206</v>
-      </c>
-      <c r="B24" s="237"/>
-      <c r="C24" s="237"/>
-      <c r="D24" s="237"/>
-      <c r="E24" s="237"/>
-      <c r="F24" s="237"/>
-      <c r="G24" s="237"/>
-      <c r="H24" s="237"/>
-      <c r="I24" s="237"/>
-      <c r="J24" s="238"/>
+      <c r="A24" s="183" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="213"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="213"/>
+      <c r="E24" s="213"/>
+      <c r="F24" s="213"/>
+      <c r="G24" s="213"/>
+      <c r="H24" s="213"/>
+      <c r="I24" s="213"/>
+      <c r="J24" s="214"/>
     </row>
     <row r="25" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A25" s="80">
@@ -11247,16 +11247,16 @@
       <c r="B25" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="242" t="s">
+      <c r="C25" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="243"/>
-      <c r="E25" s="243"/>
-      <c r="F25" s="243"/>
-      <c r="G25" s="243"/>
-      <c r="H25" s="243"/>
-      <c r="I25" s="243"/>
-      <c r="J25" s="244"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="199"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="200"/>
     </row>
     <row r="26" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A26" s="80">
@@ -11265,34 +11265,34 @@
       <c r="B26" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="242" t="s">
+      <c r="C26" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="243"/>
-      <c r="E26" s="243"/>
-      <c r="F26" s="243"/>
-      <c r="G26" s="243"/>
-      <c r="H26" s="243"/>
-      <c r="I26" s="243"/>
-      <c r="J26" s="244"/>
+      <c r="D26" s="199"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="199"/>
+      <c r="H26" s="199"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="200"/>
     </row>
     <row r="27" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A27" s="44">
         <v>3</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="C27" s="242" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="243"/>
-      <c r="E27" s="243"/>
-      <c r="F27" s="243"/>
-      <c r="G27" s="243"/>
-      <c r="H27" s="243"/>
-      <c r="I27" s="243"/>
-      <c r="J27" s="244"/>
+      <c r="D27" s="199"/>
+      <c r="E27" s="199"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="199"/>
+      <c r="H27" s="199"/>
+      <c r="I27" s="199"/>
+      <c r="J27" s="200"/>
     </row>
     <row r="28" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A28" s="44">
@@ -11301,16 +11301,16 @@
       <c r="B28" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="242" t="s">
+      <c r="C28" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="243"/>
-      <c r="E28" s="243"/>
-      <c r="F28" s="243"/>
-      <c r="G28" s="243"/>
-      <c r="H28" s="243"/>
-      <c r="I28" s="243"/>
-      <c r="J28" s="244"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="199"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="200"/>
     </row>
     <row r="29" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A29" s="118"/>
@@ -11325,18 +11325,18 @@
       <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:10" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A30" s="236" t="s">
-        <v>207</v>
-      </c>
-      <c r="B30" s="237"/>
-      <c r="C30" s="237"/>
-      <c r="D30" s="237"/>
-      <c r="E30" s="237"/>
-      <c r="F30" s="237"/>
-      <c r="G30" s="237"/>
-      <c r="H30" s="237"/>
-      <c r="I30" s="237"/>
-      <c r="J30" s="238"/>
+      <c r="A30" s="183" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30" s="213"/>
+      <c r="C30" s="213"/>
+      <c r="D30" s="213"/>
+      <c r="E30" s="213"/>
+      <c r="F30" s="213"/>
+      <c r="G30" s="213"/>
+      <c r="H30" s="213"/>
+      <c r="I30" s="213"/>
+      <c r="J30" s="214"/>
     </row>
     <row r="31" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A31" s="80">
@@ -11345,16 +11345,16 @@
       <c r="B31" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="242" t="s">
+      <c r="C31" s="215" t="s">
         <v>137</v>
       </c>
-      <c r="D31" s="243"/>
-      <c r="E31" s="243"/>
-      <c r="F31" s="243"/>
-      <c r="G31" s="243"/>
-      <c r="H31" s="243"/>
-      <c r="I31" s="243"/>
-      <c r="J31" s="244"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="199"/>
+      <c r="G31" s="199"/>
+      <c r="H31" s="199"/>
+      <c r="I31" s="199"/>
+      <c r="J31" s="200"/>
     </row>
     <row r="32" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A32" s="80">
@@ -11363,34 +11363,34 @@
       <c r="B32" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="242" t="s">
+      <c r="C32" s="215" t="s">
         <v>137</v>
       </c>
-      <c r="D32" s="243"/>
-      <c r="E32" s="243"/>
-      <c r="F32" s="243"/>
-      <c r="G32" s="243"/>
-      <c r="H32" s="243"/>
-      <c r="I32" s="243"/>
-      <c r="J32" s="244"/>
+      <c r="D32" s="199"/>
+      <c r="E32" s="199"/>
+      <c r="F32" s="199"/>
+      <c r="G32" s="199"/>
+      <c r="H32" s="199"/>
+      <c r="I32" s="199"/>
+      <c r="J32" s="200"/>
     </row>
     <row r="33" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A33" s="44">
         <v>3</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" s="215" t="s">
         <v>137</v>
       </c>
-      <c r="D33" s="243"/>
-      <c r="E33" s="243"/>
-      <c r="F33" s="243"/>
-      <c r="G33" s="243"/>
-      <c r="H33" s="243"/>
-      <c r="I33" s="243"/>
-      <c r="J33" s="244"/>
+      <c r="D33" s="199"/>
+      <c r="E33" s="199"/>
+      <c r="F33" s="199"/>
+      <c r="G33" s="199"/>
+      <c r="H33" s="199"/>
+      <c r="I33" s="199"/>
+      <c r="J33" s="200"/>
     </row>
     <row r="34" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A34" s="44">
@@ -11399,34 +11399,34 @@
       <c r="B34" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="242" t="s">
+      <c r="C34" s="215" t="s">
         <v>137</v>
       </c>
-      <c r="D34" s="243"/>
-      <c r="E34" s="243"/>
-      <c r="F34" s="243"/>
-      <c r="G34" s="243"/>
-      <c r="H34" s="243"/>
-      <c r="I34" s="243"/>
-      <c r="J34" s="244"/>
+      <c r="D34" s="199"/>
+      <c r="E34" s="199"/>
+      <c r="F34" s="199"/>
+      <c r="G34" s="199"/>
+      <c r="H34" s="199"/>
+      <c r="I34" s="199"/>
+      <c r="J34" s="200"/>
     </row>
     <row r="35" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A35" s="44">
         <v>5</v>
       </c>
       <c r="B35" s="96" t="s">
-        <v>210</v>
-      </c>
-      <c r="C35" s="242" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="243"/>
-      <c r="E35" s="243"/>
-      <c r="F35" s="243"/>
-      <c r="G35" s="243"/>
-      <c r="H35" s="243"/>
-      <c r="I35" s="243"/>
-      <c r="J35" s="244"/>
+      <c r="D35" s="199"/>
+      <c r="E35" s="199"/>
+      <c r="F35" s="199"/>
+      <c r="G35" s="199"/>
+      <c r="H35" s="199"/>
+      <c r="I35" s="199"/>
+      <c r="J35" s="200"/>
     </row>
     <row r="36" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A36" s="119"/>
@@ -11441,32 +11441,32 @@
       <c r="J36" s="100"/>
     </row>
     <row r="37" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A37" s="203" t="s">
+      <c r="A37" s="231" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="234"/>
-      <c r="C37" s="234"/>
-      <c r="D37" s="234"/>
-      <c r="E37" s="234"/>
-      <c r="F37" s="234"/>
-      <c r="G37" s="234"/>
-      <c r="H37" s="234"/>
-      <c r="I37" s="234"/>
-      <c r="J37" s="235"/>
+      <c r="B37" s="232"/>
+      <c r="C37" s="232"/>
+      <c r="D37" s="232"/>
+      <c r="E37" s="232"/>
+      <c r="F37" s="232"/>
+      <c r="G37" s="232"/>
+      <c r="H37" s="232"/>
+      <c r="I37" s="232"/>
+      <c r="J37" s="233"/>
     </row>
     <row r="38" spans="1:10" s="57" customFormat="1" ht="36" customHeight="1">
-      <c r="A38" s="236" t="s">
-        <v>196</v>
-      </c>
-      <c r="B38" s="237"/>
-      <c r="C38" s="237"/>
-      <c r="D38" s="237"/>
-      <c r="E38" s="237"/>
-      <c r="F38" s="237"/>
-      <c r="G38" s="237"/>
-      <c r="H38" s="237"/>
-      <c r="I38" s="237"/>
-      <c r="J38" s="238"/>
+      <c r="A38" s="183" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" s="213"/>
+      <c r="C38" s="213"/>
+      <c r="D38" s="213"/>
+      <c r="E38" s="213"/>
+      <c r="F38" s="213"/>
+      <c r="G38" s="213"/>
+      <c r="H38" s="213"/>
+      <c r="I38" s="213"/>
+      <c r="J38" s="214"/>
     </row>
     <row r="39" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A39" s="60" t="s">
@@ -11475,16 +11475,16 @@
       <c r="B39" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="239" t="s">
+      <c r="C39" s="195" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="240"/>
-      <c r="E39" s="240"/>
-      <c r="F39" s="240"/>
-      <c r="G39" s="240"/>
-      <c r="H39" s="240"/>
-      <c r="I39" s="240"/>
-      <c r="J39" s="241"/>
+      <c r="D39" s="196"/>
+      <c r="E39" s="196"/>
+      <c r="F39" s="196"/>
+      <c r="G39" s="196"/>
+      <c r="H39" s="196"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="197"/>
     </row>
     <row r="40" spans="1:10" s="57" customFormat="1">
       <c r="A40" s="60">
@@ -11493,16 +11493,16 @@
       <c r="B40" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="291" t="s">
-        <v>175</v>
-      </c>
-      <c r="D40" s="292"/>
-      <c r="E40" s="292"/>
-      <c r="F40" s="292"/>
-      <c r="G40" s="292"/>
-      <c r="H40" s="292"/>
-      <c r="I40" s="292"/>
-      <c r="J40" s="293"/>
+      <c r="C40" s="277" t="s">
+        <v>411</v>
+      </c>
+      <c r="D40" s="278"/>
+      <c r="E40" s="278"/>
+      <c r="F40" s="278"/>
+      <c r="G40" s="278"/>
+      <c r="H40" s="278"/>
+      <c r="I40" s="278"/>
+      <c r="J40" s="279"/>
     </row>
     <row r="41" spans="1:10" s="57" customFormat="1">
       <c r="A41" s="60">
@@ -11511,14 +11511,14 @@
       <c r="B41" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="294"/>
-      <c r="D41" s="295"/>
-      <c r="E41" s="295"/>
-      <c r="F41" s="295"/>
-      <c r="G41" s="295"/>
-      <c r="H41" s="295"/>
-      <c r="I41" s="295"/>
-      <c r="J41" s="296"/>
+      <c r="C41" s="280"/>
+      <c r="D41" s="281"/>
+      <c r="E41" s="281"/>
+      <c r="F41" s="281"/>
+      <c r="G41" s="281"/>
+      <c r="H41" s="281"/>
+      <c r="I41" s="281"/>
+      <c r="J41" s="282"/>
     </row>
     <row r="42" spans="1:10" s="57" customFormat="1">
       <c r="A42" s="60">
@@ -11527,14 +11527,14 @@
       <c r="B42" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="294"/>
-      <c r="D42" s="295"/>
-      <c r="E42" s="295"/>
-      <c r="F42" s="295"/>
-      <c r="G42" s="295"/>
-      <c r="H42" s="295"/>
-      <c r="I42" s="295"/>
-      <c r="J42" s="296"/>
+      <c r="C42" s="280"/>
+      <c r="D42" s="281"/>
+      <c r="E42" s="281"/>
+      <c r="F42" s="281"/>
+      <c r="G42" s="281"/>
+      <c r="H42" s="281"/>
+      <c r="I42" s="281"/>
+      <c r="J42" s="282"/>
     </row>
     <row r="43" spans="1:10" s="57" customFormat="1">
       <c r="A43" s="60">
@@ -11543,40 +11543,40 @@
       <c r="B43" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="297"/>
-      <c r="D43" s="298"/>
-      <c r="E43" s="298"/>
-      <c r="F43" s="298"/>
-      <c r="G43" s="298"/>
-      <c r="H43" s="298"/>
-      <c r="I43" s="298"/>
-      <c r="J43" s="299"/>
+      <c r="C43" s="283"/>
+      <c r="D43" s="284"/>
+      <c r="E43" s="284"/>
+      <c r="F43" s="284"/>
+      <c r="G43" s="284"/>
+      <c r="H43" s="284"/>
+      <c r="I43" s="284"/>
+      <c r="J43" s="285"/>
     </row>
     <row r="44" spans="1:10" s="57" customFormat="1">
-      <c r="A44" s="213"/>
-      <c r="B44" s="190"/>
-      <c r="C44" s="190"/>
-      <c r="D44" s="190"/>
-      <c r="E44" s="190"/>
-      <c r="F44" s="190"/>
-      <c r="G44" s="190"/>
-      <c r="H44" s="190"/>
-      <c r="I44" s="190"/>
-      <c r="J44" s="191"/>
+      <c r="A44" s="201"/>
+      <c r="B44" s="202"/>
+      <c r="C44" s="202"/>
+      <c r="D44" s="202"/>
+      <c r="E44" s="202"/>
+      <c r="F44" s="202"/>
+      <c r="G44" s="202"/>
+      <c r="H44" s="202"/>
+      <c r="I44" s="202"/>
+      <c r="J44" s="203"/>
     </row>
     <row r="45" spans="1:10" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A45" s="236" t="s">
-        <v>206</v>
-      </c>
-      <c r="B45" s="237"/>
-      <c r="C45" s="237"/>
-      <c r="D45" s="237"/>
-      <c r="E45" s="237"/>
-      <c r="F45" s="237"/>
-      <c r="G45" s="237"/>
-      <c r="H45" s="237"/>
-      <c r="I45" s="237"/>
-      <c r="J45" s="238"/>
+      <c r="A45" s="183" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" s="213"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="213"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="213"/>
+      <c r="H45" s="213"/>
+      <c r="I45" s="213"/>
+      <c r="J45" s="214"/>
     </row>
     <row r="46" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A46" s="80">
@@ -11585,16 +11585,16 @@
       <c r="B46" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="242" t="s">
+      <c r="C46" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="243"/>
-      <c r="E46" s="243"/>
-      <c r="F46" s="243"/>
-      <c r="G46" s="243"/>
-      <c r="H46" s="243"/>
-      <c r="I46" s="243"/>
-      <c r="J46" s="244"/>
+      <c r="D46" s="199"/>
+      <c r="E46" s="199"/>
+      <c r="F46" s="199"/>
+      <c r="G46" s="199"/>
+      <c r="H46" s="199"/>
+      <c r="I46" s="199"/>
+      <c r="J46" s="200"/>
     </row>
     <row r="47" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A47" s="80">
@@ -11603,34 +11603,34 @@
       <c r="B47" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="242" t="s">
+      <c r="C47" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="243"/>
-      <c r="E47" s="243"/>
-      <c r="F47" s="243"/>
-      <c r="G47" s="243"/>
-      <c r="H47" s="243"/>
-      <c r="I47" s="243"/>
-      <c r="J47" s="244"/>
+      <c r="D47" s="199"/>
+      <c r="E47" s="199"/>
+      <c r="F47" s="199"/>
+      <c r="G47" s="199"/>
+      <c r="H47" s="199"/>
+      <c r="I47" s="199"/>
+      <c r="J47" s="200"/>
     </row>
     <row r="48" spans="1:10" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A48" s="44">
         <v>3</v>
       </c>
       <c r="B48" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="C48" s="242" t="s">
+        <v>206</v>
+      </c>
+      <c r="C48" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="243"/>
-      <c r="E48" s="243"/>
-      <c r="F48" s="243"/>
-      <c r="G48" s="243"/>
-      <c r="H48" s="243"/>
-      <c r="I48" s="243"/>
-      <c r="J48" s="244"/>
+      <c r="D48" s="199"/>
+      <c r="E48" s="199"/>
+      <c r="F48" s="199"/>
+      <c r="G48" s="199"/>
+      <c r="H48" s="199"/>
+      <c r="I48" s="199"/>
+      <c r="J48" s="200"/>
     </row>
     <row r="49" spans="1:12" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A49" s="44">
@@ -11639,16 +11639,16 @@
       <c r="B49" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="242" t="s">
+      <c r="C49" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="243"/>
-      <c r="E49" s="243"/>
-      <c r="F49" s="243"/>
-      <c r="G49" s="243"/>
-      <c r="H49" s="243"/>
-      <c r="I49" s="243"/>
-      <c r="J49" s="244"/>
+      <c r="D49" s="199"/>
+      <c r="E49" s="199"/>
+      <c r="F49" s="199"/>
+      <c r="G49" s="199"/>
+      <c r="H49" s="199"/>
+      <c r="I49" s="199"/>
+      <c r="J49" s="200"/>
     </row>
     <row r="50" spans="1:12" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A50" s="118"/>
@@ -11663,18 +11663,18 @@
       <c r="J50" s="102"/>
     </row>
     <row r="51" spans="1:12" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A51" s="236" t="s">
-        <v>207</v>
-      </c>
-      <c r="B51" s="237"/>
-      <c r="C51" s="237"/>
-      <c r="D51" s="237"/>
-      <c r="E51" s="237"/>
-      <c r="F51" s="237"/>
-      <c r="G51" s="237"/>
-      <c r="H51" s="237"/>
-      <c r="I51" s="237"/>
-      <c r="J51" s="238"/>
+      <c r="A51" s="183" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" s="213"/>
+      <c r="C51" s="213"/>
+      <c r="D51" s="213"/>
+      <c r="E51" s="213"/>
+      <c r="F51" s="213"/>
+      <c r="G51" s="213"/>
+      <c r="H51" s="213"/>
+      <c r="I51" s="213"/>
+      <c r="J51" s="214"/>
     </row>
     <row r="52" spans="1:12" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A52" s="80">
@@ -11683,16 +11683,16 @@
       <c r="B52" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="242" t="s">
+      <c r="C52" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="D52" s="243"/>
-      <c r="E52" s="243"/>
-      <c r="F52" s="243"/>
-      <c r="G52" s="243"/>
-      <c r="H52" s="243"/>
-      <c r="I52" s="243"/>
-      <c r="J52" s="244"/>
+      <c r="D52" s="199"/>
+      <c r="E52" s="199"/>
+      <c r="F52" s="199"/>
+      <c r="G52" s="199"/>
+      <c r="H52" s="199"/>
+      <c r="I52" s="199"/>
+      <c r="J52" s="200"/>
     </row>
     <row r="53" spans="1:12" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A53" s="80">
@@ -11701,34 +11701,34 @@
       <c r="B53" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C53" s="242" t="s">
+      <c r="C53" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="243"/>
-      <c r="E53" s="243"/>
-      <c r="F53" s="243"/>
-      <c r="G53" s="243"/>
-      <c r="H53" s="243"/>
-      <c r="I53" s="243"/>
-      <c r="J53" s="244"/>
+      <c r="D53" s="199"/>
+      <c r="E53" s="199"/>
+      <c r="F53" s="199"/>
+      <c r="G53" s="199"/>
+      <c r="H53" s="199"/>
+      <c r="I53" s="199"/>
+      <c r="J53" s="200"/>
     </row>
     <row r="54" spans="1:12" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A54" s="44">
         <v>3</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="C54" s="242" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="D54" s="243"/>
-      <c r="E54" s="243"/>
-      <c r="F54" s="243"/>
-      <c r="G54" s="243"/>
-      <c r="H54" s="243"/>
-      <c r="I54" s="243"/>
-      <c r="J54" s="244"/>
+      <c r="D54" s="199"/>
+      <c r="E54" s="199"/>
+      <c r="F54" s="199"/>
+      <c r="G54" s="199"/>
+      <c r="H54" s="199"/>
+      <c r="I54" s="199"/>
+      <c r="J54" s="200"/>
     </row>
     <row r="55" spans="1:12" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A55" s="44">
@@ -11737,34 +11737,34 @@
       <c r="B55" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="242" t="s">
+      <c r="C55" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="243"/>
-      <c r="E55" s="243"/>
-      <c r="F55" s="243"/>
-      <c r="G55" s="243"/>
-      <c r="H55" s="243"/>
-      <c r="I55" s="243"/>
-      <c r="J55" s="244"/>
+      <c r="D55" s="199"/>
+      <c r="E55" s="199"/>
+      <c r="F55" s="199"/>
+      <c r="G55" s="199"/>
+      <c r="H55" s="199"/>
+      <c r="I55" s="199"/>
+      <c r="J55" s="200"/>
     </row>
     <row r="56" spans="1:12" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A56" s="44">
         <v>5</v>
       </c>
       <c r="B56" s="96" t="s">
-        <v>210</v>
-      </c>
-      <c r="C56" s="242" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="D56" s="243"/>
-      <c r="E56" s="243"/>
-      <c r="F56" s="243"/>
-      <c r="G56" s="243"/>
-      <c r="H56" s="243"/>
-      <c r="I56" s="243"/>
-      <c r="J56" s="244"/>
+      <c r="D56" s="199"/>
+      <c r="E56" s="199"/>
+      <c r="F56" s="199"/>
+      <c r="G56" s="199"/>
+      <c r="H56" s="199"/>
+      <c r="I56" s="199"/>
+      <c r="J56" s="200"/>
     </row>
     <row r="57" spans="1:12" s="57" customFormat="1" ht="22.5" customHeight="1">
       <c r="A57" s="119"/>
@@ -11779,192 +11779,192 @@
       <c r="J57" s="117"/>
     </row>
     <row r="58" spans="1:12" s="57" customFormat="1">
-      <c r="A58" s="257" t="s">
-        <v>289</v>
-      </c>
-      <c r="B58" s="258"/>
-      <c r="C58" s="258"/>
-      <c r="D58" s="258"/>
-      <c r="E58" s="258"/>
-      <c r="F58" s="258"/>
-      <c r="G58" s="258"/>
-      <c r="H58" s="258"/>
-      <c r="I58" s="258"/>
-      <c r="J58" s="259"/>
+      <c r="A58" s="180" t="s">
+        <v>285</v>
+      </c>
+      <c r="B58" s="181"/>
+      <c r="C58" s="181"/>
+      <c r="D58" s="181"/>
+      <c r="E58" s="181"/>
+      <c r="F58" s="181"/>
+      <c r="G58" s="181"/>
+      <c r="H58" s="181"/>
+      <c r="I58" s="181"/>
+      <c r="J58" s="182"/>
     </row>
     <row r="59" spans="1:12" s="57" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A59" s="236" t="s">
-        <v>290</v>
-      </c>
-      <c r="B59" s="245"/>
-      <c r="C59" s="245"/>
-      <c r="D59" s="245"/>
-      <c r="E59" s="245"/>
-      <c r="F59" s="245"/>
-      <c r="G59" s="245"/>
-      <c r="H59" s="245"/>
-      <c r="I59" s="245"/>
-      <c r="J59" s="246"/>
+      <c r="A59" s="183" t="s">
+        <v>286</v>
+      </c>
+      <c r="B59" s="184"/>
+      <c r="C59" s="184"/>
+      <c r="D59" s="184"/>
+      <c r="E59" s="184"/>
+      <c r="F59" s="184"/>
+      <c r="G59" s="184"/>
+      <c r="H59" s="184"/>
+      <c r="I59" s="184"/>
+      <c r="J59" s="185"/>
     </row>
     <row r="60" spans="1:12" s="57" customFormat="1" ht="15.75" customHeight="1">
       <c r="A60" s="60"/>
       <c r="B60" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="C60" s="125" t="s">
+        <v>288</v>
+      </c>
+      <c r="D60" s="125" t="s">
+        <v>289</v>
+      </c>
+      <c r="E60" s="125" t="s">
+        <v>290</v>
+      </c>
+      <c r="F60" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="C60" s="125" t="s">
-        <v>292</v>
-      </c>
-      <c r="D60" s="125" t="s">
-        <v>293</v>
-      </c>
-      <c r="E60" s="125" t="s">
-        <v>294</v>
-      </c>
-      <c r="F60" s="260" t="s">
-        <v>295</v>
-      </c>
-      <c r="G60" s="261"/>
-      <c r="H60" s="261"/>
-      <c r="I60" s="261"/>
-      <c r="J60" s="262"/>
+      <c r="G60" s="187"/>
+      <c r="H60" s="187"/>
+      <c r="I60" s="187"/>
+      <c r="J60" s="188"/>
     </row>
     <row r="61" spans="1:12" s="76" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="60">
         <v>1</v>
       </c>
       <c r="B61" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="C61" s="126" t="s">
+        <v>293</v>
+      </c>
+      <c r="D61" s="126" t="s">
+        <v>294</v>
+      </c>
+      <c r="E61" s="126" t="s">
+        <v>295</v>
+      </c>
+      <c r="F61" s="189" t="s">
         <v>296</v>
       </c>
-      <c r="C61" s="126" t="s">
-        <v>297</v>
-      </c>
-      <c r="D61" s="126" t="s">
-        <v>298</v>
-      </c>
-      <c r="E61" s="126" t="s">
-        <v>299</v>
-      </c>
-      <c r="F61" s="200" t="s">
-        <v>300</v>
-      </c>
-      <c r="G61" s="201"/>
-      <c r="H61" s="201"/>
-      <c r="I61" s="201"/>
-      <c r="J61" s="202"/>
+      <c r="G61" s="190"/>
+      <c r="H61" s="190"/>
+      <c r="I61" s="190"/>
+      <c r="J61" s="191"/>
       <c r="K61" s="57"/>
       <c r="L61" s="57"/>
     </row>
     <row r="62" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="214"/>
-      <c r="B62" s="263"/>
-      <c r="C62" s="263"/>
-      <c r="D62" s="263"/>
-      <c r="E62" s="263"/>
-      <c r="F62" s="263"/>
-      <c r="G62" s="263"/>
-      <c r="H62" s="263"/>
-      <c r="I62" s="263"/>
-      <c r="J62" s="264"/>
+      <c r="A62" s="192"/>
+      <c r="B62" s="193"/>
+      <c r="C62" s="193"/>
+      <c r="D62" s="193"/>
+      <c r="E62" s="193"/>
+      <c r="F62" s="193"/>
+      <c r="G62" s="193"/>
+      <c r="H62" s="193"/>
+      <c r="I62" s="193"/>
+      <c r="J62" s="194"/>
     </row>
     <row r="63" spans="1:12" s="57" customFormat="1">
-      <c r="A63" s="257" t="s">
-        <v>301</v>
-      </c>
-      <c r="B63" s="258"/>
-      <c r="C63" s="258"/>
-      <c r="D63" s="258"/>
-      <c r="E63" s="258"/>
-      <c r="F63" s="258"/>
-      <c r="G63" s="258"/>
-      <c r="H63" s="258"/>
-      <c r="I63" s="258"/>
-      <c r="J63" s="259"/>
+      <c r="A63" s="180" t="s">
+        <v>297</v>
+      </c>
+      <c r="B63" s="181"/>
+      <c r="C63" s="181"/>
+      <c r="D63" s="181"/>
+      <c r="E63" s="181"/>
+      <c r="F63" s="181"/>
+      <c r="G63" s="181"/>
+      <c r="H63" s="181"/>
+      <c r="I63" s="181"/>
+      <c r="J63" s="182"/>
     </row>
     <row r="64" spans="1:12" s="59" customFormat="1">
-      <c r="A64" s="236" t="s">
-        <v>302</v>
-      </c>
-      <c r="B64" s="245"/>
-      <c r="C64" s="245"/>
-      <c r="D64" s="245"/>
-      <c r="E64" s="245"/>
-      <c r="F64" s="245"/>
-      <c r="G64" s="245"/>
-      <c r="H64" s="245"/>
-      <c r="I64" s="245"/>
-      <c r="J64" s="246"/>
+      <c r="A64" s="183" t="s">
+        <v>298</v>
+      </c>
+      <c r="B64" s="184"/>
+      <c r="C64" s="184"/>
+      <c r="D64" s="184"/>
+      <c r="E64" s="184"/>
+      <c r="F64" s="184"/>
+      <c r="G64" s="184"/>
+      <c r="H64" s="184"/>
+      <c r="I64" s="184"/>
+      <c r="J64" s="185"/>
     </row>
     <row r="65" spans="1:12" s="59" customFormat="1">
       <c r="A65" s="60"/>
       <c r="B65" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="C65" s="125" t="s">
+        <v>288</v>
+      </c>
+      <c r="D65" s="125" t="s">
+        <v>289</v>
+      </c>
+      <c r="E65" s="125" t="s">
+        <v>290</v>
+      </c>
+      <c r="F65" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="C65" s="125" t="s">
-        <v>292</v>
-      </c>
-      <c r="D65" s="125" t="s">
-        <v>293</v>
-      </c>
-      <c r="E65" s="125" t="s">
-        <v>294</v>
-      </c>
-      <c r="F65" s="260" t="s">
-        <v>295</v>
-      </c>
-      <c r="G65" s="261"/>
-      <c r="H65" s="261"/>
-      <c r="I65" s="261"/>
-      <c r="J65" s="262"/>
+      <c r="G65" s="187"/>
+      <c r="H65" s="187"/>
+      <c r="I65" s="187"/>
+      <c r="J65" s="188"/>
     </row>
     <row r="66" spans="1:12" s="59" customFormat="1">
       <c r="A66" s="60">
         <v>1</v>
       </c>
       <c r="B66" s="60" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C66" s="126" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D66" s="126" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E66" s="126" t="s">
-        <v>299</v>
-      </c>
-      <c r="F66" s="200" t="s">
-        <v>304</v>
-      </c>
-      <c r="G66" s="201"/>
-      <c r="H66" s="201"/>
-      <c r="I66" s="201"/>
-      <c r="J66" s="202"/>
+        <v>295</v>
+      </c>
+      <c r="F66" s="189" t="s">
+        <v>300</v>
+      </c>
+      <c r="G66" s="190"/>
+      <c r="H66" s="190"/>
+      <c r="I66" s="190"/>
+      <c r="J66" s="191"/>
     </row>
     <row r="67" spans="1:12" s="57" customFormat="1">
-      <c r="A67" s="222"/>
-      <c r="B67" s="300"/>
-      <c r="C67" s="300"/>
-      <c r="D67" s="300"/>
-      <c r="E67" s="300"/>
-      <c r="F67" s="300"/>
-      <c r="G67" s="300"/>
-      <c r="H67" s="300"/>
-      <c r="I67" s="300"/>
-      <c r="J67" s="301"/>
+      <c r="A67" s="219"/>
+      <c r="B67" s="271"/>
+      <c r="C67" s="271"/>
+      <c r="D67" s="271"/>
+      <c r="E67" s="271"/>
+      <c r="F67" s="271"/>
+      <c r="G67" s="271"/>
+      <c r="H67" s="271"/>
+      <c r="I67" s="271"/>
+      <c r="J67" s="272"/>
     </row>
     <row r="68" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A68" s="203" t="s">
+      <c r="A68" s="231" t="s">
         <v>29</v>
       </c>
-      <c r="B68" s="234"/>
-      <c r="C68" s="234"/>
-      <c r="D68" s="234"/>
-      <c r="E68" s="234"/>
-      <c r="F68" s="234"/>
-      <c r="G68" s="234"/>
-      <c r="H68" s="234"/>
-      <c r="I68" s="234"/>
-      <c r="J68" s="235"/>
+      <c r="B68" s="232"/>
+      <c r="C68" s="232"/>
+      <c r="D68" s="232"/>
+      <c r="E68" s="232"/>
+      <c r="F68" s="232"/>
+      <c r="G68" s="232"/>
+      <c r="H68" s="232"/>
+      <c r="I68" s="232"/>
+      <c r="J68" s="233"/>
       <c r="K68" s="57"/>
       <c r="L68" s="57"/>
     </row>
@@ -11981,28 +11981,28 @@
       <c r="D69" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E69" s="206" t="s">
+      <c r="E69" s="246" t="s">
         <v>34</v>
       </c>
-      <c r="F69" s="207"/>
-      <c r="G69" s="207"/>
-      <c r="H69" s="207"/>
-      <c r="I69" s="207"/>
-      <c r="J69" s="207"/>
+      <c r="F69" s="247"/>
+      <c r="G69" s="247"/>
+      <c r="H69" s="247"/>
+      <c r="I69" s="247"/>
+      <c r="J69" s="247"/>
     </row>
     <row r="70" spans="1:12" s="57" customFormat="1" ht="107.25" customHeight="1">
-      <c r="A70" s="183">
+      <c r="A70" s="248">
         <v>1</v>
       </c>
-      <c r="B70" s="183" t="s">
-        <v>305</v>
+      <c r="B70" s="248" t="s">
+        <v>301</v>
       </c>
       <c r="C70" s="64" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D70" s="135"/>
-      <c r="E70" s="283" t="s">
-        <v>307</v>
+      <c r="E70" s="268" t="s">
+        <v>303</v>
       </c>
       <c r="F70" s="287"/>
       <c r="G70" s="287"/>
@@ -12010,149 +12010,149 @@
       <c r="I70" s="287"/>
       <c r="J70" s="287"/>
     </row>
-    <row r="71" spans="1:12" s="57" customFormat="1" ht="54.75" customHeight="1">
+    <row r="71" spans="1:12" s="57" customFormat="1" ht="90" customHeight="1">
       <c r="A71" s="286"/>
       <c r="B71" s="286"/>
       <c r="C71" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="D71" s="136" t="s">
+        <v>282</v>
+      </c>
+      <c r="E71" s="258" t="s">
+        <v>305</v>
+      </c>
+      <c r="F71" s="174"/>
+      <c r="G71" s="174"/>
+      <c r="H71" s="174"/>
+      <c r="I71" s="174"/>
+      <c r="J71" s="174"/>
+    </row>
+    <row r="72" spans="1:12" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A72" s="255" t="s">
+        <v>306</v>
+      </c>
+      <c r="B72" s="256"/>
+      <c r="C72" s="256"/>
+      <c r="D72" s="256"/>
+      <c r="E72" s="256"/>
+      <c r="F72" s="256"/>
+      <c r="G72" s="256"/>
+      <c r="H72" s="256"/>
+      <c r="I72" s="256"/>
+      <c r="J72" s="257"/>
+    </row>
+    <row r="73" spans="1:12" s="57" customFormat="1" ht="112.5" customHeight="1">
+      <c r="A73" s="288">
+        <v>1</v>
+      </c>
+      <c r="B73" s="259" t="s">
+        <v>307</v>
+      </c>
+      <c r="C73" s="114" t="s">
         <v>308</v>
       </c>
-      <c r="D71" s="136" t="s">
-        <v>286</v>
-      </c>
-      <c r="E71" s="195" t="s">
+      <c r="D73" s="112"/>
+      <c r="E73" s="268" t="s">
+        <v>415</v>
+      </c>
+      <c r="F73" s="269"/>
+      <c r="G73" s="269"/>
+      <c r="H73" s="269"/>
+      <c r="I73" s="269"/>
+      <c r="J73" s="270"/>
+    </row>
+    <row r="74" spans="1:12" s="59" customFormat="1">
+      <c r="A74" s="249"/>
+      <c r="B74" s="261"/>
+      <c r="C74" s="114" t="s">
         <v>309</v>
       </c>
-      <c r="F71" s="161"/>
-      <c r="G71" s="161"/>
-      <c r="H71" s="161"/>
-      <c r="I71" s="161"/>
-      <c r="J71" s="161"/>
-    </row>
-    <row r="72" spans="1:12" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A72" s="192" t="s">
+      <c r="D74" s="112" t="s">
         <v>310</v>
       </c>
-      <c r="B72" s="193"/>
-      <c r="C72" s="193"/>
-      <c r="D72" s="193"/>
-      <c r="E72" s="193"/>
-      <c r="F72" s="193"/>
-      <c r="G72" s="193"/>
-      <c r="H72" s="193"/>
-      <c r="I72" s="193"/>
-      <c r="J72" s="194"/>
-    </row>
-    <row r="73" spans="1:12" s="57" customFormat="1" ht="112.5" customHeight="1">
-      <c r="A73" s="268">
-        <v>1</v>
-      </c>
-      <c r="B73" s="185" t="s">
+      <c r="E74" s="234" t="s">
         <v>311</v>
       </c>
-      <c r="C73" s="114" t="s">
+      <c r="F74" s="289"/>
+      <c r="G74" s="289"/>
+      <c r="H74" s="289"/>
+      <c r="I74" s="289"/>
+      <c r="J74" s="290"/>
+    </row>
+    <row r="75" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A75" s="291">
+        <v>2</v>
+      </c>
+      <c r="B75" s="293" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="130" t="s">
         <v>312</v>
       </c>
-      <c r="D73" s="112"/>
-      <c r="E73" s="283" t="s">
+      <c r="D75" s="112"/>
+      <c r="E75" s="234" t="s">
         <v>313</v>
       </c>
-      <c r="F73" s="284"/>
-      <c r="G73" s="284"/>
-      <c r="H73" s="284"/>
-      <c r="I73" s="284"/>
-      <c r="J73" s="285"/>
-    </row>
-    <row r="74" spans="1:12" s="59" customFormat="1">
-      <c r="A74" s="184"/>
-      <c r="B74" s="186"/>
-      <c r="C74" s="114" t="s">
+      <c r="F75" s="235"/>
+      <c r="G75" s="235"/>
+      <c r="H75" s="235"/>
+      <c r="I75" s="235"/>
+      <c r="J75" s="236"/>
+    </row>
+    <row r="76" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A76" s="292"/>
+      <c r="B76" s="260"/>
+      <c r="C76" s="137" t="s">
+        <v>308</v>
+      </c>
+      <c r="D76" s="138"/>
+      <c r="E76" s="294" t="s">
         <v>314</v>
       </c>
-      <c r="D74" s="112" t="s">
+      <c r="F76" s="295"/>
+      <c r="G76" s="295"/>
+      <c r="H76" s="295"/>
+      <c r="I76" s="295"/>
+      <c r="J76" s="296"/>
+    </row>
+    <row r="77" spans="1:12" s="59" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A77" s="249"/>
+      <c r="B77" s="261"/>
+      <c r="C77" s="139" t="s">
         <v>315</v>
       </c>
-      <c r="E74" s="187" t="s">
+      <c r="D77" s="138" t="s">
         <v>316</v>
       </c>
-      <c r="F74" s="273"/>
-      <c r="G74" s="273"/>
-      <c r="H74" s="273"/>
-      <c r="I74" s="273"/>
-      <c r="J74" s="274"/>
-    </row>
-    <row r="75" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A75" s="275">
-        <v>2</v>
-      </c>
-      <c r="B75" s="276" t="s">
-        <v>91</v>
-      </c>
-      <c r="C75" s="130" t="s">
+      <c r="E77" s="297" t="s">
         <v>317</v>
       </c>
-      <c r="D75" s="112"/>
-      <c r="E75" s="187" t="s">
-        <v>318</v>
-      </c>
-      <c r="F75" s="188"/>
-      <c r="G75" s="188"/>
-      <c r="H75" s="188"/>
-      <c r="I75" s="188"/>
-      <c r="J75" s="189"/>
-    </row>
-    <row r="76" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A76" s="269"/>
-      <c r="B76" s="196"/>
-      <c r="C76" s="137" t="s">
-        <v>312</v>
-      </c>
-      <c r="D76" s="138"/>
-      <c r="E76" s="277" t="s">
-        <v>319</v>
-      </c>
-      <c r="F76" s="278"/>
-      <c r="G76" s="278"/>
-      <c r="H76" s="278"/>
-      <c r="I76" s="278"/>
-      <c r="J76" s="279"/>
-    </row>
-    <row r="77" spans="1:12" s="59" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A77" s="184"/>
-      <c r="B77" s="186"/>
-      <c r="C77" s="139" t="s">
-        <v>320</v>
-      </c>
-      <c r="D77" s="138" t="s">
-        <v>321</v>
-      </c>
-      <c r="E77" s="280" t="s">
-        <v>322</v>
-      </c>
-      <c r="F77" s="281"/>
-      <c r="G77" s="281"/>
-      <c r="H77" s="281"/>
-      <c r="I77" s="281"/>
-      <c r="J77" s="282"/>
+      <c r="F77" s="298"/>
+      <c r="G77" s="298"/>
+      <c r="H77" s="298"/>
+      <c r="I77" s="298"/>
+      <c r="J77" s="299"/>
     </row>
     <row r="78" spans="1:12" s="57" customFormat="1" ht="103.5" customHeight="1">
       <c r="A78" s="68">
         <v>3</v>
       </c>
       <c r="B78" s="94" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C78" s="114" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="108"/>
-      <c r="E78" s="187" t="s">
-        <v>323</v>
-      </c>
-      <c r="F78" s="165"/>
-      <c r="G78" s="165"/>
-      <c r="H78" s="165"/>
-      <c r="I78" s="165"/>
-      <c r="J78" s="166"/>
+      <c r="E78" s="234" t="s">
+        <v>318</v>
+      </c>
+      <c r="F78" s="166"/>
+      <c r="G78" s="166"/>
+      <c r="H78" s="166"/>
+      <c r="I78" s="166"/>
+      <c r="J78" s="167"/>
     </row>
     <row r="79" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A79" s="140"/>
@@ -12167,148 +12167,148 @@
       <c r="J79" s="106"/>
     </row>
     <row r="80" spans="1:12" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A80" s="192" t="s">
+      <c r="A80" s="255" t="s">
+        <v>320</v>
+      </c>
+      <c r="B80" s="256"/>
+      <c r="C80" s="256"/>
+      <c r="D80" s="256"/>
+      <c r="E80" s="256"/>
+      <c r="F80" s="256"/>
+      <c r="G80" s="256"/>
+      <c r="H80" s="256"/>
+      <c r="I80" s="256"/>
+      <c r="J80" s="257"/>
+    </row>
+    <row r="81" spans="1:10" s="57" customFormat="1" ht="137.25" customHeight="1">
+      <c r="A81" s="248">
+        <v>1</v>
+      </c>
+      <c r="B81" s="259" t="s">
+        <v>321</v>
+      </c>
+      <c r="C81" s="114" t="s">
+        <v>277</v>
+      </c>
+      <c r="D81" s="111"/>
+      <c r="E81" s="268" t="s">
+        <v>414</v>
+      </c>
+      <c r="F81" s="269"/>
+      <c r="G81" s="269"/>
+      <c r="H81" s="269"/>
+      <c r="I81" s="269"/>
+      <c r="J81" s="270"/>
+    </row>
+    <row r="82" spans="1:10" ht="81" customHeight="1">
+      <c r="A82" s="292"/>
+      <c r="B82" s="260"/>
+      <c r="C82" s="130" t="s">
+        <v>322</v>
+      </c>
+      <c r="D82" s="142" t="s">
+        <v>282</v>
+      </c>
+      <c r="E82" s="234" t="s">
+        <v>323</v>
+      </c>
+      <c r="F82" s="289"/>
+      <c r="G82" s="289"/>
+      <c r="H82" s="289"/>
+      <c r="I82" s="289"/>
+      <c r="J82" s="290"/>
+    </row>
+    <row r="83" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A83" s="288">
+        <v>2</v>
+      </c>
+      <c r="B83" s="259" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" s="130" t="s">
+        <v>312</v>
+      </c>
+      <c r="D83" s="112"/>
+      <c r="E83" s="234" t="s">
+        <v>313</v>
+      </c>
+      <c r="F83" s="235"/>
+      <c r="G83" s="235"/>
+      <c r="H83" s="235"/>
+      <c r="I83" s="235"/>
+      <c r="J83" s="236"/>
+    </row>
+    <row r="84" spans="1:10" ht="65.25" customHeight="1">
+      <c r="A84" s="292"/>
+      <c r="B84" s="260"/>
+      <c r="C84" s="114" t="s">
+        <v>324</v>
+      </c>
+      <c r="D84" s="112"/>
+      <c r="E84" s="262" t="s">
+        <v>413</v>
+      </c>
+      <c r="F84" s="263"/>
+      <c r="G84" s="263"/>
+      <c r="H84" s="263"/>
+      <c r="I84" s="263"/>
+      <c r="J84" s="264"/>
+    </row>
+    <row r="85" spans="1:10" ht="87" customHeight="1">
+      <c r="A85" s="249"/>
+      <c r="B85" s="261"/>
+      <c r="C85" s="130" t="s">
         <v>325</v>
       </c>
-      <c r="B80" s="193"/>
-      <c r="C80" s="193"/>
-      <c r="D80" s="193"/>
-      <c r="E80" s="193"/>
-      <c r="F80" s="193"/>
-      <c r="G80" s="193"/>
-      <c r="H80" s="193"/>
-      <c r="I80" s="193"/>
-      <c r="J80" s="194"/>
-    </row>
-    <row r="81" spans="1:10" s="57" customFormat="1" ht="137.25" customHeight="1">
-      <c r="A81" s="183">
-        <v>1</v>
-      </c>
-      <c r="B81" s="185" t="s">
+      <c r="D85" s="112" t="s">
         <v>326</v>
       </c>
-      <c r="C81" s="114" t="s">
-        <v>281</v>
-      </c>
-      <c r="D81" s="111"/>
-      <c r="E81" s="283" t="s">
+      <c r="E85" s="262" t="s">
+        <v>412</v>
+      </c>
+      <c r="F85" s="263"/>
+      <c r="G85" s="263"/>
+      <c r="H85" s="263"/>
+      <c r="I85" s="263"/>
+      <c r="J85" s="264"/>
+    </row>
+    <row r="86" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A86" s="300">
+        <v>3</v>
+      </c>
+      <c r="B86" s="259" t="s">
         <v>327</v>
       </c>
-      <c r="F81" s="284"/>
-      <c r="G81" s="284"/>
-      <c r="H81" s="284"/>
-      <c r="I81" s="284"/>
-      <c r="J81" s="285"/>
-    </row>
-    <row r="82" spans="1:10" ht="81" customHeight="1">
-      <c r="A82" s="269"/>
-      <c r="B82" s="196"/>
-      <c r="C82" s="130" t="s">
+      <c r="C86" s="139" t="s">
         <v>328</v>
       </c>
-      <c r="D82" s="142" t="s">
-        <v>286</v>
-      </c>
-      <c r="E82" s="187" t="s">
+      <c r="D86" s="143"/>
+      <c r="E86" s="303" t="s">
         <v>329</v>
       </c>
-      <c r="F82" s="273"/>
-      <c r="G82" s="273"/>
-      <c r="H82" s="273"/>
-      <c r="I82" s="273"/>
-      <c r="J82" s="274"/>
-    </row>
-    <row r="83" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A83" s="268">
-        <v>2</v>
-      </c>
-      <c r="B83" s="185" t="s">
-        <v>94</v>
-      </c>
-      <c r="C83" s="130" t="s">
-        <v>317</v>
-      </c>
-      <c r="D83" s="112"/>
-      <c r="E83" s="187" t="s">
-        <v>318</v>
-      </c>
-      <c r="F83" s="188"/>
-      <c r="G83" s="188"/>
-      <c r="H83" s="188"/>
-      <c r="I83" s="188"/>
-      <c r="J83" s="189"/>
-    </row>
-    <row r="84" spans="1:10" ht="65.25" customHeight="1">
-      <c r="A84" s="269"/>
-      <c r="B84" s="196"/>
-      <c r="C84" s="114" t="s">
+      <c r="F86" s="304"/>
+      <c r="G86" s="304"/>
+      <c r="H86" s="304"/>
+      <c r="I86" s="304"/>
+      <c r="J86" s="305"/>
+    </row>
+    <row r="87" spans="1:10" ht="79.5" customHeight="1">
+      <c r="A87" s="301"/>
+      <c r="B87" s="302"/>
+      <c r="C87" s="130" t="s">
         <v>330</v>
       </c>
-      <c r="D84" s="112"/>
-      <c r="E84" s="197" t="s">
+      <c r="D87" s="144" t="s">
         <v>331</v>
       </c>
-      <c r="F84" s="198"/>
-      <c r="G84" s="198"/>
-      <c r="H84" s="198"/>
-      <c r="I84" s="198"/>
-      <c r="J84" s="199"/>
-    </row>
-    <row r="85" spans="1:10" ht="87" customHeight="1">
-      <c r="A85" s="184"/>
-      <c r="B85" s="186"/>
-      <c r="C85" s="130" t="s">
+      <c r="E87" s="303" t="s">
         <v>332</v>
       </c>
-      <c r="D85" s="112" t="s">
-        <v>333</v>
-      </c>
-      <c r="E85" s="197" t="s">
-        <v>334</v>
-      </c>
-      <c r="F85" s="198"/>
-      <c r="G85" s="198"/>
-      <c r="H85" s="198"/>
-      <c r="I85" s="198"/>
-      <c r="J85" s="199"/>
-    </row>
-    <row r="86" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A86" s="270">
-        <v>3</v>
-      </c>
-      <c r="B86" s="185" t="s">
-        <v>335</v>
-      </c>
-      <c r="C86" s="139" t="s">
-        <v>336</v>
-      </c>
-      <c r="D86" s="143"/>
-      <c r="E86" s="288" t="s">
-        <v>337</v>
-      </c>
-      <c r="F86" s="289"/>
-      <c r="G86" s="289"/>
-      <c r="H86" s="289"/>
-      <c r="I86" s="289"/>
-      <c r="J86" s="290"/>
-    </row>
-    <row r="87" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A87" s="271"/>
-      <c r="B87" s="272"/>
-      <c r="C87" s="130" t="s">
-        <v>338</v>
-      </c>
-      <c r="D87" s="144" t="s">
-        <v>339</v>
-      </c>
-      <c r="E87" s="288" t="s">
-        <v>340</v>
-      </c>
-      <c r="F87" s="289"/>
-      <c r="G87" s="289"/>
-      <c r="H87" s="289"/>
-      <c r="I87" s="289"/>
-      <c r="J87" s="290"/>
+      <c r="F87" s="304"/>
+      <c r="G87" s="304"/>
+      <c r="H87" s="304"/>
+      <c r="I87" s="304"/>
+      <c r="J87" s="305"/>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1">
       <c r="A88" s="145"/>
@@ -12323,96 +12323,96 @@
       <c r="J88" s="151"/>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A89" s="216" t="s">
+      <c r="A89" s="241" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="217"/>
-      <c r="C89" s="217"/>
-      <c r="D89" s="217"/>
-      <c r="E89" s="217"/>
-      <c r="F89" s="217"/>
-      <c r="G89" s="217"/>
-      <c r="H89" s="217"/>
-      <c r="I89" s="217"/>
-      <c r="J89" s="218"/>
+      <c r="B89" s="242"/>
+      <c r="C89" s="242"/>
+      <c r="D89" s="242"/>
+      <c r="E89" s="242"/>
+      <c r="F89" s="242"/>
+      <c r="G89" s="242"/>
+      <c r="H89" s="242"/>
+      <c r="I89" s="242"/>
+      <c r="J89" s="243"/>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1">
       <c r="A90" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B90" s="214" t="s">
+      <c r="B90" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="215"/>
-      <c r="D90" s="187" t="s">
+      <c r="C90" s="240"/>
+      <c r="D90" s="234" t="s">
         <v>8</v>
       </c>
-      <c r="E90" s="165"/>
-      <c r="F90" s="165"/>
-      <c r="G90" s="165"/>
-      <c r="H90" s="165"/>
-      <c r="I90" s="165"/>
-      <c r="J90" s="166"/>
+      <c r="E90" s="166"/>
+      <c r="F90" s="166"/>
+      <c r="G90" s="166"/>
+      <c r="H90" s="166"/>
+      <c r="I90" s="166"/>
+      <c r="J90" s="167"/>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A91" s="180"/>
-      <c r="B91" s="304"/>
-      <c r="C91" s="304"/>
-      <c r="D91" s="304"/>
-      <c r="E91" s="304"/>
-      <c r="F91" s="304"/>
-      <c r="G91" s="304"/>
-      <c r="H91" s="304"/>
-      <c r="I91" s="304"/>
-      <c r="J91" s="305"/>
+      <c r="A91" s="237"/>
+      <c r="B91" s="273"/>
+      <c r="C91" s="273"/>
+      <c r="D91" s="273"/>
+      <c r="E91" s="273"/>
+      <c r="F91" s="273"/>
+      <c r="G91" s="273"/>
+      <c r="H91" s="273"/>
+      <c r="I91" s="273"/>
+      <c r="J91" s="274"/>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1">
       <c r="A92" s="68"/>
-      <c r="B92" s="213"/>
-      <c r="C92" s="191"/>
-      <c r="D92" s="187"/>
-      <c r="E92" s="165"/>
-      <c r="F92" s="165"/>
-      <c r="G92" s="165"/>
-      <c r="H92" s="165"/>
-      <c r="I92" s="165"/>
-      <c r="J92" s="166"/>
+      <c r="B92" s="201"/>
+      <c r="C92" s="203"/>
+      <c r="D92" s="234"/>
+      <c r="E92" s="166"/>
+      <c r="F92" s="166"/>
+      <c r="G92" s="166"/>
+      <c r="H92" s="166"/>
+      <c r="I92" s="166"/>
+      <c r="J92" s="167"/>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="68"/>
-      <c r="B93" s="213"/>
-      <c r="C93" s="191"/>
-      <c r="D93" s="187"/>
-      <c r="E93" s="165"/>
-      <c r="F93" s="165"/>
-      <c r="G93" s="165"/>
-      <c r="H93" s="165"/>
-      <c r="I93" s="165"/>
-      <c r="J93" s="166"/>
+      <c r="B93" s="201"/>
+      <c r="C93" s="203"/>
+      <c r="D93" s="234"/>
+      <c r="E93" s="166"/>
+      <c r="F93" s="166"/>
+      <c r="G93" s="166"/>
+      <c r="H93" s="166"/>
+      <c r="I93" s="166"/>
+      <c r="J93" s="167"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="180"/>
-      <c r="B94" s="304"/>
-      <c r="C94" s="304"/>
-      <c r="D94" s="304"/>
-      <c r="E94" s="304"/>
-      <c r="F94" s="304"/>
-      <c r="G94" s="304"/>
-      <c r="H94" s="304"/>
-      <c r="I94" s="304"/>
-      <c r="J94" s="305"/>
+      <c r="A94" s="237"/>
+      <c r="B94" s="273"/>
+      <c r="C94" s="273"/>
+      <c r="D94" s="273"/>
+      <c r="E94" s="273"/>
+      <c r="F94" s="273"/>
+      <c r="G94" s="273"/>
+      <c r="H94" s="273"/>
+      <c r="I94" s="273"/>
+      <c r="J94" s="274"/>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="68"/>
-      <c r="B95" s="213"/>
-      <c r="C95" s="191"/>
-      <c r="D95" s="187"/>
-      <c r="E95" s="165"/>
-      <c r="F95" s="165"/>
-      <c r="G95" s="165"/>
-      <c r="H95" s="165"/>
-      <c r="I95" s="165"/>
-      <c r="J95" s="166"/>
+      <c r="B95" s="201"/>
+      <c r="C95" s="203"/>
+      <c r="D95" s="234"/>
+      <c r="E95" s="166"/>
+      <c r="F95" s="166"/>
+      <c r="G95" s="166"/>
+      <c r="H95" s="166"/>
+      <c r="I95" s="166"/>
+      <c r="J95" s="167"/>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="71" t="s">
@@ -12435,14 +12435,14 @@
       <c r="B97" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C97" s="213"/>
-      <c r="D97" s="165"/>
-      <c r="E97" s="165"/>
-      <c r="F97" s="165"/>
-      <c r="G97" s="165"/>
-      <c r="H97" s="165"/>
-      <c r="I97" s="165"/>
-      <c r="J97" s="166"/>
+      <c r="C97" s="201"/>
+      <c r="D97" s="166"/>
+      <c r="E97" s="166"/>
+      <c r="F97" s="166"/>
+      <c r="G97" s="166"/>
+      <c r="H97" s="166"/>
+      <c r="I97" s="166"/>
+      <c r="J97" s="167"/>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="68">
@@ -12451,101 +12451,17 @@
       <c r="B98" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="219"/>
-      <c r="D98" s="219"/>
-      <c r="E98" s="219"/>
-      <c r="F98" s="219"/>
-      <c r="G98" s="219"/>
-      <c r="H98" s="219"/>
-      <c r="I98" s="219"/>
-      <c r="J98" s="219"/>
+      <c r="C98" s="216"/>
+      <c r="D98" s="216"/>
+      <c r="E98" s="216"/>
+      <c r="F98" s="216"/>
+      <c r="G98" s="216"/>
+      <c r="H98" s="216"/>
+      <c r="I98" s="216"/>
+      <c r="J98" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:J95"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:J90"/>
-    <mergeCell ref="A89:J89"/>
-    <mergeCell ref="E81:J81"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:J92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:J93"/>
-    <mergeCell ref="A94:J94"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C40:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="E73:J73"/>
-    <mergeCell ref="E74:J74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="E76:J76"/>
-    <mergeCell ref="E77:J77"/>
     <mergeCell ref="A83:A85"/>
     <mergeCell ref="B83:B85"/>
     <mergeCell ref="A86:A87"/>
@@ -12560,6 +12476,90 @@
     <mergeCell ref="E87:J87"/>
     <mergeCell ref="E85:J85"/>
     <mergeCell ref="E84:J84"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="E76:J76"/>
+    <mergeCell ref="E77:J77"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C40:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:J92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:J93"/>
+    <mergeCell ref="A94:J94"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:J95"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:J90"/>
+    <mergeCell ref="A89:J89"/>
+    <mergeCell ref="E81:J81"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C55:J55"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -12612,7 +12612,7 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="220" t="s">
+      <c r="K1" s="217" t="s">
         <v>47</v>
       </c>
       <c r="L1" s="40"/>
@@ -12639,7 +12639,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="221"/>
+      <c r="K2" s="218"/>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
@@ -12657,7 +12657,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="221"/>
+      <c r="K3" s="218"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -12780,7 +12780,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="265" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B10" s="306"/>
       <c r="C10" s="306"/>
@@ -12829,29 +12829,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="104" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C12" s="104" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E12" s="122" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F12" s="123" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="G12" s="91" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H12" s="104"/>
       <c r="I12" s="44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J12" s="47" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -12862,26 +12862,26 @@
         <v>49</v>
       </c>
       <c r="C13" s="104" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D13" s="46" t="s">
         <v>97</v>
       </c>
       <c r="E13" s="122" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F13" s="123" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="G13" s="91" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="H13" s="104"/>
       <c r="I13" s="44" t="s">
         <v>76</v>
       </c>
       <c r="J13" s="121" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -12889,29 +12889,29 @@
         <v>3</v>
       </c>
       <c r="B14" s="104" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D14" s="46" t="s">
         <v>96</v>
       </c>
       <c r="E14" s="122" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F14" s="123" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="G14" s="91" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H14" s="104"/>
       <c r="I14" s="44" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="J14" s="121" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -12919,7 +12919,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="104" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C15" s="104" t="s">
         <v>132</v>
@@ -12928,7 +12928,7 @@
         <v>97</v>
       </c>
       <c r="E15" s="122" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F15" s="123" t="s">
         <v>169</v>
@@ -12947,29 +12947,29 @@
         <v>5</v>
       </c>
       <c r="B16" s="115" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C16" s="104" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E16" s="122" t="s">
+        <v>359</v>
+      </c>
+      <c r="F16" s="123" t="s">
+        <v>360</v>
+      </c>
+      <c r="G16" s="91" t="s">
         <v>367</v>
-      </c>
-      <c r="F16" s="123" t="s">
-        <v>368</v>
-      </c>
-      <c r="G16" s="91" t="s">
-        <v>375</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="44" t="s">
         <v>76</v>
       </c>
       <c r="J16" s="121" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12977,19 +12977,19 @@
         <v>6</v>
       </c>
       <c r="B17" s="104" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C17" s="104" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D17" s="46" t="s">
         <v>173</v>
       </c>
       <c r="E17" s="122" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F17" s="93" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G17" s="93" t="s">
         <v>171</v>
@@ -13005,29 +13005,29 @@
         <v>7</v>
       </c>
       <c r="B18" s="104" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C18" s="104" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E18" s="122" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F18" s="123" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G18" s="91" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="44" t="s">
         <v>76</v>
       </c>
       <c r="J18" s="121" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13044,13 +13044,13 @@
         <v>172</v>
       </c>
       <c r="E19" s="122" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F19" s="123" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G19" s="93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="44" t="s">
@@ -13066,16 +13066,16 @@
         <v>116</v>
       </c>
       <c r="C20" s="104" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D20" s="46" t="s">
         <v>96</v>
       </c>
       <c r="E20" s="122" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F20" s="123" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G20" s="91" t="s">
         <v>168</v>
@@ -13085,7 +13085,7 @@
         <v>76</v>
       </c>
       <c r="J20" s="121" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -13102,10 +13102,10 @@
         <v>174</v>
       </c>
       <c r="E21" s="122" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F21" s="123" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G21" s="91" t="s">
         <v>168</v>
@@ -13162,7 +13162,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="265" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B24" s="266"/>
       <c r="C24" s="266"/>
@@ -13211,29 +13211,29 @@
         <v>1</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E26" s="89" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F26" s="92" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G26" s="91" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H26" s="46"/>
       <c r="I26" s="44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J26" s="152" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -13244,16 +13244,16 @@
         <v>115</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D27" s="46" t="s">
         <v>97</v>
       </c>
       <c r="E27" s="89" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F27" s="92" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G27" s="91" t="s">
         <v>170</v>
@@ -13272,16 +13272,16 @@
         <v>129</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E28" s="89" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F28" s="93" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G28" s="91" t="s">
         <v>168</v>
@@ -13297,29 +13297,29 @@
         <v>4</v>
       </c>
       <c r="B29" s="104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C29" s="104" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E29" s="122" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F29" s="123" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G29" s="93" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H29" s="50"/>
       <c r="I29" s="44" t="s">
         <v>136</v>
       </c>
       <c r="J29" s="154" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -13330,19 +13330,19 @@
         <v>133</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E30" s="89" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F30" s="92" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G30" s="93" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H30" s="50"/>
       <c r="I30" s="44" t="s">
@@ -13352,7 +13352,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="265" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B32" s="266"/>
       <c r="C32" s="266"/>
@@ -13401,29 +13401,29 @@
         <v>1</v>
       </c>
       <c r="B34" s="104" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C34" s="104" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E34" s="122" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F34" s="123" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G34" s="91" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H34" s="46"/>
       <c r="I34" s="44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J34" s="121" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -13434,16 +13434,16 @@
         <v>115</v>
       </c>
       <c r="C35" s="104" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E35" s="122" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F35" s="123" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G35" s="91" t="s">
         <v>170</v>
@@ -13462,16 +13462,16 @@
         <v>129</v>
       </c>
       <c r="C36" s="104" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E36" s="122" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F36" s="93" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G36" s="91" t="s">
         <v>168</v>
@@ -13487,29 +13487,29 @@
         <v>4</v>
       </c>
       <c r="B37" s="104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C37" s="104" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E37" s="122" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F37" s="123" t="s">
+        <v>219</v>
+      </c>
+      <c r="G37" s="93" t="s">
         <v>221</v>
-      </c>
-      <c r="G37" s="93" t="s">
-        <v>223</v>
       </c>
       <c r="H37" s="104"/>
       <c r="I37" s="44" t="s">
         <v>76</v>
       </c>
       <c r="J37" s="121" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -13520,19 +13520,19 @@
         <v>133</v>
       </c>
       <c r="C38" s="104" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D38" s="46" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E38" s="122" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F38" s="123" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G38" s="93" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H38" s="104"/>
       <c r="I38" s="44" t="s">
@@ -13545,19 +13545,19 @@
         <v>6</v>
       </c>
       <c r="B39" s="104" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C39" s="104" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D39" s="46" t="s">
         <v>173</v>
       </c>
       <c r="E39" s="122" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F39" s="123" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G39" s="93" t="s">
         <v>171</v>
@@ -13567,12 +13567,12 @@
         <v>76</v>
       </c>
       <c r="J39" s="121" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="265" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B41" s="266"/>
       <c r="C41" s="266"/>
@@ -13621,19 +13621,19 @@
         <v>1</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D43" s="46" t="s">
         <v>97</v>
       </c>
       <c r="E43" s="89" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F43" s="92" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G43" s="91" t="s">
         <v>170</v>
@@ -13649,22 +13649,22 @@
         <v>2</v>
       </c>
       <c r="B44" s="115" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C44" s="104" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D44" s="46" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E44" s="122" t="s">
+        <v>359</v>
+      </c>
+      <c r="F44" s="123" t="s">
+        <v>360</v>
+      </c>
+      <c r="G44" s="91" t="s">
         <v>367</v>
-      </c>
-      <c r="F44" s="123" t="s">
-        <v>368</v>
-      </c>
-      <c r="G44" s="91" t="s">
-        <v>375</v>
       </c>
       <c r="H44" s="46"/>
       <c r="I44" s="44" t="s">
@@ -13677,13 +13677,13 @@
         <v>3</v>
       </c>
       <c r="B45" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="C45" s="104" t="s">
+        <v>371</v>
+      </c>
+      <c r="D45" s="46" t="s">
         <v>372</v>
-      </c>
-      <c r="C45" s="104" t="s">
-        <v>379</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>380</v>
       </c>
       <c r="E45" s="122"/>
       <c r="F45" s="93"/>
@@ -13693,7 +13693,7 @@
         <v>76</v>
       </c>
       <c r="J45" s="121" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -13710,7 +13710,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="265" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B48" s="266"/>
       <c r="C48" s="266"/>
@@ -13759,29 +13759,29 @@
         <v>1</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C50" s="50" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D50" s="46" t="s">
         <v>97</v>
       </c>
       <c r="E50" s="89" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F50" s="92" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G50" s="91" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="H50" s="50"/>
       <c r="I50" s="44" t="s">
         <v>75</v>
       </c>
       <c r="J50" s="121" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -13789,29 +13789,29 @@
         <v>2</v>
       </c>
       <c r="B51" s="115" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C51" s="104" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D51" s="46" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E51" s="122" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F51" s="123" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G51" s="91" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H51" s="46"/>
       <c r="I51" s="44" t="s">
         <v>75</v>
       </c>
       <c r="J51" s="121" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="33">
@@ -13819,13 +13819,13 @@
         <v>3</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C52" s="104" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D52" s="46" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E52" s="122"/>
       <c r="F52" s="93"/>
@@ -13835,7 +13835,7 @@
         <v>76</v>
       </c>
       <c r="J52" s="121" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -13852,7 +13852,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="265" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B55" s="266"/>
       <c r="C55" s="266"/>
@@ -13901,22 +13901,22 @@
         <v>1</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C57" s="50" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D57" s="46" t="s">
         <v>97</v>
       </c>
       <c r="E57" s="89" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F57" s="91" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="G57" s="91" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="H57" s="50"/>
       <c r="I57" s="44" t="s">
@@ -13929,22 +13929,22 @@
         <v>2</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C58" s="104" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D58" s="46" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E58" s="122" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F58" s="91" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G58" s="91" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H58" s="46"/>
       <c r="I58" s="44" t="s">
@@ -13957,13 +13957,13 @@
         <v>3</v>
       </c>
       <c r="B59" s="104" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C59" s="104" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D59" s="46" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E59" s="122"/>
       <c r="F59" s="93"/>
@@ -13973,7 +13973,7 @@
         <v>76</v>
       </c>
       <c r="J59" s="121" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="1:10">
